--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A378DB6E-DACF-4F2F-9393-2FFAEEF886A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF9672-5E81-4632-823E-7F849D83BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!Chart1" sheetId="6" r:id="rId1"/>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="154">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1362,72 +1362,107 @@
     <t>자신을 제외한 가장 가까운 아군 선택</t>
   </si>
   <si>
+    <t>스킬 사용처(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아</t>
+  </si>
+  <si>
+    <t>attack 01</t>
+  </si>
+  <si>
+    <t>attack 02</t>
+  </si>
+  <si>
+    <t>attack 03</t>
+  </si>
+  <si>
+    <t>attack 04</t>
+  </si>
+  <si>
+    <t>스킬 설명 4</t>
+  </si>
+  <si>
+    <t>attack 05</t>
+  </si>
+  <si>
+    <t>스킬 설명 5</t>
+  </si>
+  <si>
+    <t>attack 06</t>
+  </si>
+  <si>
+    <t>스킬 설명 6</t>
+  </si>
+  <si>
+    <t>attack 07</t>
+  </si>
+  <si>
+    <t>스킬 설명 7</t>
+  </si>
+  <si>
+    <t>attack 08</t>
+  </si>
+  <si>
+    <t>스킬 설명 8</t>
+  </si>
+  <si>
+    <t>1_attack_1</t>
+  </si>
+  <si>
+    <t>1_attack_2</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나/타겟/나/피해감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나/타겟/근접공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나/타겟/원거리공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-  </si>
-  <si>
-    <t>스킬 사용처(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아</t>
-  </si>
-  <si>
-    <t>attack 01</t>
-  </si>
-  <si>
-    <t>스킬 설명 1</t>
-  </si>
-  <si>
-    <t>attack 02</t>
-  </si>
-  <si>
-    <t>스킬 설명 2</t>
-  </si>
-  <si>
-    <t>attack 03</t>
-  </si>
-  <si>
-    <t>attack 04</t>
-  </si>
-  <si>
-    <t>스킬 설명 4</t>
-  </si>
-  <si>
-    <t>attack 05</t>
-  </si>
-  <si>
-    <t>스킬 설명 5</t>
-  </si>
-  <si>
-    <t>attack 06</t>
-  </si>
-  <si>
-    <t>스킬 설명 6</t>
-  </si>
-  <si>
-    <t>attack 07</t>
-  </si>
-  <si>
-    <t>스킬 설명 7</t>
-  </si>
-  <si>
-    <t>attack 08</t>
-  </si>
-  <si>
-    <t>스킬 설명 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1_attack_1</t>
-  </si>
-  <si>
-    <t>1_attack_2</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,7 +1560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1548,13 +1583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,6 +1630,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4216,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5885,10 +5934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5897,7 +5946,7 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5911,7 +5960,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -5951,7 +6000,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -5968,53 +6017,53 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>200001</v>
+        <v>900001</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>200002</v>
+        <v>900002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>200003</v>
+        <v>900003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -6023,107 +6072,261 @@
         <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>200004</v>
+        <v>900004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4">
         <v>2.5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>200005</v>
+        <v>900005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>200006</v>
+        <v>900006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4">
         <v>2.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>200007</v>
+        <v>900007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>200008</v>
+        <v>900008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4">
         <v>2.5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>200001</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>144</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>200002</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>200003</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>200004</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>200005</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>200006</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>200007</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>200008</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6134,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6145,13 +6348,14 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="6" max="6" width="66.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="13.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="6" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="6" customWidth="1"/>
     <col min="13" max="14" width="13.125" style="6" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
@@ -6325,13 +6529,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>200001</v>
+        <v>900001</v>
       </c>
       <c r="B5" s="4">
-        <v>200001</v>
+        <v>900001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -6340,7 +6544,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -6376,13 +6580,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>200002</v>
+        <v>900002</v>
       </c>
       <c r="B6" s="4">
-        <v>200002</v>
+        <v>900002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -6427,10 +6631,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>200003</v>
+        <v>900003</v>
       </c>
       <c r="B7" s="4">
-        <v>200003</v>
+        <v>900003</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>108</v>
@@ -6478,10 +6682,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>200004</v>
+        <v>900004</v>
       </c>
       <c r="B8" s="4">
-        <v>200004</v>
+        <v>900004</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>108</v>
@@ -6529,10 +6733,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>200005</v>
+        <v>900005</v>
       </c>
       <c r="B9" s="4">
-        <v>200004</v>
+        <v>900004</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>111</v>
@@ -6580,10 +6784,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>200006</v>
+        <v>900006</v>
       </c>
       <c r="B10" s="4">
-        <v>200005</v>
+        <v>900005</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>108</v>
@@ -6631,10 +6835,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>200007</v>
+        <v>900007</v>
       </c>
       <c r="B11" s="4">
-        <v>200006</v>
+        <v>900006</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>115</v>
@@ -6682,10 +6886,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>200008</v>
+        <v>900008</v>
       </c>
       <c r="B12" s="4">
-        <v>200006</v>
+        <v>900006</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>116</v>
@@ -6733,10 +6937,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>200009</v>
+        <v>900009</v>
       </c>
       <c r="B13" s="4">
-        <v>200007</v>
+        <v>900007</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>118</v>
@@ -6786,10 +6990,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>200010</v>
+        <v>900010</v>
       </c>
       <c r="B14" s="4">
-        <v>200008</v>
+        <v>900008</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>122</v>
@@ -6831,7 +7035,7 @@
         <v>113</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="4">
         <v>1</v>
@@ -6839,10 +7043,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>200011</v>
+        <v>900011</v>
       </c>
       <c r="B15" s="4">
-        <v>200008</v>
+        <v>900008</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>111</v>
@@ -6854,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -6887,6 +7091,329 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>200001</v>
+      </c>
+      <c r="B16" s="4">
+        <v>200001</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>100</v>
+      </c>
+      <c r="M16" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>200002</v>
+      </c>
+      <c r="B17" s="4">
+        <v>200002</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>200003</v>
+      </c>
+      <c r="B18" s="4">
+        <v>200003</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>100</v>
+      </c>
+      <c r="M18" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>200004</v>
+      </c>
+      <c r="B19" s="4">
+        <v>200004</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>100</v>
+      </c>
+      <c r="M19" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>200005</v>
+      </c>
+      <c r="B20" s="4">
+        <v>200005</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>200006</v>
+      </c>
+      <c r="B21" s="4">
+        <v>200006</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>100</v>
+      </c>
+      <c r="M21" s="7">
+        <v>100001</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6899,7 +7426,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$B$3:$B$76</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E15</xm:sqref>
+          <xm:sqref>E5:E20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E16F195-2059-40F0-A72D-7CBE025F759E}">
           <x14:formula1>
@@ -6911,7 +7438,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I15</xm:sqref>
+          <xm:sqref>I5:I21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6924,7 +7451,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7215,7 +7742,7 @@
         <v>0.05</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
@@ -7256,7 +7783,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF9672-5E81-4632-823E-7F849D83BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830960F0-7932-4CDD-866F-B5F6D95F8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Chart1" sheetId="6" r:id="rId1"/>
-    <sheet name="!참조_ENUM" sheetId="1" r:id="rId2"/>
-    <sheet name="npc_skill_group" sheetId="5" r:id="rId3"/>
-    <sheet name="npc_skill_data" sheetId="3" r:id="rId4"/>
-    <sheet name="npc_skill_onetime" sheetId="7" r:id="rId5"/>
-    <sheet name="npc_skill_duration" sheetId="8" r:id="rId6"/>
+    <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
+    <sheet name="npc_skill_group" sheetId="5" r:id="rId2"/>
+    <sheet name="npc_skill_data" sheetId="3" r:id="rId3"/>
+    <sheet name="npc_skill_onetime" sheetId="7" r:id="rId4"/>
+    <sheet name="npc_skill_duration" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1649,897 +1648,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'!참조_ENUM'!$E$13:$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>DAMAGE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>900</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'!참조_ENUM'!$G$1:$G$12</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>comment</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NONE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>공격력을 기준으로 절대값 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>공격력을 기준으로 배율 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>방어력을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>최대 체력을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>현재 체력을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>크리티컬 확률을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>명중률을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>회피율을 기준으로 계산을 하기 위한 수치</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'!참조_ENUM'!$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7AC5-4549-951F-CFFD4A590E31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="48903472"/>
-        <c:axId val="56087472"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="48903472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56087472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56087472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48903472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C50C6C0-7976-43CF-9434-08427CFA5815}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303111" cy="6072187"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A500DFA-D383-0B4A-1009-619595616B63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6339,7 +5447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -7782,7 +6890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830960F0-7932-4CDD-866F-B5F6D95F8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B857FEA-D5DD-4B4E-B938-73BCD2A1B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -6891,7 +6891,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B857FEA-D5DD-4B4E-B938-73BCD2A1B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCA2CB-ECBA-40A6-AB0E-4EFEC331CFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1784,727 +1784,738 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B12">
-            <v>1001</v>
+            <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>리더 선택</v>
+            <v>가장 가까운 상대 팀원 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>LEADER_HIGH_PRIORITY</v>
           </cell>
           <cell r="B13">
-            <v>2001</v>
+            <v>1001</v>
           </cell>
           <cell r="C13" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>리더 선택</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>HIGHEST_LIFE_VALUE</v>
           </cell>
           <cell r="B14">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="C14" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>HIGHEST_ATTACK</v>
+            <v>HIGHEST_LIFE_RATE</v>
           </cell>
           <cell r="B15">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="C15" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
+            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HIGHEST_DEFENSE</v>
+            <v>HIGHEST_ATTACK</v>
           </cell>
           <cell r="B16">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="C16" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
+            <v>공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>HIGHEST_DEFENSE</v>
           </cell>
           <cell r="B17">
-            <v>2006</v>
+            <v>2004</v>
           </cell>
           <cell r="C17" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>HIGHEST_ACCURACY</v>
           </cell>
           <cell r="B18">
-            <v>2007</v>
+            <v>2006</v>
           </cell>
           <cell r="C18" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGHEST_EVASION</v>
           </cell>
           <cell r="B19">
-            <v>2008</v>
+            <v>2007</v>
           </cell>
           <cell r="C19" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B20">
-            <v>2009</v>
+            <v>2008</v>
           </cell>
           <cell r="C20" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B21">
-            <v>2010</v>
+            <v>2009</v>
           </cell>
           <cell r="C21" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B22">
-            <v>2011</v>
+            <v>2010</v>
           </cell>
           <cell r="C22" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B23">
-            <v>2012</v>
+            <v>2011</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B24">
-            <v>2013</v>
+            <v>2012</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B25">
-            <v>2014</v>
+            <v>2013</v>
           </cell>
           <cell r="C25" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B26">
-            <v>2015</v>
+            <v>2014</v>
           </cell>
           <cell r="C26" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B27">
-            <v>2016</v>
+            <v>2015</v>
           </cell>
           <cell r="C27" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B28">
-            <v>2017</v>
+            <v>2016</v>
           </cell>
           <cell r="C28" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B29">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="C29" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B30">
-            <v>2019</v>
+            <v>2018</v>
           </cell>
           <cell r="C30" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B31">
-            <v>2020</v>
+            <v>2019</v>
           </cell>
           <cell r="C31" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B32">
-            <v>3001</v>
+            <v>2020</v>
           </cell>
           <cell r="C32" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>LOWEST_LIFE_VALUE</v>
           </cell>
           <cell r="B33">
-            <v>3002</v>
+            <v>3001</v>
           </cell>
           <cell r="C33" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>LOWEST_LIFE_RATE</v>
           </cell>
           <cell r="B34">
-            <v>3003</v>
+            <v>3002</v>
           </cell>
           <cell r="C34" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>LOWEST_ATTACK</v>
           </cell>
           <cell r="B35">
-            <v>3004</v>
+            <v>3003</v>
           </cell>
           <cell r="C35" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+            <v>LOWEST_DEFENSE</v>
           </cell>
           <cell r="B36">
-            <v>3005</v>
+            <v>3004</v>
           </cell>
           <cell r="C36" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
+            <v>방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LOWEST_ACCURACY</v>
+            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
           </cell>
           <cell r="B37">
-            <v>3006</v>
+            <v>3005</v>
           </cell>
           <cell r="C37" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
+            <v>속도게이지가 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LOWEST_EVASION</v>
+            <v>LOWEST_ACCURACY</v>
           </cell>
           <cell r="B38">
-            <v>3007</v>
+            <v>3006</v>
           </cell>
           <cell r="C38" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
+            <v>명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+            <v>LOWEST_EVASION</v>
           </cell>
           <cell r="B39">
-            <v>3008</v>
+            <v>3007</v>
           </cell>
           <cell r="C39" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
+            <v>LOWEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B40">
-            <v>3009</v>
+            <v>3008</v>
           </cell>
           <cell r="C40" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+            <v>LOWEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B41">
-            <v>3010</v>
+            <v>3009</v>
           </cell>
           <cell r="C41" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B42">
-            <v>3011</v>
+            <v>3010</v>
           </cell>
           <cell r="C42" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+            <v>LOWEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B43">
-            <v>3012</v>
+            <v>3011</v>
           </cell>
           <cell r="C43" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+            <v>LOWEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B44">
-            <v>3013</v>
+            <v>3012</v>
           </cell>
           <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B45">
-            <v>3014</v>
+            <v>3013</v>
           </cell>
           <cell r="C45" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B46">
-            <v>3015</v>
+            <v>3014</v>
           </cell>
           <cell r="C46" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B47">
-            <v>3016</v>
+            <v>3015</v>
           </cell>
           <cell r="C47" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+            <v>LOWEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B48">
-            <v>3017</v>
+            <v>3016</v>
           </cell>
           <cell r="C48" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B49">
-            <v>3018</v>
+            <v>3017</v>
           </cell>
           <cell r="C49" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B50">
-            <v>3019</v>
+            <v>3018</v>
           </cell>
           <cell r="C50" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
+            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B51">
-            <v>3020</v>
+            <v>3019</v>
           </cell>
           <cell r="C51" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+            <v>LOWEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B52">
-            <v>3021</v>
+            <v>3020</v>
           </cell>
           <cell r="C52" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
           </cell>
           <cell r="B53">
-            <v>3022</v>
+            <v>3021</v>
           </cell>
           <cell r="C53" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
+            <v>LOWEST_LIFE_RATE_WITH_ME</v>
           </cell>
           <cell r="B54">
-            <v>3023</v>
+            <v>3022</v>
           </cell>
           <cell r="C54" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
+            <v>LOWEST_ATTACK_WITH_ME</v>
           </cell>
           <cell r="B55">
-            <v>3024</v>
+            <v>3023</v>
           </cell>
           <cell r="C55" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
+            <v>LOWEST_DEFENSE_WITH_ME</v>
           </cell>
           <cell r="B56">
-            <v>3025</v>
+            <v>3024</v>
           </cell>
           <cell r="C56" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
+            <v>LOWEST_RAPIDITY_WITH_ME</v>
           </cell>
           <cell r="B57">
-            <v>3026</v>
+            <v>3025</v>
           </cell>
           <cell r="C57" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
+            <v>LOWEST_ACCURACY_WITH_ME</v>
           </cell>
           <cell r="B58">
-            <v>3027</v>
+            <v>3026</v>
           </cell>
           <cell r="C58" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>WEAK_ELEMENT</v>
+            <v>LOWEST_EVASION_WITH_ME</v>
           </cell>
           <cell r="B59">
-            <v>4001</v>
+            <v>3027</v>
           </cell>
           <cell r="C59" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>STRONG_ELEMENT</v>
+            <v>WEAK_ELEMENT</v>
           </cell>
           <cell r="B60">
-            <v>4002</v>
+            <v>4001</v>
           </cell>
           <cell r="C60" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>GAIN_BUFF_DURATION</v>
+            <v>STRONG_ELEMENT</v>
           </cell>
           <cell r="B61">
-            <v>5001</v>
+            <v>4002</v>
           </cell>
           <cell r="C61" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
+            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+            <v>GAIN_BUFF_DURATION</v>
           </cell>
           <cell r="B62">
-            <v>5002</v>
+            <v>5001</v>
           </cell>
           <cell r="C62" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
           </cell>
           <cell r="B63">
-            <v>5003</v>
+            <v>5002</v>
           </cell>
           <cell r="C63" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
           </cell>
           <cell r="B64">
-            <v>5004</v>
+            <v>5003</v>
           </cell>
           <cell r="C64" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
           </cell>
           <cell r="B65">
-            <v>5005</v>
+            <v>5004</v>
           </cell>
           <cell r="C65" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
           </cell>
           <cell r="B66">
-            <v>5006</v>
+            <v>5005</v>
           </cell>
           <cell r="C66" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
           </cell>
           <cell r="B67">
-            <v>5007</v>
+            <v>5006</v>
           </cell>
           <cell r="C67" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
           </cell>
           <cell r="B68">
-            <v>6001</v>
+            <v>5007</v>
           </cell>
           <cell r="C68" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+            <v>GAIN_DEBUFF_DURATION</v>
           </cell>
           <cell r="B69">
-            <v>6002</v>
+            <v>6001</v>
           </cell>
           <cell r="C69" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
           </cell>
           <cell r="B70">
-            <v>6003</v>
+            <v>6002</v>
           </cell>
           <cell r="C70" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
+            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
           </cell>
           <cell r="B71">
-            <v>6004</v>
+            <v>6003</v>
           </cell>
           <cell r="C71" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+            <v>GAIN_DEBUFF_DURATION_BURN</v>
           </cell>
           <cell r="B72">
-            <v>6005</v>
+            <v>6004</v>
           </cell>
           <cell r="C72" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
+            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
           </cell>
           <cell r="B73">
-            <v>6006</v>
+            <v>6005</v>
           </cell>
           <cell r="C73" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_POISON</v>
           </cell>
           <cell r="B74">
-            <v>6007</v>
+            <v>6006</v>
           </cell>
           <cell r="C74" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
           </cell>
           <cell r="B75">
-            <v>6008</v>
+            <v>6007</v>
           </cell>
           <cell r="C75" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
           </cell>
           <cell r="B76">
-            <v>6009</v>
+            <v>6008</v>
           </cell>
           <cell r="C76" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
+            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+          </cell>
+          <cell r="B77">
+            <v>6009</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
             <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
           </cell>
-          <cell r="B77">
+          <cell r="B78">
             <v>6010</v>
           </cell>
-          <cell r="C77" t="str">
+          <cell r="C78" t="str">
             <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
@@ -3371,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4077,15 +4088,15 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>APPROACH</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@target_rule'!$B12</f>
-        <v>1001</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>리더 선택</v>
+        <v>가장 가까운 상대 팀원 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -4103,15 +4114,15 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@target_rule'!$B13</f>
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>리더 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -4129,15 +4140,15 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@target_rule'!$B14</f>
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 많은 타겟 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -4155,882 +4166,896 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
-        <v>HIGHEST_ATTACK</v>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@target_rule'!$B15</f>
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
-        <v>HIGHEST_DEFENSE</v>
+        <v>HIGHEST_ATTACK</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@target_rule'!$B16</f>
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>HIGHEST_DEFENSE</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>HIGHEST_EVASION</v>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>HIGHEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>3001</v>
+        <v>2020</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>LOWEST_ATTACK</v>
+        <v>LOWEST_LIFE_RATE</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
-        <v>LOWEST_ACCURACY</v>
+        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
       </c>
       <c r="B36" s="4">
         <f>'[1]@target_rule'!$B37</f>
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
-        <v>LOWEST_EVASION</v>
+        <v>LOWEST_ACCURACY</v>
       </c>
       <c r="B37" s="4">
         <f>'[1]@target_rule'!$B38</f>
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
-        <v>LOWEST_LIFE_VALUE_HUMAN</v>
+        <v>LOWEST_EVASION</v>
       </c>
       <c r="B38" s="4">
         <f>'[1]@target_rule'!$B39</f>
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
-        <v>LOWEST_LIFE_VALUE_ELF</v>
+        <v>LOWEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B39" s="4">
         <f>'[1]@target_rule'!$B40</f>
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
-        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+        <v>LOWEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B40" s="4">
         <f>'[1]@target_rule'!$B41</f>
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
-        <v>LOWEST_LIFE_VALUE_ANDROID</v>
+        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B41" s="4">
         <f>'[1]@target_rule'!$B42</f>
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
-        <v>LOWEST_LIFE_VALUE_DEVIL</v>
+        <v>LOWEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B42" s="4">
         <f>'[1]@target_rule'!$B43</f>
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
-        <v>LOWEST_LIFE_VALUE_ANGEL</v>
+        <v>LOWEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B43" s="4">
         <f>'[1]@target_rule'!$B44</f>
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
-        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B44" s="4">
         <f>'[1]@target_rule'!$B45</f>
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
-        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B45" s="4">
         <f>'[1]@target_rule'!$B46</f>
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
-        <v>LOWEST_ATTACK_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B46" s="4">
         <f>'[1]@target_rule'!$B47</f>
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
-        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+        <v>LOWEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B47" s="4">
         <f>'[1]@target_rule'!$B48</f>
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
-        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B48" s="4">
         <f>'[1]@target_rule'!$B49</f>
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>'[1]@target_rule'!$A50</f>
-        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B49" s="4">
         <f>'[1]@target_rule'!$B50</f>
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>'[1]@target_rule'!$A51</f>
-        <v>LOWEST_EVASION_WITHOUT_ME</v>
+        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B50" s="4">
         <f>'[1]@target_rule'!$B51</f>
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>'[1]@target_rule'!$A52</f>
-        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+        <v>LOWEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B51" s="4">
         <f>'[1]@target_rule'!$B52</f>
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>'[1]@target_rule'!$A53</f>
-        <v>LOWEST_LIFE_RATE_WITH_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
       </c>
       <c r="B52" s="4">
         <f>'[1]@target_rule'!$B53</f>
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>'[1]@target_rule'!$A54</f>
-        <v>LOWEST_ATTACK_WITH_ME</v>
+        <v>LOWEST_LIFE_RATE_WITH_ME</v>
       </c>
       <c r="B53" s="4">
         <f>'[1]@target_rule'!$B54</f>
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>'[1]@target_rule'!$A55</f>
-        <v>LOWEST_DEFENSE_WITH_ME</v>
+        <v>LOWEST_ATTACK_WITH_ME</v>
       </c>
       <c r="B54" s="4">
         <f>'[1]@target_rule'!$B55</f>
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>'[1]@target_rule'!$A56</f>
-        <v>LOWEST_RAPIDITY_WITH_ME</v>
+        <v>LOWEST_DEFENSE_WITH_ME</v>
       </c>
       <c r="B55" s="4">
         <f>'[1]@target_rule'!$B56</f>
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>'[1]@target_rule'!$A57</f>
-        <v>LOWEST_ACCURACY_WITH_ME</v>
+        <v>LOWEST_RAPIDITY_WITH_ME</v>
       </c>
       <c r="B56" s="4">
         <f>'[1]@target_rule'!$B57</f>
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>'[1]@target_rule'!$A58</f>
-        <v>LOWEST_EVASION_WITH_ME</v>
+        <v>LOWEST_ACCURACY_WITH_ME</v>
       </c>
       <c r="B57" s="4">
         <f>'[1]@target_rule'!$B58</f>
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>'[1]@target_rule'!$A59</f>
-        <v>WEAK_ELEMENT</v>
+        <v>LOWEST_EVASION_WITH_ME</v>
       </c>
       <c r="B58" s="4">
         <f>'[1]@target_rule'!$B59</f>
-        <v>4001</v>
+        <v>3027</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>'[1]@target_rule'!$A60</f>
-        <v>STRONG_ELEMENT</v>
+        <v>WEAK_ELEMENT</v>
       </c>
       <c r="B59" s="4">
         <f>'[1]@target_rule'!$B60</f>
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>'[1]@target_rule'!$A61</f>
-        <v>GAIN_BUFF_DURATION</v>
+        <v>STRONG_ELEMENT</v>
       </c>
       <c r="B60" s="4">
         <f>'[1]@target_rule'!$B61</f>
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>'[1]@target_rule'!$A62</f>
-        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+        <v>GAIN_BUFF_DURATION</v>
       </c>
       <c r="B61" s="4">
         <f>'[1]@target_rule'!$B62</f>
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>'[1]@target_rule'!$A63</f>
-        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
       </c>
       <c r="B62" s="4">
         <f>'[1]@target_rule'!$B63</f>
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>'[1]@target_rule'!$A64</f>
-        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
       </c>
       <c r="B63" s="4">
         <f>'[1]@target_rule'!$B64</f>
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>'[1]@target_rule'!$A65</f>
-        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
       </c>
       <c r="B64" s="4">
         <f>'[1]@target_rule'!$B65</f>
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f>'[1]@target_rule'!$A66</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
       </c>
       <c r="B65" s="4">
         <f>'[1]@target_rule'!$B66</f>
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f>'[1]@target_rule'!$A67</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
       </c>
       <c r="B66" s="4">
         <f>'[1]@target_rule'!$B67</f>
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f>'[1]@target_rule'!$A68</f>
-        <v>GAIN_DEBUFF_DURATION</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
       </c>
       <c r="B67" s="4">
         <f>'[1]@target_rule'!$B68</f>
-        <v>6001</v>
+        <v>5007</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f>'[1]@target_rule'!$A69</f>
-        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+        <v>GAIN_DEBUFF_DURATION</v>
       </c>
       <c r="B68" s="4">
         <f>'[1]@target_rule'!$B69</f>
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f>'[1]@target_rule'!$A70</f>
-        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
       </c>
       <c r="B69" s="4">
         <f>'[1]@target_rule'!$B70</f>
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f>'[1]@target_rule'!$A71</f>
-        <v>GAIN_DEBUFF_DURATION_BURN</v>
+        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
       </c>
       <c r="B70" s="4">
         <f>'[1]@target_rule'!$B71</f>
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f>'[1]@target_rule'!$A72</f>
-        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+        <v>GAIN_DEBUFF_DURATION_BURN</v>
       </c>
       <c r="B71" s="4">
         <f>'[1]@target_rule'!$B72</f>
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f>'[1]@target_rule'!$A73</f>
-        <v>GAIN_DEBUFF_DURATION_POISON</v>
+        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
       </c>
       <c r="B72" s="4">
         <f>'[1]@target_rule'!$B73</f>
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f>'[1]@target_rule'!$A74</f>
-        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_POISON</v>
       </c>
       <c r="B73" s="4">
         <f>'[1]@target_rule'!$B74</f>
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f>'[1]@target_rule'!$A75</f>
-        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
       </c>
       <c r="B74" s="4">
         <f>'[1]@target_rule'!$B75</f>
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f>'[1]@target_rule'!$A76</f>
-        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
       </c>
       <c r="B75" s="4">
         <f>'[1]@target_rule'!$B76</f>
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f>'[1]@target_rule'!$A77</f>
-        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
       </c>
       <c r="B76" s="4">
         <f>'[1]@target_rule'!$B77</f>
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
+        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="str">
+        <f>'[1]@target_rule'!$A78</f>
+        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+      </c>
+      <c r="B77" s="4">
+        <f>'[1]@target_rule'!$B78</f>
+        <v>6010</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f>'[1]@target_rule'!$C78</f>
         <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
@@ -5448,7 +5473,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6530,12 +6555,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$76</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E20</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E16F195-2059-40F0-A72D-7CBE025F759E}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -6547,6 +6566,12 @@
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
           <xm:sqref>I5:I21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6890,7 +6915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FCA2CB-ECBA-40A6-AB0E-4EFEC331CFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E683F58-D5A9-45F2-B741-272DBC9064F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1054,9 +1054,6 @@
     <t>skill_use_delay</t>
   </si>
   <si>
-    <t>스킬 설명 3</t>
-  </si>
-  <si>
     <t>일회성 스킬 효과 인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1276,9 +1273,6 @@
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Poison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1313,156 +1307,75 @@
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
   </si>
   <si>
-    <t>나/범위/근접공격/데미지</t>
-  </si>
-  <si>
-    <t>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
-  </si>
-  <si>
     <t>hit</t>
   </si>
   <si>
-    <t>나/타겟/나/피해감소</t>
-  </si>
-  <si>
-    <t>자신 선택</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>50,50</t>
-  </si>
-  <si>
-    <t>나/회복</t>
-  </si>
-  <si>
-    <t>가까운적/중독</t>
-  </si>
-  <si>
-    <t>debuff</t>
-  </si>
-  <si>
-    <t>가까운적/원거리공격/데미지</t>
-  </si>
-  <si>
-    <t>투사체를 타겟의 몸에 던진다</t>
+    <t>스킬 사용처(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 01</t>
+  </si>
+  <si>
+    <t>attack 02</t>
+  </si>
+  <si>
+    <t>attack 03</t>
+  </si>
+  <si>
+    <t>attack 04</t>
+  </si>
+  <si>
+    <t>attack 05</t>
+  </si>
+  <si>
+    <t>attack 06</t>
+  </si>
+  <si>
+    <t>attack 07</t>
+  </si>
+  <si>
+    <t>attack 08</t>
+  </si>
+  <si>
+    <t>1_attack_1</t>
+  </si>
+  <si>
+    <t>1_attack_2</t>
   </si>
   <si>
     <t>shoot</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
-  </si>
-  <si>
-    <t>가까운아군/회복</t>
-  </si>
-  <si>
-    <t>자신을 제외한 가장 가까운 아군 선택</t>
-  </si>
-  <si>
-    <t>스킬 사용처(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아</t>
-  </si>
-  <si>
-    <t>attack 01</t>
-  </si>
-  <si>
-    <t>attack 02</t>
-  </si>
-  <si>
-    <t>attack 03</t>
-  </si>
-  <si>
-    <t>attack 04</t>
-  </si>
-  <si>
-    <t>스킬 설명 4</t>
-  </si>
-  <si>
-    <t>attack 05</t>
-  </si>
-  <si>
-    <t>스킬 설명 5</t>
-  </si>
-  <si>
-    <t>attack 06</t>
-  </si>
-  <si>
-    <t>스킬 설명 6</t>
-  </si>
-  <si>
-    <t>attack 07</t>
-  </si>
-  <si>
-    <t>스킬 설명 7</t>
-  </si>
-  <si>
-    <t>attack 08</t>
-  </si>
-  <si>
-    <t>스킬 설명 8</t>
-  </si>
-  <si>
-    <t>1_attack_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 기준으로 배율 계산을 하기 위한 수치</t>
   </si>
   <si>
     <t>1_attack_2</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/타겟/나/피해감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/타겟/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/타겟/원거리공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적타겟/근접공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적타겟/원거리공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/SkillEffect_Normal_Fireball</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,8 +1471,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1589,8 +1508,185 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1599,7 +1695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,9 +1714,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,7 +1723,166 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,7 +1928,13 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -1784,277 +2042,277 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>APPROACH</v>
+            <v>LOWEST_LIFE_VALUE</v>
           </cell>
           <cell r="B12">
-            <v>8</v>
+            <v>3001</v>
           </cell>
           <cell r="C12" t="str">
-            <v>가장 가까운 상대 팀원 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+            <v>남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>LOWEST_ATTACK</v>
           </cell>
           <cell r="B13">
-            <v>1001</v>
+            <v>3003</v>
           </cell>
           <cell r="C13" t="str">
-            <v>리더 선택</v>
+            <v>공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>LOWEST_DEFENSE</v>
           </cell>
           <cell r="B14">
-            <v>2001</v>
+            <v>3004</v>
           </cell>
           <cell r="C14" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>HIGHEST_ATTACK</v>
           </cell>
           <cell r="B15">
-            <v>2002</v>
+            <v>2003</v>
           </cell>
           <cell r="C15" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HIGHEST_ATTACK</v>
+            <v>HIGHEST_DEFENSE</v>
           </cell>
           <cell r="B16">
-            <v>2003</v>
+            <v>2004</v>
           </cell>
           <cell r="C16" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
+            <v>방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>HIGHEST_DEFENSE</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B17">
-            <v>2004</v>
+            <v>9999</v>
           </cell>
           <cell r="C17" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
+            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>LEADER_HIGH_PRIORITY</v>
           </cell>
           <cell r="B18">
-            <v>2006</v>
+            <v>1001</v>
           </cell>
           <cell r="C18" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>리더 선택</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>HIGHEST_LIFE_VALUE</v>
           </cell>
           <cell r="B19">
-            <v>2007</v>
+            <v>2001</v>
           </cell>
           <cell r="C19" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGHEST_LIFE_RATE</v>
           </cell>
           <cell r="B20">
-            <v>2008</v>
+            <v>2002</v>
           </cell>
           <cell r="C20" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGHEST_ACCURACY</v>
           </cell>
           <cell r="B21">
-            <v>2009</v>
+            <v>2006</v>
           </cell>
           <cell r="C21" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGHEST_EVASION</v>
           </cell>
           <cell r="B22">
-            <v>2010</v>
+            <v>2007</v>
           </cell>
           <cell r="C22" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B23">
-            <v>2011</v>
+            <v>2008</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B24">
-            <v>2012</v>
+            <v>2009</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B25">
-            <v>2013</v>
+            <v>2010</v>
           </cell>
           <cell r="C25" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B26">
-            <v>2014</v>
+            <v>2011</v>
           </cell>
           <cell r="C26" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B27">
-            <v>2015</v>
+            <v>2012</v>
           </cell>
           <cell r="C27" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B28">
-            <v>2016</v>
+            <v>2013</v>
           </cell>
           <cell r="C28" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B29">
-            <v>2017</v>
+            <v>2014</v>
           </cell>
           <cell r="C29" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B30">
-            <v>2018</v>
+            <v>2015</v>
           </cell>
           <cell r="C30" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B31">
-            <v>2019</v>
+            <v>2016</v>
           </cell>
           <cell r="C31" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B32">
-            <v>2020</v>
+            <v>2017</v>
           </cell>
           <cell r="C32" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B33">
-            <v>3001</v>
+            <v>2018</v>
           </cell>
           <cell r="C33" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B34">
-            <v>3002</v>
+            <v>2019</v>
           </cell>
           <cell r="C34" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B35">
-            <v>3003</v>
+            <v>2020</v>
           </cell>
           <cell r="C35" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>LOWEST_LIFE_RATE</v>
           </cell>
           <cell r="B36">
-            <v>3004</v>
+            <v>3002</v>
           </cell>
           <cell r="C36" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
@@ -2908,6 +3166,50 @@
           </cell>
           <cell r="C10" t="str">
             <v>빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>방어력 감소</v>
           </cell>
         </row>
       </sheetData>
@@ -3384,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C77"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3589,15 +3891,15 @@
         <f>'[1]@target_type'!$C4</f>
         <v>아군</v>
       </c>
-      <c r="Q3" s="9" t="str">
+      <c r="Q3" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <f>'[1]@onetime_effect_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="9" t="str">
+      <c r="S3" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C4</f>
         <v>NONE</v>
       </c>
@@ -3687,15 +3989,15 @@
         <f>'[1]@target_type'!$C5</f>
         <v>적군</v>
       </c>
-      <c r="Q4" s="9" t="str">
+      <c r="Q4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A5</f>
         <v>DAMAGE</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <f>'[1]@onetime_effect_type'!$B5</f>
         <v>1</v>
       </c>
-      <c r="S4" s="9" t="str">
+      <c r="S4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C5</f>
         <v>데미지를 준다</v>
       </c>
@@ -3773,15 +4075,15 @@
         <f>'[1]@effect'!$C6</f>
         <v>다음 피해의 데미지를 감소</v>
       </c>
-      <c r="Q5" s="9" t="str">
+      <c r="Q5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A6</f>
         <v>LIFE_RECOVERY</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f>'[1]@onetime_effect_type'!$B6</f>
         <v>2</v>
       </c>
-      <c r="S5" s="9" t="str">
+      <c r="S5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C6</f>
         <v>체력 회복</v>
       </c>
@@ -4072,6 +4374,18 @@
         <f>'[1]@stat'!$C11</f>
         <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U10" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A11</f>
+        <v>ATK_UP</v>
+      </c>
+      <c r="V10" s="4">
+        <f>'[1]@duration_effect_type'!$B11</f>
+        <v>106</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C11</f>
+        <v>공격력 증가</v>
+      </c>
       <c r="AC10" s="4" t="str">
         <f>'[1]@projectile_type'!$A11</f>
         <v>ALL_ROUND</v>
@@ -4088,15 +4402,15 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
-        <v>APPROACH</v>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@target_rule'!$B12</f>
-        <v>8</v>
+        <v>3001</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>가장 가까운 상대 팀원 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>남은 체력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -4110,19 +4424,31 @@
         <f>'[1]@stat'!$C12</f>
         <v>명중률을 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U11" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A12</f>
+        <v>DEF_UP</v>
+      </c>
+      <c r="V11" s="4">
+        <f>'[1]@duration_effect_type'!$B12</f>
+        <v>107</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C12</f>
+        <v>방어력 증가</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@target_rule'!$B13</f>
-        <v>1001</v>
+        <v>3003</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>리더 선택</v>
+        <v>공격력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -4136,19 +4462,31 @@
         <f>'[1]@stat'!$C13</f>
         <v>회피율을 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U12" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A13</f>
+        <v>ATK_DOWN</v>
+      </c>
+      <c r="V12" s="4">
+        <f>'[1]@duration_effect_type'!$B13</f>
+        <v>108</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C13</f>
+        <v>공격력 감소</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@target_rule'!$B14</f>
-        <v>2001</v>
+        <v>3004</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>방어력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -4162,313 +4500,325 @@
         <f>'[1]@stat'!$C14</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U13" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A14</f>
+        <v>DEF_DOWN</v>
+      </c>
+      <c r="V13" s="4">
+        <f>'[1]@duration_effect_type'!$B14</f>
+        <v>109</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C14</f>
+        <v>방어력 감소</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>HIGHEST_ATTACK</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@target_rule'!$B15</f>
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
-        <v>HIGHEST_ATTACK</v>
+        <v>HIGHEST_DEFENSE</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@target_rule'!$B16</f>
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>HIGHEST_DEFENSE</v>
+        <v>APPROACH</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>2004</v>
+        <v>9999</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>2006</v>
+        <v>1001</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>리더 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_EVASION</v>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>3001</v>
+        <v>2018</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>3002</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>LOWEST_ATTACK</v>
+        <v>HIGHEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>3003</v>
+        <v>2020</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>LOWEST_LIFE_RATE</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5067,33 +5417,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -5105,10 +5456,13 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5127,339 +5481,295 @@
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>900001</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="G4" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>200001</v>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f>VLOOKUP(A5,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/근접공격/데미지</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>900002</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="E5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>200002</v>
+      </c>
+      <c r="B6" s="16" t="str">
+        <f>VLOOKUP(A6,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/근접공격/데미지</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="16">
         <v>2.5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>900003</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="E6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>200003</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>VLOOKUP(A7,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/근접공격/데미지</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>900004</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>200004</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f>VLOOKUP(A8,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/근접공격/데미지</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="16">
         <v>2.5</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>900005</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="E8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>200005</v>
+      </c>
+      <c r="B9" s="11" t="str">
+        <f>VLOOKUP(A9,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>900006</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>200006</v>
+      </c>
+      <c r="B10" s="16" t="str">
+        <f>VLOOKUP(A10,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="16">
         <v>2.5</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>900007</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>200007</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f>VLOOKUP(A11,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>900008</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="E11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>200008</v>
+      </c>
+      <c r="B12" s="16" t="str">
+        <f>VLOOKUP(A12,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="16">
         <v>2.5</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>200001</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="E12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>200009</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f>VLOOKUP(A13,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>200002</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="E13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>200010</v>
+      </c>
+      <c r="B14" s="16" t="str">
+        <f>VLOOKUP(A14,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="16">
         <v>2.5</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>200003</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="E14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>200011</v>
+      </c>
+      <c r="B15" s="11" t="str">
+        <f>VLOOKUP(A15,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>200004</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="E15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>200012</v>
+      </c>
+      <c r="B16" s="16" t="str">
+        <f>VLOOKUP(A16,npc_skill_data!$B:$C,2,)</f>
+        <v>적타겟/원거리공격/데미지</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="16">
         <v>2.5</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>200005</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>200006</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>200007</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>200008</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>141</v>
+      <c r="E16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5470,1083 +5780,848 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="13.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="70.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="18" style="31" customWidth="1"/>
+    <col min="6" max="6" width="66.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="31" customWidth="1"/>
+    <col min="13" max="14" width="13.125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="M4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q4" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8" t="s">
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>200001</v>
+      </c>
+      <c r="B5" s="22">
+        <v>200001</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>6</v>
+      </c>
+      <c r="F5" s="44" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <v>100</v>
+      </c>
+      <c r="M5" s="24">
+        <v>100001</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>200002</v>
+      </c>
+      <c r="B6" s="27">
+        <v>200002</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>6</v>
+      </c>
+      <c r="F6" s="45" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>100</v>
+      </c>
+      <c r="M6" s="28">
+        <v>100002</v>
+      </c>
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>200003</v>
+      </c>
+      <c r="B7" s="22">
+        <v>200003</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>6</v>
+      </c>
+      <c r="F7" s="44" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <v>100</v>
+      </c>
+      <c r="M7" s="24">
+        <v>100003</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>200004</v>
+      </c>
+      <c r="B8" s="27">
+        <v>200004</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>6</v>
+      </c>
+      <c r="F8" s="45" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <v>100</v>
+      </c>
+      <c r="M8" s="28">
+        <v>100004</v>
+      </c>
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>200005</v>
+      </c>
+      <c r="B9" s="22">
+        <v>200005</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>6</v>
+      </c>
+      <c r="F9" s="44" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2</v>
+      </c>
+      <c r="J9" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <v>100</v>
+      </c>
+      <c r="M9" s="24">
+        <v>100005</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26">
+        <v>200006</v>
+      </c>
+      <c r="B10" s="27">
+        <v>200006</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>6</v>
+      </c>
+      <c r="F10" s="45" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
+      <c r="J10" s="49" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <v>100</v>
+      </c>
+      <c r="M10" s="28">
+        <v>100006</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>200007</v>
+      </c>
+      <c r="B11" s="22">
+        <v>200007</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>6</v>
+      </c>
+      <c r="F11" s="46" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38">
+        <v>2</v>
+      </c>
+      <c r="J11" s="50" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>100</v>
+      </c>
+      <c r="M11" s="37">
+        <v>100007</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26">
+        <v>200008</v>
+      </c>
+      <c r="B12" s="27">
+        <v>200008</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="41">
+        <v>6</v>
+      </c>
+      <c r="F12" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42">
+        <v>2</v>
+      </c>
+      <c r="J12" s="51" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="41">
+        <v>100</v>
+      </c>
+      <c r="M12" s="41">
+        <v>100008</v>
+      </c>
+      <c r="N12" s="41">
+        <v>0</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>200009</v>
+      </c>
+      <c r="B13" s="22">
+        <v>200009</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
+        <v>6</v>
+      </c>
+      <c r="F13" s="46" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="I13" s="38">
+        <v>2</v>
+      </c>
+      <c r="J13" s="50" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>100</v>
+      </c>
+      <c r="M13" s="37">
+        <v>100009</v>
+      </c>
+      <c r="N13" s="37">
+        <v>0</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26">
+        <v>200010</v>
+      </c>
+      <c r="B14" s="27">
+        <v>200010</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="41">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G14" s="41">
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42">
+        <v>2</v>
+      </c>
+      <c r="J14" s="51" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K14" s="42">
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <v>100</v>
+      </c>
+      <c r="M14" s="41">
+        <v>100010</v>
+      </c>
+      <c r="N14" s="41">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>200011</v>
+      </c>
+      <c r="B15" s="22">
+        <v>200011</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
         <v>7</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="F15" s="46" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38">
+        <v>2</v>
+      </c>
+      <c r="J15" s="50" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <v>100</v>
+      </c>
+      <c r="M15" s="37">
+        <v>100011</v>
+      </c>
+      <c r="N15" s="37">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26">
+        <v>200012</v>
+      </c>
+      <c r="B16" s="27">
+        <v>200012</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1</v>
+      </c>
+      <c r="E16" s="41">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>900001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>900001</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="F16" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="I16" s="42">
+        <v>2</v>
+      </c>
+      <c r="J16" s="51" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0</v>
+      </c>
+      <c r="L16" s="41">
         <v>100</v>
       </c>
-      <c r="M5" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>900002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>900002</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>100</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>500001</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>900003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>900003</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>900004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>900004</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>100</v>
-      </c>
-      <c r="M8" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>900005</v>
-      </c>
-      <c r="B9" s="4">
-        <v>900004</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>100</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>500001</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>900006</v>
-      </c>
-      <c r="B10" s="4">
-        <v>900005</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>100</v>
-      </c>
-      <c r="M10" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>900007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>900006</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>100</v>
-      </c>
-      <c r="M11" s="7">
-        <v>100002</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>900008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>900006</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>100</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>500002</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>900009</v>
-      </c>
-      <c r="B13" s="4">
-        <v>900007</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="M16" s="41">
+        <v>100012</v>
+      </c>
+      <c r="N16" s="41">
+        <v>0</v>
+      </c>
+      <c r="O16" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>100</v>
-      </c>
-      <c r="M13" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="P16" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="43">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>900010</v>
-      </c>
-      <c r="B14" s="4">
-        <v>900008</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>100</v>
-      </c>
-      <c r="M14" s="7">
-        <v>100002</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>900011</v>
-      </c>
-      <c r="B15" s="4">
-        <v>900008</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>100</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>500001</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>200001</v>
-      </c>
-      <c r="B16" s="4">
-        <v>200001</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>100</v>
-      </c>
-      <c r="M16" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>200002</v>
-      </c>
-      <c r="B17" s="4">
-        <v>200002</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>200003</v>
-      </c>
-      <c r="B18" s="4">
-        <v>200003</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>100</v>
-      </c>
-      <c r="M18" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>200004</v>
-      </c>
-      <c r="B19" s="4">
-        <v>200004</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>100</v>
-      </c>
-      <c r="M19" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>200005</v>
-      </c>
-      <c r="B20" s="4">
-        <v>200005</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>100</v>
-      </c>
-      <c r="M20" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>200006</v>
-      </c>
-      <c r="B21" s="4">
-        <v>200006</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>7</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>100</v>
-      </c>
-      <c r="M21" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6554,24 +6629,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E16F195-2059-40F0-A72D-7CBE025F759E}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D15</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I21</xm:sqref>
+          <xm:sqref>I5:I10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E20</xm:sqref>
+          <xm:sqref>E5:E9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6581,10 +6650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6592,7 +6661,8 @@
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="33.75" customWidth="1"/>
@@ -6602,27 +6672,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -6637,144 +6707,144 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>89</v>
+      <c r="K4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>100001</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="52" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="11">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="52" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>101</v>
+      </c>
+      <c r="H5" s="52" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7">
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>1</v>
       </c>
+      <c r="K5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>체력 회복</v>
+        <v>데미지를 준다</v>
       </c>
       <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6782,40 +6852,40 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>300</v>
-      </c>
-      <c r="H6" s="4" t="str">
+        <v>101</v>
+      </c>
+      <c r="H6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="7">
+        <v>95</v>
+      </c>
+      <c r="L6" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>100003</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D7" s="4">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6823,61 +6893,381 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>300</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>101</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>100004</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="54" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D8" s="4">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="str">
+      <c r="D8" s="16">
+        <v>12</v>
+      </c>
+      <c r="E8" s="54" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
         <v>101</v>
       </c>
-      <c r="H8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G8,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="H8" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>101</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>101</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>101</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>101</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>101</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>101</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>100011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>101</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>100012</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="54" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>101</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="17">
         <v>1</v>
       </c>
     </row>
@@ -6891,19 +7281,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B8</xm:sqref>
+          <xm:sqref>B5:B16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23D8174B-1D19-41E8-A9A3-7F8333300CB1}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G8</xm:sqref>
+          <xm:sqref>G5:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38CA3413-9E2C-4299-88C9-04FC844B7807}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D8</xm:sqref>
+          <xm:sqref>D5:D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6916,7 +7306,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6941,48 +7331,48 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
@@ -6997,119 +7387,119 @@
         <v>25</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>32</v>
@@ -7127,33 +7517,33 @@
         <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>500001</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B5,'!참조_ENUM'!$V$3:$V$9,0))</f>
+      <c r="C5" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B5,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>피해 감소</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D5,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>피격 횟수 제한</v>
       </c>
@@ -7175,7 +7565,7 @@
       <c r="K5" s="4">
         <v>12</v>
       </c>
-      <c r="L5" s="4" t="str">
+      <c r="L5" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7185,7 +7575,7 @@
       <c r="N5" s="4">
         <v>900</v>
       </c>
-      <c r="O5" s="4" t="str">
+      <c r="O5" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
@@ -7199,7 +7589,7 @@
         <v>10000</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -7209,20 +7599,20 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>500002</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B6,'!참조_ENUM'!$V$3:$V$9,0))</f>
+      <c r="C6" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B6,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>중독</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D6,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
@@ -7244,7 +7634,7 @@
       <c r="K6" s="4">
         <v>12</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7254,7 +7644,7 @@
       <c r="N6" s="4">
         <v>300</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N6,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
@@ -7268,7 +7658,7 @@
         <v>3000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -7278,20 +7668,20 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>500003</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B7,'!참조_ENUM'!$V$3:$V$9,0))</f>
+      <c r="C7" s="53" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B7,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>기절</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D7,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
@@ -7313,7 +7703,7 @@
       <c r="K7" s="4">
         <v>12</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7323,7 +7713,7 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="53" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N7,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>NONE</v>
       </c>
@@ -7337,7 +7727,7 @@
         <v>3000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -7347,20 +7737,20 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>500006</v>
       </c>
       <c r="B8" s="4">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>103</v>
+      <c r="C8" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>104</v>
+      <c r="E8" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -7380,8 +7770,8 @@
       <c r="K8" s="4">
         <v>11</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>105</v>
+      <c r="L8" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -7389,8 +7779,8 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>106</v>
+      <c r="O8" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -7402,7 +7792,7 @@
         <v>3000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -7443,7 +7833,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA07E682-98E4-4EB6-9718-C3A35CE33021}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$V$3:$V$9</xm:f>
+            <xm:f>'!참조_ENUM'!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B8</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E683F58-D5A9-45F2-B741-272DBC9064F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D7A48-2359-4952-BDEB-1B2D8B40747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -889,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1376,6 +1377,18 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/SkillEffect_Normal_Fireball</t>
+  </si>
+  <si>
+    <t>스킬 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:SKILL_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1695,7 +1708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1826,10 +1839,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1842,47 +1851,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1928,13 +1924,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -3382,6 +3372,96 @@
         </row>
       </sheetData>
       <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="@pc_npc"/>
+      <sheetName val="@skill_type"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NORMAL_ATTACK</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>일반 공격</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SKILL_01</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>스킬 공격 1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SKILL_02</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>스킬 공격 2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SPECIAL_SKILL</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>궁극기</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3684,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AI77"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3708,9 +3788,11 @@
     <col min="27" max="27" width="19.875" customWidth="1"/>
     <col min="29" max="29" width="23.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3743,8 +3825,12 @@
         <f>'[1]@projectile_type'!$A$1</f>
         <v>PROJECTILE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG1" t="str">
+        <f>'[2]@skill_type'!$A$1</f>
+        <v>SKILL_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -3841,8 +3927,20 @@
         <f>'[1]@projectile_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG2" s="5" t="str">
+        <f>'[2]@skill_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AH2" s="5" t="str">
+        <f>'[2]@skill_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AI2" s="1" t="str">
+        <f>'[2]@skill_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -3939,8 +4037,20 @@
         <f>'[1]@projectile_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG3" s="4" t="str">
+        <f>'[2]@skill_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>'[2]@skill_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="str">
+        <f>'[2]@skill_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4037,8 +4147,20 @@
         <f>'[1]@projectile_type'!$C5</f>
         <v>투사체를 타겟의 발 밑에 던진다</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG4" s="4" t="str">
+        <f>'[2]@skill_type'!$A5</f>
+        <v>NORMAL_ATTACK</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>'[2]@skill_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4" t="str">
+        <f>'[2]@skill_type'!$C5</f>
+        <v>일반 공격</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4123,8 +4245,20 @@
         <f>'[1]@projectile_type'!$C6</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG5" s="4" t="str">
+        <f>'[2]@skill_type'!$A6</f>
+        <v>SKILL_01</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>'[2]@skill_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AI5" s="4" t="str">
+        <f>'[2]@skill_type'!$C6</f>
+        <v>스킬 공격 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4198,8 +4332,20 @@
         <f>'[1]@projectile_type'!$C7</f>
         <v>투사체를 타겟의 머리에 던진다</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG6" s="4" t="str">
+        <f>'[2]@skill_type'!$A7</f>
+        <v>SKILL_02</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>'[2]@skill_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <f>'[2]@skill_type'!$C7</f>
+        <v>스킬 공격 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4248,8 +4394,20 @@
         <f>'[1]@projectile_type'!$C8</f>
         <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG7" s="4" t="str">
+        <f>'[2]@skill_type'!$A8</f>
+        <v>SPECIAL_SKILL</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'[2]@skill_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AI7" s="4" t="str">
+        <f>'[2]@skill_type'!$C8</f>
+        <v>궁극기</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4299,7 +4457,7 @@
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4349,7 +4507,7 @@
         <v>타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4399,7 +4557,7 @@
         <v>전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4437,7 +4595,7 @@
         <v>방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>LOWEST_ATTACK</v>
@@ -4475,7 +4633,7 @@
         <v>공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>LOWEST_DEFENSE</v>
@@ -4513,7 +4671,7 @@
         <v>방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>HIGHEST_ATTACK</v>
@@ -4527,7 +4685,7 @@
         <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>HIGHEST_DEFENSE</v>
@@ -4541,7 +4699,7 @@
         <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>APPROACH</v>
@@ -5417,10 +5575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5429,17 +5587,18 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5453,16 +5612,19 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5476,7 +5638,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -5484,8 +5646,11 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
@@ -5499,16 +5664,19 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>200001</v>
       </c>
@@ -5522,15 +5690,18 @@
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>200002</v>
       </c>
@@ -5544,15 +5715,18 @@
       <c r="D6" s="16">
         <v>2.5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>200003</v>
       </c>
@@ -5566,15 +5740,18 @@
       <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>200004</v>
       </c>
@@ -5588,15 +5765,18 @@
       <c r="D8" s="16">
         <v>2.5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>200005</v>
       </c>
@@ -5610,15 +5790,18 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>200006</v>
       </c>
@@ -5632,15 +5815,18 @@
       <c r="D10" s="16">
         <v>2.5</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>200007</v>
       </c>
@@ -5654,15 +5840,18 @@
       <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>200008</v>
       </c>
@@ -5676,15 +5865,18 @@
       <c r="D12" s="16">
         <v>2.5</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>200009</v>
       </c>
@@ -5698,15 +5890,18 @@
       <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>200010</v>
       </c>
@@ -5720,15 +5915,18 @@
       <c r="D14" s="16">
         <v>2.5</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>200011</v>
       </c>
@@ -5742,15 +5940,18 @@
       <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>200012</v>
       </c>
@@ -5764,17 +5965,32 @@
       <c r="D16" s="16">
         <v>2.5</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="21" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E67DA0EB-B198-497F-9178-06CF37A8E3CB}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5782,7 +5998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -5987,7 +6203,7 @@
       <c r="E5" s="24">
         <v>6</v>
       </c>
-      <c r="F5" s="44" t="str">
+      <c r="F5" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6000,7 +6216,7 @@
       <c r="I5" s="22">
         <v>0</v>
       </c>
-      <c r="J5" s="48" t="str">
+      <c r="J5" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
@@ -6040,7 +6256,7 @@
       <c r="E6" s="28">
         <v>6</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6053,7 +6269,7 @@
       <c r="I6" s="27">
         <v>0</v>
       </c>
-      <c r="J6" s="48" t="str">
+      <c r="J6" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
@@ -6093,7 +6309,7 @@
       <c r="E7" s="24">
         <v>6</v>
       </c>
-      <c r="F7" s="44" t="str">
+      <c r="F7" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6106,7 +6322,7 @@
       <c r="I7" s="22">
         <v>0</v>
       </c>
-      <c r="J7" s="48" t="str">
+      <c r="J7" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
@@ -6146,7 +6362,7 @@
       <c r="E8" s="28">
         <v>6</v>
       </c>
-      <c r="F8" s="45" t="str">
+      <c r="F8" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6159,7 +6375,7 @@
       <c r="I8" s="27">
         <v>0</v>
       </c>
-      <c r="J8" s="48" t="str">
+      <c r="J8" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
@@ -6199,7 +6415,7 @@
       <c r="E9" s="24">
         <v>6</v>
       </c>
-      <c r="F9" s="44" t="str">
+      <c r="F9" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6212,7 +6428,7 @@
       <c r="I9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="48" t="str">
+      <c r="J9" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -6254,7 +6470,7 @@
       <c r="E10" s="28">
         <v>6</v>
       </c>
-      <c r="F10" s="45" t="str">
+      <c r="F10" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6267,7 +6483,7 @@
       <c r="I10" s="27">
         <v>2</v>
       </c>
-      <c r="J10" s="49" t="str">
+      <c r="J10" s="46" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -6309,7 +6525,7 @@
       <c r="E11" s="37">
         <v>6</v>
       </c>
-      <c r="F11" s="46" t="str">
+      <c r="F11" s="44" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6319,14 +6535,14 @@
       <c r="H11" s="37">
         <v>1</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="36">
         <v>2</v>
       </c>
-      <c r="J11" s="50" t="str">
+      <c r="J11" s="47" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0</v>
       </c>
       <c r="L11" s="37">
@@ -6344,7 +6560,7 @@
       <c r="P11" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="38">
         <v>0.3</v>
       </c>
     </row>
@@ -6355,51 +6571,51 @@
       <c r="B12" s="27">
         <v>200008</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>6</v>
       </c>
-      <c r="F12" s="47" t="str">
+      <c r="F12" s="45" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+      <c r="H12" s="40">
         <v>1</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="39">
         <v>2</v>
       </c>
-      <c r="J12" s="51" t="str">
+      <c r="J12" s="48" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="41">
+      <c r="K12" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
         <v>100</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="40">
         <v>100008</v>
       </c>
-      <c r="N12" s="41">
-        <v>0</v>
-      </c>
-      <c r="O12" s="40" t="s">
+      <c r="N12" s="40">
+        <v>0</v>
+      </c>
+      <c r="O12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="41">
         <v>0.3</v>
       </c>
     </row>
@@ -6419,7 +6635,7 @@
       <c r="E13" s="37">
         <v>6</v>
       </c>
-      <c r="F13" s="46" t="str">
+      <c r="F13" s="44" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -6429,14 +6645,14 @@
       <c r="H13" s="37">
         <v>1</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="36">
         <v>2</v>
       </c>
-      <c r="J13" s="50" t="str">
+      <c r="J13" s="47" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0</v>
       </c>
       <c r="L13" s="37">
@@ -6454,7 +6670,7 @@
       <c r="P13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="38">
         <v>0.3</v>
       </c>
     </row>
@@ -6465,51 +6681,51 @@
       <c r="B14" s="27">
         <v>200010</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <v>1</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>6</v>
       </c>
-      <c r="F14" s="47" t="str">
+      <c r="F14" s="45" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
         <v>1</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="39">
         <v>2</v>
       </c>
-      <c r="J14" s="51" t="str">
+      <c r="J14" s="48" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K14" s="42">
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
+      <c r="K14" s="39">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <v>100</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="40">
         <v>100010</v>
       </c>
-      <c r="N14" s="41">
-        <v>0</v>
-      </c>
-      <c r="O14" s="40" t="s">
+      <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="41">
         <v>0.3</v>
       </c>
     </row>
@@ -6529,7 +6745,7 @@
       <c r="E15" s="37">
         <v>7</v>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="44" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
@@ -6539,14 +6755,14 @@
       <c r="H15" s="37">
         <v>1</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>2</v>
       </c>
-      <c r="J15" s="50" t="str">
+      <c r="J15" s="47" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0</v>
       </c>
       <c r="L15" s="37">
@@ -6564,7 +6780,7 @@
       <c r="P15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="38">
         <v>0.3</v>
       </c>
     </row>
@@ -6575,51 +6791,51 @@
       <c r="B16" s="27">
         <v>200012</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>7</v>
       </c>
-      <c r="F16" s="47" t="str">
+      <c r="F16" s="45" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="41">
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="H16" s="40">
         <v>1</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="39">
         <v>2</v>
       </c>
-      <c r="J16" s="51" t="str">
+      <c r="J16" s="48" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K16" s="42">
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
+      <c r="K16" s="39">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <v>100</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="40">
         <v>100012</v>
       </c>
-      <c r="N16" s="41">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40" t="s">
+      <c r="N16" s="40">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>0.3</v>
       </c>
     </row>
@@ -6796,14 +7012,14 @@
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="str">
+      <c r="C5" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D5" s="11">
         <v>12</v>
       </c>
-      <c r="E5" s="52" t="str">
+      <c r="E5" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6813,7 +7029,7 @@
       <c r="G5" s="11">
         <v>101</v>
       </c>
-      <c r="H5" s="52" t="str">
+      <c r="H5" s="42" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
@@ -6837,14 +7053,14 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="E6" s="53" t="str">
+      <c r="E6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6854,7 +7070,7 @@
       <c r="G6" s="4">
         <v>101</v>
       </c>
-      <c r="H6" s="53" t="str">
+      <c r="H6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
@@ -6878,14 +7094,14 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="str">
+      <c r="C7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D7" s="4">
         <v>12</v>
       </c>
-      <c r="E7" s="53" t="str">
+      <c r="E7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6895,7 +7111,7 @@
       <c r="G7" s="4">
         <v>101</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I7" s="4">
@@ -6918,14 +7134,14 @@
       <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="54" t="str">
+      <c r="C8" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D8" s="16">
         <v>12</v>
       </c>
-      <c r="E8" s="54" t="str">
+      <c r="E8" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -6935,7 +7151,7 @@
       <c r="G8" s="16">
         <v>101</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="43" t="s">
         <v>120</v>
       </c>
       <c r="I8" s="16">
@@ -6958,14 +7174,14 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="53" t="str">
+      <c r="C9" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="53" t="str">
+      <c r="E9" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -6975,7 +7191,7 @@
       <c r="G9" s="4">
         <v>101</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="4">
@@ -6998,14 +7214,14 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="54" t="str">
+      <c r="C10" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="54" t="str">
+      <c r="E10" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7015,7 +7231,7 @@
       <c r="G10" s="16">
         <v>101</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="43" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="16">
@@ -7038,14 +7254,14 @@
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="53" t="str">
+      <c r="C11" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="53" t="str">
+      <c r="E11" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7055,7 +7271,7 @@
       <c r="G11" s="4">
         <v>101</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I11" s="4">
@@ -7078,14 +7294,14 @@
       <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="54" t="str">
+      <c r="C12" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="54" t="str">
+      <c r="E12" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7095,7 +7311,7 @@
       <c r="G12" s="16">
         <v>101</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="43" t="s">
         <v>120</v>
       </c>
       <c r="I12" s="16">
@@ -7118,14 +7334,14 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7135,7 +7351,7 @@
       <c r="G13" s="4">
         <v>101</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I13" s="4">
@@ -7158,14 +7374,14 @@
       <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D14" s="16">
         <v>2</v>
       </c>
-      <c r="E14" s="54" t="str">
+      <c r="E14" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7175,7 +7391,7 @@
       <c r="G14" s="16">
         <v>101</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="43" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="16">
@@ -7198,14 +7414,14 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="53" t="str">
+      <c r="C15" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="53" t="str">
+      <c r="E15" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7215,7 +7431,7 @@
       <c r="G15" s="4">
         <v>101</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="49" t="s">
         <v>120</v>
       </c>
       <c r="I15" s="4">
@@ -7238,14 +7454,14 @@
       <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="54" t="str">
+      <c r="C16" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="54" t="str">
+      <c r="E16" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -7255,7 +7471,7 @@
       <c r="G16" s="16">
         <v>101</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="43" t="s">
         <v>120</v>
       </c>
       <c r="I16" s="16">
@@ -7536,14 +7752,14 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="str">
+      <c r="C5" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B5,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>피해 감소</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="53" t="str">
+      <c r="E5" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D5,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>피격 횟수 제한</v>
       </c>
@@ -7565,7 +7781,7 @@
       <c r="K5" s="4">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="str">
+      <c r="L5" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7575,7 +7791,7 @@
       <c r="N5" s="4">
         <v>900</v>
       </c>
-      <c r="O5" s="53" t="str">
+      <c r="O5" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
@@ -7605,14 +7821,14 @@
       <c r="B6" s="4">
         <v>101</v>
       </c>
-      <c r="C6" s="53" t="str">
+      <c r="C6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B6,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>중독</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="53" t="str">
+      <c r="E6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D6,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
@@ -7634,7 +7850,7 @@
       <c r="K6" s="4">
         <v>12</v>
       </c>
-      <c r="L6" s="53" t="str">
+      <c r="L6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7644,7 +7860,7 @@
       <c r="N6" s="4">
         <v>300</v>
       </c>
-      <c r="O6" s="53" t="str">
+      <c r="O6" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N6,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
@@ -7674,14 +7890,14 @@
       <c r="B7" s="4">
         <v>102</v>
       </c>
-      <c r="C7" s="53" t="str">
+      <c r="C7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B7,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>기절</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="53" t="str">
+      <c r="E7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D7,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
@@ -7703,7 +7919,7 @@
       <c r="K7" s="4">
         <v>12</v>
       </c>
-      <c r="L7" s="53" t="str">
+      <c r="L7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -7713,7 +7929,7 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="53" t="str">
+      <c r="O7" s="49" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N7,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>NONE</v>
       </c>
@@ -7743,13 +7959,13 @@
       <c r="B8" s="4">
         <v>105</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="49" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="4">
@@ -7770,7 +7986,7 @@
       <c r="K8" s="4">
         <v>11</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="49" t="s">
         <v>103</v>
       </c>
       <c r="M8" s="4">
@@ -7779,7 +7995,7 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="49" t="s">
         <v>104</v>
       </c>
       <c r="P8" s="4">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D7A48-2359-4952-BDEB-1B2D8B40747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F165B-4327-4C45-8C7F-68408AE8C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1389,42 @@
   <si>
     <t>Skill_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 룰</t>
+  </si>
+  <si>
+    <t>세컨 타겟 룰(기획)</t>
+  </si>
+  <si>
+    <t>세컨 타겟 카운트</t>
+  </si>
+  <si>
+    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>second_target_rule</t>
+  </si>
+  <si>
+    <t>#second_target_rule</t>
+  </si>
+  <si>
+    <t>second_target_count</t>
+  </si>
+  <si>
+    <t>세컨 타겟 반경</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>second_target_radius</t>
   </si>
 </sst>
 </file>
@@ -1909,6 +1945,7 @@
       <sheetName val="@position"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
       <sheetName val="@team_type"/>
@@ -2771,7 +2808,7 @@
       <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>SECOND_TARGET_RULE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2798,43 +2835,31 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>AROUND_SPLASH</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>대미지 만큼 현재 체력 감소</v>
+            <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NEXT_DAMAGE_REDUCT</v>
+            <v>BACK_SPLASH</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>다음 피해의 데미지를 감소</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>HP_RECOVERY</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>대상의 현재 HP를 회복. 
-MAX HP를 초과할 수 없다</v>
+            <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
+            <v>EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2861,6 +2886,69 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>DAMAGE</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>대미지 만큼 현재 체력 감소</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>NEXT_DAMAGE_REDUCT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>다음 피해의 데미지를 감소</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>HP_RECOVERY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>대상의 현재 HP를 회복. 
+MAX HP를 초과할 수 없다</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>ATTACK_VALUE</v>
           </cell>
           <cell r="B5">
@@ -2970,10 +3058,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_TYPE</v>
@@ -3010,64 +3098,13 @@
           </cell>
           <cell r="C5" t="str">
             <v>적군</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>데미지를 준다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>LIFE_RECOVERY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3094,119 +3131,31 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE_REDUCE</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>피해 감소</v>
+            <v>데미지를 준다</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>POISON</v>
+            <v>LIFE_RECOVERY</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>중독</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>STUN</v>
-          </cell>
-          <cell r="B7">
-            <v>102</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>기절</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SILENCE</v>
-          </cell>
-          <cell r="B8">
-            <v>103</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>침묵</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>BIND</v>
-          </cell>
-          <cell r="B9">
-            <v>104</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>결박</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>FREEZE</v>
-          </cell>
-          <cell r="B10">
-            <v>105</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>빙결</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ATK_UP</v>
-          </cell>
-          <cell r="B11">
-            <v>106</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>공격력 증가</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>DEF_UP</v>
-          </cell>
-          <cell r="B12">
-            <v>107</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>방어력 증가</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ATK_DOWN</v>
-          </cell>
-          <cell r="B13">
-            <v>108</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>공격력 감소</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DEF_DOWN</v>
-          </cell>
-          <cell r="B14">
-            <v>109</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>방어력 감소</v>
+            <v>체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>DURATION_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3233,42 +3182,119 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TIME</v>
+            <v>DAMAGE_REDUCE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>시간 지속</v>
+            <v>피해 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>HITTED</v>
+            <v>POISON</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>피격 횟수 제한</v>
+            <v>중독</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ATTACK</v>
+            <v>STUN</v>
           </cell>
           <cell r="B7">
-            <v>3</v>
+            <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>공격 횟수 제한</v>
+            <v>기절</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SILENCE</v>
+          </cell>
+          <cell r="B8">
+            <v>103</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>침묵</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BIND</v>
+          </cell>
+          <cell r="B9">
+            <v>104</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>결박</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FREEZE</v>
+          </cell>
+          <cell r="B10">
+            <v>105</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>방어력 감소</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
+            <v>PERSISTENCE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3295,6 +3321,68 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>TIME</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>시간 지속</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>HITTED</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>피격 횟수 제한</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ATTACK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>공격 횟수 제한</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>THROW_FOOT</v>
           </cell>
           <cell r="B5">
@@ -3371,7 +3459,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3764,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AI77"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5:AI7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3790,9 +3878,11 @@
     <col min="31" max="31" width="31.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3829,8 +3919,12 @@
         <f>'[2]@skill_type'!$A$1</f>
         <v>SKILL_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK1" t="str">
+        <f>'[1]@second_target_rule'!$A$1</f>
+        <v>SECOND_TARGET_RULE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -3939,8 +4033,20 @@
         <f>'[2]@skill_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK2" s="5" t="str">
+        <f>'[1]@second_target_rule'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AL2" s="5" t="str">
+        <f>'[1]@second_target_rule'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AM2" s="1" t="str">
+        <f>'[1]@second_target_rule'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4049,8 +4155,20 @@
         <f>'[2]@skill_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK3" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>'[1]@second_target_rule'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4159,8 +4277,20 @@
         <f>'[2]@skill_type'!$C5</f>
         <v>일반 공격</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK4" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A5</f>
+        <v>AROUND_SPLASH</v>
+      </c>
+      <c r="AL4" s="4">
+        <f>'[1]@second_target_rule'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C5</f>
+        <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4257,8 +4387,20 @@
         <f>'[2]@skill_type'!$C6</f>
         <v>스킬 공격 1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK5" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A6</f>
+        <v>BACK_SPLASH</v>
+      </c>
+      <c r="AL5" s="4">
+        <f>'[1]@second_target_rule'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AM5" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C6</f>
+        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4345,7 +4487,7 @@
         <v>스킬 공격 2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4407,7 +4549,7 @@
         <v>궁극기</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4457,7 +4599,7 @@
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4507,7 +4649,7 @@
         <v>타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4557,7 +4699,7 @@
         <v>전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4595,7 +4737,7 @@
         <v>방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>LOWEST_ATTACK</v>
@@ -4633,7 +4775,7 @@
         <v>공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>LOWEST_DEFENSE</v>
@@ -4671,7 +4813,7 @@
         <v>방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>HIGHEST_ATTACK</v>
@@ -4685,7 +4827,7 @@
         <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>HIGHEST_DEFENSE</v>
@@ -4699,7 +4841,7 @@
         <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>APPROACH</v>
@@ -5577,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5996,10 +6138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6015,20 +6157,22 @@
     <col min="9" max="9" width="17.625" style="31" customWidth="1"/>
     <col min="10" max="10" width="27.625" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="31" customWidth="1"/>
-    <col min="13" max="14" width="13.125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="70.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="30"/>
+    <col min="12" max="12" width="19" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="31" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="31" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -6063,25 +6207,37 @@
         <v>86</v>
       </c>
       <c r="L2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="T2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="U2" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -6115,26 +6271,38 @@
       <c r="K3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="Q3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="R3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="S3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="T3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
@@ -6169,25 +6337,37 @@
         <v>32</v>
       </c>
       <c r="L4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="Q4" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="R4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="S4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="T4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="U4" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>200001</v>
       </c>
@@ -6223,24 +6403,37 @@
       <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
         <v>100</v>
       </c>
-      <c r="M5" s="24">
+      <c r="Q5" s="24">
         <v>100001</v>
       </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="R5" s="24">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="22"/>
+      <c r="U5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>200002</v>
       </c>
@@ -6276,24 +6469,37 @@
       <c r="K6" s="27">
         <v>0</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="27">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
         <v>100</v>
       </c>
-      <c r="M6" s="28">
+      <c r="Q6" s="28">
         <v>100002</v>
       </c>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="O6" s="27" t="s">
+      <c r="R6" s="28">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T6" s="27"/>
+      <c r="U6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>200003</v>
       </c>
@@ -6329,24 +6535,37 @@
       <c r="K7" s="22">
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
         <v>100</v>
       </c>
-      <c r="M7" s="24">
+      <c r="Q7" s="24">
         <v>100003</v>
       </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="22" t="s">
+      <c r="R7" s="24">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T7" s="22"/>
+      <c r="U7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>200004</v>
       </c>
@@ -6382,24 +6601,37 @@
       <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
         <v>100</v>
       </c>
-      <c r="M8" s="28">
+      <c r="Q8" s="28">
         <v>100004</v>
       </c>
-      <c r="N8" s="28">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27" t="s">
+      <c r="R8" s="28">
+        <v>0</v>
+      </c>
+      <c r="S8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="27"/>
+      <c r="U8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>200005</v>
       </c>
@@ -6435,26 +6667,39 @@
       <c r="K9" s="22">
         <v>0</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
         <v>100</v>
       </c>
-      <c r="M9" s="24">
+      <c r="Q9" s="24">
         <v>100005</v>
       </c>
-      <c r="N9" s="24">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="R9" s="24">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="T9" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="U9" s="25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>200006</v>
       </c>
@@ -6490,26 +6735,39 @@
       <c r="K10" s="27">
         <v>0</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="27">
+        <v>0</v>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
         <v>100</v>
       </c>
-      <c r="M10" s="28">
+      <c r="Q10" s="28">
         <v>100006</v>
       </c>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10" s="27" t="s">
+      <c r="R10" s="28">
+        <v>0</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="T10" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="U10" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>200007</v>
       </c>
@@ -6545,26 +6803,39 @@
       <c r="K11" s="36">
         <v>0</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N11" s="36">
+        <v>0</v>
+      </c>
+      <c r="O11" s="36">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
         <v>100</v>
       </c>
-      <c r="M11" s="37">
+      <c r="Q11" s="37">
         <v>100007</v>
       </c>
-      <c r="N11" s="37">
-        <v>0</v>
-      </c>
-      <c r="O11" s="36" t="s">
+      <c r="R11" s="37">
+        <v>0</v>
+      </c>
+      <c r="S11" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="T11" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="U11" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>200008</v>
       </c>
@@ -6600,26 +6871,39 @@
       <c r="K12" s="39">
         <v>0</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="39">
+        <v>0</v>
+      </c>
+      <c r="P12" s="40">
         <v>100</v>
       </c>
-      <c r="M12" s="40">
+      <c r="Q12" s="40">
         <v>100008</v>
       </c>
-      <c r="N12" s="40">
-        <v>0</v>
-      </c>
-      <c r="O12" s="39" t="s">
+      <c r="R12" s="40">
+        <v>0</v>
+      </c>
+      <c r="S12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="T12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="U12" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>200009</v>
       </c>
@@ -6655,26 +6939,39 @@
       <c r="K13" s="36">
         <v>0</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="36">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N13" s="36">
+        <v>0</v>
+      </c>
+      <c r="O13" s="36">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
         <v>100</v>
       </c>
-      <c r="M13" s="37">
+      <c r="Q13" s="37">
         <v>100009</v>
       </c>
-      <c r="N13" s="37">
-        <v>0</v>
-      </c>
-      <c r="O13" s="36" t="s">
+      <c r="R13" s="37">
+        <v>0</v>
+      </c>
+      <c r="S13" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="T13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="U13" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>200010</v>
       </c>
@@ -6710,26 +7007,39 @@
       <c r="K14" s="39">
         <v>0</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
+        <v>0</v>
+      </c>
+      <c r="P14" s="40">
         <v>100</v>
       </c>
-      <c r="M14" s="40">
+      <c r="Q14" s="40">
         <v>100010</v>
       </c>
-      <c r="N14" s="40">
-        <v>0</v>
-      </c>
-      <c r="O14" s="39" t="s">
+      <c r="R14" s="40">
+        <v>0</v>
+      </c>
+      <c r="S14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="T14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="U14" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>200011</v>
       </c>
@@ -6765,26 +7075,39 @@
       <c r="K15" s="36">
         <v>0</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="37">
         <v>100</v>
       </c>
-      <c r="M15" s="37">
+      <c r="Q15" s="37">
         <v>100011</v>
       </c>
-      <c r="N15" s="37">
-        <v>0</v>
-      </c>
-      <c r="O15" s="36" t="s">
+      <c r="R15" s="37">
+        <v>0</v>
+      </c>
+      <c r="S15" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="T15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="U15" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>200012</v>
       </c>
@@ -6820,22 +7143,35 @@
       <c r="K16" s="39">
         <v>0</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="39">
+        <v>0</v>
+      </c>
+      <c r="M16" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39">
+        <v>0</v>
+      </c>
+      <c r="P16" s="40">
         <v>100</v>
       </c>
-      <c r="M16" s="40">
+      <c r="Q16" s="40">
         <v>100012</v>
       </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="39" t="s">
+      <c r="R16" s="40">
+        <v>0</v>
+      </c>
+      <c r="S16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="T16" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="U16" s="41">
         <v>0.3</v>
       </c>
     </row>
@@ -6845,7 +7181,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
@@ -6857,6 +7193,12 @@
             <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E492521B-11AE-485E-A009-404B3213EB65}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L5:L16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F165B-4327-4C45-8C7F-68408AE8C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20353076-C739-4677-8A3D-F79CACECE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1415,16 +1415,18 @@
     <t>#second_target_rule</t>
   </si>
   <si>
-    <t>second_target_count</t>
-  </si>
-  <si>
     <t>세컨 타겟 반경</t>
   </si>
   <si>
     <t>double</t>
   </si>
   <si>
-    <t>second_target_radius</t>
+    <t>second_target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1957,11 +1959,12 @@
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -3058,9 +3061,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -3459,7 +3462,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3473,83 +3477,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@pc_npc"/>
-      <sheetName val="@skill_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>NORMAL_ATTACK</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>일반 공격</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>SKILL_01</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>스킬 공격 1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SKILL_02</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>스킬 공격 2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SPECIAL_SKILL</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>궁극기</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3915,9 +3845,9 @@
         <f>'[1]@projectile_type'!$A$1</f>
         <v>PROJECTILE_TYPE</v>
       </c>
-      <c r="AG1" t="str">
-        <f>'[2]@skill_type'!$A$1</f>
-        <v>SKILL_TYPE</v>
+      <c r="AG1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK1" t="str">
         <f>'[1]@second_target_rule'!$A$1</f>
@@ -4021,17 +3951,17 @@
         <f>'[1]@projectile_type'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AG2" s="5" t="str">
-        <f>'[2]@skill_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AH2" s="5" t="str">
-        <f>'[2]@skill_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AI2" s="1" t="str">
-        <f>'[2]@skill_type'!$C3</f>
-        <v>comment</v>
+      <c r="AG2" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH2" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI2" s="1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK2" s="5" t="str">
         <f>'[1]@second_target_rule'!$A3</f>
@@ -4143,17 +4073,17 @@
         <f>'[1]@projectile_type'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AG3" s="4" t="str">
-        <f>'[2]@skill_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AH3" s="4">
-        <f>'[2]@skill_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4" t="str">
-        <f>'[2]@skill_type'!$C4</f>
-        <v>NONE</v>
+      <c r="AG3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK3" s="4" t="str">
         <f>'[1]@second_target_rule'!$A4</f>
@@ -4265,17 +4195,17 @@
         <f>'[1]@projectile_type'!$C5</f>
         <v>투사체를 타겟의 발 밑에 던진다</v>
       </c>
-      <c r="AG4" s="4" t="str">
-        <f>'[2]@skill_type'!$A5</f>
-        <v>NORMAL_ATTACK</v>
-      </c>
-      <c r="AH4" s="4">
-        <f>'[2]@skill_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="4" t="str">
-        <f>'[2]@skill_type'!$C5</f>
-        <v>일반 공격</v>
+      <c r="AG4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK4" s="4" t="str">
         <f>'[1]@second_target_rule'!$A5</f>
@@ -4375,17 +4305,17 @@
         <f>'[1]@projectile_type'!$C6</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="AG5" s="4" t="str">
-        <f>'[2]@skill_type'!$A6</f>
-        <v>SKILL_01</v>
-      </c>
-      <c r="AH5" s="4">
-        <f>'[2]@skill_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AI5" s="4" t="str">
-        <f>'[2]@skill_type'!$C6</f>
-        <v>스킬 공격 1</v>
+      <c r="AG5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK5" s="4" t="str">
         <f>'[1]@second_target_rule'!$A6</f>
@@ -4474,17 +4404,17 @@
         <f>'[1]@projectile_type'!$C7</f>
         <v>투사체를 타겟의 머리에 던진다</v>
       </c>
-      <c r="AG6" s="4" t="str">
-        <f>'[2]@skill_type'!$A7</f>
-        <v>SKILL_02</v>
-      </c>
-      <c r="AH6" s="4">
-        <f>'[2]@skill_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AI6" s="4" t="str">
-        <f>'[2]@skill_type'!$C7</f>
-        <v>스킬 공격 2</v>
+      <c r="AG6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
@@ -4536,17 +4466,17 @@
         <f>'[1]@projectile_type'!$C8</f>
         <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
-      <c r="AG7" s="4" t="str">
-        <f>'[2]@skill_type'!$A8</f>
-        <v>SPECIAL_SKILL</v>
-      </c>
-      <c r="AH7" s="4">
-        <f>'[2]@skill_type'!$B8</f>
-        <v>4</v>
-      </c>
-      <c r="AI7" s="4" t="str">
-        <f>'[2]@skill_type'!$C8</f>
-        <v>궁극기</v>
+      <c r="AG7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -6141,7 +6071,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6216,7 +6146,7 @@
         <v>132</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>75</v>
@@ -6281,7 +6211,7 @@
         <v>135</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>68</v>
@@ -6343,10 +6273,10 @@
         <v>137</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>76</v>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20353076-C739-4677-8A3D-F79CACECE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7812B-7323-4528-BC1B-A2DBE98CF57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -1960,6 +1960,7 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3464,6 +3465,7 @@
       </sheetData>
       <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7812B-7323-4528-BC1B-A2DBE98CF57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48046B12-B498-46AF-A18A-9E6B698C62A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="4515" yWindow="4005" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -890,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="144">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,6 +1425,14 @@
   </si>
   <si>
     <t>max_second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1926,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1963,9 +1974,9 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -2073,738 +2084,782 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>NEAREST_ADD_BACK_RANGE</v>
           </cell>
           <cell r="B12">
-            <v>3001</v>
+            <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>FURTHEST_ADD_FRONT_RANGE</v>
           </cell>
           <cell r="B13">
-            <v>3003</v>
+            <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>NEAREST_ADD_ARROUND_RANGE</v>
           </cell>
           <cell r="B14">
-            <v>3004</v>
+            <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>HIGHEST_ATTACK</v>
+            <v>FURTHEST_ADD_ARROUND_RANGE</v>
           </cell>
           <cell r="B15">
-            <v>2003</v>
+            <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
+            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HIGHEST_DEFENSE</v>
+            <v>LOWEST_LIFE_VALUE</v>
           </cell>
           <cell r="B16">
-            <v>2004</v>
+            <v>3001</v>
           </cell>
           <cell r="C16" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>APPROACH</v>
+            <v>LOWEST_ATTACK</v>
           </cell>
           <cell r="B17">
-            <v>9999</v>
+            <v>3003</v>
           </cell>
           <cell r="C17" t="str">
-            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+            <v>공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>LOWEST_DEFENSE</v>
           </cell>
           <cell r="B18">
-            <v>1001</v>
+            <v>3004</v>
           </cell>
           <cell r="C18" t="str">
-            <v>리더 선택</v>
+            <v>방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>HIGHEST_ATTACK</v>
           </cell>
           <cell r="B19">
-            <v>2001</v>
+            <v>2003</v>
           </cell>
           <cell r="C19" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>HIGHEST_DEFENSE</v>
           </cell>
           <cell r="B20">
-            <v>2002</v>
+            <v>2004</v>
           </cell>
           <cell r="C20" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B21">
-            <v>2006</v>
+            <v>9999</v>
           </cell>
           <cell r="C21" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>LEADER_HIGH_PRIORITY</v>
           </cell>
           <cell r="B22">
-            <v>2007</v>
+            <v>1001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>리더 선택</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGHEST_LIFE_VALUE</v>
           </cell>
           <cell r="B23">
-            <v>2008</v>
+            <v>2001</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGHEST_LIFE_RATE</v>
           </cell>
           <cell r="B24">
-            <v>2009</v>
+            <v>2002</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGHEST_ACCURACY</v>
           </cell>
           <cell r="B25">
-            <v>2010</v>
+            <v>2006</v>
           </cell>
           <cell r="C25" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGHEST_EVASION</v>
           </cell>
           <cell r="B26">
-            <v>2011</v>
+            <v>2007</v>
           </cell>
           <cell r="C26" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B27">
-            <v>2012</v>
+            <v>2008</v>
           </cell>
           <cell r="C27" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B28">
-            <v>2013</v>
+            <v>2009</v>
           </cell>
           <cell r="C28" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B29">
-            <v>2014</v>
+            <v>2010</v>
           </cell>
           <cell r="C29" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B30">
-            <v>2015</v>
+            <v>2011</v>
           </cell>
           <cell r="C30" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B31">
-            <v>2016</v>
+            <v>2012</v>
           </cell>
           <cell r="C31" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B32">
-            <v>2017</v>
+            <v>2013</v>
           </cell>
           <cell r="C32" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B33">
-            <v>2018</v>
+            <v>2014</v>
           </cell>
           <cell r="C33" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B34">
-            <v>2019</v>
+            <v>2015</v>
           </cell>
           <cell r="C34" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B35">
-            <v>2020</v>
+            <v>2016</v>
           </cell>
           <cell r="C35" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B36">
-            <v>3002</v>
+            <v>2017</v>
           </cell>
           <cell r="C36" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B37">
-            <v>3005</v>
+            <v>2018</v>
           </cell>
           <cell r="C37" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LOWEST_ACCURACY</v>
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B38">
-            <v>3006</v>
+            <v>2019</v>
           </cell>
           <cell r="C38" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LOWEST_EVASION</v>
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B39">
-            <v>3007</v>
+            <v>2020</v>
           </cell>
           <cell r="C39" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+            <v>LOWEST_LIFE_RATE</v>
           </cell>
           <cell r="B40">
-            <v>3008</v>
+            <v>3002</v>
           </cell>
           <cell r="C40" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
+            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
           </cell>
           <cell r="B41">
-            <v>3009</v>
+            <v>3005</v>
           </cell>
           <cell r="C41" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>속도게이지가 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+            <v>LOWEST_ACCURACY</v>
           </cell>
           <cell r="B42">
-            <v>3010</v>
+            <v>3006</v>
           </cell>
           <cell r="C42" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+            <v>LOWEST_EVASION</v>
           </cell>
           <cell r="B43">
-            <v>3011</v>
+            <v>3007</v>
           </cell>
           <cell r="C43" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+            <v>LOWEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B44">
-            <v>3012</v>
+            <v>3008</v>
           </cell>
           <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+            <v>LOWEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B45">
-            <v>3013</v>
+            <v>3009</v>
           </cell>
           <cell r="C45" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B46">
-            <v>3014</v>
+            <v>3010</v>
           </cell>
           <cell r="C46" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B47">
-            <v>3015</v>
+            <v>3011</v>
           </cell>
           <cell r="C47" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B48">
-            <v>3016</v>
+            <v>3012</v>
           </cell>
           <cell r="C48" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B49">
-            <v>3017</v>
+            <v>3013</v>
           </cell>
           <cell r="C49" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B50">
-            <v>3018</v>
+            <v>3014</v>
           </cell>
           <cell r="C50" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B51">
-            <v>3019</v>
+            <v>3015</v>
           </cell>
           <cell r="C51" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
+            <v>LOWEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B52">
-            <v>3020</v>
+            <v>3016</v>
           </cell>
           <cell r="C52" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B53">
-            <v>3021</v>
+            <v>3017</v>
           </cell>
           <cell r="C53" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B54">
-            <v>3022</v>
+            <v>3018</v>
           </cell>
           <cell r="C54" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
+            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B55">
-            <v>3023</v>
+            <v>3019</v>
           </cell>
           <cell r="C55" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
+            <v>LOWEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B56">
-            <v>3024</v>
+            <v>3020</v>
           </cell>
           <cell r="C56" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
           </cell>
           <cell r="B57">
-            <v>3025</v>
+            <v>3021</v>
           </cell>
           <cell r="C57" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
+            <v>LOWEST_LIFE_RATE_WITH_ME</v>
           </cell>
           <cell r="B58">
-            <v>3026</v>
+            <v>3022</v>
           </cell>
           <cell r="C58" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
+            <v>LOWEST_ATTACK_WITH_ME</v>
           </cell>
           <cell r="B59">
-            <v>3027</v>
+            <v>3023</v>
           </cell>
           <cell r="C59" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>WEAK_ELEMENT</v>
+            <v>LOWEST_DEFENSE_WITH_ME</v>
           </cell>
           <cell r="B60">
-            <v>4001</v>
+            <v>3024</v>
           </cell>
           <cell r="C60" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>STRONG_ELEMENT</v>
+            <v>LOWEST_RAPIDITY_WITH_ME</v>
           </cell>
           <cell r="B61">
-            <v>4002</v>
+            <v>3025</v>
           </cell>
           <cell r="C61" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GAIN_BUFF_DURATION</v>
+            <v>LOWEST_ACCURACY_WITH_ME</v>
           </cell>
           <cell r="B62">
-            <v>5001</v>
+            <v>3026</v>
           </cell>
           <cell r="C62" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
+            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+            <v>LOWEST_EVASION_WITH_ME</v>
           </cell>
           <cell r="B63">
-            <v>5002</v>
+            <v>3027</v>
           </cell>
           <cell r="C63" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+            <v>WEAK_ELEMENT</v>
           </cell>
           <cell r="B64">
-            <v>5003</v>
+            <v>4001</v>
           </cell>
           <cell r="C64" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+            <v>STRONG_ELEMENT</v>
           </cell>
           <cell r="B65">
-            <v>5004</v>
+            <v>4002</v>
           </cell>
           <cell r="C65" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+            <v>GAIN_BUFF_DURATION</v>
           </cell>
           <cell r="B66">
-            <v>5005</v>
+            <v>5001</v>
           </cell>
           <cell r="C66" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
           </cell>
           <cell r="B67">
-            <v>5006</v>
+            <v>5002</v>
           </cell>
           <cell r="C67" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
           </cell>
           <cell r="B68">
-            <v>5007</v>
+            <v>5003</v>
           </cell>
           <cell r="C68" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
+            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
           </cell>
           <cell r="B69">
-            <v>6001</v>
+            <v>5004</v>
           </cell>
           <cell r="C69" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
           </cell>
           <cell r="B70">
-            <v>6002</v>
+            <v>5005</v>
           </cell>
           <cell r="C70" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
           </cell>
           <cell r="B71">
-            <v>6003</v>
+            <v>5006</v>
           </cell>
           <cell r="C71" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
           </cell>
           <cell r="B72">
-            <v>6004</v>
+            <v>5007</v>
           </cell>
           <cell r="C72" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+            <v>GAIN_DEBUFF_DURATION</v>
           </cell>
           <cell r="B73">
-            <v>6005</v>
+            <v>6001</v>
           </cell>
           <cell r="C73" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+            <v>디버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
+            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
           </cell>
           <cell r="B74">
-            <v>6006</v>
+            <v>6002</v>
           </cell>
           <cell r="C74" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
           </cell>
           <cell r="B75">
-            <v>6007</v>
+            <v>6003</v>
           </cell>
           <cell r="C75" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+            <v>GAIN_DEBUFF_DURATION_BURN</v>
           </cell>
           <cell r="B76">
-            <v>6008</v>
+            <v>6004</v>
           </cell>
           <cell r="C76" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
           </cell>
           <cell r="B77">
-            <v>6009</v>
+            <v>6005</v>
           </cell>
           <cell r="C77" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
+            <v>GAIN_DEBUFF_DURATION_POISON</v>
+          </cell>
+          <cell r="B78">
+            <v>6006</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+          </cell>
+          <cell r="B79">
+            <v>6007</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+          </cell>
+          <cell r="B80">
+            <v>6008</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+          </cell>
+          <cell r="B81">
+            <v>6009</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
             <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
           </cell>
-          <cell r="B78">
+          <cell r="B82">
             <v>6010</v>
           </cell>
-          <cell r="C78" t="str">
+          <cell r="C82" t="str">
             <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
@@ -3062,9 +3117,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -3463,25 +3518,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="@pc_npc"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3784,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AM5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4634,15 +4673,15 @@
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>NEAREST_ADD_BACK_RANGE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@target_rule'!$B12</f>
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -4672,15 +4711,15 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
-        <v>LOWEST_ATTACK</v>
+        <v>FURTHEST_ADD_FRONT_RANGE</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@target_rule'!$B13</f>
-        <v>3003</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -4710,15 +4749,15 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>NEAREST_ADD_ARROUND_RANGE</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@target_rule'!$B14</f>
-        <v>3004</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -4748,896 +4787,952 @@
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
-        <v>HIGHEST_ATTACK</v>
+        <v>FURTHEST_ADD_ARROUND_RANGE</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@target_rule'!$B15</f>
-        <v>2003</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
-        <v>HIGHEST_DEFENSE</v>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@target_rule'!$B16</f>
-        <v>2004</v>
+        <v>3001</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>APPROACH</v>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>9999</v>
+        <v>3003</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>1001</v>
+        <v>3004</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>리더 선택</v>
+        <v>방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>HIGHEST_ATTACK</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>HIGHEST_DEFENSE</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>APPROACH</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>2006</v>
+        <v>9999</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>HIGHEST_EVASION</v>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>리더 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>3002</v>
+        <v>2017</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
-        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B36" s="4">
         <f>'[1]@target_rule'!$B37</f>
-        <v>3005</v>
+        <v>2018</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
-        <v>LOWEST_ACCURACY</v>
+        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B37" s="4">
         <f>'[1]@target_rule'!$B38</f>
-        <v>3006</v>
+        <v>2019</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
-        <v>LOWEST_EVASION</v>
+        <v>HIGHEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B38" s="4">
         <f>'[1]@target_rule'!$B39</f>
-        <v>3007</v>
+        <v>2020</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
-        <v>LOWEST_LIFE_VALUE_HUMAN</v>
+        <v>LOWEST_LIFE_RATE</v>
       </c>
       <c r="B39" s="4">
         <f>'[1]@target_rule'!$B40</f>
-        <v>3008</v>
+        <v>3002</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
-        <v>LOWEST_LIFE_VALUE_ELF</v>
+        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
       </c>
       <c r="B40" s="4">
         <f>'[1]@target_rule'!$B41</f>
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
-        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+        <v>LOWEST_ACCURACY</v>
       </c>
       <c r="B41" s="4">
         <f>'[1]@target_rule'!$B42</f>
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
-        <v>LOWEST_LIFE_VALUE_ANDROID</v>
+        <v>LOWEST_EVASION</v>
       </c>
       <c r="B42" s="4">
         <f>'[1]@target_rule'!$B43</f>
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
-        <v>LOWEST_LIFE_VALUE_DEVIL</v>
+        <v>LOWEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B43" s="4">
         <f>'[1]@target_rule'!$B44</f>
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
-        <v>LOWEST_LIFE_VALUE_ANGEL</v>
+        <v>LOWEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B44" s="4">
         <f>'[1]@target_rule'!$B45</f>
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
-        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B45" s="4">
         <f>'[1]@target_rule'!$B46</f>
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
-        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B46" s="4">
         <f>'[1]@target_rule'!$B47</f>
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
-        <v>LOWEST_ATTACK_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B47" s="4">
         <f>'[1]@target_rule'!$B48</f>
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
-        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B48" s="4">
         <f>'[1]@target_rule'!$B49</f>
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>'[1]@target_rule'!$A50</f>
-        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B49" s="4">
         <f>'[1]@target_rule'!$B50</f>
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>'[1]@target_rule'!$A51</f>
-        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B50" s="4">
         <f>'[1]@target_rule'!$B51</f>
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>'[1]@target_rule'!$A52</f>
-        <v>LOWEST_EVASION_WITHOUT_ME</v>
+        <v>LOWEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B51" s="4">
         <f>'[1]@target_rule'!$B52</f>
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>'[1]@target_rule'!$A53</f>
-        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B52" s="4">
         <f>'[1]@target_rule'!$B53</f>
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>'[1]@target_rule'!$A54</f>
-        <v>LOWEST_LIFE_RATE_WITH_ME</v>
+        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B53" s="4">
         <f>'[1]@target_rule'!$B54</f>
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>'[1]@target_rule'!$A55</f>
-        <v>LOWEST_ATTACK_WITH_ME</v>
+        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B54" s="4">
         <f>'[1]@target_rule'!$B55</f>
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>'[1]@target_rule'!$A56</f>
-        <v>LOWEST_DEFENSE_WITH_ME</v>
+        <v>LOWEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B55" s="4">
         <f>'[1]@target_rule'!$B56</f>
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>'[1]@target_rule'!$A57</f>
-        <v>LOWEST_RAPIDITY_WITH_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
       </c>
       <c r="B56" s="4">
         <f>'[1]@target_rule'!$B57</f>
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>'[1]@target_rule'!$A58</f>
-        <v>LOWEST_ACCURACY_WITH_ME</v>
+        <v>LOWEST_LIFE_RATE_WITH_ME</v>
       </c>
       <c r="B57" s="4">
         <f>'[1]@target_rule'!$B58</f>
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>'[1]@target_rule'!$A59</f>
-        <v>LOWEST_EVASION_WITH_ME</v>
+        <v>LOWEST_ATTACK_WITH_ME</v>
       </c>
       <c r="B58" s="4">
         <f>'[1]@target_rule'!$B59</f>
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>'[1]@target_rule'!$A60</f>
-        <v>WEAK_ELEMENT</v>
+        <v>LOWEST_DEFENSE_WITH_ME</v>
       </c>
       <c r="B59" s="4">
         <f>'[1]@target_rule'!$B60</f>
-        <v>4001</v>
+        <v>3024</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>'[1]@target_rule'!$A61</f>
-        <v>STRONG_ELEMENT</v>
+        <v>LOWEST_RAPIDITY_WITH_ME</v>
       </c>
       <c r="B60" s="4">
         <f>'[1]@target_rule'!$B61</f>
-        <v>4002</v>
+        <v>3025</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>'[1]@target_rule'!$A62</f>
-        <v>GAIN_BUFF_DURATION</v>
+        <v>LOWEST_ACCURACY_WITH_ME</v>
       </c>
       <c r="B61" s="4">
         <f>'[1]@target_rule'!$B62</f>
-        <v>5001</v>
+        <v>3026</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>'[1]@target_rule'!$A63</f>
-        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+        <v>LOWEST_EVASION_WITH_ME</v>
       </c>
       <c r="B62" s="4">
         <f>'[1]@target_rule'!$B63</f>
-        <v>5002</v>
+        <v>3027</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>'[1]@target_rule'!$A64</f>
-        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+        <v>WEAK_ELEMENT</v>
       </c>
       <c r="B63" s="4">
         <f>'[1]@target_rule'!$B64</f>
-        <v>5003</v>
+        <v>4001</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>'[1]@target_rule'!$A65</f>
-        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+        <v>STRONG_ELEMENT</v>
       </c>
       <c r="B64" s="4">
         <f>'[1]@target_rule'!$B65</f>
-        <v>5004</v>
+        <v>4002</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f>'[1]@target_rule'!$A66</f>
-        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+        <v>GAIN_BUFF_DURATION</v>
       </c>
       <c r="B65" s="4">
         <f>'[1]@target_rule'!$B66</f>
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f>'[1]@target_rule'!$A67</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
       </c>
       <c r="B66" s="4">
         <f>'[1]@target_rule'!$B67</f>
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f>'[1]@target_rule'!$A68</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
       </c>
       <c r="B67" s="4">
         <f>'[1]@target_rule'!$B68</f>
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f>'[1]@target_rule'!$A69</f>
-        <v>GAIN_DEBUFF_DURATION</v>
+        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
       </c>
       <c r="B68" s="4">
         <f>'[1]@target_rule'!$B69</f>
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f>'[1]@target_rule'!$A70</f>
-        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
       </c>
       <c r="B69" s="4">
         <f>'[1]@target_rule'!$B70</f>
-        <v>6002</v>
+        <v>5005</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f>'[1]@target_rule'!$A71</f>
-        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
       </c>
       <c r="B70" s="4">
         <f>'[1]@target_rule'!$B71</f>
-        <v>6003</v>
+        <v>5006</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f>'[1]@target_rule'!$A72</f>
-        <v>GAIN_DEBUFF_DURATION_BURN</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
       </c>
       <c r="B71" s="4">
         <f>'[1]@target_rule'!$B72</f>
-        <v>6004</v>
+        <v>5007</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f>'[1]@target_rule'!$A73</f>
-        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+        <v>GAIN_DEBUFF_DURATION</v>
       </c>
       <c r="B72" s="4">
         <f>'[1]@target_rule'!$B73</f>
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f>'[1]@target_rule'!$A74</f>
-        <v>GAIN_DEBUFF_DURATION_POISON</v>
+        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
       </c>
       <c r="B73" s="4">
         <f>'[1]@target_rule'!$B74</f>
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f>'[1]@target_rule'!$A75</f>
-        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
       </c>
       <c r="B74" s="4">
         <f>'[1]@target_rule'!$B75</f>
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f>'[1]@target_rule'!$A76</f>
-        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+        <v>GAIN_DEBUFF_DURATION_BURN</v>
       </c>
       <c r="B75" s="4">
         <f>'[1]@target_rule'!$B76</f>
-        <v>6008</v>
+        <v>6004</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f>'[1]@target_rule'!$A77</f>
-        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
       </c>
       <c r="B76" s="4">
         <f>'[1]@target_rule'!$B77</f>
-        <v>6009</v>
+        <v>6005</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
         <f>'[1]@target_rule'!$A78</f>
-        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_POISON</v>
       </c>
       <c r="B77" s="4">
         <f>'[1]@target_rule'!$B78</f>
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>'[1]@target_rule'!$C78</f>
+        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="str">
+        <f>'[1]@target_rule'!$A79</f>
+        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+      </c>
+      <c r="B78" s="4">
+        <f>'[1]@target_rule'!$B79</f>
+        <v>6007</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f>'[1]@target_rule'!$C79</f>
+        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="str">
+        <f>'[1]@target_rule'!$A80</f>
+        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+      </c>
+      <c r="B79" s="4">
+        <f>'[1]@target_rule'!$B80</f>
+        <v>6008</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f>'[1]@target_rule'!$C80</f>
+        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="str">
+        <f>'[1]@target_rule'!$A81</f>
+        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+      </c>
+      <c r="B80" s="4">
+        <f>'[1]@target_rule'!$B81</f>
+        <v>6009</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f>'[1]@target_rule'!$C81</f>
+        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="str">
+        <f>'[1]@target_rule'!$A82</f>
+        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+      </c>
+      <c r="B81" s="4">
+        <f>'[1]@target_rule'!$B82</f>
+        <v>6010</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f>'[1]@target_rule'!$C82</f>
         <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
@@ -6070,10 +6165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6086,25 +6181,26 @@
     <col min="6" max="6" width="66.375" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="19" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="31" customWidth="1"/>
-    <col min="17" max="18" width="13.125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="30"/>
+    <col min="9" max="9" width="13.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="19" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="31" customWidth="1"/>
+    <col min="18" max="19" width="13.125" style="31" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="70.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -6130,46 +6226,49 @@
         <v>10</v>
       </c>
       <c r="I2" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="K2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="T2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="U2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="V2" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -6194,29 +6293,29 @@
       <c r="H3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>68</v>
       </c>
       <c r="Q3" s="33" t="s">
         <v>68</v>
@@ -6225,16 +6324,19 @@
         <v>68</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
@@ -6260,46 +6362,49 @@
         <v>15</v>
       </c>
       <c r="I4" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="N4" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="O4" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="P4" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="Q4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="R4" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="S4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="T4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="U4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>200001</v>
       </c>
@@ -6312,11 +6417,11 @@
       <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="50">
         <v>6</v>
       </c>
       <c r="F5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E5,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G5" s="24">
@@ -6325,47 +6430,50 @@
       <c r="H5" s="24">
         <v>1</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
       <c r="L5" s="22">
         <v>0</v>
       </c>
-      <c r="M5" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
       <c r="O5" s="22">
         <v>0</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
         <v>100</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="R5" s="24">
         <v>100001</v>
       </c>
-      <c r="R5" s="24">
-        <v>0</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="24">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="22"/>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>200002</v>
       </c>
@@ -6378,11 +6486,11 @@
       <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="50">
         <v>6</v>
       </c>
       <c r="F6" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E6,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G6" s="28">
@@ -6391,47 +6499,50 @@
       <c r="H6" s="28">
         <v>1</v>
       </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
       <c r="L6" s="27">
         <v>0</v>
       </c>
-      <c r="M6" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N6" s="27">
-        <v>0</v>
-      </c>
       <c r="O6" s="27">
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
         <v>100</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="R6" s="28">
         <v>100002</v>
       </c>
-      <c r="R6" s="28">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="28">
+        <v>0</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="27"/>
+      <c r="V6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>200003</v>
       </c>
@@ -6444,11 +6555,11 @@
       <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="50">
         <v>6</v>
       </c>
       <c r="F7" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E7,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G7" s="24">
@@ -6457,47 +6568,50 @@
       <c r="H7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
       <c r="L7" s="22">
         <v>0</v>
       </c>
-      <c r="M7" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
       <c r="O7" s="22">
         <v>0</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <v>100</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="R7" s="24">
         <v>100003</v>
       </c>
-      <c r="R7" s="24">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="24">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U7" s="22"/>
+      <c r="V7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>200004</v>
       </c>
@@ -6510,11 +6624,11 @@
       <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="50">
         <v>6</v>
       </c>
       <c r="F8" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E8,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G8" s="28">
@@ -6523,47 +6637,50 @@
       <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
       <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
       <c r="O8" s="27">
         <v>0</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
         <v>100</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="R8" s="28">
         <v>100004</v>
       </c>
-      <c r="R8" s="28">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U8" s="27"/>
+      <c r="V8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>200005</v>
       </c>
@@ -6576,11 +6693,11 @@
       <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="50">
         <v>6</v>
       </c>
       <c r="F9" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E9,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G9" s="24">
@@ -6589,49 +6706,52 @@
       <c r="H9" s="24">
         <v>1</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K9" s="42" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
       <c r="L9" s="22">
         <v>0</v>
       </c>
-      <c r="M9" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
       <c r="O9" s="22">
         <v>0</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
         <v>100</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="R9" s="24">
         <v>100005</v>
       </c>
-      <c r="R9" s="24">
-        <v>0</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="U9" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="25">
+      <c r="V9" s="25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>200006</v>
       </c>
@@ -6644,11 +6764,11 @@
       <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="50">
         <v>6</v>
       </c>
       <c r="F10" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E10,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G10" s="28">
@@ -6657,49 +6777,52 @@
       <c r="H10" s="28">
         <v>1</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
         <v>2</v>
       </c>
-      <c r="J10" s="46" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K10" s="46" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
       <c r="L10" s="27">
         <v>0</v>
       </c>
-      <c r="M10" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
       <c r="O10" s="27">
         <v>0</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
         <v>100</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="R10" s="28">
         <v>100006</v>
       </c>
-      <c r="R10" s="28">
-        <v>0</v>
-      </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="U10" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="29">
+      <c r="V10" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>200007</v>
       </c>
@@ -6712,11 +6835,11 @@
       <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="50">
         <v>6</v>
       </c>
       <c r="F11" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E11,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G11" s="37">
@@ -6725,49 +6848,52 @@
       <c r="H11" s="37">
         <v>1</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
         <v>2</v>
       </c>
-      <c r="J11" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K11" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K11" s="36">
-        <v>0</v>
-      </c>
       <c r="L11" s="36">
         <v>0</v>
       </c>
-      <c r="M11" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M11" s="36">
+        <v>0</v>
+      </c>
+      <c r="N11" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N11" s="36">
-        <v>0</v>
-      </c>
       <c r="O11" s="36">
         <v>0</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37">
         <v>100</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="R11" s="37">
         <v>100007</v>
       </c>
-      <c r="R11" s="37">
-        <v>0</v>
-      </c>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="37">
+        <v>0</v>
+      </c>
+      <c r="T11" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="U11" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="U11" s="38">
+      <c r="V11" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>200008</v>
       </c>
@@ -6780,11 +6906,11 @@
       <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="50">
         <v>6</v>
       </c>
       <c r="F12" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E12,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G12" s="40">
@@ -6793,49 +6919,52 @@
       <c r="H12" s="40">
         <v>1</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="40">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
         <v>2</v>
       </c>
-      <c r="J12" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K12" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K12" s="39">
-        <v>0</v>
-      </c>
       <c r="L12" s="39">
         <v>0</v>
       </c>
-      <c r="M12" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M12" s="39">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N12" s="39">
-        <v>0</v>
-      </c>
       <c r="O12" s="39">
         <v>0</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
         <v>100</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="R12" s="40">
         <v>100008</v>
       </c>
-      <c r="R12" s="40">
-        <v>0</v>
-      </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="40">
+        <v>0</v>
+      </c>
+      <c r="T12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="T12" s="39" t="s">
+      <c r="U12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="41">
+      <c r="V12" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>200009</v>
       </c>
@@ -6848,11 +6977,11 @@
       <c r="D13" s="36">
         <v>1</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="50">
         <v>6</v>
       </c>
       <c r="F13" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E13,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G13" s="37">
@@ -6861,49 +6990,52 @@
       <c r="H13" s="37">
         <v>1</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
         <v>2</v>
       </c>
-      <c r="J13" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K13" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="36">
-        <v>0</v>
-      </c>
       <c r="L13" s="36">
         <v>0</v>
       </c>
-      <c r="M13" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M13" s="36">
+        <v>0</v>
+      </c>
+      <c r="N13" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N13" s="36">
-        <v>0</v>
-      </c>
       <c r="O13" s="36">
         <v>0</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="37">
         <v>100</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="R13" s="37">
         <v>100009</v>
       </c>
-      <c r="R13" s="37">
-        <v>0</v>
-      </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="37">
+        <v>0</v>
+      </c>
+      <c r="T13" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="U13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="38">
+      <c r="V13" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>200010</v>
       </c>
@@ -6916,11 +7048,11 @@
       <c r="D14" s="39">
         <v>1</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="50">
         <v>6</v>
       </c>
       <c r="F14" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E14,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G14" s="40">
@@ -6929,49 +7061,52 @@
       <c r="H14" s="40">
         <v>1</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39">
         <v>2</v>
       </c>
-      <c r="J14" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K14" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K14" s="39">
-        <v>0</v>
-      </c>
       <c r="L14" s="39">
         <v>0</v>
       </c>
-      <c r="M14" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M14" s="39">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N14" s="39">
-        <v>0</v>
-      </c>
       <c r="O14" s="39">
         <v>0</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
         <v>100</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="R14" s="40">
         <v>100010</v>
       </c>
-      <c r="R14" s="40">
-        <v>0</v>
-      </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="40">
+        <v>0</v>
+      </c>
+      <c r="T14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="U14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="41">
+      <c r="V14" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>200011</v>
       </c>
@@ -6984,11 +7119,11 @@
       <c r="D15" s="36">
         <v>1</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="50">
         <v>7</v>
       </c>
       <c r="F15" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E15,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
       <c r="G15" s="37">
@@ -6997,49 +7132,52 @@
       <c r="H15" s="37">
         <v>1</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
         <v>2</v>
       </c>
-      <c r="J15" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K15" s="47" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K15" s="36">
-        <v>0</v>
-      </c>
       <c r="L15" s="36">
         <v>0</v>
       </c>
-      <c r="M15" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N15" s="36">
-        <v>0</v>
-      </c>
       <c r="O15" s="36">
         <v>0</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="37">
         <v>100</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="R15" s="37">
         <v>100011</v>
       </c>
-      <c r="R15" s="37">
-        <v>0</v>
-      </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="37">
+        <v>0</v>
+      </c>
+      <c r="T15" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="U15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="U15" s="38">
+      <c r="V15" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>200012</v>
       </c>
@@ -7052,11 +7190,11 @@
       <c r="D16" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="50">
         <v>7</v>
       </c>
       <c r="F16" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E16,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
       <c r="G16" s="40">
@@ -7065,45 +7203,48 @@
       <c r="H16" s="40">
         <v>1</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="40">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
         <v>2</v>
       </c>
-      <c r="J16" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K16" s="48" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K16" s="39">
-        <v>0</v>
-      </c>
       <c r="L16" s="39">
         <v>0</v>
       </c>
-      <c r="M16" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="M16" s="39">
+        <v>0</v>
+      </c>
+      <c r="N16" s="39" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N16" s="39">
-        <v>0</v>
-      </c>
       <c r="O16" s="39">
         <v>0</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="40">
         <v>100</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="R16" s="40">
         <v>100012</v>
       </c>
-      <c r="R16" s="40">
-        <v>0</v>
-      </c>
-      <c r="S16" s="39" t="s">
+      <c r="S16" s="40">
+        <v>0</v>
+      </c>
+      <c r="T16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="U16" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="U16" s="41">
+      <c r="V16" s="41">
         <v>0.3</v>
       </c>
     </row>
@@ -7113,24 +7254,30 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E9</xm:sqref>
+          <xm:sqref>J5:J16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E492521B-11AE-485E-A009-404B3213EB65}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L16</xm:sqref>
+          <xm:sqref>M5:M16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8812482B-AF02-4197-81B6-9BA3732762C2}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48046B12-B498-46AF-A18A-9E6B698C62A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8AC05-C70B-4B94-911E-818919C05377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="4005" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,6 +1434,21 @@
   <si>
     <t>target_range</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟용 일회성 효과</t>
+  </si>
+  <si>
+    <t>세컨 타겟용 지속성 효과</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>second_target_onetime_effect_ids</t>
+  </si>
+  <si>
+    <t>second_target_duration_effect_ids</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1991,13 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -6165,10 +6186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6188,19 +6209,19 @@
     <col min="13" max="13" width="19" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="13.125" style="31" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="31" customWidth="1"/>
-    <col min="18" max="19" width="13.125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="70.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="30"/>
+    <col min="18" max="21" width="13.125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -6259,16 +6280,22 @@
         <v>67</v>
       </c>
       <c r="T2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="W2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="X2" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -6327,16 +6354,22 @@
         <v>68</v>
       </c>
       <c r="T3" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="V3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="W3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
@@ -6395,16 +6428,22 @@
         <v>70</v>
       </c>
       <c r="T4" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>200001</v>
       </c>
@@ -6465,15 +6504,21 @@
       <c r="S5" s="24">
         <v>0</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="24">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="22"/>
+      <c r="X5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>200002</v>
       </c>
@@ -6534,15 +6579,21 @@
       <c r="S6" s="28">
         <v>0</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
+        <v>0</v>
+      </c>
+      <c r="V6" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="27"/>
+      <c r="X6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>200003</v>
       </c>
@@ -6603,15 +6654,21 @@
       <c r="S7" s="24">
         <v>0</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="24">
+        <v>0</v>
+      </c>
+      <c r="U7" s="24">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W7" s="22"/>
+      <c r="X7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>200004</v>
       </c>
@@ -6672,15 +6729,21 @@
       <c r="S8" s="28">
         <v>0</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="27"/>
+      <c r="X8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>200005</v>
       </c>
@@ -6741,17 +6804,23 @@
       <c r="S9" s="24">
         <v>0</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="24">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="W9" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="25">
+      <c r="X9" s="25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>200006</v>
       </c>
@@ -6812,17 +6881,23 @@
       <c r="S10" s="28">
         <v>0</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="W10" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="V10" s="29">
+      <c r="X10" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>200007</v>
       </c>
@@ -6883,17 +6958,23 @@
       <c r="S11" s="37">
         <v>0</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="37">
+        <v>0</v>
+      </c>
+      <c r="U11" s="37">
+        <v>0</v>
+      </c>
+      <c r="V11" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="U11" s="36" t="s">
+      <c r="W11" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="38">
+      <c r="X11" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>200008</v>
       </c>
@@ -6954,17 +7035,23 @@
       <c r="S12" s="40">
         <v>0</v>
       </c>
-      <c r="T12" s="39" t="s">
+      <c r="T12" s="40">
+        <v>0</v>
+      </c>
+      <c r="U12" s="40">
+        <v>0</v>
+      </c>
+      <c r="V12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="W12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="V12" s="41">
+      <c r="X12" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>200009</v>
       </c>
@@ -7025,17 +7112,23 @@
       <c r="S13" s="37">
         <v>0</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="U13" s="36" t="s">
+      <c r="W13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="V13" s="38">
+      <c r="X13" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>200010</v>
       </c>
@@ -7096,17 +7189,23 @@
       <c r="S14" s="40">
         <v>0</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="40">
+        <v>0</v>
+      </c>
+      <c r="U14" s="40">
+        <v>0</v>
+      </c>
+      <c r="V14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="W14" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="41">
+      <c r="X14" s="41">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>200011</v>
       </c>
@@ -7167,17 +7266,23 @@
       <c r="S15" s="37">
         <v>0</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="37">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37">
+        <v>0</v>
+      </c>
+      <c r="V15" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="U15" s="36" t="s">
+      <c r="W15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="V15" s="38">
+      <c r="X15" s="38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26">
         <v>200012</v>
       </c>
@@ -7238,13 +7343,19 @@
       <c r="S16" s="40">
         <v>0</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="40">
+        <v>0</v>
+      </c>
+      <c r="U16" s="40">
+        <v>0</v>
+      </c>
+      <c r="V16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="U16" s="39" t="s">
+      <c r="W16" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="V16" s="41">
+      <c r="X16" s="41">
         <v>0.3</v>
       </c>
     </row>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8AC05-C70B-4B94-911E-818919C05377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1E6FBF-B2E9-498C-A232-EBEC2833569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="3885" yWindow="660" windowWidth="33405" windowHeight="17445" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,15 +1292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빙결</t>
-  </si>
-  <si>
-    <t>시간 지속</t>
-  </si>
-  <si>
-    <t>타겟의 발 밑에서 즉시 효과 발동</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -1352,9 +1343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력을 기준으로 배율 계산을 하기 위한 수치</t>
-  </si>
-  <si>
     <t>1_attack_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,6 +1437,54 @@
   </si>
   <si>
     <t>second_target_duration_effect_ids</t>
+  </si>
+  <si>
+    <t>2 투사체를 타겟의 몸에 던진다</t>
+  </si>
+  <si>
+    <t>12 타겟의 몸에서 즉시 효과 발동</t>
+  </si>
+  <si>
+    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>1 피해 감소</t>
+  </si>
+  <si>
+    <t>101 중독</t>
+  </si>
+  <si>
+    <t>102 기절</t>
+  </si>
+  <si>
+    <t>105 빙결</t>
+  </si>
+  <si>
+    <t>2 피격 횟수 제한</t>
+  </si>
+  <si>
+    <t>1 시간 지속</t>
+  </si>
+  <si>
+    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
+  </si>
+  <si>
+    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>1 데미지를 준다</t>
+  </si>
+  <si>
+    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+  </si>
+  <si>
+    <t>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</t>
+  </si>
+  <si>
+    <t>shoot</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1707,68 +1743,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1835,38 +1816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1887,62 +1836,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1970,9 +1886,13 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1989,957 +1909,39 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
+            <v>POSITION_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>RANDOM</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>임의 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>SELF</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>자신 선택</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ALL</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>전체 선택</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>ALL_WITHOUT_ME</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>자신을 제외한 아군 전체 선택</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>ALLY_WITHOUT_ME_NEAREST</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>자신을 제외한 가장 가까운 아군 선택</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>ALLY_WITHOUT_ME_FURTHEST</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>자신을 제외한 가장 먼 아군 선택</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>NEAREST</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>FURTHEST</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>NEAREST_ADD_BACK_RANGE</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>FURTHEST_ADD_FRONT_RANGE</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>NEAREST_ADD_ARROUND_RANGE</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FURTHEST_ADD_ARROUND_RANGE</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
-          </cell>
-          <cell r="B16">
-            <v>3001</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>LOWEST_ATTACK</v>
-          </cell>
-          <cell r="B17">
-            <v>3003</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>LOWEST_DEFENSE</v>
-          </cell>
-          <cell r="B18">
-            <v>3004</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>HIGHEST_ATTACK</v>
-          </cell>
-          <cell r="B19">
-            <v>2003</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>HIGHEST_DEFENSE</v>
-          </cell>
-          <cell r="B20">
-            <v>2004</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>APPROACH</v>
-          </cell>
-          <cell r="B21">
-            <v>9999</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
-          </cell>
-          <cell r="B22">
-            <v>1001</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>리더 선택</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
-          </cell>
-          <cell r="B23">
-            <v>2001</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
-          </cell>
-          <cell r="B24">
-            <v>2002</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>HIGHEST_ACCURACY</v>
-          </cell>
-          <cell r="B25">
-            <v>2006</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>HIGHEST_EVASION</v>
-          </cell>
-          <cell r="B26">
-            <v>2007</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
-          </cell>
-          <cell r="B27">
-            <v>2008</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
-          </cell>
-          <cell r="B28">
-            <v>2009</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
-          </cell>
-          <cell r="B29">
-            <v>2010</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
-          </cell>
-          <cell r="B30">
-            <v>2011</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
-          </cell>
-          <cell r="B31">
-            <v>2012</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
-          </cell>
-          <cell r="B32">
-            <v>2013</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B33">
-            <v>2014</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B34">
-            <v>2015</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
-          </cell>
-          <cell r="B35">
-            <v>2016</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B36">
-            <v>2017</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
-          </cell>
-          <cell r="B37">
-            <v>2018</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
-          </cell>
-          <cell r="B38">
-            <v>2019</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
-          </cell>
-          <cell r="B39">
-            <v>2020</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>LOWEST_LIFE_RATE</v>
-          </cell>
-          <cell r="B40">
-            <v>3002</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
-          </cell>
-          <cell r="B41">
-            <v>3005</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>LOWEST_ACCURACY</v>
-          </cell>
-          <cell r="B42">
-            <v>3006</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>LOWEST_EVASION</v>
-          </cell>
-          <cell r="B43">
-            <v>3007</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
-          </cell>
-          <cell r="B44">
-            <v>3008</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
-          </cell>
-          <cell r="B45">
-            <v>3009</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
-          </cell>
-          <cell r="B46">
-            <v>3010</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
-          </cell>
-          <cell r="B47">
-            <v>3011</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
-          </cell>
-          <cell r="B48">
-            <v>3012</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
-          </cell>
-          <cell r="B49">
-            <v>3013</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B50">
-            <v>3014</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B51">
-            <v>3015</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
-          </cell>
-          <cell r="B52">
-            <v>3016</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
-          </cell>
-          <cell r="B53">
-            <v>3017</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
-          </cell>
-          <cell r="B54">
-            <v>3018</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
-          </cell>
-          <cell r="B55">
-            <v>3019</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
-          </cell>
-          <cell r="B56">
-            <v>3020</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
-          </cell>
-          <cell r="B57">
-            <v>3021</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
-          </cell>
-          <cell r="B58">
-            <v>3022</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
-          </cell>
-          <cell r="B59">
-            <v>3023</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
-          </cell>
-          <cell r="B60">
-            <v>3024</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
-          </cell>
-          <cell r="B61">
-            <v>3025</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
-          </cell>
-          <cell r="B62">
-            <v>3026</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
-          </cell>
-          <cell r="B63">
-            <v>3027</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>WEAK_ELEMENT</v>
-          </cell>
-          <cell r="B64">
-            <v>4001</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>STRONG_ELEMENT</v>
-          </cell>
-          <cell r="B65">
-            <v>4002</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION</v>
-          </cell>
-          <cell r="B66">
-            <v>5001</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
-          </cell>
-          <cell r="B67">
-            <v>5002</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
-          </cell>
-          <cell r="B68">
-            <v>5003</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
-          </cell>
-          <cell r="B69">
-            <v>5004</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
-          </cell>
-          <cell r="B70">
-            <v>5005</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
-          </cell>
-          <cell r="B71">
-            <v>5006</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
-          </cell>
-          <cell r="B72">
-            <v>5007</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
-          </cell>
-          <cell r="B73">
-            <v>6001</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
-          </cell>
-          <cell r="B74">
-            <v>6002</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
-          </cell>
-          <cell r="B75">
-            <v>6003</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
-          </cell>
-          <cell r="B76">
-            <v>6004</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
-          </cell>
-          <cell r="B77">
-            <v>6005</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
-          </cell>
-          <cell r="B78">
-            <v>6006</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
-          </cell>
-          <cell r="B79">
-            <v>6007</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
-          </cell>
-          <cell r="B80">
-            <v>6008</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
-          </cell>
-          <cell r="B81">
-            <v>6009</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
-          </cell>
-          <cell r="B82">
-            <v>6010</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+            <v>ROLE_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>AROUND_SPLASH</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BACK_SPLASH</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>NPC_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>TARGET_RULE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2955,6 +1957,946 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
+            <v>RANDOM</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>0 임의 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>SELF</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 자신 선택</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>ALL</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 전체 선택</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ALL_WITHOUT_ME</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 자신을 제외한 아군 전체 선택</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ALLY_WITHOUT_ME_NEAREST</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 자신을 제외한 가장 가까운 아군 선택</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>ALLY_WITHOUT_ME_FURTHEST</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 자신을 제외한 가장 먼 아군 선택</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>NEAREST</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FURTHEST</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>NEAREST_ADD_BACK_RANGE</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>8 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>FURTHEST_ADD_FRONT_RANGE</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>9 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>NEAREST_ADD_ARROUND_RANGE</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FURTHEST_ADD_ARROUND_RANGE</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>LOWEST_LIFE_VALUE</v>
+          </cell>
+          <cell r="B16">
+            <v>3001</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>LOWEST_ATTACK</v>
+          </cell>
+          <cell r="B17">
+            <v>3003</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>3003 공격력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>LOWEST_DEFENSE</v>
+          </cell>
+          <cell r="B18">
+            <v>3004</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>3004 방어력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>HIGHEST_ATTACK</v>
+          </cell>
+          <cell r="B19">
+            <v>2003</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>2003 공격력이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>HIGHEST_DEFENSE</v>
+          </cell>
+          <cell r="B20">
+            <v>2004</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>2004 방어력이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>APPROACH</v>
+          </cell>
+          <cell r="B21">
+            <v>9999</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>LEADER_HIGH_PRIORITY</v>
+          </cell>
+          <cell r="B22">
+            <v>1001</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>1001 리더 선택</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>HIGHEST_LIFE_VALUE</v>
+          </cell>
+          <cell r="B23">
+            <v>2001</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>2001 남은 체력이 가장 많은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>HIGHEST_LIFE_RATE</v>
+          </cell>
+          <cell r="B24">
+            <v>2002</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>HIGHEST_ACCURACY</v>
+          </cell>
+          <cell r="B25">
+            <v>2006</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>HIGHEST_EVASION</v>
+          </cell>
+          <cell r="B26">
+            <v>2007</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+          </cell>
+          <cell r="B27">
+            <v>2008</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
+          </cell>
+          <cell r="B28">
+            <v>2009</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+          </cell>
+          <cell r="B29">
+            <v>2010</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+          </cell>
+          <cell r="B30">
+            <v>2011</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+          </cell>
+          <cell r="B31">
+            <v>2012</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>2012 남은 체력이 가장 높은 악마 선택</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+          </cell>
+          <cell r="B32">
+            <v>2013</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>2013 남은 체력이 가장 높은 천사 선택</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B33">
+            <v>2014</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B34">
+            <v>2015</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+          </cell>
+          <cell r="B35">
+            <v>2016</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B36">
+            <v>2017</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+          </cell>
+          <cell r="B37">
+            <v>2018</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+          </cell>
+          <cell r="B38">
+            <v>2019</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+          </cell>
+          <cell r="B39">
+            <v>2020</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>LOWEST_LIFE_RATE</v>
+          </cell>
+          <cell r="B40">
+            <v>3002</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+          </cell>
+          <cell r="B41">
+            <v>3005</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>LOWEST_ACCURACY</v>
+          </cell>
+          <cell r="B42">
+            <v>3006</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>3006 명중률이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>LOWEST_EVASION</v>
+          </cell>
+          <cell r="B43">
+            <v>3007</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>3007 회피율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+          </cell>
+          <cell r="B44">
+            <v>3008</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>LOWEST_LIFE_VALUE_ELF</v>
+          </cell>
+          <cell r="B45">
+            <v>3009</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+          </cell>
+          <cell r="B46">
+            <v>3010</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+          </cell>
+          <cell r="B47">
+            <v>3011</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+          </cell>
+          <cell r="B48">
+            <v>3012</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+          </cell>
+          <cell r="B49">
+            <v>3013</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B50">
+            <v>3014</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B51">
+            <v>3015</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+          </cell>
+          <cell r="B52">
+            <v>3016</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+          </cell>
+          <cell r="B53">
+            <v>3017</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+          </cell>
+          <cell r="B54">
+            <v>3018</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+          </cell>
+          <cell r="B55">
+            <v>3019</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>LOWEST_EVASION_WITHOUT_ME</v>
+          </cell>
+          <cell r="B56">
+            <v>3020</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+          </cell>
+          <cell r="B57">
+            <v>3021</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+          </cell>
+          <cell r="B58">
+            <v>3022</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>LOWEST_ATTACK_WITH_ME</v>
+          </cell>
+          <cell r="B59">
+            <v>3023</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>LOWEST_DEFENSE_WITH_ME</v>
+          </cell>
+          <cell r="B60">
+            <v>3024</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>LOWEST_RAPIDITY_WITH_ME</v>
+          </cell>
+          <cell r="B61">
+            <v>3025</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>LOWEST_ACCURACY_WITH_ME</v>
+          </cell>
+          <cell r="B62">
+            <v>3026</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>LOWEST_EVASION_WITH_ME</v>
+          </cell>
+          <cell r="B63">
+            <v>3027</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>WEAK_ELEMENT</v>
+          </cell>
+          <cell r="B64">
+            <v>4001</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>STRONG_ELEMENT</v>
+          </cell>
+          <cell r="B65">
+            <v>4002</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>GAIN_BUFF_DURATION</v>
+          </cell>
+          <cell r="B66">
+            <v>5001</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>5001 버프 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+          </cell>
+          <cell r="B67">
+            <v>5002</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+          </cell>
+          <cell r="B68">
+            <v>5003</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+          </cell>
+          <cell r="B69">
+            <v>5004</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+          </cell>
+          <cell r="B70">
+            <v>5005</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+          </cell>
+          <cell r="B71">
+            <v>5006</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+          </cell>
+          <cell r="B72">
+            <v>5007</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>GAIN_DEBUFF_DURATION</v>
+          </cell>
+          <cell r="B73">
+            <v>6001</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>6001 디버프 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+          </cell>
+          <cell r="B74">
+            <v>6002</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+          </cell>
+          <cell r="B75">
+            <v>6003</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>GAIN_DEBUFF_DURATION_BURN</v>
+          </cell>
+          <cell r="B76">
+            <v>6004</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+          </cell>
+          <cell r="B77">
+            <v>6005</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>GAIN_DEBUFF_DURATION_POISON</v>
+          </cell>
+          <cell r="B78">
+            <v>6006</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+          </cell>
+          <cell r="B79">
+            <v>6007</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+          </cell>
+          <cell r="B80">
+            <v>6008</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+          </cell>
+          <cell r="B81">
+            <v>6009</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+          </cell>
+          <cell r="B82">
+            <v>6010</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>AROUND_SPLASH</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BACK_SPLASH</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
             <v>NONE</v>
           </cell>
           <cell r="B4">
@@ -2972,7 +2914,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>대미지 만큼 현재 체력 감소</v>
+            <v>1 대미지 만큼 현재 체력 감소</v>
           </cell>
         </row>
         <row r="6">
@@ -2983,7 +2925,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>다음 피해의 데미지를 감소</v>
+            <v>2 다음 피해의 데미지를 감소</v>
           </cell>
         </row>
         <row r="7">
@@ -2994,12 +2936,12 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>대상의 현재 HP를 회복. 
+            <v>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6">
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
             <v>STAT_MULTIPLE_TYPE</v>
@@ -3035,7 +2977,7 @@
             <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="6">
@@ -3046,7 +2988,7 @@
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="7">
@@ -3057,7 +2999,7 @@
             <v>200</v>
           </cell>
           <cell r="C7" t="str">
-            <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="8">
@@ -3068,7 +3010,7 @@
             <v>300</v>
           </cell>
           <cell r="C8" t="str">
-            <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="9">
@@ -3079,7 +3021,7 @@
             <v>400</v>
           </cell>
           <cell r="C9" t="str">
-            <v>현재 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="10">
@@ -3090,7 +3032,7 @@
             <v>500</v>
           </cell>
           <cell r="C10" t="str">
-            <v>크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="11">
@@ -3101,7 +3043,7 @@
             <v>600</v>
           </cell>
           <cell r="C11" t="str">
-            <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="12">
@@ -3112,7 +3054,7 @@
             <v>700</v>
           </cell>
           <cell r="C12" t="str">
-            <v>명중률을 기준으로 계산을 하기 위한 수치</v>
+            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="13">
@@ -3123,7 +3065,7 @@
             <v>800</v>
           </cell>
           <cell r="C13" t="str">
-            <v>회피율을 기준으로 계산을 하기 위한 수치</v>
+            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="14">
@@ -3134,14 +3076,14 @@
             <v>900</v>
           </cell>
           <cell r="C14" t="str">
-            <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_TYPE</v>
@@ -3166,7 +3108,7 @@
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>아군</v>
+            <v>0 아군</v>
           </cell>
         </row>
         <row r="5">
@@ -3177,11 +3119,11 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>적군</v>
+            <v>1 적군</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11">
+      <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
             <v>ONETIME_EFFECT_TYPE</v>
@@ -3217,7 +3159,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>데미지를 준다</v>
+            <v>1 데미지를 준다</v>
           </cell>
         </row>
         <row r="6">
@@ -3228,11 +3170,11 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>체력 회복</v>
+            <v>2 체력 회복</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
+      <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
             <v>DURATION_EFFECT_TYPE</v>
@@ -3268,7 +3210,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>피해 감소</v>
+            <v>1 피해 감소</v>
           </cell>
         </row>
         <row r="6">
@@ -3279,7 +3221,7 @@
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>중독</v>
+            <v>101 중독</v>
           </cell>
         </row>
         <row r="7">
@@ -3290,7 +3232,7 @@
             <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>기절</v>
+            <v>102 기절</v>
           </cell>
         </row>
         <row r="8">
@@ -3301,7 +3243,7 @@
             <v>103</v>
           </cell>
           <cell r="C8" t="str">
-            <v>침묵</v>
+            <v>103 침묵</v>
           </cell>
         </row>
         <row r="9">
@@ -3312,7 +3254,7 @@
             <v>104</v>
           </cell>
           <cell r="C9" t="str">
-            <v>결박</v>
+            <v>104 결박</v>
           </cell>
         </row>
         <row r="10">
@@ -3323,7 +3265,7 @@
             <v>105</v>
           </cell>
           <cell r="C10" t="str">
-            <v>빙결</v>
+            <v>105 빙결</v>
           </cell>
         </row>
         <row r="11">
@@ -3334,7 +3276,7 @@
             <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>공격력 증가</v>
+            <v>106 공격력 증가</v>
           </cell>
         </row>
         <row r="12">
@@ -3345,7 +3287,7 @@
             <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>방어력 증가</v>
+            <v>107 방어력 증가</v>
           </cell>
         </row>
         <row r="13">
@@ -3356,7 +3298,7 @@
             <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>공격력 감소</v>
+            <v>108 공격력 감소</v>
           </cell>
         </row>
         <row r="14">
@@ -3367,11 +3309,11 @@
             <v>109</v>
           </cell>
           <cell r="C14" t="str">
-            <v>방어력 감소</v>
+            <v>109 방어력 감소</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13">
+      <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
             <v>PERSISTENCE_TYPE</v>
@@ -3407,7 +3349,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>시간 지속</v>
+            <v>1 시간 지속</v>
           </cell>
         </row>
         <row r="6">
@@ -3418,7 +3360,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>피격 횟수 제한</v>
+            <v>2 피격 횟수 제한</v>
           </cell>
         </row>
         <row r="7">
@@ -3429,11 +3371,11 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>공격 횟수 제한</v>
+            <v>3 공격 횟수 제한</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
             <v>PROJECTILE_TYPE</v>
@@ -3469,7 +3411,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>투사체를 타겟의 발 밑에 던진다</v>
+            <v>1 투사체를 타겟의 발 밑에 던진다</v>
           </cell>
         </row>
         <row r="6">
@@ -3480,7 +3422,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>투사체를 타겟의 몸에 던진다</v>
+            <v>2 투사체를 타겟의 몸에 던진다</v>
           </cell>
         </row>
         <row r="7">
@@ -3491,7 +3433,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>투사체를 타겟의 머리에 던진다</v>
+            <v>3 투사체를 타겟의 머리에 던진다</v>
           </cell>
         </row>
         <row r="8">
@@ -3502,7 +3444,7 @@
             <v>11</v>
           </cell>
           <cell r="C8" t="str">
-            <v>타겟의 발 밑에서 즉시 효과 발동</v>
+            <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="9">
@@ -3513,7 +3455,7 @@
             <v>12</v>
           </cell>
           <cell r="C9" t="str">
-            <v>타겟의 몸에서 즉시 효과 발동</v>
+            <v>12 타겟의 몸에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="10">
@@ -3524,7 +3466,7 @@
             <v>13</v>
           </cell>
           <cell r="C10" t="str">
-            <v>타겟의 머리에서 즉시 효과 발동</v>
+            <v>13 타겟의 머리에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="11">
@@ -3535,13 +3477,13 @@
             <v>21</v>
           </cell>
           <cell r="C11" t="str">
-            <v>전체 선택(진영의 중앙)</v>
+            <v>21 전체 선택(진영의 중앙)</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3846,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4049,7 +3991,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>'[1]@target_rule'!$C4</f>
-        <v>임의 타겟 선택</v>
+        <v>0 임의 타겟 선택</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>'[1]@stat'!$A4</f>
@@ -4085,7 +4027,7 @@
       </c>
       <c r="O3" s="4" t="str">
         <f>'[1]@target_type'!$C4</f>
-        <v>아군</v>
+        <v>0 아군</v>
       </c>
       <c r="Q3" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A4</f>
@@ -4171,7 +4113,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@target_rule'!$C5</f>
-        <v>자신 선택</v>
+        <v>1 자신 선택</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@stat'!$A5</f>
@@ -4183,7 +4125,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+        <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@effect'!$A5</f>
@@ -4195,7 +4137,7 @@
       </c>
       <c r="K4" s="4" t="str">
         <f>'[1]@effect'!$C5</f>
-        <v>대미지 만큼 현재 체력 감소</v>
+        <v>1 대미지 만큼 현재 체력 감소</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>'[1]@target_type'!$A5</f>
@@ -4207,7 +4149,7 @@
       </c>
       <c r="O4" s="4" t="str">
         <f>'[1]@target_type'!$C5</f>
-        <v>적군</v>
+        <v>1 적군</v>
       </c>
       <c r="Q4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A5</f>
@@ -4219,7 +4161,7 @@
       </c>
       <c r="S4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C5</f>
-        <v>데미지를 준다</v>
+        <v>1 데미지를 준다</v>
       </c>
       <c r="U4" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A5</f>
@@ -4231,7 +4173,7 @@
       </c>
       <c r="W4" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C5</f>
-        <v>피해 감소</v>
+        <v>1 피해 감소</v>
       </c>
       <c r="Y4" s="4" t="str">
         <f>'[1]@persistence_type'!$A5</f>
@@ -4243,7 +4185,7 @@
       </c>
       <c r="AA4" s="4" t="str">
         <f>'[1]@persistence_type'!$C5</f>
-        <v>시간 지속</v>
+        <v>1 시간 지속</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f>'[1]@projectile_type'!$A5</f>
@@ -4255,7 +4197,7 @@
       </c>
       <c r="AE4" s="4" t="str">
         <f>'[1]@projectile_type'!$C5</f>
-        <v>투사체를 타겟의 발 밑에 던진다</v>
+        <v>1 투사체를 타겟의 발 밑에 던진다</v>
       </c>
       <c r="AG4" s="4" t="e">
         <f>#REF!</f>
@@ -4279,7 +4221,7 @@
       </c>
       <c r="AM4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
-        <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -4293,7 +4235,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@target_rule'!$C6</f>
-        <v>전체 선택</v>
+        <v>2 전체 선택</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
@@ -4305,7 +4247,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+        <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@effect'!$A6</f>
@@ -4317,7 +4259,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>'[1]@effect'!$C6</f>
-        <v>다음 피해의 데미지를 감소</v>
+        <v>2 다음 피해의 데미지를 감소</v>
       </c>
       <c r="Q5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A6</f>
@@ -4329,7 +4271,7 @@
       </c>
       <c r="S5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C6</f>
-        <v>체력 회복</v>
+        <v>2 체력 회복</v>
       </c>
       <c r="U5" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A6</f>
@@ -4341,7 +4283,7 @@
       </c>
       <c r="W5" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C6</f>
-        <v>중독</v>
+        <v>101 중독</v>
       </c>
       <c r="Y5" s="4" t="str">
         <f>'[1]@persistence_type'!$A6</f>
@@ -4353,7 +4295,7 @@
       </c>
       <c r="AA5" s="4" t="str">
         <f>'[1]@persistence_type'!$C6</f>
-        <v>피격 횟수 제한</v>
+        <v>2 피격 횟수 제한</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f>'[1]@projectile_type'!$A6</f>
@@ -4365,7 +4307,7 @@
       </c>
       <c r="AE5" s="4" t="str">
         <f>'[1]@projectile_type'!$C6</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+        <v>2 투사체를 타겟의 몸에 던진다</v>
       </c>
       <c r="AG5" s="4" t="e">
         <f>#REF!</f>
@@ -4389,7 +4331,7 @@
       </c>
       <c r="AM5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
-        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
@@ -4403,7 +4345,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@target_rule'!$C7</f>
-        <v>자신을 제외한 아군 전체 선택</v>
+        <v>3 자신을 제외한 아군 전체 선택</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
@@ -4415,7 +4357,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+        <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@effect'!$A7</f>
@@ -4427,7 +4369,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>'[1]@effect'!$C7</f>
-        <v>대상의 현재 HP를 회복. 
+        <v>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</v>
       </c>
       <c r="U6" s="4" t="str">
@@ -4440,7 +4382,7 @@
       </c>
       <c r="W6" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C7</f>
-        <v>기절</v>
+        <v>102 기절</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>'[1]@persistence_type'!$A7</f>
@@ -4452,7 +4394,7 @@
       </c>
       <c r="AA6" s="4" t="str">
         <f>'[1]@persistence_type'!$C7</f>
-        <v>공격 횟수 제한</v>
+        <v>3 공격 횟수 제한</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f>'[1]@projectile_type'!$A7</f>
@@ -4464,7 +4406,7 @@
       </c>
       <c r="AE6" s="4" t="str">
         <f>'[1]@projectile_type'!$C7</f>
-        <v>투사체를 타겟의 머리에 던진다</v>
+        <v>3 투사체를 타겟의 머리에 던진다</v>
       </c>
       <c r="AG6" s="4" t="e">
         <f>#REF!</f>
@@ -4490,7 +4432,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@target_rule'!$C8</f>
-        <v>자신을 제외한 가장 가까운 아군 선택</v>
+        <v>4 자신을 제외한 가장 가까운 아군 선택</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
@@ -4502,7 +4444,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U7" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A8</f>
@@ -4514,7 +4456,7 @@
       </c>
       <c r="W7" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C8</f>
-        <v>침묵</v>
+        <v>103 침묵</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f>'[1]@projectile_type'!$A8</f>
@@ -4526,7 +4468,7 @@
       </c>
       <c r="AE7" s="4" t="str">
         <f>'[1]@projectile_type'!$C8</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+        <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
       <c r="AG7" s="4" t="e">
         <f>#REF!</f>
@@ -4552,7 +4494,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@target_rule'!$C9</f>
-        <v>자신을 제외한 가장 먼 아군 선택</v>
+        <v>5 자신을 제외한 가장 먼 아군 선택</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
@@ -4564,7 +4506,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>현재 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A9</f>
@@ -4576,7 +4518,7 @@
       </c>
       <c r="W8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C9</f>
-        <v>결박</v>
+        <v>104 결박</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f>'[1]@projectile_type'!$A9</f>
@@ -4588,7 +4530,7 @@
       </c>
       <c r="AE8" s="4" t="str">
         <f>'[1]@projectile_type'!$C9</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+        <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
@@ -4602,7 +4544,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@target_rule'!$C10</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+        <v>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
@@ -4614,7 +4556,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+        <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A10</f>
@@ -4626,7 +4568,7 @@
       </c>
       <c r="W9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C10</f>
-        <v>빙결</v>
+        <v>105 빙결</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f>'[1]@projectile_type'!$A10</f>
@@ -4638,7 +4580,7 @@
       </c>
       <c r="AE9" s="4" t="str">
         <f>'[1]@projectile_type'!$C10</f>
-        <v>타겟의 머리에서 즉시 효과 발동</v>
+        <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
@@ -4652,7 +4594,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@target_rule'!$C11</f>
-        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+        <v>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
@@ -4664,7 +4606,7 @@
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+        <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A11</f>
@@ -4676,7 +4618,7 @@
       </c>
       <c r="W10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C11</f>
-        <v>공격력 증가</v>
+        <v>106 공격력 증가</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f>'[1]@projectile_type'!$A11</f>
@@ -4688,7 +4630,7 @@
       </c>
       <c r="AE10" s="4" t="str">
         <f>'[1]@projectile_type'!$C11</f>
-        <v>전체 선택(진영의 중앙)</v>
+        <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
@@ -4702,7 +4644,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
+        <v>8 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -4714,7 +4656,7 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>명중률을 기준으로 계산을 하기 위한 수치</v>
+        <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A12</f>
@@ -4726,7 +4668,7 @@
       </c>
       <c r="W11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C12</f>
-        <v>방어력 증가</v>
+        <v>107 방어력 증가</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
@@ -4740,7 +4682,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
+        <v>9 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -4752,7 +4694,7 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>회피율을 기준으로 계산을 하기 위한 수치</v>
+        <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A13</f>
@@ -4764,7 +4706,7 @@
       </c>
       <c r="W12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C13</f>
-        <v>공격력 감소</v>
+        <v>108 공격력 감소</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
@@ -4778,7 +4720,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
+        <v>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -4790,7 +4732,7 @@
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+        <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A14</f>
@@ -4802,7 +4744,7 @@
       </c>
       <c r="W13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C14</f>
-        <v>방어력 감소</v>
+        <v>109 방어력 감소</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
@@ -4816,7 +4758,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
+        <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
@@ -4830,7 +4772,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
@@ -4844,7 +4786,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>3003 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4858,7 +4800,7 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>3004 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4872,7 +4814,7 @@
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>2003 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4886,7 +4828,7 @@
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>2004 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4900,7 +4842,7 @@
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4914,7 +4856,7 @@
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>리더 선택</v>
+        <v>1001 리더 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4928,7 +4870,7 @@
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>2001 남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4942,7 +4884,7 @@
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4956,7 +4898,7 @@
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4970,7 +4912,7 @@
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4984,7 +4926,7 @@
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4998,7 +4940,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5012,7 +4954,7 @@
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5026,7 +4968,7 @@
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5040,7 +4982,7 @@
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>2012 남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5054,7 +4996,7 @@
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>2013 남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5068,7 +5010,7 @@
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5082,7 +5024,7 @@
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5096,7 +5038,7 @@
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5110,7 +5052,7 @@
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5124,7 +5066,7 @@
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5138,7 +5080,7 @@
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5152,7 +5094,7 @@
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5166,7 +5108,7 @@
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5180,7 +5122,7 @@
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5194,7 +5136,7 @@
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>3006 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5208,7 +5150,7 @@
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>3007 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5222,7 +5164,7 @@
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5236,7 +5178,7 @@
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5250,7 +5192,7 @@
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5264,7 +5206,7 @@
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5278,7 +5220,7 @@
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5292,7 +5234,7 @@
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5306,7 +5248,7 @@
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5320,7 +5262,7 @@
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5334,7 +5276,7 @@
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5348,7 +5290,7 @@
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5362,7 +5304,7 @@
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5376,7 +5318,7 @@
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5390,7 +5332,7 @@
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5404,7 +5346,7 @@
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5418,7 +5360,7 @@
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5432,7 +5374,7 @@
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5446,7 +5388,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5460,7 +5402,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5474,7 +5416,7 @@
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5488,7 +5430,7 @@
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5502,7 +5444,7 @@
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -5516,7 +5458,7 @@
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5530,7 +5472,7 @@
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>5001 버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -5544,7 +5486,7 @@
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5558,7 +5500,7 @@
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -5572,7 +5514,7 @@
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5586,7 +5528,7 @@
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -5600,7 +5542,7 @@
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -5614,7 +5556,7 @@
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5628,7 +5570,7 @@
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>6001 디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -5642,7 +5584,7 @@
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -5656,7 +5598,7 @@
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -5670,7 +5612,7 @@
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -5684,7 +5626,7 @@
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -5698,7 +5640,7 @@
       </c>
       <c r="C77" s="4" t="str">
         <f>'[1]@target_rule'!$C78</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -5712,7 +5654,7 @@
       </c>
       <c r="C78" s="4" t="str">
         <f>'[1]@target_rule'!$C79</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -5726,7 +5668,7 @@
       </c>
       <c r="C79" s="4" t="str">
         <f>'[1]@target_rule'!$C80</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -5740,7 +5682,7 @@
       </c>
       <c r="C80" s="4" t="str">
         <f>'[1]@target_rule'!$C81</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -5754,7 +5696,7 @@
       </c>
       <c r="C81" s="4" t="str">
         <f>'[1]@target_rule'!$C82</f>
-        <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+        <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5710,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5793,7 +5735,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -5802,13 +5744,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
@@ -5828,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -5845,7 +5787,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -5854,13 +5796,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
@@ -5875,7 +5817,7 @@
         <v>적타겟/근접공격/데미지</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -5888,7 +5830,7 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5900,7 +5842,7 @@
         <v>적타겟/근접공격/데미지</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16">
         <v>2.5</v>
@@ -5913,7 +5855,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5925,7 +5867,7 @@
         <v>적타겟/근접공격/데미지</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -5938,7 +5880,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5950,7 +5892,7 @@
         <v>적타겟/근접공격/데미지</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="16">
         <v>2.5</v>
@@ -5963,7 +5905,7 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5975,7 +5917,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -5988,7 +5930,7 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6000,7 +5942,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="16">
         <v>2.5</v>
@@ -6013,7 +5955,7 @@
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6025,7 +5967,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -6038,7 +5980,7 @@
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6050,7 +5992,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="16">
         <v>2.5</v>
@@ -6063,7 +6005,7 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6075,7 +6017,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13" s="11">
         <v>2</v>
@@ -6088,7 +6030,7 @@
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6100,7 +6042,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="16">
         <v>2.5</v>
@@ -6113,7 +6055,7 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6125,7 +6067,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -6138,7 +6080,7 @@
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6150,7 +6092,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D16" s="16">
         <v>2.5</v>
@@ -6163,7 +6105,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6189,1206 +6131,1218 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="18" style="31" customWidth="1"/>
-    <col min="6" max="6" width="66.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="19" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="31" customWidth="1"/>
-    <col min="18" max="21" width="13.125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="14.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" style="23" customWidth="1"/>
+    <col min="15" max="16" width="14.375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="23" customWidth="1"/>
+    <col min="18" max="21" width="13.125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="32" t="s">
+      <c r="U3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="32" t="s">
+      <c r="N4" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="U4" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="V4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>200001</v>
+      </c>
+      <c r="B5" s="32">
+        <v>200001</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>100</v>
+      </c>
+      <c r="R5" s="30">
+        <v>100001</v>
+      </c>
+      <c r="S5" s="30">
+        <v>0</v>
+      </c>
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30">
+        <v>0</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
+        <v>200002</v>
+      </c>
+      <c r="B6" s="32">
+        <v>200002</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>100</v>
+      </c>
+      <c r="R6" s="30">
+        <v>100002</v>
+      </c>
+      <c r="S6" s="30">
+        <v>0</v>
+      </c>
+      <c r="T6" s="30">
+        <v>0</v>
+      </c>
+      <c r="U6" s="30">
+        <v>0</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>200003</v>
+      </c>
+      <c r="B7" s="32">
+        <v>200003</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="33" t="s">
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>100</v>
+      </c>
+      <c r="R7" s="30">
+        <v>100003</v>
+      </c>
+      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>200004</v>
+      </c>
+      <c r="B8" s="32">
+        <v>200004</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>100</v>
+      </c>
+      <c r="R8" s="30">
+        <v>100004</v>
+      </c>
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>200005</v>
+      </c>
+      <c r="B9" s="32">
+        <v>200005</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>100</v>
+      </c>
+      <c r="R9" s="30">
+        <v>100005</v>
+      </c>
+      <c r="S9" s="30">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>200006</v>
+      </c>
+      <c r="B10" s="32">
+        <v>200006</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="32">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>100</v>
+      </c>
+      <c r="R10" s="30">
+        <v>100006</v>
+      </c>
+      <c r="S10" s="30">
+        <v>0</v>
+      </c>
+      <c r="T10" s="30">
+        <v>0</v>
+      </c>
+      <c r="U10" s="30">
+        <v>0</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
+        <v>200007</v>
+      </c>
+      <c r="B11" s="32">
+        <v>200007</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>100</v>
+      </c>
+      <c r="R11" s="30">
+        <v>100007</v>
+      </c>
+      <c r="S11" s="30">
+        <v>0</v>
+      </c>
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>200008</v>
+      </c>
+      <c r="B12" s="32">
+        <v>200008</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>100</v>
+      </c>
+      <c r="R12" s="30">
+        <v>100008</v>
+      </c>
+      <c r="S12" s="30">
+        <v>0</v>
+      </c>
+      <c r="T12" s="30">
+        <v>0</v>
+      </c>
+      <c r="U12" s="30">
+        <v>0</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
+        <v>200009</v>
+      </c>
+      <c r="B13" s="32">
+        <v>200009</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>100</v>
+      </c>
+      <c r="R13" s="30">
+        <v>100009</v>
+      </c>
+      <c r="S13" s="30">
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W13" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
+        <v>200010</v>
+      </c>
+      <c r="B14" s="32">
+        <v>200010</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>100</v>
+      </c>
+      <c r="R14" s="30">
+        <v>100010</v>
+      </c>
+      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>200011</v>
+      </c>
+      <c r="B15" s="32">
+        <v>200011</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
+      <c r="F15" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>100</v>
+      </c>
+      <c r="R15" s="30">
+        <v>100011</v>
+      </c>
+      <c r="S15" s="30">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W15" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>200012</v>
+      </c>
+      <c r="B16" s="32">
+        <v>200012</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="M3" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>200001</v>
-      </c>
-      <c r="B5" s="22">
-        <v>200001</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="F16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>100</v>
+      </c>
+      <c r="R16" s="30">
+        <v>100012</v>
+      </c>
+      <c r="S16" s="30">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W16" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="50">
-        <v>6</v>
-      </c>
-      <c r="F5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E5,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>100</v>
-      </c>
-      <c r="R5" s="24">
-        <v>100001</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0</v>
-      </c>
-      <c r="T5" s="24">
-        <v>0</v>
-      </c>
-      <c r="U5" s="24">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
-        <v>200002</v>
-      </c>
-      <c r="B6" s="27">
-        <v>200002</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50">
-        <v>6</v>
-      </c>
-      <c r="F6" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E6,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G6" s="28">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0</v>
-      </c>
-      <c r="N6" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>100</v>
-      </c>
-      <c r="R6" s="28">
-        <v>100002</v>
-      </c>
-      <c r="S6" s="28">
-        <v>0</v>
-      </c>
-      <c r="T6" s="28">
-        <v>0</v>
-      </c>
-      <c r="U6" s="28">
-        <v>0</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>200003</v>
-      </c>
-      <c r="B7" s="22">
-        <v>200003</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50">
-        <v>6</v>
-      </c>
-      <c r="F7" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E7,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O7" s="22">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>100</v>
-      </c>
-      <c r="R7" s="24">
-        <v>100003</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0</v>
-      </c>
-      <c r="T7" s="24">
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="22"/>
-      <c r="X7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
-        <v>200004</v>
-      </c>
-      <c r="B8" s="27">
-        <v>200004</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50">
-        <v>6</v>
-      </c>
-      <c r="F8" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E8,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>100</v>
-      </c>
-      <c r="R8" s="28">
-        <v>100004</v>
-      </c>
-      <c r="S8" s="28">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <v>0</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
-        <v>200005</v>
-      </c>
-      <c r="B9" s="22">
-        <v>200005</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50">
-        <v>6</v>
-      </c>
-      <c r="F9" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E9,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>2</v>
-      </c>
-      <c r="K9" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>100</v>
-      </c>
-      <c r="R9" s="24">
-        <v>100005</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="X9" s="25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
-        <v>200006</v>
-      </c>
-      <c r="B10" s="27">
-        <v>200006</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="50">
-        <v>6</v>
-      </c>
-      <c r="F10" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E10,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
-        <v>1</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>2</v>
-      </c>
-      <c r="K10" s="46" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O10" s="27">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>100</v>
-      </c>
-      <c r="R10" s="28">
-        <v>100006</v>
-      </c>
-      <c r="S10" s="28">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
-        <v>0</v>
-      </c>
-      <c r="U10" s="28">
-        <v>0</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="X10" s="29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>200007</v>
-      </c>
-      <c r="B11" s="22">
-        <v>200007</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="50">
-        <v>6</v>
-      </c>
-      <c r="F11" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E11,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G11" s="37">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37">
-        <v>1</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36">
-        <v>2</v>
-      </c>
-      <c r="K11" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L11" s="36">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36">
-        <v>0</v>
-      </c>
-      <c r="N11" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O11" s="36">
-        <v>0</v>
-      </c>
-      <c r="P11" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>100</v>
-      </c>
-      <c r="R11" s="37">
-        <v>100007</v>
-      </c>
-      <c r="S11" s="37">
-        <v>0</v>
-      </c>
-      <c r="T11" s="37">
-        <v>0</v>
-      </c>
-      <c r="U11" s="37">
-        <v>0</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
-        <v>200008</v>
-      </c>
-      <c r="B12" s="27">
-        <v>200008</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="39">
-        <v>1</v>
-      </c>
-      <c r="E12" s="50">
-        <v>6</v>
-      </c>
-      <c r="F12" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E12,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G12" s="40">
-        <v>0</v>
-      </c>
-      <c r="H12" s="40">
-        <v>1</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39">
-        <v>2</v>
-      </c>
-      <c r="K12" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L12" s="39">
-        <v>0</v>
-      </c>
-      <c r="M12" s="39">
-        <v>0</v>
-      </c>
-      <c r="N12" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O12" s="39">
-        <v>0</v>
-      </c>
-      <c r="P12" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>100</v>
-      </c>
-      <c r="R12" s="40">
-        <v>100008</v>
-      </c>
-      <c r="S12" s="40">
-        <v>0</v>
-      </c>
-      <c r="T12" s="40">
-        <v>0</v>
-      </c>
-      <c r="U12" s="40">
-        <v>0</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="W12" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" s="41">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>200009</v>
-      </c>
-      <c r="B13" s="22">
-        <v>200009</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="36">
-        <v>1</v>
-      </c>
-      <c r="E13" s="50">
-        <v>6</v>
-      </c>
-      <c r="F13" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E13,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G13" s="37">
-        <v>0</v>
-      </c>
-      <c r="H13" s="37">
-        <v>1</v>
-      </c>
-      <c r="I13" s="37">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36">
-        <v>2</v>
-      </c>
-      <c r="K13" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L13" s="36">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36">
-        <v>0</v>
-      </c>
-      <c r="N13" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="37">
-        <v>100</v>
-      </c>
-      <c r="R13" s="37">
-        <v>100009</v>
-      </c>
-      <c r="S13" s="37">
-        <v>0</v>
-      </c>
-      <c r="T13" s="37">
-        <v>0</v>
-      </c>
-      <c r="U13" s="37">
-        <v>0</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26">
-        <v>200010</v>
-      </c>
-      <c r="B14" s="27">
-        <v>200010</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50">
-        <v>6</v>
-      </c>
-      <c r="F14" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E14,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <v>1</v>
-      </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="39">
-        <v>2</v>
-      </c>
-      <c r="K14" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L14" s="39">
-        <v>0</v>
-      </c>
-      <c r="M14" s="39">
-        <v>0</v>
-      </c>
-      <c r="N14" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O14" s="39">
-        <v>0</v>
-      </c>
-      <c r="P14" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <v>100</v>
-      </c>
-      <c r="R14" s="40">
-        <v>100010</v>
-      </c>
-      <c r="S14" s="40">
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <v>0</v>
-      </c>
-      <c r="U14" s="40">
-        <v>0</v>
-      </c>
-      <c r="V14" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="W14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="X14" s="41">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>200011</v>
-      </c>
-      <c r="B15" s="22">
-        <v>200011</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="50">
-        <v>7</v>
-      </c>
-      <c r="F15" s="44" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E15,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
-      </c>
-      <c r="G15" s="37">
-        <v>0</v>
-      </c>
-      <c r="H15" s="37">
-        <v>1</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
-        <v>2</v>
-      </c>
-      <c r="K15" s="47" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L15" s="36">
-        <v>0</v>
-      </c>
-      <c r="M15" s="36">
-        <v>0</v>
-      </c>
-      <c r="N15" s="36" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="37">
-        <v>100</v>
-      </c>
-      <c r="R15" s="37">
-        <v>100011</v>
-      </c>
-      <c r="S15" s="37">
-        <v>0</v>
-      </c>
-      <c r="T15" s="37">
-        <v>0</v>
-      </c>
-      <c r="U15" s="37">
-        <v>0</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="X15" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
-        <v>200012</v>
-      </c>
-      <c r="B16" s="27">
-        <v>200012</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="50">
-        <v>7</v>
-      </c>
-      <c r="F16" s="45" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E16,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
-      </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <v>1</v>
-      </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="39">
-        <v>2</v>
-      </c>
-      <c r="K16" s="48" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L16" s="39">
-        <v>0</v>
-      </c>
-      <c r="M16" s="39">
-        <v>0</v>
-      </c>
-      <c r="N16" s="39" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O16" s="39">
-        <v>0</v>
-      </c>
-      <c r="P16" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="40">
-        <v>100</v>
-      </c>
-      <c r="R16" s="40">
-        <v>100012</v>
-      </c>
-      <c r="S16" s="40">
-        <v>0</v>
-      </c>
-      <c r="T16" s="40">
-        <v>0</v>
-      </c>
-      <c r="U16" s="40">
-        <v>0</v>
-      </c>
-      <c r="V16" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="W16" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="X16" s="41">
+      <c r="X16" s="32">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{5087AB40-0A8E-4EEF-910F-4F581D8520F4}">
+      <formula1>"hit,shoot,buff,debuff"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
           <xm:sqref>J5:J16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E492521B-11AE-485E-A009-404B3213EB65}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>M5:M16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E55FCD1-F691-45FB-B2AC-479ED9101C9C}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$81</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8812482B-AF02-4197-81B6-9BA3732762C2}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{294B30F1-7B7B-4C62-BA2D-47071333824A}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>K5:K16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AM$3:$AM$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>N5:N16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7401,7 +7355,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7542,28 +7496,28 @@
         <v>100001</v>
       </c>
       <c r="B5" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C5" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="D5" s="11">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E5" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="42" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="H5" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
@@ -7583,28 +7537,28 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C6" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E6" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="H6" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -7624,27 +7578,28 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C7" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E7" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>120</v>
+      <c r="H7" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -7664,27 +7619,28 @@
         <v>100004</v>
       </c>
       <c r="B8" s="16">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C8" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="16">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E8" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="F8" s="16">
         <v>0</v>
       </c>
       <c r="G8" s="16">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>120</v>
+      <c r="H8" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -7704,27 +7660,28 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C9" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E9" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>120</v>
+      <c r="H9" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -7744,27 +7701,28 @@
         <v>100006</v>
       </c>
       <c r="B10" s="16">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C10" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="16">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E10" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
       </c>
       <c r="G10" s="16">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>120</v>
+      <c r="H10" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -7784,27 +7742,28 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C11" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E11" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E11" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>120</v>
+      <c r="H11" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -7824,27 +7783,28 @@
         <v>100008</v>
       </c>
       <c r="B12" s="16">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C12" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D12" s="16">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E12" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
       </c>
       <c r="G12" s="16">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="43" t="s">
-        <v>120</v>
+      <c r="H12" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -7864,27 +7824,28 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C13" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E13" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E13" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>120</v>
+      <c r="H13" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -7904,27 +7865,28 @@
         <v>100010</v>
       </c>
       <c r="B14" s="16">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C14" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D14" s="16">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E14" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E14" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
       <c r="G14" s="16">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="43" t="s">
-        <v>120</v>
+      <c r="H14" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -7944,27 +7906,28 @@
         <v>100011</v>
       </c>
       <c r="B15" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C15" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D15" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E15" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E15" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="49" t="s">
-        <v>120</v>
+      <c r="H15" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -7984,27 +7947,28 @@
         <v>100012</v>
       </c>
       <c r="B16" s="16">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C16" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D16" s="16">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E16" s="43" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="E16" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
       </c>
       <c r="G16" s="16">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>120</v>
+      <c r="H16" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -8025,23 +7989,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C08B07CC-4CE8-4A7E-B374-661FDB69F562}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
+            <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B16</xm:sqref>
+          <xm:sqref>C5:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23D8174B-1D19-41E8-A9A3-7F8333300CB1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0477C34-FF66-4589-B84E-7C321460226F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G16</xm:sqref>
+          <xm:sqref>E5:E16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38CA3413-9E2C-4299-88C9-04FC844B7807}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D16</xm:sqref>
+          <xm:sqref>H5:H16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8054,7 +8018,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8282,18 +8246,18 @@
         <v>500001</v>
       </c>
       <c r="B5" s="4">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B5,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>피해 감소</v>
+      <c r="C5" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="D5" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D5,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>피격 횟수 제한</v>
+      <c r="E5" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -8311,21 +8275,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="L5" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+      <c r="O5" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -8351,18 +8315,18 @@
         <v>500002</v>
       </c>
       <c r="B6" s="4">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>101</v>
       </c>
-      <c r="C6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B6,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>중독</v>
+      <c r="C6" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D6,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E6" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -8380,21 +8344,21 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="L6" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="O6" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+      <c r="O6" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -8420,18 +8384,18 @@
         <v>500003</v>
       </c>
       <c r="B7" s="4">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>102</v>
       </c>
-      <c r="C7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B7,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>기절</v>
+      <c r="C7" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D7,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E7" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -8449,21 +8413,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="L7" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="49" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -8489,16 +8453,18 @@
         <v>500006</v>
       </c>
       <c r="B8" s="4">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>101</v>
+      <c r="C8" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="D8" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>102</v>
+      <c r="E8" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8516,19 +8482,21 @@
         <v>100004</v>
       </c>
       <c r="K8" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>103</v>
+      <c r="L8" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>104</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -8540,7 +8508,7 @@
         <v>3000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -8561,29 +8529,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D2B6364-35EB-48F7-BE86-5F070E260B81}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$Z$3:$Z$6</xm:f>
+            <xm:f>'!참조_ENUM'!$W$3:$W$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D8</xm:sqref>
+          <xm:sqref>C5:C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A63839AB-3623-4487-B71E-45749980CB14}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97B5BA94-E1E5-4FDB-BAB1-8DCE9455AFCF}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
+            <xm:f>'!참조_ENUM'!$AA$3:$AA$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N6</xm:sqref>
+          <xm:sqref>E5:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20C43324-201E-44E5-B95C-2C4C416A8CC8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5EAC502-65E0-4848-BAE8-D363F770B1F1}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K8</xm:sqref>
+          <xm:sqref>L5:L8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA07E682-98E4-4EB6-9718-C3A35CE33021}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$V$3:$V$13</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B8</xm:sqref>
+          <xm:sqref>O5:O8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1E6FBF-B2E9-498C-A232-EBEC2833569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F28101-1F55-4EBC-94DF-92B787CA28B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="660" windowWidth="33405" windowHeight="17445" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1485,6 +1485,26 @@
   </si>
   <si>
     <t>shoot</t>
+  </si>
+  <si>
+    <t>trigger_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 이펙트 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스트 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1892,7 +1912,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1907,6 +1926,14 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2826,11 +2853,61 @@
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>AROUND_SPLASH</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BACK_SPLASH</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
+            <v>EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2857,31 +2934,43 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>AROUND_SPLASH</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>1 대미지 만큼 현재 체력 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>BACK_SPLASH</v>
+            <v>NEXT_DAMAGE_REDUCT</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>2 다음 피해의 데미지를 감소</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>HP_RECOVERY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 대상의 현재 HP를 회복. 
+MAX HP를 초과할 수 없다</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>STAT_MULTIPLE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2908,43 +2997,122 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>ATTACK_VALUE</v>
           </cell>
           <cell r="B5">
-            <v>1</v>
+            <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 대미지 만큼 현재 체력 감소</v>
+            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NEXT_DAMAGE_REDUCT</v>
+            <v>ATTACK</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 다음 피해의 데미지를 감소</v>
+            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>HP_RECOVERY</v>
+            <v>DEFENSE</v>
           </cell>
           <cell r="B7">
-            <v>3</v>
+            <v>200</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 대상의 현재 HP를 회복. 
-MAX HP를 초과할 수 없다</v>
+            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MAX_LIFE</v>
+          </cell>
+          <cell r="B8">
+            <v>300</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>LIFE</v>
+          </cell>
+          <cell r="B9">
+            <v>400</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>CRITICAL_RATE</v>
+          </cell>
+          <cell r="B10">
+            <v>500</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CRITICAL_POWER</v>
+          </cell>
+          <cell r="B11">
+            <v>600</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ACCURACY</v>
+          </cell>
+          <cell r="B12">
+            <v>700</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EVASION</v>
+          </cell>
+          <cell r="B13">
+            <v>800</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DAMAGE</v>
+          </cell>
+          <cell r="B14">
+            <v>900</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10">
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
+            <v>TARGET_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -2960,133 +3128,31 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>NONE</v>
+            <v>MY_TEAM</v>
           </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>NONE</v>
+            <v>0 아군</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ATTACK_VALUE</v>
+            <v>ENEMY_TEAM</v>
           </cell>
           <cell r="B5">
-            <v>100</v>
+            <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ATTACK</v>
-          </cell>
-          <cell r="B6">
-            <v>101</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>DEFENSE</v>
-          </cell>
-          <cell r="B7">
-            <v>200</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>MAX_LIFE</v>
-          </cell>
-          <cell r="B8">
-            <v>300</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>LIFE</v>
-          </cell>
-          <cell r="B9">
-            <v>400</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>CRITICAL_RATE</v>
-          </cell>
-          <cell r="B10">
-            <v>500</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CRITICAL_POWER</v>
-          </cell>
-          <cell r="B11">
-            <v>600</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>ACCURACY</v>
-          </cell>
-          <cell r="B12">
-            <v>700</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EVASION</v>
-          </cell>
-          <cell r="B13">
-            <v>800</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B14">
-            <v>900</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
+            <v>1 적군</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
       <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
+            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3102,31 +3168,42 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>MY_TEAM</v>
+            <v>NONE</v>
           </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>0 아군</v>
+            <v>NONE</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ENEMY_TEAM</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 적군</v>
+            <v>1 데미지를 준다</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>LIFE_RECOVERY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
+            <v>DURATION_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3153,31 +3230,119 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>DAMAGE_REDUCE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 데미지를 준다</v>
+            <v>1 피해 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>LIFE_RECOVERY</v>
+            <v>POISON</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 체력 회복</v>
+            <v>101 중독</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STUN</v>
+          </cell>
+          <cell r="B7">
+            <v>102</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>102 기절</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SILENCE</v>
+          </cell>
+          <cell r="B8">
+            <v>103</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>103 침묵</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BIND</v>
+          </cell>
+          <cell r="B9">
+            <v>104</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>104 결박</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FREEZE</v>
+          </cell>
+          <cell r="B10">
+            <v>105</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>105 빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>106 공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>107 방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>108 공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>109 방어력 감소</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+            <v>PERSISTENCE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3204,119 +3369,42 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE_REDUCE</v>
+            <v>TIME</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 피해 감소</v>
+            <v>1 시간 지속</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>POISON</v>
+            <v>HITTED</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 중독</v>
+            <v>2 피격 횟수 제한</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>STUN</v>
+            <v>ATTACK</v>
           </cell>
           <cell r="B7">
-            <v>102</v>
+            <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 기절</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SILENCE</v>
-          </cell>
-          <cell r="B8">
-            <v>103</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>103 침묵</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>BIND</v>
-          </cell>
-          <cell r="B9">
-            <v>104</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>104 결박</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>FREEZE</v>
-          </cell>
-          <cell r="B10">
-            <v>105</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>105 빙결</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ATK_UP</v>
-          </cell>
-          <cell r="B11">
-            <v>106</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>106 공격력 증가</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>DEF_UP</v>
-          </cell>
-          <cell r="B12">
-            <v>107</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>107 방어력 증가</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ATK_DOWN</v>
-          </cell>
-          <cell r="B13">
-            <v>108</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>108 공격력 감소</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DEF_DOWN</v>
-          </cell>
-          <cell r="B14">
-            <v>109</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>109 방어력 감소</v>
+            <v>3 공격 횟수 제한</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>PROJECTILE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3343,68 +3431,6 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TIME</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 시간 지속</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>HITTED</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 피격 횟수 제한</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>ATTACK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 공격 횟수 제한</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
             <v>THROW_FOOT</v>
           </cell>
           <cell r="B5">
@@ -3481,9 +3507,17 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6128,10 +6162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6154,17 +6188,18 @@
     <col min="17" max="17" width="16.125" style="23" customWidth="1"/>
     <col min="18" max="21" width="13.125" style="23" customWidth="1"/>
     <col min="22" max="22" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" style="22" customWidth="1"/>
     <col min="24" max="24" width="16.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="22"/>
+    <col min="25" max="25" width="70.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -6232,13 +6267,16 @@
         <v>77</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="X2" s="24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="Y2" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -6306,13 +6344,16 @@
         <v>3</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -6380,13 +6421,16 @@
         <v>78</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="X4" s="31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>200001</v>
       </c>
@@ -6460,8 +6504,9 @@
       <c r="X5" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="32"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>200002</v>
       </c>
@@ -6535,8 +6580,9 @@
       <c r="X6" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="32"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>200003</v>
       </c>
@@ -6610,8 +6656,9 @@
       <c r="X7" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="32"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>200004</v>
       </c>
@@ -6685,8 +6732,9 @@
       <c r="X8" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="32"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>200005</v>
       </c>
@@ -6723,7 +6771,7 @@
         <v>145</v>
       </c>
       <c r="L9" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M9" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -6756,14 +6804,15 @@
       <c r="V9" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W9" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W9" s="32"/>
       <c r="X9" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>200006</v>
       </c>
@@ -6800,7 +6849,7 @@
         <v>145</v>
       </c>
       <c r="L10" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M10" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -6833,14 +6882,15 @@
       <c r="V10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W10" s="32"/>
       <c r="X10" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>200007</v>
       </c>
@@ -6877,7 +6927,7 @@
         <v>145</v>
       </c>
       <c r="L11" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M11" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -6910,14 +6960,15 @@
       <c r="V11" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W11" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W11" s="32"/>
       <c r="X11" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>200008</v>
       </c>
@@ -6954,7 +7005,7 @@
         <v>145</v>
       </c>
       <c r="L12" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M12" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -6987,14 +7038,15 @@
       <c r="V12" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W12" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W12" s="32"/>
       <c r="X12" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>200009</v>
       </c>
@@ -7031,7 +7083,7 @@
         <v>145</v>
       </c>
       <c r="L13" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -7064,14 +7116,15 @@
       <c r="V13" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W13" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W13" s="32"/>
       <c r="X13" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>200010</v>
       </c>
@@ -7108,7 +7161,7 @@
         <v>145</v>
       </c>
       <c r="L14" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M14" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -7141,14 +7194,15 @@
       <c r="V14" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W14" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W14" s="32"/>
       <c r="X14" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>200011</v>
       </c>
@@ -7185,7 +7239,7 @@
         <v>145</v>
       </c>
       <c r="L15" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -7218,14 +7272,15 @@
       <c r="V15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W15" s="32"/>
       <c r="X15" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>200012</v>
       </c>
@@ -7262,7 +7317,7 @@
         <v>145</v>
       </c>
       <c r="L16" s="32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M16" s="32">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -7295,18 +7350,19 @@
       <c r="V16" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W16" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="W16" s="32"/>
       <c r="X16" s="32">
         <v>0.3</v>
+      </c>
+      <c r="Y16" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{5087AB40-0A8E-4EEF-910F-4F581D8520F4}">
-      <formula1>"hit,shoot,buff,debuff"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
+      <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F28101-1F55-4EBC-94DF-92B787CA28B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F6287-BC7A-4AB0-A430-6ECD95FBA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="169">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,7 +1495,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐스트 이펙트</t>
+    <t>캐스팅 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 지속시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1503,7 +1507,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cast_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1823,18 +1835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
@@ -3517,7 +3517,7 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5741,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5757,14 +5757,16 @@
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5789,8 +5791,14 @@
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5815,331 +5823,391 @@
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="I3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="I4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>200001</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/근접공격/데미지</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>200002</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/근접공격/데미지</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="4">
         <v>2.5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>200003</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/근접공격/데미지</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>200004</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/근접공격/데미지</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="4">
         <v>2.5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>200005</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>200006</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="4">
         <v>2.5</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>200007</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="4" t="str">
         <f>VLOOKUP(A11,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>200008</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="4" t="str">
         <f>VLOOKUP(A12,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="4">
         <v>2.5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>200009</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>200010</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="4" t="str">
         <f>VLOOKUP(A14,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="4">
         <v>2.5</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>200011</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="4" t="str">
         <f>VLOOKUP(A15,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>200012</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="4" t="str">
         <f>VLOOKUP(A16,npc_skill_data!$B:$C,2,)</f>
         <v>적타겟/원거리공격/데미지</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="4">
         <v>2.5</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="4" t="s">
         <v>115</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6162,1199 +6230,1131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="43.875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.125" style="23" customWidth="1"/>
-    <col min="15" max="16" width="14.375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="23" customWidth="1"/>
-    <col min="18" max="21" width="13.125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" style="22" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="14.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="19" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" style="19" customWidth="1"/>
+    <col min="15" max="16" width="14.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="19" customWidth="1"/>
+    <col min="18" max="21" width="13.125" style="19" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" s="24" t="s">
+      <c r="W2" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="G3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="25" t="s">
+      <c r="W3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" s="31" t="s">
+      <c r="W4" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
         <v>200001</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>200001</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
         <v>1</v>
       </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="30">
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
         <v>100</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="26">
         <v>100001</v>
       </c>
-      <c r="S5" s="30">
-        <v>0</v>
-      </c>
-      <c r="T5" s="30">
-        <v>0</v>
-      </c>
-      <c r="U5" s="30">
-        <v>0</v>
-      </c>
-      <c r="V5" s="32" t="s">
+      <c r="S5" s="26">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26">
+        <v>0</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="32"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
         <v>200002</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>200002</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>1</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
         <v>1</v>
       </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
         <v>100</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="26">
         <v>100002</v>
       </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0</v>
-      </c>
-      <c r="V6" s="32" t="s">
+      <c r="S6" s="26">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26">
+        <v>0</v>
+      </c>
+      <c r="U6" s="26">
+        <v>0</v>
+      </c>
+      <c r="V6" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="32"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="W6" s="28"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>200003</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>200003</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="32">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
         <v>100</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="26">
         <v>100003</v>
       </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="32" t="s">
+      <c r="S7" s="26">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="32"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="W7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>200004</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>200004</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>1</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
         <v>1</v>
       </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L8" s="32">
-        <v>0</v>
-      </c>
-      <c r="M8" s="32">
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="32">
-        <v>0</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
         <v>100</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="26">
         <v>100004</v>
       </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <v>0</v>
-      </c>
-      <c r="V8" s="32" t="s">
+      <c r="S8" s="26">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="32"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
         <v>200005</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="28">
         <v>200005</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>1</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
         <v>1</v>
       </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="28">
         <v>20</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="32">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
         <v>100</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="26">
         <v>100005</v>
       </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0</v>
-      </c>
-      <c r="V9" s="32" t="s">
+      <c r="S9" s="26">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y9" s="32" t="s">
+      <c r="W9" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
         <v>200006</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>200006</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
         <v>1</v>
       </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="28">
         <v>20</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="32">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
         <v>100</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="26">
         <v>100006</v>
       </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="32" t="s">
+      <c r="S10" s="26">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y10" s="32" t="s">
+      <c r="W10" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>200007</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="28">
         <v>200007</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
         <v>1</v>
       </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32">
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="28">
         <v>20</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="32">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
         <v>100</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="26">
         <v>100007</v>
       </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <v>0</v>
-      </c>
-      <c r="U11" s="30">
-        <v>0</v>
-      </c>
-      <c r="V11" s="32" t="s">
+      <c r="S11" s="26">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y11" s="32" t="s">
+      <c r="W11" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
         <v>200008</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="28">
         <v>200008</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
         <v>1</v>
       </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="32">
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="28">
         <v>20</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30">
+      <c r="O12" s="28">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
         <v>100</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="26">
         <v>100008</v>
       </c>
-      <c r="S12" s="30">
-        <v>0</v>
-      </c>
-      <c r="T12" s="30">
-        <v>0</v>
-      </c>
-      <c r="U12" s="30">
-        <v>0</v>
-      </c>
-      <c r="V12" s="32" t="s">
+      <c r="S12" s="26">
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+      <c r="V12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y12" s="32" t="s">
+      <c r="W12" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
         <v>200009</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="28">
         <v>200009</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
         <v>1</v>
       </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="28">
         <v>20</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="32">
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
         <v>100</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="26">
         <v>100009</v>
       </c>
-      <c r="S13" s="30">
-        <v>0</v>
-      </c>
-      <c r="T13" s="30">
-        <v>0</v>
-      </c>
-      <c r="U13" s="30">
-        <v>0</v>
-      </c>
-      <c r="V13" s="32" t="s">
+      <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y13" s="32" t="s">
+      <c r="W13" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
         <v>200010</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="28">
         <v>200010</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
         <v>1</v>
       </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32">
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="28">
         <v>20</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="30">
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
         <v>100</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="26">
         <v>100010</v>
       </c>
-      <c r="S14" s="30">
-        <v>0</v>
-      </c>
-      <c r="T14" s="30">
-        <v>0</v>
-      </c>
-      <c r="U14" s="30">
-        <v>0</v>
-      </c>
-      <c r="V14" s="32" t="s">
+      <c r="S14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y14" s="32" t="s">
+      <c r="W14" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
         <v>200011</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="28">
         <v>200011</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="28">
         <v>1</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
         <v>1</v>
       </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="28">
         <v>20</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="30">
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
         <v>100</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="26">
         <v>100011</v>
       </c>
-      <c r="S15" s="30">
-        <v>0</v>
-      </c>
-      <c r="T15" s="30">
-        <v>0</v>
-      </c>
-      <c r="U15" s="30">
-        <v>0</v>
-      </c>
-      <c r="V15" s="32" t="s">
+      <c r="S15" s="26">
+        <v>0</v>
+      </c>
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y15" s="32" t="s">
+      <c r="W15" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
         <v>200012</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="28">
         <v>200012</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
         <v>1</v>
       </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="28">
         <v>20</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="30">
+      <c r="O16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
         <v>100</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="26">
         <v>100012</v>
       </c>
-      <c r="S16" s="30">
-        <v>0</v>
-      </c>
-      <c r="T16" s="30">
-        <v>0</v>
-      </c>
-      <c r="U16" s="30">
-        <v>0</v>
-      </c>
-      <c r="V16" s="32" t="s">
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="Y16" s="32" t="s">
+      <c r="W16" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7555,14 +7555,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="11">
@@ -7572,7 +7572,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="23" t="s">
         <v>147</v>
       </c>
       <c r="I5" s="11">
@@ -7596,14 +7596,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="4">
@@ -7613,7 +7613,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I6" s="4">
@@ -7637,14 +7637,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>146</v>
       </c>
       <c r="F7" s="4">
@@ -7654,7 +7654,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I7" s="4">
@@ -7678,14 +7678,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>146</v>
       </c>
       <c r="F8" s="16">
@@ -7695,7 +7695,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I8" s="16">
@@ -7719,14 +7719,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>145</v>
       </c>
       <c r="F9" s="4">
@@ -7736,7 +7736,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I9" s="4">
@@ -7760,14 +7760,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F10" s="16">
@@ -7777,7 +7777,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I10" s="16">
@@ -7801,14 +7801,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>145</v>
       </c>
       <c r="F11" s="4">
@@ -7818,7 +7818,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I11" s="4">
@@ -7842,14 +7842,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D12" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F12" s="16">
@@ -7859,7 +7859,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I12" s="16">
@@ -7883,14 +7883,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="25" t="s">
         <v>145</v>
       </c>
       <c r="F13" s="4">
@@ -7900,7 +7900,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I13" s="4">
@@ -7924,14 +7924,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F14" s="16">
@@ -7941,7 +7941,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I14" s="16">
@@ -7965,14 +7965,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="25" t="s">
         <v>145</v>
       </c>
       <c r="F15" s="4">
@@ -7982,7 +7982,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="25" t="s">
         <v>147</v>
       </c>
       <c r="I15" s="4">
@@ -8006,14 +8006,14 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F16" s="16">
@@ -8023,7 +8023,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I16" s="16">
@@ -8305,14 +8305,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>148</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>152</v>
       </c>
       <c r="F5" s="4">
@@ -8334,7 +8334,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="25" t="s">
         <v>146</v>
       </c>
       <c r="M5" s="4">
@@ -8344,7 +8344,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="25" t="s">
         <v>155</v>
       </c>
       <c r="P5" s="4">
@@ -8374,14 +8374,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>101</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>149</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="4">
@@ -8403,7 +8403,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="25" t="s">
         <v>146</v>
       </c>
       <c r="M6" s="4">
@@ -8413,7 +8413,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="25" t="s">
         <v>156</v>
       </c>
       <c r="P6" s="4">
@@ -8443,14 +8443,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>102</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="4">
@@ -8472,7 +8472,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="25" t="s">
         <v>146</v>
       </c>
       <c r="M7" s="4">
@@ -8482,7 +8482,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="25" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="4">
@@ -8512,14 +8512,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>151</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="25" t="s">
         <v>153</v>
       </c>
       <c r="F8" s="4">
@@ -8541,7 +8541,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="25" t="s">
         <v>154</v>
       </c>
       <c r="M8" s="4">
@@ -8551,7 +8551,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="25" t="s">
         <v>101</v>
       </c>
       <c r="P8" s="4">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9F6287-BC7A-4AB0-A430-6ECD95FBA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EDA88-FB35-42D7-B396-470D5E959148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,9 +1312,6 @@
     <t>attack 01</t>
   </si>
   <si>
-    <t>attack 02</t>
-  </si>
-  <si>
     <t>attack 03</t>
   </si>
   <si>
@@ -1517,6 +1514,48 @@
   <si>
     <t>effect_duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커/일반/근접공격/공격력 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Tanker_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>00_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/SkillEffect_RightTeam_Normal_Hit</t>
+  </si>
+  <si>
+    <t>딜러/일반/근접공격/공격력 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/SkillEffect_RightTeam_Sword_Hit</t>
+  </si>
+  <si>
+    <t>attack 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Dealer_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>원거리 딜러/일반/원거리 공격/공격력 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_Hit</t>
   </si>
 </sst>
 </file>
@@ -3509,8 +3548,20 @@
       </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -5744,7 +5795,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5780,22 +5831,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5812,7 +5863,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -5824,10 +5875,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5844,22 +5895,22 @@
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5868,7 +5919,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,npc_skill_data!$B:$C,2,)</f>
-        <v>적타겟/근접공격/데미지</v>
+        <v>탱커/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>106</v>
@@ -5884,11 +5935,13 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5897,10 +5950,10 @@
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,npc_skill_data!$B:$C,2,)</f>
-        <v>적타겟/근접공격/데미지</v>
+        <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5913,11 +5966,13 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5926,10 +5981,10 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,npc_skill_data!$B:$C,2,)</f>
-        <v>적타겟/근접공격/데미지</v>
+        <v>원거리 딜러/일반/원거리 공격/공격력 100%</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -5942,11 +5997,13 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5958,7 +6015,7 @@
         <v>적타겟/근접공격/데미지</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4">
         <v>2.5</v>
@@ -5971,7 +6028,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
@@ -5987,7 +6044,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -6000,7 +6057,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
@@ -6016,7 +6073,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4">
         <v>2.5</v>
@@ -6029,7 +6086,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -6045,7 +6102,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -6058,7 +6115,7 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
@@ -6074,7 +6131,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4">
         <v>2.5</v>
@@ -6087,7 +6144,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
@@ -6103,7 +6160,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -6116,7 +6173,7 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4">
@@ -6132,7 +6189,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4">
         <v>2.5</v>
@@ -6145,7 +6202,7 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
@@ -6161,7 +6218,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -6174,7 +6231,7 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
@@ -6190,7 +6247,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4">
         <v>2.5</v>
@@ -6203,7 +6260,7 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4">
@@ -6232,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6291,7 +6348,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>81</v>
@@ -6303,16 +6360,16 @@
         <v>86</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>128</v>
-      </c>
       <c r="P2" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>75</v>
@@ -6324,16 +6381,16 @@
         <v>67</v>
       </c>
       <c r="T2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>77</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
@@ -6374,16 +6431,16 @@
         <v>7</v>
       </c>
       <c r="M3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="P3" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>68</v>
@@ -6395,10 +6452,10 @@
         <v>68</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V3" s="21" t="s">
         <v>3</v>
@@ -6433,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>84</v>
@@ -6445,16 +6502,16 @@
         <v>32</v>
       </c>
       <c r="M4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="O4" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>76</v>
@@ -6466,16 +6523,16 @@
         <v>70</v>
       </c>
       <c r="T4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>144</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>78</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -6486,7 +6543,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
@@ -6496,7 +6553,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -6558,7 +6615,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -6568,7 +6625,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="26">
         <v>0</v>
@@ -6630,7 +6687,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -6640,7 +6697,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="26">
         <v>0</v>
@@ -6656,10 +6713,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L7" s="28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
@@ -6690,9 +6747,11 @@
         <v>0</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="W7" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
@@ -6702,7 +6761,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -6712,7 +6771,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="26">
         <v>0</v>
@@ -6728,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L8" s="28">
         <v>0</v>
@@ -6762,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W8" s="28"/>
     </row>
@@ -6774,7 +6833,7 @@
         <v>200005</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="28">
         <v>1</v>
@@ -6784,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
@@ -6800,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L9" s="28">
         <v>20</v>
@@ -6834,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -6848,7 +6907,7 @@
         <v>200006</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="28">
         <v>1</v>
@@ -6858,7 +6917,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -6874,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" s="28">
         <v>20</v>
@@ -6908,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -6922,7 +6981,7 @@
         <v>200007</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="28">
         <v>1</v>
@@ -6932,7 +6991,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -6948,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L11" s="28">
         <v>20</v>
@@ -6982,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W11" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -6996,7 +7055,7 @@
         <v>200008</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="28">
         <v>1</v>
@@ -7006,7 +7065,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -7022,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="28">
         <v>20</v>
@@ -7056,10 +7115,10 @@
         <v>0</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -7070,7 +7129,7 @@
         <v>200009</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="28">
         <v>1</v>
@@ -7080,7 +7139,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
@@ -7096,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L13" s="28">
         <v>20</v>
@@ -7130,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W13" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -7144,7 +7203,7 @@
         <v>200010</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="28">
         <v>1</v>
@@ -7154,7 +7213,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" s="26">
         <v>0</v>
@@ -7170,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L14" s="28">
         <v>20</v>
@@ -7204,10 +7263,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -7218,7 +7277,7 @@
         <v>200011</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="28">
         <v>1</v>
@@ -7228,7 +7287,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -7244,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L15" s="28">
         <v>20</v>
@@ -7278,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -7292,7 +7351,7 @@
         <v>200012</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="28">
         <v>1</v>
@@ -7302,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="26">
         <v>0</v>
@@ -7318,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="28">
         <v>20</v>
@@ -7352,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7411,7 +7470,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7556,14 +7615,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
@@ -7573,7 +7632,7 @@
         <v>101</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
@@ -7582,10 +7641,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="L5" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -7597,14 +7656,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7614,7 +7673,7 @@
         <v>101</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -7623,10 +7682,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L6" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -7638,14 +7697,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -7655,7 +7714,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -7664,10 +7723,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="L7" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7679,14 +7738,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="16">
         <v>0</v>
@@ -7696,7 +7755,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -7720,14 +7779,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -7737,7 +7796,7 @@
         <v>101</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -7761,14 +7820,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -7778,7 +7837,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -7802,14 +7861,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -7819,7 +7878,7 @@
         <v>101</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -7843,14 +7902,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
@@ -7860,7 +7919,7 @@
         <v>101</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -7884,14 +7943,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -7901,7 +7960,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -7925,14 +7984,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
@@ -7942,7 +8001,7 @@
         <v>101</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -7966,14 +8025,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -7983,7 +8042,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -8007,14 +8066,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="16">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -8024,7 +8083,7 @@
         <v>101</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -8306,14 +8365,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -8335,7 +8394,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -8345,7 +8404,7 @@
         <v>900</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -8375,14 +8434,14 @@
         <v>101</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -8404,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -8414,7 +8473,7 @@
         <v>300</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -8444,14 +8503,14 @@
         <v>102</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -8473,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -8513,14 +8572,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8542,7 +8601,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EDA88-FB35-42D7-B396-470D5E959148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1449FC-8550-45FF-A702-4DBC73C6AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="187">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1556,6 +1556,33 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_Hit</t>
+  </si>
+  <si>
+    <t>투사체 시작 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:SD_BODY_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd_body_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 시작 위치(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#sd_body_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸(중앙)</t>
   </si>
 </sst>
 </file>
@@ -1972,38 +1999,14 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@sd_body_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -3548,27 +3551,98 @@
       </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="28">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SD_BODY_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>HEAD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>머리</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BODY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>몸(중앙)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FOOT</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>발끝(ROOT)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>LEFT_HAND</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>왼손</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>RIGHT_HAND</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>오른손</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3871,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3899,9 +3973,11 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.25" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3942,8 +4018,12 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO1" t="str">
+        <f>'[1]@sd_body_type'!$A$1</f>
+        <v>SD_BODY_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4064,8 +4144,20 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" s="5" t="str">
+        <f>'[1]@sd_body_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AP2" s="5" t="str">
+        <f>'[1]@sd_body_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <f>'[1]@sd_body_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4186,8 +4278,20 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>'[1]@sd_body_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4308,8 +4412,20 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO4" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A5</f>
+        <v>HEAD</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>'[1]@sd_body_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C5</f>
+        <v>머리</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4418,8 +4534,20 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A6</f>
+        <v>BODY</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>'[1]@sd_body_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C6</f>
+        <v>몸(중앙)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4505,8 +4633,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO6" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A7</f>
+        <v>FOOT</v>
+      </c>
+      <c r="AP6" s="4">
+        <f>'[1]@sd_body_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C7</f>
+        <v>발끝(ROOT)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4567,8 +4707,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO7" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A8</f>
+        <v>LEFT_HAND</v>
+      </c>
+      <c r="AP7" s="4">
+        <f>'[1]@sd_body_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C8</f>
+        <v>왼손</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4617,8 +4769,20 @@
         <f>'[1]@projectile_type'!$C9</f>
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO8" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A9</f>
+        <v>RIGHT_HAND</v>
+      </c>
+      <c r="AP8" s="4">
+        <f>'[1]@sd_body_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C9</f>
+        <v>오른손</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4668,7 +4832,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4718,7 +4882,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -4756,7 +4920,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -4794,7 +4958,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -4832,7 +4996,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -4846,7 +5010,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4860,7 +5024,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -5795,7 +5959,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5808,7 +5972,7 @@
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6287,10 +6451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6313,16 +6477,18 @@
     <col min="17" max="17" width="16.125" style="19" customWidth="1"/>
     <col min="18" max="21" width="13.125" style="19" customWidth="1"/>
     <col min="22" max="22" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="18"/>
+    <col min="23" max="23" width="13.5" style="18" customWidth="1"/>
+    <col min="24" max="24" width="19" style="18" customWidth="1"/>
+    <col min="25" max="25" width="70.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -6390,10 +6556,16 @@
         <v>77</v>
       </c>
       <c r="W2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -6461,10 +6633,16 @@
         <v>3</v>
       </c>
       <c r="W3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
@@ -6532,10 +6710,16 @@
         <v>78</v>
       </c>
       <c r="W4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y4" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>200001</v>
       </c>
@@ -6605,9 +6789,16 @@
       <c r="V5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W5" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X5,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="28"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>200002</v>
       </c>
@@ -6677,9 +6868,16 @@
       <c r="V6" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="28"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W6" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X6,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="28"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>200003</v>
       </c>
@@ -6749,11 +6947,18 @@
       <c r="V7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X7,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>200004</v>
       </c>
@@ -6823,9 +7028,16 @@
       <c r="V8" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="W8" s="28"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W8" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X8,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" s="28"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>200005</v>
       </c>
@@ -6895,11 +7107,18 @@
       <c r="V9" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X9,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>200006</v>
       </c>
@@ -6969,11 +7188,18 @@
       <c r="V10" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X10,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>200007</v>
       </c>
@@ -7043,11 +7269,18 @@
       <c r="V11" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="W11" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X11,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>200008</v>
       </c>
@@ -7117,11 +7350,18 @@
       <c r="V12" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X12,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>200009</v>
       </c>
@@ -7191,11 +7431,18 @@
       <c r="V13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="28" t="s">
+      <c r="W13" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X13,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>200010</v>
       </c>
@@ -7265,11 +7512,18 @@
       <c r="V14" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W14" s="28" t="s">
+      <c r="W14" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X14,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>200011</v>
       </c>
@@ -7339,11 +7593,18 @@
       <c r="V15" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="28" t="s">
+      <c r="W15" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X15,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>200012</v>
       </c>
@@ -7413,7 +7674,14 @@
       <c r="V16" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="28" t="s">
+      <c r="W16" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X16,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y16" s="28" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7428,7 +7696,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
@@ -7458,6 +7726,12 @@
             <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A837C91D-30A9-454B-AA3C-0A8C00370CD1}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>X5:X16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1449FC-8550-45FF-A702-4DBC73C6AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02354041-61F2-4573-995A-D23861CF4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1556,33 +1556,6 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_Hit</t>
-  </si>
-  <si>
-    <t>투사체 시작 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:SD_BODY_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd_body_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 시작 위치(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#sd_body_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸(중앙)</t>
   </si>
 </sst>
 </file>
@@ -3559,90 +3532,7 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SD_BODY_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>HEAD</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>머리</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BODY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>몸(중앙)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>FOOT</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>발끝(ROOT)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>LEFT_HAND</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>왼손</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>RIGHT_HAND</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>오른손</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3945,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AQ8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3973,11 +3863,9 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.25" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4018,12 +3906,8 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-      <c r="AO1" t="str">
-        <f>'[1]@sd_body_type'!$A$1</f>
-        <v>SD_BODY_TYPE</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4144,20 +4028,8 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AO2" s="5" t="str">
-        <f>'[1]@sd_body_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AP2" s="5" t="str">
-        <f>'[1]@sd_body_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AQ2" s="1" t="str">
-        <f>'[1]@sd_body_type'!$C3</f>
-        <v>comment</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4278,20 +4150,8 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AO3" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AP3" s="4">
-        <f>'[1]@sd_body_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C4</f>
-        <v>NONE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4412,20 +4272,8 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO4" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A5</f>
-        <v>HEAD</v>
-      </c>
-      <c r="AP4" s="4">
-        <f>'[1]@sd_body_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C5</f>
-        <v>머리</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4534,20 +4382,8 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO5" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A6</f>
-        <v>BODY</v>
-      </c>
-      <c r="AP5" s="4">
-        <f>'[1]@sd_body_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C6</f>
-        <v>몸(중앙)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4633,20 +4469,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AO6" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A7</f>
-        <v>FOOT</v>
-      </c>
-      <c r="AP6" s="4">
-        <f>'[1]@sd_body_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C7</f>
-        <v>발끝(ROOT)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4707,20 +4531,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AO7" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A8</f>
-        <v>LEFT_HAND</v>
-      </c>
-      <c r="AP7" s="4">
-        <f>'[1]@sd_body_type'!$B8</f>
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C8</f>
-        <v>왼손</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4769,20 +4581,8 @@
         <f>'[1]@projectile_type'!$C9</f>
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="AO8" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A9</f>
-        <v>RIGHT_HAND</v>
-      </c>
-      <c r="AP8" s="4">
-        <f>'[1]@sd_body_type'!$B9</f>
-        <v>5</v>
-      </c>
-      <c r="AQ8" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C9</f>
-        <v>오른손</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4832,7 +4632,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4882,7 +4682,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -4920,7 +4720,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -4958,7 +4758,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -4996,7 +4796,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5010,7 +4810,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5024,7 +4824,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -6451,10 +6251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6477,18 +6277,16 @@
     <col min="17" max="17" width="16.125" style="19" customWidth="1"/>
     <col min="18" max="21" width="13.125" style="19" customWidth="1"/>
     <col min="22" max="22" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="18" customWidth="1"/>
-    <col min="24" max="24" width="19" style="18" customWidth="1"/>
-    <col min="25" max="25" width="70.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="18"/>
+    <col min="23" max="23" width="70.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -6556,16 +6354,10 @@
         <v>77</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y2" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -6633,16 +6425,10 @@
         <v>3</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
@@ -6710,16 +6496,10 @@
         <v>78</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y4" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>200001</v>
       </c>
@@ -6789,16 +6569,9 @@
       <c r="V5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X5,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y5" s="28"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>200002</v>
       </c>
@@ -6868,16 +6641,9 @@
       <c r="V6" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X6,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="28"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W6" s="28"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>200003</v>
       </c>
@@ -6947,18 +6713,11 @@
       <c r="V7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="W7" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X7,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y7" s="28" t="s">
+      <c r="W7" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>200004</v>
       </c>
@@ -7028,16 +6787,9 @@
       <c r="V8" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="W8" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X8,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y8" s="28"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>200005</v>
       </c>
@@ -7107,18 +6859,11 @@
       <c r="V9" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X9,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" s="28" t="s">
+      <c r="W9" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>200006</v>
       </c>
@@ -7188,18 +6933,11 @@
       <c r="V10" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X10,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" s="28" t="s">
+      <c r="W10" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>200007</v>
       </c>
@@ -7269,18 +7007,11 @@
       <c r="V11" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W11" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X11,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y11" s="28" t="s">
+      <c r="W11" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>200008</v>
       </c>
@@ -7350,18 +7081,11 @@
       <c r="V12" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W12" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X12,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y12" s="28" t="s">
+      <c r="W12" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>200009</v>
       </c>
@@ -7431,18 +7155,11 @@
       <c r="V13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X13,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="28" t="s">
+      <c r="W13" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>200010</v>
       </c>
@@ -7512,18 +7229,11 @@
       <c r="V14" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W14" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X14,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y14" s="28" t="s">
+      <c r="W14" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>200011</v>
       </c>
@@ -7593,18 +7303,11 @@
       <c r="V15" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X15,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="28" t="s">
+      <c r="W15" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>200012</v>
       </c>
@@ -7674,14 +7377,7 @@
       <c r="V16" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X16,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y16" s="28" t="s">
+      <c r="W16" s="28" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7696,7 +7392,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
@@ -7726,12 +7422,6 @@
             <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A837C91D-30A9-454B-AA3C-0A8C00370CD1}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>X5:X16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02354041-61F2-4573-995A-D23861CF4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58234A64-8557-4CD5-89A6-4311FAF08992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="188">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1344,10 +1344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적타겟/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적타겟/원거리공격/데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1556,13 +1552,41 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bigeye_Attack_Hit</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Skill_Dummy</t>
+  </si>
+  <si>
+    <t>이펙트 카운트 타입</t>
+  </si>
+  <si>
+    <t>이펙트 카운트 타입(기획)</t>
+  </si>
+  <si>
+    <t>ENUM:EFFECT_COUNT_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>effect_count_type</t>
+  </si>
+  <si>
+    <t>#effect_count_type</t>
+  </si>
+  <si>
+    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
+  </si>
+  <si>
+    <t>원거리 딜러/일반/원거리 공격/포물선 공격/공격력 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bomber_Attack_Bullet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,8 +1643,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1684,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,23 +1899,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
@@ -1919,6 +1952,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,6 +2063,7 @@
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3533,6 +3624,57 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>SINGLE_EFFECT</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>EACH_TARGET_EFFECT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>각 타겟에 개별적으로 발현되는 이펙트</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3835,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3863,9 +4005,11 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="28.25" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3906,8 +4050,12 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO1" t="str">
+        <f>'[1]@effect_count_type'!$A$1</f>
+        <v>EFFECT_COUNT_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4028,8 +4176,20 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" s="5" t="str">
+        <f>'[1]@effect_count_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AP2" s="5" t="str">
+        <f>'[1]@effect_count_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <f>'[1]@effect_count_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4150,8 +4310,20 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>'[1]@effect_count_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4272,8 +4444,20 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO4" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A5</f>
+        <v>SINGLE_EFFECT</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>'[1]@effect_count_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C5</f>
+        <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4382,8 +4566,20 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A6</f>
+        <v>EACH_TARGET_EFFECT</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>'[1]@effect_count_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C6</f>
+        <v>각 타겟에 개별적으로 발현되는 이펙트</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4470,7 +4666,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4532,7 +4728,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4582,7 +4778,7 @@
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4632,7 +4828,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4682,7 +4878,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -4720,7 +4916,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -4758,7 +4954,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -4796,7 +4992,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -4810,7 +5006,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4824,7 +5020,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -5759,7 +5955,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5772,7 +5968,7 @@
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="38.25" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5795,22 +5991,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5827,7 +6023,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -5839,10 +6035,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5859,22 +6055,22 @@
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5897,12 +6093,14 @@
       <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="4">
         <v>3.5</v>
@@ -5917,7 +6115,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5928,12 +6126,14 @@
       <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" s="4">
         <v>2.5</v>
@@ -5959,12 +6159,14 @@
       <c r="F7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J7" s="4">
         <v>1.4</v>
@@ -5976,7 +6178,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,npc_skill_data!$B:$C,2,)</f>
-        <v>적타겟/근접공격/데미지</v>
+        <v>원거리 딜러/일반/원거리 공격/포물선 공격/공격력 100%</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
@@ -5990,9 +6192,11 @@
       <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H8" s="4" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
@@ -6019,7 +6223,9 @@
       <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>113</v>
       </c>
@@ -6048,7 +6254,9 @@
       <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>116</v>
       </c>
@@ -6077,7 +6285,9 @@
       <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>113</v>
       </c>
@@ -6106,7 +6316,9 @@
       <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>114</v>
       </c>
@@ -6135,7 +6347,9 @@
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>113</v>
       </c>
@@ -6164,7 +6378,9 @@
       <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6193,7 +6409,9 @@
       <c r="F15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>113</v>
       </c>
@@ -6222,7 +6440,9 @@
       <c r="F16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>114</v>
       </c>
@@ -6236,7 +6456,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E67DA0EB-B198-497F-9178-06CF37A8E3CB}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
@@ -6251,1140 +6471,1245 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="27.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="19" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.125" style="19" customWidth="1"/>
-    <col min="15" max="16" width="14.375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="19" customWidth="1"/>
-    <col min="18" max="21" width="13.125" style="19" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="14.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="16" customWidth="1"/>
+    <col min="10" max="11" width="21.125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="27.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" style="16" customWidth="1"/>
+    <col min="17" max="18" width="14.375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="16" customWidth="1"/>
+    <col min="20" max="23" width="13.125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="70.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="22" t="s">
+      <c r="J4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="21" t="s">
+      <c r="S4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="27" t="s">
+      <c r="W4" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="V4" s="27" t="s">
+      <c r="X4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="Y4" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>200001</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>200001</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="F5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
         <v>1</v>
       </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="25" t="s">
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="28">
-        <v>0</v>
-      </c>
-      <c r="M5" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="L5" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="28">
-        <v>0</v>
-      </c>
-      <c r="P5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="26">
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23">
         <v>100</v>
       </c>
-      <c r="R5" s="26">
+      <c r="T5" s="23">
         <v>100001</v>
       </c>
-      <c r="S5" s="26">
-        <v>0</v>
-      </c>
-      <c r="T5" s="26">
-        <v>0</v>
-      </c>
-      <c r="U5" s="26">
-        <v>0</v>
-      </c>
-      <c r="V5" s="28" t="s">
+      <c r="U5" s="23">
+        <v>0</v>
+      </c>
+      <c r="V5" s="23">
+        <v>0</v>
+      </c>
+      <c r="W5" s="23">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>200002</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>200002</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="F6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
         <v>1</v>
       </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="25" t="s">
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="28">
-        <v>0</v>
-      </c>
-      <c r="M6" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="29" t="s">
+      <c r="L6" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="28">
-        <v>0</v>
-      </c>
-      <c r="P6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
         <v>100</v>
       </c>
-      <c r="R6" s="26">
+      <c r="T6" s="23">
         <v>100002</v>
       </c>
-      <c r="S6" s="26">
-        <v>0</v>
-      </c>
-      <c r="T6" s="26">
-        <v>0</v>
-      </c>
-      <c r="U6" s="26">
-        <v>0</v>
-      </c>
-      <c r="V6" s="28" t="s">
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23">
+        <v>0</v>
+      </c>
+      <c r="W6" s="23">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="28"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>200003</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>200003</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="C7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
         <v>1</v>
       </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="28">
+      <c r="K7" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="32">
         <v>30</v>
       </c>
-      <c r="M7" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="28">
-        <v>0</v>
-      </c>
-      <c r="P7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
         <v>100</v>
       </c>
-      <c r="R7" s="26">
+      <c r="T7" s="23">
         <v>100003</v>
       </c>
-      <c r="S7" s="26">
-        <v>0</v>
-      </c>
-      <c r="T7" s="26">
-        <v>0</v>
-      </c>
-      <c r="U7" s="26">
-        <v>0</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="U7" s="23">
+        <v>0</v>
+      </c>
+      <c r="V7" s="23">
+        <v>0</v>
+      </c>
+      <c r="W7" s="23">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>200004</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>200004</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="C8" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
         <v>1</v>
       </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I8" s="23">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29" t="s">
+      <c r="K8" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="28">
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
         <v>100</v>
       </c>
-      <c r="R8" s="26">
+      <c r="T8" s="23">
         <v>100004</v>
       </c>
-      <c r="S8" s="26">
-        <v>0</v>
-      </c>
-      <c r="T8" s="26">
-        <v>0</v>
-      </c>
-      <c r="U8" s="26">
-        <v>0</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="W8" s="28"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="U8" s="23">
+        <v>0</v>
+      </c>
+      <c r="V8" s="23">
+        <v>0</v>
+      </c>
+      <c r="W8" s="23">
+        <v>0</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>200005</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <v>200005</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="28">
+      <c r="C9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="F9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>1</v>
       </c>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I9" s="23">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="28">
+      <c r="K9" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="32">
         <v>20</v>
       </c>
-      <c r="M9" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="29" t="s">
+      <c r="O9" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="28">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
         <v>100</v>
       </c>
-      <c r="R9" s="26">
+      <c r="T9" s="23">
         <v>100005</v>
       </c>
-      <c r="S9" s="26">
-        <v>0</v>
-      </c>
-      <c r="T9" s="26">
-        <v>0</v>
-      </c>
-      <c r="U9" s="26">
-        <v>0</v>
-      </c>
-      <c r="V9" s="28" t="s">
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <v>0</v>
+      </c>
+      <c r="W9" s="23">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="Y9" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>200006</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>200006</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="C10" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="F10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
         <v>1</v>
       </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="28">
+      <c r="K10" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="32">
         <v>20</v>
       </c>
-      <c r="M10" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="29" t="s">
+      <c r="O10" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="28">
-        <v>0</v>
-      </c>
-      <c r="P10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
         <v>100</v>
       </c>
-      <c r="R10" s="26">
+      <c r="T10" s="23">
         <v>100006</v>
       </c>
-      <c r="S10" s="26">
-        <v>0</v>
-      </c>
-      <c r="T10" s="26">
-        <v>0</v>
-      </c>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-      <c r="V10" s="28" t="s">
+      <c r="U10" s="23">
+        <v>0</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23">
+        <v>0</v>
+      </c>
+      <c r="X10" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="Y10" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>200007</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>200007</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="28">
+      <c r="C11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="25">
         <v>1</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="F11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="28">
+      <c r="K11" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="32">
         <v>20</v>
       </c>
-      <c r="M11" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="29" t="s">
+      <c r="O11" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
         <v>100</v>
       </c>
-      <c r="R11" s="26">
+      <c r="T11" s="23">
         <v>100007</v>
       </c>
-      <c r="S11" s="26">
-        <v>0</v>
-      </c>
-      <c r="T11" s="26">
-        <v>0</v>
-      </c>
-      <c r="U11" s="26">
-        <v>0</v>
-      </c>
-      <c r="V11" s="28" t="s">
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="23">
+        <v>0</v>
+      </c>
+      <c r="W11" s="23">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W11" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="Y11" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>200008</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <v>200008</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="C12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="F12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
         <v>1</v>
       </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L12" s="28">
+      <c r="K12" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="32">
         <v>20</v>
       </c>
-      <c r="M12" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="29" t="s">
+      <c r="O12" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="28">
-        <v>0</v>
-      </c>
-      <c r="P12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
         <v>100</v>
       </c>
-      <c r="R12" s="26">
+      <c r="T12" s="23">
         <v>100008</v>
       </c>
-      <c r="S12" s="26">
-        <v>0</v>
-      </c>
-      <c r="T12" s="26">
-        <v>0</v>
-      </c>
-      <c r="U12" s="26">
-        <v>0</v>
-      </c>
-      <c r="V12" s="28" t="s">
+      <c r="U12" s="23">
+        <v>0</v>
+      </c>
+      <c r="V12" s="23">
+        <v>0</v>
+      </c>
+      <c r="W12" s="23">
+        <v>0</v>
+      </c>
+      <c r="X12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W12" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="Y12" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>200009</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <v>200009</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="C13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="F13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="26">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="28">
+      <c r="K13" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="32">
         <v>20</v>
       </c>
-      <c r="M13" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="29" t="s">
+      <c r="O13" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="P13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="23">
         <v>100</v>
       </c>
-      <c r="R13" s="26">
+      <c r="T13" s="23">
         <v>100009</v>
       </c>
-      <c r="S13" s="26">
-        <v>0</v>
-      </c>
-      <c r="T13" s="26">
-        <v>0</v>
-      </c>
-      <c r="U13" s="26">
-        <v>0</v>
-      </c>
-      <c r="V13" s="28" t="s">
+      <c r="U13" s="23">
+        <v>0</v>
+      </c>
+      <c r="V13" s="23">
+        <v>0</v>
+      </c>
+      <c r="W13" s="23">
+        <v>0</v>
+      </c>
+      <c r="X13" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="Y13" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>200010</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="25">
         <v>200010</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="28">
+      <c r="C14" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="28">
+      <c r="K14" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="32">
         <v>20</v>
       </c>
-      <c r="M14" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="29" t="s">
+      <c r="O14" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="28">
-        <v>0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
         <v>100</v>
       </c>
-      <c r="R14" s="26">
+      <c r="T14" s="23">
         <v>100010</v>
       </c>
-      <c r="S14" s="26">
-        <v>0</v>
-      </c>
-      <c r="T14" s="26">
-        <v>0</v>
-      </c>
-      <c r="U14" s="26">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28" t="s">
+      <c r="U14" s="23">
+        <v>0</v>
+      </c>
+      <c r="V14" s="23">
+        <v>0</v>
+      </c>
+      <c r="W14" s="23">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W14" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="Y14" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>200011</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>200011</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="28">
+      <c r="C15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="F15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I15" s="23">
+        <v>0</v>
+      </c>
+      <c r="J15" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="28">
+      <c r="K15" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="32">
         <v>20</v>
       </c>
-      <c r="M15" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="29" t="s">
+      <c r="O15" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O15" s="28">
-        <v>0</v>
-      </c>
-      <c r="P15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="23">
         <v>100</v>
       </c>
-      <c r="R15" s="26">
+      <c r="T15" s="23">
         <v>100011</v>
       </c>
-      <c r="S15" s="26">
-        <v>0</v>
-      </c>
-      <c r="T15" s="26">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
-        <v>0</v>
-      </c>
-      <c r="V15" s="28" t="s">
+      <c r="U15" s="23">
+        <v>0</v>
+      </c>
+      <c r="V15" s="23">
+        <v>0</v>
+      </c>
+      <c r="W15" s="23">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="Y15" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>200012</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <v>200012</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="28">
+      <c r="C16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="25">
         <v>1</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>7</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="F16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
         <v>1</v>
       </c>
-      <c r="I16" s="26">
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I16" s="23">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="28">
+      <c r="K16" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="32">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N16" s="32">
         <v>20</v>
       </c>
-      <c r="M16" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="29" t="s">
+      <c r="O16" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="28">
-        <v>0</v>
-      </c>
-      <c r="P16" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="23">
         <v>100</v>
       </c>
-      <c r="R16" s="26">
+      <c r="T16" s="23">
         <v>100012</v>
       </c>
-      <c r="S16" s="26">
-        <v>0</v>
-      </c>
-      <c r="T16" s="26">
-        <v>0</v>
-      </c>
-      <c r="U16" s="26">
-        <v>0</v>
-      </c>
-      <c r="V16" s="28" t="s">
+      <c r="U16" s="23">
+        <v>0</v>
+      </c>
+      <c r="V16" s="23">
+        <v>0</v>
+      </c>
+      <c r="W16" s="23">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="28" t="s">
-        <v>121</v>
+      <c r="Y16" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7392,12 +7717,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J16</xm:sqref>
+          <xm:sqref>L5:L16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8812482B-AF02-4197-81B6-9BA3732762C2}">
           <x14:formula1>
@@ -7409,19 +7734,25 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K16</xm:sqref>
+          <xm:sqref>M5:M16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AM$3:$AM$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N16</xm:sqref>
+          <xm:sqref>P5:P16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F116DB-1252-49ED-A663-DC6A99516978}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K5:K16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7434,7 +7765,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7442,13 +7773,13 @@
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="33.75" customWidth="1"/>
     <col min="11" max="11" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -7466,13 +7797,13 @@
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="35" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -7490,7 +7821,7 @@
       <c r="K2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="35" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7504,13 +7835,13 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -7528,7 +7859,7 @@
       <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7542,13 +7873,13 @@
       <c r="C4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="37" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -7566,7 +7897,7 @@
       <c r="K4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="37" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7578,25 +7909,25 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="38">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="38">
         <v>0</v>
       </c>
       <c r="G5" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>146</v>
+      <c r="H5" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
@@ -7605,39 +7936,39 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="12">
+        <v>170</v>
+      </c>
+      <c r="L5" s="41">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>100002</v>
       </c>
       <c r="B6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="33">
         <v>0</v>
       </c>
       <c r="G6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>146</v>
+      <c r="H6" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -7646,39 +7977,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="14">
+        <v>172</v>
+      </c>
+      <c r="L6" s="42">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>100003</v>
       </c>
       <c r="B7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="33">
         <v>0</v>
       </c>
       <c r="G7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>146</v>
+      <c r="H7" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -7687,80 +8018,80 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="14">
+        <v>178</v>
+      </c>
+      <c r="L7" s="42">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>100004</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="39">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="E8" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="H8" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
         <v>1.2</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="17">
-        <v>1</v>
+      <c r="K8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="43">
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>100005</v>
       </c>
       <c r="B9" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="33">
         <v>0</v>
       </c>
       <c r="G9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>146</v>
+      <c r="H9" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -7771,78 +8102,78 @@
       <c r="K9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>100006</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="39">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="E10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="H10" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
         <v>1.2</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>100007</v>
       </c>
       <c r="B11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="33">
         <v>0</v>
       </c>
       <c r="G11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>146</v>
+      <c r="H11" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -7853,78 +8184,78 @@
       <c r="K11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>100008</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="39">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="E12" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="H12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
         <v>1.2</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>100009</v>
       </c>
       <c r="B13" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="33">
         <v>0</v>
       </c>
       <c r="G13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>146</v>
+      <c r="H13" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -7935,78 +8266,78 @@
       <c r="K13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>100010</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="39">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="E14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="H14" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
         <v>1.25</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>100011</v>
       </c>
       <c r="B15" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="33">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="33">
         <v>0</v>
       </c>
       <c r="G15" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>146</v>
+      <c r="H15" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -8017,48 +8348,48 @@
       <c r="K15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>100012</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="39">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="E16" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="H16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
         <v>1.3</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="43">
         <v>1</v>
       </c>
     </row>
@@ -8096,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -8328,15 +8659,15 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>147</v>
+      <c r="C5" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>151</v>
+      <c r="E5" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -8357,8 +8688,8 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>145</v>
+      <c r="L5" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -8367,8 +8698,8 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="25" t="s">
-        <v>154</v>
+      <c r="O5" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -8397,15 +8728,15 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>101</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>148</v>
+      <c r="C6" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>152</v>
+      <c r="E6" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -8426,8 +8757,8 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>145</v>
+      <c r="L6" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -8436,8 +8767,8 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="O6" s="25" t="s">
-        <v>155</v>
+      <c r="O6" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -8466,15 +8797,15 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>102</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>149</v>
+      <c r="C7" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>152</v>
+      <c r="E7" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -8495,8 +8826,8 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>145</v>
+      <c r="L7" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -8505,7 +8836,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="22" t="s">
         <v>101</v>
       </c>
       <c r="P7" s="4">
@@ -8535,15 +8866,15 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>150</v>
+      <c r="C8" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>152</v>
+      <c r="E8" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8564,8 +8895,8 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>153</v>
+      <c r="L8" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -8574,7 +8905,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="22" t="s">
         <v>101</v>
       </c>
       <c r="P8" s="4">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58234A64-8557-4CD5-89A6-4311FAF08992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADAB6E-4ADA-4101-8C96-E4F16B563814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="189">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1580,6 +1580,9 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bomber_Attack_Bullet</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bomber_Attack_Hit</t>
   </si>
 </sst>
 </file>
@@ -2064,6 +2067,7 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3615,8 +3619,20 @@
       </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -3675,6 +3691,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7764,8 +7781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8059,7 +8076,7 @@
         <v>1.2</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L8" s="43">
         <v>0.8</v>
@@ -8427,7 +8444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADAB6E-4ADA-4101-8C96-E4F16B563814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849F8FD-00BF-44A5-8E5D-3A1BBF95EF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1653,7 +1653,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,6 +1699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,7 +1871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2012,6 +2018,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2070,11 +2091,35 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -3619,20 +3664,8 @@
       </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -5971,7 +6004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -6490,8 +6523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7781,7 +7814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -8445,7 +8478,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8458,13 +8491,13 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="30.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="30.125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="44" customWidth="1"/>
     <col min="14" max="14" width="19.375" customWidth="1"/>
     <col min="15" max="15" width="22.75" customWidth="1"/>
     <col min="19" max="19" width="79.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="44" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8504,13 +8537,13 @@
       <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="45" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -8531,7 +8564,7 @@
       <c r="S2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="45" t="s">
         <v>87</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -8569,13 +8602,13 @@
       <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="46" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -8596,7 +8629,7 @@
       <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="46" t="s">
         <v>7</v>
       </c>
       <c r="U3" s="7" t="s">
@@ -8634,13 +8667,13 @@
       <c r="J4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="47" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -8661,7 +8694,7 @@
       <c r="S4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="47" t="s">
         <v>88</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -8701,14 +8734,14 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="48">
         <v>0</v>
       </c>
       <c r="N5" s="4">
@@ -8730,7 +8763,7 @@
       <c r="S5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="48">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="b">
@@ -8770,14 +8803,14 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="48">
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -8799,7 +8832,7 @@
       <c r="S6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="48">
         <v>0</v>
       </c>
       <c r="U6" s="4" t="b">
@@ -8839,14 +8872,14 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="48">
         <v>0</v>
       </c>
       <c r="N7" s="4">
@@ -8868,7 +8901,7 @@
       <c r="S7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="48">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="b">
@@ -8908,14 +8941,14 @@
       <c r="J8" s="4">
         <v>100004</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="48">
         <v>0</v>
       </c>
       <c r="N8" s="4">
@@ -8937,7 +8970,7 @@
       <c r="S8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="48">
         <v>0</v>
       </c>
       <c r="U8" s="4" t="b">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849F8FD-00BF-44A5-8E5D-3A1BBF95EF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B2C0DE-BDF0-479A-839D-ED34CEA3921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -589,7 +589,7 @@
     <author>전홍림</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{1A9C35B8-9566-4F80-AE25-5ABF4CCA039E}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{1A9C35B8-9566-4F80-AE25-5ABF4CCA039E}">
       <text>
         <r>
           <rPr>
@@ -699,197 +699,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{9808AA2D-A785-4CE3-AFCE-D74ED469C7D5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이펙트</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지속</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시간
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0 : loop
-0 </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>클</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간만큼만</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,10 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projectile_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,38 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발사체 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 타입(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:PROJECTILE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectile_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#projectile_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반복 일회성 효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,12 +1211,6 @@
     <t>second_target_duration_effect_ids</t>
   </si>
   <si>
-    <t>2 투사체를 타겟의 몸에 던진다</t>
-  </si>
-  <si>
-    <t>12 타겟의 몸에서 즉시 효과 발동</t>
-  </si>
-  <si>
     <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
   </si>
   <si>
@@ -1457,9 +1230,6 @@
   </si>
   <si>
     <t>1 시간 지속</t>
-  </si>
-  <si>
-    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
   </si>
   <si>
     <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
@@ -1653,7 +1423,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1696,20 +1466,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1776,40 +1534,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1850,28 +1578,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1908,13 +1621,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1940,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1965,74 +1678,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2091,35 +1739,11 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -6004,7 +5628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -6024,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6032,7 +5656,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -6041,22 +5665,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6073,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -6085,10 +5709,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6096,31 +5720,31 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6132,7 +5756,7 @@
         <v>탱커/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -6144,13 +5768,13 @@
         <v>30</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J5" s="4">
         <v>3.5</v>
@@ -6165,7 +5789,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -6177,13 +5801,13 @@
         <v>30</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J6" s="4">
         <v>2.5</v>
@@ -6198,7 +5822,7 @@
         <v>원거리 딜러/일반/원거리 공격/공격력 100%</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -6210,13 +5834,13 @@
         <v>30</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="J7" s="4">
         <v>1.4</v>
@@ -6231,7 +5855,7 @@
         <v>원거리 딜러/일반/원거리 공격/포물선 공격/공격력 100%</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4">
         <v>2.5</v>
@@ -6243,10 +5867,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
@@ -6262,7 +5886,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -6274,10 +5898,10 @@
         <v>30</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
@@ -6293,7 +5917,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4">
         <v>2.5</v>
@@ -6305,10 +5929,10 @@
         <v>30</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -6324,7 +5948,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -6336,10 +5960,10 @@
         <v>30</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
@@ -6355,7 +5979,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4">
         <v>2.5</v>
@@ -6367,10 +5991,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
@@ -6386,7 +6010,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -6398,10 +6022,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4">
@@ -6417,7 +6041,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4">
         <v>2.5</v>
@@ -6429,10 +6053,10 @@
         <v>30</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
@@ -6448,7 +6072,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -6460,10 +6084,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
@@ -6479,7 +6103,7 @@
         <v>적타겟/원거리공격/데미지</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4">
         <v>2.5</v>
@@ -6491,10 +6115,10 @@
         <v>30</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4">
@@ -6521,10 +6145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6539,25 +6163,22 @@
     <col min="8" max="8" width="13.125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="16" customWidth="1"/>
     <col min="10" max="11" width="21.125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="27.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="19" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" style="16" customWidth="1"/>
-    <col min="17" max="18" width="14.375" style="16" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="16" customWidth="1"/>
-    <col min="20" max="23" width="13.125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="15"/>
+    <col min="12" max="12" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="14.375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="16" customWidth="1"/>
+    <col min="17" max="20" width="13.125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="70.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6568,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>9</v>
@@ -6583,58 +6204,49 @@
         <v>10</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>86</v>
+        <v>169</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -6645,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>12</v>
@@ -6663,55 +6275,46 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="V3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="X3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
@@ -6722,7 +6325,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>13</v>
@@ -6737,58 +6340,49 @@
         <v>15</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>200001</v>
       </c>
@@ -6796,7 +6390,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -6806,7 +6400,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G5" s="23">
         <v>0</v>
@@ -6821,53 +6415,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="32">
+      <c r="K5" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="25">
         <v>0</v>
       </c>
       <c r="O5" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>100001</v>
+      </c>
+      <c r="R5" s="23">
         <v>0</v>
       </c>
       <c r="S5" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T5" s="23">
-        <v>100001</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0</v>
-      </c>
-      <c r="V5" s="23">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23">
-        <v>0</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>200002</v>
       </c>
@@ -6875,7 +6459,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -6885,7 +6469,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G6" s="23">
         <v>0</v>
@@ -6900,53 +6484,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="32">
+      <c r="K6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="25">
         <v>0</v>
       </c>
       <c r="O6" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>0</v>
-      </c>
-      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>100002</v>
+      </c>
+      <c r="R6" s="23">
         <v>0</v>
       </c>
       <c r="S6" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" s="23">
-        <v>100002</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
-      <c r="V6" s="23">
-        <v>0</v>
-      </c>
-      <c r="W6" s="23">
-        <v>0</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>200003</v>
       </c>
@@ -6954,7 +6528,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -6964,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -6979,55 +6553,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="32">
-        <v>30</v>
+      <c r="K7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
       </c>
       <c r="O7" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>100003</v>
+      </c>
+      <c r="R7" s="23">
         <v>0</v>
       </c>
       <c r="S7" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T7" s="23">
-        <v>100003</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23">
-        <v>0</v>
-      </c>
-      <c r="X7" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y7" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>200004</v>
       </c>
@@ -7035,7 +6599,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -7045,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G8" s="23">
         <v>0</v>
@@ -7060,55 +6624,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K8" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" s="32">
+      <c r="K8" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="25">
         <v>0</v>
       </c>
       <c r="O8" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>0</v>
-      </c>
-      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>100004</v>
+      </c>
+      <c r="R8" s="23">
         <v>0</v>
       </c>
       <c r="S8" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="23">
-        <v>100004</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0</v>
-      </c>
-      <c r="V8" s="23">
-        <v>0</v>
-      </c>
-      <c r="W8" s="23">
-        <v>0</v>
-      </c>
-      <c r="X8" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y8" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>200005</v>
       </c>
@@ -7116,7 +6670,7 @@
         <v>200005</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D9" s="25">
         <v>1</v>
@@ -7126,7 +6680,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G9" s="23">
         <v>0</v>
@@ -7141,55 +6695,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="32">
-        <v>20</v>
+      <c r="K9" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
       </c>
       <c r="O9" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>0</v>
-      </c>
-      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>100005</v>
+      </c>
+      <c r="R9" s="23">
         <v>0</v>
       </c>
       <c r="S9" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="23">
-        <v>100005</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="23">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23">
-        <v>0</v>
-      </c>
-      <c r="X9" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y9" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>200006</v>
       </c>
@@ -7197,7 +6741,7 @@
         <v>200006</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D10" s="25">
         <v>1</v>
@@ -7207,7 +6751,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G10" s="23">
         <v>0</v>
@@ -7222,55 +6766,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="32">
-        <v>20</v>
+      <c r="K10" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
       </c>
       <c r="O10" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>100006</v>
+      </c>
+      <c r="R10" s="23">
         <v>0</v>
       </c>
       <c r="S10" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="23">
-        <v>100006</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0</v>
-      </c>
-      <c r="V10" s="23">
-        <v>0</v>
-      </c>
-      <c r="W10" s="23">
-        <v>0</v>
-      </c>
-      <c r="X10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>200007</v>
       </c>
@@ -7278,7 +6812,7 @@
         <v>200007</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -7288,7 +6822,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G11" s="23">
         <v>0</v>
@@ -7303,55 +6837,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="32">
-        <v>20</v>
+      <c r="K11" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
       </c>
       <c r="O11" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>100007</v>
+      </c>
+      <c r="R11" s="23">
         <v>0</v>
       </c>
       <c r="S11" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T11" s="23">
-        <v>100007</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0</v>
-      </c>
-      <c r="V11" s="23">
-        <v>0</v>
-      </c>
-      <c r="W11" s="23">
-        <v>0</v>
-      </c>
-      <c r="X11" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y11" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>200008</v>
       </c>
@@ -7359,7 +6883,7 @@
         <v>200008</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D12" s="25">
         <v>1</v>
@@ -7369,7 +6893,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G12" s="23">
         <v>0</v>
@@ -7384,55 +6908,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="32">
-        <v>20</v>
+      <c r="K12" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
       </c>
       <c r="O12" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>0</v>
-      </c>
-      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>100008</v>
+      </c>
+      <c r="R12" s="23">
         <v>0</v>
       </c>
       <c r="S12" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="23">
-        <v>100008</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="23">
-        <v>0</v>
-      </c>
-      <c r="W12" s="23">
-        <v>0</v>
-      </c>
-      <c r="X12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y12" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>200009</v>
       </c>
@@ -7440,7 +6954,7 @@
         <v>200009</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D13" s="25">
         <v>1</v>
@@ -7450,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G13" s="23">
         <v>0</v>
@@ -7465,55 +6979,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="32">
-        <v>20</v>
+      <c r="K13" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
       </c>
       <c r="O13" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>0</v>
-      </c>
-      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>100009</v>
+      </c>
+      <c r="R13" s="23">
         <v>0</v>
       </c>
       <c r="S13" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T13" s="23">
-        <v>100009</v>
-      </c>
-      <c r="U13" s="23">
-        <v>0</v>
-      </c>
-      <c r="V13" s="23">
-        <v>0</v>
-      </c>
-      <c r="W13" s="23">
-        <v>0</v>
-      </c>
-      <c r="X13" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y13" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>200010</v>
       </c>
@@ -7521,7 +7025,7 @@
         <v>200010</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D14" s="25">
         <v>1</v>
@@ -7531,7 +7035,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -7546,55 +7050,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N14" s="32">
-        <v>20</v>
+      <c r="K14" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
       </c>
       <c r="O14" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>0</v>
-      </c>
-      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>100010</v>
+      </c>
+      <c r="R14" s="23">
         <v>0</v>
       </c>
       <c r="S14" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="23">
-        <v>100010</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0</v>
-      </c>
-      <c r="V14" s="23">
-        <v>0</v>
-      </c>
-      <c r="W14" s="23">
-        <v>0</v>
-      </c>
-      <c r="X14" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>200011</v>
       </c>
@@ -7602,7 +7096,7 @@
         <v>200011</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -7612,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G15" s="23">
         <v>0</v>
@@ -7627,55 +7121,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="32">
-        <v>20</v>
+      <c r="K15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
       </c>
       <c r="O15" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>100011</v>
+      </c>
+      <c r="R15" s="23">
         <v>0</v>
       </c>
       <c r="S15" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="23">
-        <v>100011</v>
-      </c>
-      <c r="U15" s="23">
-        <v>0</v>
-      </c>
-      <c r="V15" s="23">
-        <v>0</v>
-      </c>
-      <c r="W15" s="23">
-        <v>0</v>
-      </c>
-      <c r="X15" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y15" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>200012</v>
       </c>
@@ -7683,7 +7167,7 @@
         <v>200012</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D16" s="25">
         <v>1</v>
@@ -7693,7 +7177,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -7708,58 +7192,48 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="32">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="32">
-        <v>20</v>
+      <c r="K16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0</v>
       </c>
       <c r="O16" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>100012</v>
+      </c>
+      <c r="R16" s="23">
         <v>0</v>
       </c>
       <c r="S16" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T16" s="23">
-        <v>100012</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="23">
-        <v>0</v>
-      </c>
-      <c r="W16" s="23">
-        <v>0</v>
-      </c>
-      <c r="X16" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y16" s="25" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V16" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7767,30 +7241,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8D5CB5F-C86B-46E4-B594-BB28888476CA}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5:L16</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8812482B-AF02-4197-81B6-9BA3732762C2}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{294B30F1-7B7B-4C62-BA2D-47071333824A}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>M5:M16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AM$3:$AM$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P5:P16</xm:sqref>
+          <xm:sqref>M5:M16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
           <x14:formula1>
@@ -7812,10 +7274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7823,135 +7285,95 @@
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="34" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="33.75" customWidth="1"/>
-    <col min="11" max="11" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="72.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>100001</v>
       </c>
@@ -7960,39 +7382,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="38">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="38">
+        <v>143</v>
+      </c>
+      <c r="D5" s="11">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="41">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100002</v>
       </c>
@@ -8001,39 +7410,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="33">
+        <v>143</v>
+      </c>
+      <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="42">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>100003</v>
       </c>
@@ -8042,39 +7438,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="33">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="42">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>100004</v>
       </c>
@@ -8083,39 +7466,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="39">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="39">
+        <v>143</v>
+      </c>
+      <c r="D8" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
         <v>1.2</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="43">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>100005</v>
       </c>
@@ -8124,39 +7494,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="33">
+      <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>100006</v>
       </c>
@@ -8165,39 +7522,26 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="39">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="39">
+      <c r="D10" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
         <v>1.2</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>100007</v>
       </c>
@@ -8206,39 +7550,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="33">
+      <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>100008</v>
       </c>
@@ -8247,39 +7578,26 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="39">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="39">
+      <c r="D12" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
         <v>1.2</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>100009</v>
       </c>
@@ -8288,39 +7606,26 @@
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="33">
+      <c r="D13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>100010</v>
       </c>
@@ -8329,39 +7634,26 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="39">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="39">
+      <c r="D14" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="14">
         <v>0</v>
       </c>
       <c r="G14" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
         <v>1.25</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>100011</v>
       </c>
@@ -8370,39 +7662,26 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="33">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="33">
+      <c r="D15" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>100012</v>
       </c>
@@ -8411,36 +7690,23 @@
         <v>1</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="39">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="39">
+      <c r="D16" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="14">
         <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
         <v>1.3</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="43">
-        <v>1</v>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8448,24 +7714,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0477C34-FF66-4589-B84E-7C321460226F}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H16</xm:sqref>
+          <xm:sqref>E5:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8475,10 +7735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8491,98 +7751,82 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="44" customWidth="1"/>
-    <col min="14" max="14" width="19.375" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="19" max="19" width="79.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="16" max="16" width="79.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
@@ -8594,114 +7838,90 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>500001</v>
       </c>
@@ -8710,14 +7930,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -8734,43 +7954,30 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="48">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M5" s="48">
+      <c r="K5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L5,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>900</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>900</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
         <v>0.5</v>
       </c>
-      <c r="R5" s="4">
+      <c r="O5" s="4">
         <v>10000</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="48">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>500002</v>
       </c>
@@ -8779,14 +7986,14 @@
         <v>101</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -8803,43 +8010,30 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="48">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="48">
+      <c r="K6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
         <v>0.05</v>
       </c>
-      <c r="R6" s="4">
+      <c r="O6" s="4">
         <v>3000</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="48">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="b">
+      <c r="P6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>500003</v>
       </c>
@@ -8848,14 +8042,14 @@
         <v>102</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -8872,43 +8066,30 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="48">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="48">
+      <c r="K7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <v>3000</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T7" s="48">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>500006</v>
       </c>
@@ -8917,14 +8098,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -8941,46 +8122,33 @@
       <c r="J8" s="4">
         <v>100004</v>
       </c>
-      <c r="K8" s="48">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="M8" s="48">
+      <c r="K8" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>3000</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T8" s="48">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="b">
+      <c r="P8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U8" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q8" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8988,7 +8156,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$W$3:$W$13</xm:f>
@@ -9001,17 +8169,11 @@
           </x14:formula1>
           <xm:sqref>E5:E8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5EAC502-65E0-4848-BAE8-D363F770B1F1}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5:L8</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>O5:O8</xm:sqref>
+          <xm:sqref>L5:L8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B2C0DE-BDF0-479A-839D-ED34CEA3921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D62B6D-DBD4-4E13-AC42-5F9E011C7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1736,7 +1736,6 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3180,112 +3179,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>THROW_FOOT</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 투사체를 타겟의 발 밑에 던진다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>THROW_BODY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 투사체를 타겟의 몸에 던진다</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>THROW_HEAD</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 투사체를 타겟의 머리에 던진다</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>INSTANT_TARGET_FOOT</v>
-          </cell>
-          <cell r="B8">
-            <v>11</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>INSTANT_TARGET_BODY</v>
-          </cell>
-          <cell r="B9">
-            <v>12</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>12 타겟의 몸에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>INSTANT_TARGET_HEAD</v>
-          </cell>
-          <cell r="B10">
-            <v>13</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>13 타겟의 머리에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ALL_ROUND</v>
-          </cell>
-          <cell r="B11">
-            <v>21</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>21 전체 선택(진영의 중앙)</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -3348,7 +3242,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3651,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AQ5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3673,17 +3566,13 @@
     <col min="23" max="23" width="25.75" customWidth="1"/>
     <col min="25" max="25" width="16.5" customWidth="1"/>
     <col min="27" max="27" width="19.875" customWidth="1"/>
-    <col min="29" max="29" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3713,23 +3602,15 @@
         <v>PERSISTENCE_TYPE</v>
       </c>
       <c r="AC1" t="str">
-        <f>'[1]@projectile_type'!$A$1</f>
-        <v>PROJECTILE_TYPE</v>
-      </c>
-      <c r="AG1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK1" t="str">
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AG1" t="str">
         <f>'[1]@effect_count_type'!$A$1</f>
         <v>EFFECT_COUNT_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -3815,55 +3696,31 @@
         <v>comment</v>
       </c>
       <c r="AC2" s="5" t="str">
-        <f>'[1]@projectile_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AD2" s="5" t="str">
-        <f>'[1]@projectile_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AE2" s="1" t="str">
-        <f>'[1]@projectile_type'!$C3</f>
-        <v>comment</v>
-      </c>
-      <c r="AG2" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH2" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK2" s="5" t="str">
         <f>'[1]@second_target_rule'!$A3</f>
         <v>type</v>
       </c>
-      <c r="AL2" s="5" t="str">
+      <c r="AD2" s="5" t="str">
         <f>'[1]@second_target_rule'!$B3</f>
         <v>value</v>
       </c>
-      <c r="AM2" s="1" t="str">
+      <c r="AE2" s="1" t="str">
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AO2" s="5" t="str">
+      <c r="AG2" s="5" t="str">
         <f>'[1]@effect_count_type'!$A3</f>
         <v>type</v>
       </c>
-      <c r="AP2" s="5" t="str">
+      <c r="AH2" s="5" t="str">
         <f>'[1]@effect_count_type'!$B3</f>
         <v>value</v>
       </c>
-      <c r="AQ2" s="1" t="str">
+      <c r="AI2" s="1" t="str">
         <f>'[1]@effect_count_type'!$C3</f>
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -3949,55 +3806,31 @@
         <v>NONE</v>
       </c>
       <c r="AC3" s="4" t="str">
-        <f>'[1]@projectile_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AD3" s="4">
-        <f>'[1]@projectile_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4" t="str">
-        <f>'[1]@projectile_type'!$C4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AG3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK3" s="4" t="str">
         <f>'[1]@second_target_rule'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AD3" s="4">
         <f>'[1]@second_target_rule'!$B4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="4" t="str">
+      <c r="AE3" s="4" t="str">
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AO3" s="4" t="str">
+      <c r="AG3" s="4" t="str">
         <f>'[1]@effect_count_type'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AH3" s="4">
         <f>'[1]@effect_count_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="4" t="str">
+      <c r="AI3" s="4" t="str">
         <f>'[1]@effect_count_type'!$C4</f>
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4083,55 +3916,31 @@
         <v>1 시간 지속</v>
       </c>
       <c r="AC4" s="4" t="str">
-        <f>'[1]@projectile_type'!$A5</f>
-        <v>THROW_FOOT</v>
-      </c>
-      <c r="AD4" s="4">
-        <f>'[1]@projectile_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="str">
-        <f>'[1]@projectile_type'!$C5</f>
-        <v>1 투사체를 타겟의 발 밑에 던진다</v>
-      </c>
-      <c r="AG4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK4" s="4" t="str">
         <f>'[1]@second_target_rule'!$A5</f>
         <v>AROUND_SPLASH</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AD4" s="4">
         <f>'[1]@second_target_rule'!$B5</f>
         <v>1</v>
       </c>
-      <c r="AM4" s="4" t="str">
+      <c r="AE4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO4" s="4" t="str">
+      <c r="AG4" s="4" t="str">
         <f>'[1]@effect_count_type'!$A5</f>
         <v>SINGLE_EFFECT</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AH4" s="4">
         <f>'[1]@effect_count_type'!$B5</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="4" t="str">
+      <c r="AI4" s="4" t="str">
         <f>'[1]@effect_count_type'!$C5</f>
         <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4205,55 +4014,31 @@
         <v>2 피격 횟수 제한</v>
       </c>
       <c r="AC5" s="4" t="str">
-        <f>'[1]@projectile_type'!$A6</f>
-        <v>THROW_BODY</v>
-      </c>
-      <c r="AD5" s="4">
-        <f>'[1]@projectile_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AE5" s="4" t="str">
-        <f>'[1]@projectile_type'!$C6</f>
-        <v>2 투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="AG5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK5" s="4" t="str">
         <f>'[1]@second_target_rule'!$A6</f>
         <v>BACK_SPLASH</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AD5" s="4">
         <f>'[1]@second_target_rule'!$B6</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="4" t="str">
+      <c r="AE5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO5" s="4" t="str">
+      <c r="AG5" s="4" t="str">
         <f>'[1]@effect_count_type'!$A6</f>
         <v>EACH_TARGET_EFFECT</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AH5" s="4">
         <f>'[1]@effect_count_type'!$B6</f>
         <v>2</v>
       </c>
-      <c r="AQ5" s="4" t="str">
+      <c r="AI5" s="4" t="str">
         <f>'[1]@effect_count_type'!$C6</f>
         <v>각 타겟에 개별적으로 발현되는 이펙트</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4315,32 +4100,8 @@
         <f>'[1]@persistence_type'!$C7</f>
         <v>3 공격 횟수 제한</v>
       </c>
-      <c r="AC6" s="4" t="str">
-        <f>'[1]@projectile_type'!$A7</f>
-        <v>THROW_HEAD</v>
-      </c>
-      <c r="AD6" s="4">
-        <f>'[1]@projectile_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4" t="str">
-        <f>'[1]@projectile_type'!$C7</f>
-        <v>3 투사체를 타겟의 머리에 던진다</v>
-      </c>
-      <c r="AG6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4377,32 +4138,8 @@
         <f>'[1]@duration_effect_type'!$C8</f>
         <v>103 침묵</v>
       </c>
-      <c r="AC7" s="4" t="str">
-        <f>'[1]@projectile_type'!$A8</f>
-        <v>INSTANT_TARGET_FOOT</v>
-      </c>
-      <c r="AD7" s="4">
-        <f>'[1]@projectile_type'!$B8</f>
-        <v>11</v>
-      </c>
-      <c r="AE7" s="4" t="str">
-        <f>'[1]@projectile_type'!$C8</f>
-        <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4439,20 +4176,8 @@
         <f>'[1]@duration_effect_type'!$C9</f>
         <v>104 결박</v>
       </c>
-      <c r="AC8" s="4" t="str">
-        <f>'[1]@projectile_type'!$A9</f>
-        <v>INSTANT_TARGET_BODY</v>
-      </c>
-      <c r="AD8" s="4">
-        <f>'[1]@projectile_type'!$B9</f>
-        <v>12</v>
-      </c>
-      <c r="AE8" s="4" t="str">
-        <f>'[1]@projectile_type'!$C9</f>
-        <v>12 타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4489,20 +4214,8 @@
         <f>'[1]@duration_effect_type'!$C10</f>
         <v>105 빙결</v>
       </c>
-      <c r="AC9" s="4" t="str">
-        <f>'[1]@projectile_type'!$A10</f>
-        <v>INSTANT_TARGET_HEAD</v>
-      </c>
-      <c r="AD9" s="4">
-        <f>'[1]@projectile_type'!$B10</f>
-        <v>13</v>
-      </c>
-      <c r="AE9" s="4" t="str">
-        <f>'[1]@projectile_type'!$C10</f>
-        <v>13 타겟의 머리에서 즉시 효과 발동</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4539,20 +4252,8 @@
         <f>'[1]@duration_effect_type'!$C11</f>
         <v>106 공격력 증가</v>
       </c>
-      <c r="AC10" s="4" t="str">
-        <f>'[1]@projectile_type'!$A11</f>
-        <v>ALL_ROUND</v>
-      </c>
-      <c r="AD10" s="4">
-        <f>'[1]@projectile_type'!$B11</f>
-        <v>21</v>
-      </c>
-      <c r="AE10" s="4" t="str">
-        <f>'[1]@projectile_type'!$C11</f>
-        <v>21 전체 선택(진영의 중앙)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -4590,7 +4291,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -4628,7 +4329,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -4666,7 +4367,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -4680,7 +4381,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4694,7 +4395,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -6133,7 +5834,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E67DA0EB-B198-497F-9178-06CF37A8E3CB}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
+            <xm:f>'!참조_ENUM'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
@@ -6412,14 +6113,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K5,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>92</v>
       </c>
       <c r="L5" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M5" s="26" t="s">
@@ -6481,14 +6182,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K6,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M6" s="26" t="s">
@@ -6550,14 +6251,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K7,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L7" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M7" s="26" t="s">
@@ -6621,14 +6322,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K8,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L8" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M8" s="26" t="s">
@@ -6692,14 +6393,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K9,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L9" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M9" s="26" t="s">
@@ -6763,14 +6464,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K10,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L10" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M10" s="26" t="s">
@@ -6834,14 +6535,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K11,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L11" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M11" s="26" t="s">
@@ -6905,14 +6606,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K12,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L12" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M12" s="26" t="s">
@@ -6976,14 +6677,14 @@
         <v>0</v>
       </c>
       <c r="J13" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K13,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L13" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M13" s="26" t="s">
@@ -7047,14 +6748,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K14,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L14" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M14" s="26" t="s">
@@ -7118,14 +6819,14 @@
         <v>0</v>
       </c>
       <c r="J15" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K15,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L15" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M15" s="26" t="s">
@@ -7189,14 +6890,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K16,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L16" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M16" s="26" t="s">
@@ -7250,7 +6951,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AM$3:$AM$5</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$5</xm:f>
           </x14:formula1>
           <xm:sqref>M5:M16</xm:sqref>
         </x14:dataValidation>
@@ -7262,7 +6963,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F116DB-1252-49ED-A663-DC6A99516978}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$5</xm:f>
+            <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K16</xm:sqref>
         </x14:dataValidation>
@@ -7737,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D62B6D-DBD4-4E13-AC42-5F9E011C7051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D6475-1BF9-4EC2-8113-06336251EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1353,6 +1353,18 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Bomber_Attack_Hit</t>
+  </si>
+  <si>
+    <t>스킬 타입(기획)</t>
+  </si>
+  <si>
+    <t>#skill_type</t>
+  </si>
+  <si>
+    <t>1 일반 공격</t>
+  </si>
+  <si>
+    <t>2 스킬 공격 1</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1694,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1734,7 +1749,7 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@sd_body_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
@@ -2667,7 +2682,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
         <row r="6">
@@ -2678,7 +2693,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
       </sheetData>
@@ -3181,7 +3196,79 @@
       </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NORMAL_ATTACK</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 일반 공격</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SKILL_01</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 스킬 공격 1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SKILL_02</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스킬 공격 2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SPECIAL_SKILL</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 궁극기</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -3544,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3570,9 +3657,12 @@
     <col min="31" max="31" width="48.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="47" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -3609,8 +3699,12 @@
         <f>'[1]@effect_count_type'!$A$1</f>
         <v>EFFECT_COUNT_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK1" t="str">
+        <f>'[1]@skill_type'!$A$1</f>
+        <v>SKILL_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -3719,8 +3813,20 @@
         <f>'[1]@effect_count_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK2" s="5" t="str">
+        <f>'[1]@skill_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AL2" s="5" t="str">
+        <f>'[1]@skill_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AM2" s="1" t="str">
+        <f>'[1]@skill_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -3829,8 +3935,20 @@
         <f>'[1]@effect_count_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK3" s="4" t="str">
+        <f>'[1]@skill_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>'[1]@skill_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="str">
+        <f>'[1]@skill_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -3925,7 +4043,7 @@
       </c>
       <c r="AE4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
-        <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
       <c r="AG4" s="4" t="str">
         <f>'[1]@effect_count_type'!$A5</f>
@@ -3939,8 +4057,20 @@
         <f>'[1]@effect_count_type'!$C5</f>
         <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK4" s="4" t="str">
+        <f>'[1]@skill_type'!$A5</f>
+        <v>NORMAL_ATTACK</v>
+      </c>
+      <c r="AL4" s="4">
+        <f>'[1]@skill_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4" t="str">
+        <f>'[1]@skill_type'!$C5</f>
+        <v>1 일반 공격</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4023,7 +4153,7 @@
       </c>
       <c r="AE5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
-        <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
       <c r="AG5" s="4" t="str">
         <f>'[1]@effect_count_type'!$A6</f>
@@ -4037,8 +4167,20 @@
         <f>'[1]@effect_count_type'!$C6</f>
         <v>각 타겟에 개별적으로 발현되는 이펙트</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK5" s="4" t="str">
+        <f>'[1]@skill_type'!$A6</f>
+        <v>SKILL_01</v>
+      </c>
+      <c r="AL5" s="4">
+        <f>'[1]@skill_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AM5" s="4" t="str">
+        <f>'[1]@skill_type'!$C6</f>
+        <v>2 스킬 공격 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4100,8 +4242,20 @@
         <f>'[1]@persistence_type'!$C7</f>
         <v>3 공격 횟수 제한</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK6" s="4" t="str">
+        <f>'[1]@skill_type'!$A7</f>
+        <v>SKILL_02</v>
+      </c>
+      <c r="AL6" s="4">
+        <f>'[1]@skill_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <f>'[1]@skill_type'!$C7</f>
+        <v>3 스킬 공격 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -4138,8 +4292,20 @@
         <f>'[1]@duration_effect_type'!$C8</f>
         <v>103 침묵</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK7" s="4" t="str">
+        <f>'[1]@skill_type'!$A8</f>
+        <v>SPECIAL_SKILL</v>
+      </c>
+      <c r="AL7" s="4">
+        <f>'[1]@skill_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AM7" s="4" t="str">
+        <f>'[1]@skill_type'!$C8</f>
+        <v>4 궁극기</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -4177,7 +4343,7 @@
         <v>104 결박</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -4215,7 +4381,7 @@
         <v>105 빙결</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -4253,7 +4419,7 @@
         <v>106 공격력 증가</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -4291,7 +4457,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -4329,7 +4495,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -4367,7 +4533,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -4381,7 +4547,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -4395,7 +4561,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -5327,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5339,20 +5505,20 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="33.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.25" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.25" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5369,22 +5535,25 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5570,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -5410,13 +5579,16 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -5433,22 +5605,25 @@
         <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>200001</v>
       </c>
@@ -5463,25 +5638,29 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F5,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>200002</v>
       </c>
@@ -5496,25 +5675,29 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F6,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200003</v>
       </c>
@@ -5529,25 +5712,29 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F7,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>200004</v>
       </c>
@@ -5562,23 +5749,27 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F8,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>200005</v>
       </c>
@@ -5593,23 +5784,27 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F9,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>200006</v>
       </c>
@@ -5624,23 +5819,27 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F10,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>200007</v>
       </c>
@@ -5655,23 +5854,27 @@
         <v>2</v>
       </c>
       <c r="E11" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F11,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200008</v>
       </c>
@@ -5686,23 +5889,27 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F12,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>200009</v>
       </c>
@@ -5717,23 +5924,27 @@
         <v>2</v>
       </c>
       <c r="E13" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F13,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>200010</v>
       </c>
@@ -5748,23 +5959,27 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F14,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="H14" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>200011</v>
       </c>
@@ -5779,23 +5994,27 @@
         <v>2</v>
       </c>
       <c r="E15" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F15,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="H15" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>200012</v>
       </c>
@@ -5810,19 +6029,23 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F16,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>2</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5831,12 +6054,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E67DA0EB-B198-497F-9178-06CF37A8E3CB}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6CDD4DA-3C4A-4FF5-8D56-93F2930B0DB8}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!#REF!</xm:f>
+            <xm:f>'!참조_ENUM'!$AM$3:$AM$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>F5:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5849,7 +6072,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D6475-1BF9-4EC2-8113-06336251EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C7BB8-C183-49A0-ADF2-636713367652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1293,9 +1293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/SkillEffect_RightTeam_Normal_Hit</t>
-  </si>
-  <si>
     <t>딜러/일반/근접공격/공격력 100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1365,6 +1362,9 @@
   </si>
   <si>
     <t>2 스킬 공격 1</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Tanker_Attack_Hit</t>
   </si>
 </sst>
 </file>
@@ -5495,7 +5495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5535,7 +5535,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
@@ -5605,7 +5605,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -5642,13 +5642,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>157</v>
@@ -5669,7 +5669,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5679,19 +5679,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>157</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="4">
         <v>2.5</v>
@@ -5716,19 +5716,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K7" s="4">
         <v>1.4</v>
@@ -5753,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>157</v>
@@ -5788,13 +5788,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>104</v>
@@ -5823,13 +5823,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>107</v>
@@ -5858,13 +5858,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>104</v>
@@ -5893,13 +5893,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>105</v>
@@ -5928,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>104</v>
@@ -5963,13 +5963,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>105</v>
@@ -5998,13 +5998,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>104</v>
@@ -6033,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>105</v>
@@ -6071,15 +6071,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.375" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="43.875" style="15" customWidth="1"/>
@@ -6131,10 +6131,10 @@
         <v>127</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>115</v>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>119</v>
@@ -6267,10 +6267,10 @@
         <v>128</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>121</v>
@@ -6383,7 +6383,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -6452,7 +6452,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6512,7 +6512,7 @@
         <v>146</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -6523,7 +6523,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -6549,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6583,7 +6583,7 @@
         <v>146</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6762,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6833,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6975,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7046,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7117,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7200,8 +7200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7378,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7406,7 +7406,7 @@
         <v>1.2</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C7BB8-C183-49A0-ADF2-636713367652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDC9A6-B915-48C8-B687-0FA1D13F03A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1146,10 +1146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세컨 타겟 룰</t>
   </si>
   <si>
@@ -1365,6 +1361,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Monster/SkillEffect_Enemy_Tanker_Attack_Hit</t>
+  </si>
+  <si>
+    <t>skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5495,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5535,7 +5535,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
@@ -5547,10 +5547,10 @@
         <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
@@ -5582,10 +5582,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5602,10 +5602,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -5617,10 +5617,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5642,19 +5642,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="4">
         <v>3.5</v>
@@ -5669,7 +5669,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5679,19 +5679,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="4">
         <v>2.5</v>
@@ -5716,19 +5716,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="4">
         <v>1.4</v>
@@ -5753,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
@@ -5788,13 +5788,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>104</v>
@@ -5823,13 +5823,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>107</v>
@@ -5858,13 +5858,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>104</v>
@@ -5893,13 +5893,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>105</v>
@@ -5928,13 +5928,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>104</v>
@@ -5963,13 +5963,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>105</v>
@@ -5998,13 +5998,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>104</v>
@@ -6033,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>105</v>
@@ -6128,25 +6128,25 @@
         <v>10</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="L2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="O2" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>74</v>
@@ -6158,16 +6158,16 @@
         <v>66</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="U2" s="17" t="s">
         <v>76</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
@@ -6199,22 +6199,22 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="O3" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>67</v>
@@ -6226,10 +6226,10 @@
         <v>67</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U3" s="18" t="s">
         <v>3</v>
@@ -6264,25 +6264,25 @@
         <v>15</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="L4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="N4" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>75</v>
@@ -6294,16 +6294,16 @@
         <v>69</v>
       </c>
       <c r="S4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T4" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>77</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -6314,7 +6314,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="23">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="23">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -6462,7 +6462,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6509,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -6523,7 +6523,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="23">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6580,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -6604,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="23">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6675,7 +6675,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="23">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6746,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="23">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6817,7 +6817,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="23">
         <v>0</v>
@@ -6833,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6888,7 +6888,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="23">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6959,7 +6959,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L14" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7030,7 +7030,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="23">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7101,7 +7101,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7200,8 +7200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7306,14 +7306,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7334,14 +7334,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7362,14 +7362,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7390,14 +7390,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="14">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>1.2</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -7418,14 +7418,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -7446,14 +7446,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="14">
         <v>0</v>
@@ -7474,14 +7474,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -7502,14 +7502,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="14">
         <v>0</v>
@@ -7530,14 +7530,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -7558,14 +7558,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="14">
         <v>0</v>
@@ -7586,14 +7586,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -7614,14 +7614,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="14">
         <v>0</v>
@@ -7854,14 +7854,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -7910,14 +7910,14 @@
         <v>101</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -7939,7 +7939,7 @@
         <v>300</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -7966,14 +7966,14 @@
         <v>102</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -8022,14 +8022,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDC9A6-B915-48C8-B687-0FA1D13F03A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCC9A5-F731-40C5-B4A5-5CD6B823F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="570" yWindow="1860" windowWidth="35370" windowHeight="15435" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,26 +1258,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cast_effect_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탱커/일반/근접공격/공격력 100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,6 +1352,14 @@
   </si>
   <si>
     <t>skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 이펙트 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty_effect_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,6 +1739,7 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
@@ -1753,11 +1750,35 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -3278,7 +3299,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_COUNT_TYPE</v>
@@ -5493,10 +5515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5509,16 +5531,15 @@
     <col min="7" max="7" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.25" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5535,7 +5556,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
@@ -5549,11 +5570,8 @@
       <c r="J2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5582,13 +5600,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -5602,10 +5617,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -5617,13 +5632,10 @@
         <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>200001</v>
       </c>
@@ -5642,25 +5654,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>200002</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5679,25 +5688,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200003</v>
       </c>
@@ -5716,25 +5722,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>200004</v>
       </c>
@@ -5753,23 +5756,20 @@
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>200005</v>
       </c>
@@ -5788,23 +5788,20 @@
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>200006</v>
       </c>
@@ -5823,23 +5820,20 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>200007</v>
       </c>
@@ -5858,23 +5852,20 @@
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200008</v>
       </c>
@@ -5893,23 +5884,20 @@
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>200009</v>
       </c>
@@ -5928,23 +5916,20 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>200010</v>
       </c>
@@ -5963,23 +5948,20 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>200011</v>
       </c>
@@ -5998,23 +5980,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>200012</v>
       </c>
@@ -6033,21 +6012,18 @@
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6069,10 +6045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6094,15 +6070,16 @@
     <col min="17" max="20" width="13.125" style="16" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="70.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="15"/>
+    <col min="23" max="23" width="32.125" style="15" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6131,10 +6108,10 @@
         <v>126</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>114</v>
@@ -6169,8 +6146,11 @@
       <c r="V2" s="17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="W2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -6199,7 +6179,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>118</v>
@@ -6237,8 +6217,11 @@
       <c r="V3" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
@@ -6267,10 +6250,10 @@
         <v>127</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>120</v>
@@ -6305,8 +6288,11 @@
       <c r="V4" s="24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>200001</v>
       </c>
@@ -6314,7 +6300,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -6374,8 +6360,9 @@
         <v>94</v>
       </c>
       <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>200002</v>
       </c>
@@ -6383,7 +6370,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -6443,8 +6430,9 @@
         <v>94</v>
       </c>
       <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>200003</v>
       </c>
@@ -6452,7 +6440,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -6478,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6512,10 +6500,11 @@
         <v>145</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>200004</v>
       </c>
@@ -6523,7 +6512,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -6549,7 +6538,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L8" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6583,10 +6572,11 @@
         <v>145</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>200005</v>
       </c>
@@ -6620,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6656,8 +6646,9 @@
       <c r="V9" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>200006</v>
       </c>
@@ -6691,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6727,8 +6718,9 @@
       <c r="V10" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>200007</v>
       </c>
@@ -6762,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L11" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6798,8 +6790,9 @@
       <c r="V11" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>200008</v>
       </c>
@@ -6833,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6869,8 +6862,9 @@
       <c r="V12" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>200009</v>
       </c>
@@ -6904,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6940,8 +6934,9 @@
       <c r="V13" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>200010</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L14" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7011,8 +7006,9 @@
       <c r="V14" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>200011</v>
       </c>
@@ -7046,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7082,8 +7078,9 @@
       <c r="V15" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>200012</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7153,6 +7150,7 @@
       <c r="V16" s="25" t="s">
         <v>111</v>
       </c>
+      <c r="W16" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7322,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7350,7 +7348,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7378,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7406,7 +7404,7 @@
         <v>1.2</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCC9A5-F731-40C5-B4A5-5CD6B823F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692113E-9289-418B-84F8-E6DB945ED3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1860" windowWidth="35370" windowHeight="15435" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="570" yWindow="1860" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,230 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>전홍림</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{290DF00E-F94E-47F0-8D15-BF0457C96BA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>궁극기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟팅을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>먼저</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타겟을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>전홍림</author>
@@ -583,7 +807,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>전홍림</author>
@@ -704,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,11 +1579,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빈 이펙트 프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty_effect_path</t>
+    <t>궁극기 타겟 스킬 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_skill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1659,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1693,6 +1927,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1750,35 +1987,11 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -3011,6 +3224,17 @@
           </cell>
           <cell r="C6" t="str">
             <v>2 체력 회복</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>NONE_EFFECT</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 빈 이펙트(일회성 효과는 없음)</v>
           </cell>
         </row>
       </sheetData>
@@ -3655,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AM7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4240,6 +4464,18 @@
         <v>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</v>
       </c>
+      <c r="Q6" s="8" t="str">
+        <f>'[1]@onetime_effect_type'!$A7</f>
+        <v>NONE_EFFECT</v>
+      </c>
+      <c r="R6" s="8">
+        <f>'[1]@onetime_effect_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="8" t="str">
+        <f>'[1]@onetime_effect_type'!$C7</f>
+        <v>3 빈 이펙트(일회성 효과는 없음)</v>
+      </c>
       <c r="U6" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A7</f>
         <v>STUN</v>
@@ -5514,11 +5750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5529,17 +5765,18 @@
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="33.875" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.625" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5562,16 +5799,19 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5594,16 +5834,19 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -5626,16 +5869,19 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>200001</v>
       </c>
@@ -5659,17 +5905,20 @@
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>200002</v>
       </c>
@@ -5693,17 +5942,20 @@
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200003</v>
       </c>
@@ -5727,17 +5979,20 @@
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>200004</v>
       </c>
@@ -5761,15 +6016,18 @@
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>200005</v>
       </c>
@@ -5793,15 +6051,18 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>200006</v>
       </c>
@@ -5825,15 +6086,18 @@
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>200007</v>
       </c>
@@ -5857,15 +6121,18 @@
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>200008</v>
       </c>
@@ -5889,15 +6156,18 @@
       <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>200009</v>
       </c>
@@ -5921,15 +6191,18 @@
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>200010</v>
       </c>
@@ -5953,15 +6226,18 @@
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>200011</v>
       </c>
@@ -5985,15 +6261,18 @@
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>200012</v>
       </c>
@@ -6017,17 +6296,21 @@
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6045,10 +6328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6070,16 +6353,15 @@
     <col min="17" max="20" width="13.125" style="16" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="70.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.125" style="15" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="15"/>
+    <col min="23" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6146,11 +6428,8 @@
       <c r="V2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -6217,11 +6496,8 @@
       <c r="V3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
@@ -6288,11 +6564,8 @@
       <c r="V4" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>200001</v>
       </c>
@@ -6360,9 +6633,8 @@
         <v>94</v>
       </c>
       <c r="V5" s="25"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>200002</v>
       </c>
@@ -6430,9 +6702,8 @@
         <v>94</v>
       </c>
       <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>200003</v>
       </c>
@@ -6502,9 +6773,8 @@
       <c r="V7" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="W7" s="25"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>200004</v>
       </c>
@@ -6574,9 +6844,8 @@
       <c r="V8" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="W8" s="25"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>200005</v>
       </c>
@@ -6646,9 +6915,8 @@
       <c r="V9" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W9" s="25"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>200006</v>
       </c>
@@ -6718,9 +6986,8 @@
       <c r="V10" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W10" s="25"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>200007</v>
       </c>
@@ -6790,9 +7057,8 @@
       <c r="V11" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W11" s="25"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>200008</v>
       </c>
@@ -6862,9 +7128,8 @@
       <c r="V12" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>200009</v>
       </c>
@@ -6934,9 +7199,8 @@
       <c r="V13" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>200010</v>
       </c>
@@ -7006,9 +7270,8 @@
       <c r="V14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W14" s="25"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>200011</v>
       </c>
@@ -7078,9 +7341,8 @@
       <c r="V15" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>200012</v>
       </c>
@@ -7150,7 +7412,6 @@
       <c r="V16" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="W16" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7300,7 +7561,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C5,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -7328,7 +7589,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C6,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -7356,7 +7617,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C7,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -7384,7 +7645,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C8,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -7412,7 +7673,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C9,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -7440,7 +7701,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C10,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -7468,7 +7729,7 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C11,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -7496,7 +7757,7 @@
         <v>100008</v>
       </c>
       <c r="B12" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C12,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -7524,7 +7785,7 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C13,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -7552,7 +7813,7 @@
         <v>100010</v>
       </c>
       <c r="B14" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C14,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -7580,7 +7841,7 @@
         <v>100011</v>
       </c>
       <c r="B15" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C15,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -7608,7 +7869,7 @@
         <v>100012</v>
       </c>
       <c r="B16" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C16,'!참조_ENUM'!$S$3:$S$6,0))</f>
         <v>1</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -7637,17 +7898,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$3:$S$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692113E-9289-418B-84F8-E6DB945ED3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890393F-F30D-4747-8255-B117EF15A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1860" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="40545" yWindow="2490" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1482,10 +1482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cast_effect_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1588,6 +1584,10 @@
   </si>
   <si>
     <t>target_skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1974,7 +1974,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -1985,6 +1984,8 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3523,8 +3524,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
+      <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_COUNT_TYPE</v>
@@ -3575,6 +3575,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5754,7 +5756,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5793,13 +5795,13 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>109</v>
@@ -5834,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -5843,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5860,16 +5862,16 @@
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>110</v>
@@ -5878,7 +5880,7 @@
         <v>71</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5900,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
@@ -5909,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5927,7 +5929,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -5937,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
@@ -5946,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5974,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
@@ -5983,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6011,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
@@ -6020,10 +6022,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -6046,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
@@ -6055,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>104</v>
@@ -6081,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
@@ -6090,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>107</v>
@@ -6116,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
@@ -6125,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>104</v>
@@ -6151,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
@@ -6160,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>105</v>
@@ -6186,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
@@ -6195,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>104</v>
@@ -6221,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
@@ -6230,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>105</v>
@@ -6256,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
@@ -6265,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>104</v>
@@ -6291,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
@@ -6300,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>105</v>
@@ -6390,10 +6392,10 @@
         <v>126</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>114</v>
@@ -6458,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>118</v>
@@ -6526,10 +6528,10 @@
         <v>127</v>
       </c>
       <c r="J4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>120</v>
@@ -6573,7 +6575,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -6642,7 +6644,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -6711,7 +6713,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -6737,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6771,7 +6773,7 @@
         <v>145</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -6782,7 +6784,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -6808,7 +6810,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L8" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6842,7 +6844,7 @@
         <v>145</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -6879,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -6950,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7021,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L11" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7092,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7163,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7234,7 +7236,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L14" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7305,7 +7307,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7376,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7581,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7609,7 +7611,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7637,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7665,7 +7667,7 @@
         <v>1.2</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1890393F-F30D-4747-8255-B117EF15A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CC431-EC52-4DA8-9709-D99203367D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="2490" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="3000" yWindow="660" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1579,15 +1579,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target_skill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5755,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -5836,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -5845,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5871,7 +5871,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>110</v>
@@ -6332,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>0</v>
@@ -7462,7 +7462,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>48</v>
@@ -7922,8 +7922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>52</v>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CC431-EC52-4DA8-9709-D99203367D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45086A3A-94B5-4F50-85C0-F45273A09812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="660" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1985,7 +1985,6 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
-      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2216,7 +2215,7 @@
             <v>1001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>1001 리더 선택</v>
+            <v>1001 리더 선택 (리더 없음)</v>
           </cell>
         </row>
         <row r="23">
@@ -2877,6 +2876,479 @@
           </cell>
           <cell r="C82" t="str">
             <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>LOW_HP</v>
+          </cell>
+          <cell r="B83">
+            <v>10001</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>10001 현재 체력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>HIGH_HP_VALUE</v>
+          </cell>
+          <cell r="B84">
+            <v>10002</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>10002 현재 체력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>HIGH_HP_RATE</v>
+          </cell>
+          <cell r="B85">
+            <v>10003</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>10003 남은 체력 비율이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>LOW_HP_RATE</v>
+          </cell>
+          <cell r="B86">
+            <v>10004</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>10004 남은 체력 비율이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>LOW_MAX_HP</v>
+          </cell>
+          <cell r="B87">
+            <v>10005</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>10003 최대 체력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>HIGH_MAX_HP</v>
+          </cell>
+          <cell r="B88">
+            <v>10006</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>10004 최대 체력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>LOW_P_ATK</v>
+          </cell>
+          <cell r="B89">
+            <v>10007</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>10005 물리 공격력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>HIGH_P_ATK</v>
+          </cell>
+          <cell r="B90">
+            <v>10008</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>10006 물리 공격력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>LOW_M_ATK</v>
+          </cell>
+          <cell r="B91">
+            <v>10009</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>10007 마법 공격력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>HIGH_M_ATK</v>
+          </cell>
+          <cell r="B92">
+            <v>10010</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>10008 마법 공격력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>LOW_PM_ATK</v>
+          </cell>
+          <cell r="B93">
+            <v>10011</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>HIGH_PM_ATK</v>
+          </cell>
+          <cell r="B94">
+            <v>10012</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>LOW_P_DEF</v>
+          </cell>
+          <cell r="B95">
+            <v>10013</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>10011 물리 방어력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>HIGH_P_DEF</v>
+          </cell>
+          <cell r="B96">
+            <v>10014</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>10012 물리 방어력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>LOW_M_DEF</v>
+          </cell>
+          <cell r="B97">
+            <v>10015</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>10013 마법 방어력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>HIGH_M_DEF</v>
+          </cell>
+          <cell r="B98">
+            <v>10016</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>10014 마법 방어력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>LOW_PM_DEF</v>
+          </cell>
+          <cell r="B99">
+            <v>10017</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>HIGH_PM_DEF</v>
+          </cell>
+          <cell r="B100">
+            <v>10018</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>LOW_P_CRI_INC</v>
+          </cell>
+          <cell r="B101">
+            <v>10019</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>HIGH_P_CRI_INC</v>
+          </cell>
+          <cell r="B102">
+            <v>10020</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>LOW_M_CRI_INC</v>
+          </cell>
+          <cell r="B103">
+            <v>10021</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>HIGH_M_CRI_INC</v>
+          </cell>
+          <cell r="B104">
+            <v>10022</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>LOW_P_CRI_ADD</v>
+          </cell>
+          <cell r="B105">
+            <v>10023</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>HIGH_P_CRI_ADD</v>
+          </cell>
+          <cell r="B106">
+            <v>10024</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>LOW_M_CRI_ADD</v>
+          </cell>
+          <cell r="B107">
+            <v>10025</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>HIGH_M_CRI_ADD</v>
+          </cell>
+          <cell r="B108">
+            <v>10026</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>LOW_ACCURACY</v>
+          </cell>
+          <cell r="B109">
+            <v>10027</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>10025 명중이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>HIGH_ACCURACY</v>
+          </cell>
+          <cell r="B110">
+            <v>10028</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>10026 명중이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>LOW_EVASION</v>
+          </cell>
+          <cell r="B111">
+            <v>10029</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>10027 회피가 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>HIGH_EVASION</v>
+          </cell>
+          <cell r="B112">
+            <v>10030</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>10028 회피가 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>LOW_ATK_RECOVERY</v>
+          </cell>
+          <cell r="B113">
+            <v>10031</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>10029 타격 시 회복량이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>HIGH_ATK_RECOVERY</v>
+          </cell>
+          <cell r="B114">
+            <v>10032</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>10030 타격 시 회복량이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>LOW_HEAL</v>
+          </cell>
+          <cell r="B115">
+            <v>10033</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>10031 회복량이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>HIGH_HEAL</v>
+          </cell>
+          <cell r="B116">
+            <v>10034</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>10032 회복량이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>LOW_RESIST</v>
+          </cell>
+          <cell r="B117">
+            <v>10035</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>10033 강인함이 가장 낮은 대상</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>HIGH_RESIST</v>
+          </cell>
+          <cell r="B118">
+            <v>10036</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>10034 강인함이 가장 높은 대상</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>CC_ALL_PROGRESS</v>
+          </cell>
+          <cell r="B119">
+            <v>20001</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>20001 상태이상 중인 대상</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>CC_STUN_PROGRESS</v>
+          </cell>
+          <cell r="B120">
+            <v>20002</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>20002 기절 중인 대상</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>CC_BIND_PROGRESS</v>
+          </cell>
+          <cell r="B121">
+            <v>20003</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>20003 결박 중인 대상</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>CC_SILENCE_PROGRESS</v>
+          </cell>
+          <cell r="B122">
+            <v>20004</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>20004 침묵 중인 대상</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>CC_FREEZ_PROGRESS</v>
+          </cell>
+          <cell r="B123">
+            <v>20005</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>20005 빙결 중인 대상</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>BUFF_ALL_PROGRESS</v>
+          </cell>
+          <cell r="B124">
+            <v>20101</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>20101 버프 상태 중인 대상</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>DEBUFF_ALL_PROGRESS</v>
+          </cell>
+          <cell r="B125">
+            <v>20201</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>20201 디버프 상태 중인 대상</v>
           </cell>
         </row>
       </sheetData>
@@ -3576,7 +4048,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3879,10 +4350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM124"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:S6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4902,7 +5373,7 @@
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>1001 리더 선택</v>
+        <v>1001 리더 선택 (리더 없음)</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5743,6 +6214,608 @@
       <c r="C81" s="4" t="str">
         <f>'[1]@target_rule'!$C82</f>
         <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="str">
+        <f>'[1]@target_rule'!$A83</f>
+        <v>LOW_HP</v>
+      </c>
+      <c r="B82" s="4">
+        <f>'[1]@target_rule'!$B83</f>
+        <v>10001</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f>'[1]@target_rule'!$C83</f>
+        <v>10001 현재 체력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="str">
+        <f>'[1]@target_rule'!$A84</f>
+        <v>HIGH_HP_VALUE</v>
+      </c>
+      <c r="B83" s="4">
+        <f>'[1]@target_rule'!$B84</f>
+        <v>10002</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f>'[1]@target_rule'!$C84</f>
+        <v>10002 현재 체력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="str">
+        <f>'[1]@target_rule'!$A85</f>
+        <v>HIGH_HP_RATE</v>
+      </c>
+      <c r="B84" s="4">
+        <f>'[1]@target_rule'!$B85</f>
+        <v>10003</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <f>'[1]@target_rule'!$C85</f>
+        <v>10003 남은 체력 비율이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="str">
+        <f>'[1]@target_rule'!$A86</f>
+        <v>LOW_HP_RATE</v>
+      </c>
+      <c r="B85" s="4">
+        <f>'[1]@target_rule'!$B86</f>
+        <v>10004</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f>'[1]@target_rule'!$C86</f>
+        <v>10004 남은 체력 비율이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="str">
+        <f>'[1]@target_rule'!$A87</f>
+        <v>LOW_MAX_HP</v>
+      </c>
+      <c r="B86" s="4">
+        <f>'[1]@target_rule'!$B87</f>
+        <v>10005</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f>'[1]@target_rule'!$C87</f>
+        <v>10003 최대 체력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="str">
+        <f>'[1]@target_rule'!$A88</f>
+        <v>HIGH_MAX_HP</v>
+      </c>
+      <c r="B87" s="4">
+        <f>'[1]@target_rule'!$B88</f>
+        <v>10006</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f>'[1]@target_rule'!$C88</f>
+        <v>10004 최대 체력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="str">
+        <f>'[1]@target_rule'!$A89</f>
+        <v>LOW_P_ATK</v>
+      </c>
+      <c r="B88" s="4">
+        <f>'[1]@target_rule'!$B89</f>
+        <v>10007</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f>'[1]@target_rule'!$C89</f>
+        <v>10005 물리 공격력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="str">
+        <f>'[1]@target_rule'!$A90</f>
+        <v>HIGH_P_ATK</v>
+      </c>
+      <c r="B89" s="4">
+        <f>'[1]@target_rule'!$B90</f>
+        <v>10008</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f>'[1]@target_rule'!$C90</f>
+        <v>10006 물리 공격력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="str">
+        <f>'[1]@target_rule'!$A91</f>
+        <v>LOW_M_ATK</v>
+      </c>
+      <c r="B90" s="4">
+        <f>'[1]@target_rule'!$B91</f>
+        <v>10009</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f>'[1]@target_rule'!$C91</f>
+        <v>10007 마법 공격력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="str">
+        <f>'[1]@target_rule'!$A92</f>
+        <v>HIGH_M_ATK</v>
+      </c>
+      <c r="B91" s="4">
+        <f>'[1]@target_rule'!$B92</f>
+        <v>10010</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f>'[1]@target_rule'!$C92</f>
+        <v>10008 마법 공격력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="str">
+        <f>'[1]@target_rule'!$A93</f>
+        <v>LOW_PM_ATK</v>
+      </c>
+      <c r="B92" s="4">
+        <f>'[1]@target_rule'!$B93</f>
+        <v>10011</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f>'[1]@target_rule'!$C93</f>
+        <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="str">
+        <f>'[1]@target_rule'!$A94</f>
+        <v>HIGH_PM_ATK</v>
+      </c>
+      <c r="B93" s="4">
+        <f>'[1]@target_rule'!$B94</f>
+        <v>10012</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f>'[1]@target_rule'!$C94</f>
+        <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="str">
+        <f>'[1]@target_rule'!$A95</f>
+        <v>LOW_P_DEF</v>
+      </c>
+      <c r="B94" s="4">
+        <f>'[1]@target_rule'!$B95</f>
+        <v>10013</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f>'[1]@target_rule'!$C95</f>
+        <v>10011 물리 방어력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="str">
+        <f>'[1]@target_rule'!$A96</f>
+        <v>HIGH_P_DEF</v>
+      </c>
+      <c r="B95" s="4">
+        <f>'[1]@target_rule'!$B96</f>
+        <v>10014</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f>'[1]@target_rule'!$C96</f>
+        <v>10012 물리 방어력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="str">
+        <f>'[1]@target_rule'!$A97</f>
+        <v>LOW_M_DEF</v>
+      </c>
+      <c r="B96" s="4">
+        <f>'[1]@target_rule'!$B97</f>
+        <v>10015</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f>'[1]@target_rule'!$C97</f>
+        <v>10013 마법 방어력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="str">
+        <f>'[1]@target_rule'!$A98</f>
+        <v>HIGH_M_DEF</v>
+      </c>
+      <c r="B97" s="4">
+        <f>'[1]@target_rule'!$B98</f>
+        <v>10016</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f>'[1]@target_rule'!$C98</f>
+        <v>10014 마법 방어력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="str">
+        <f>'[1]@target_rule'!$A99</f>
+        <v>LOW_PM_DEF</v>
+      </c>
+      <c r="B98" s="4">
+        <f>'[1]@target_rule'!$B99</f>
+        <v>10017</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <f>'[1]@target_rule'!$C99</f>
+        <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="str">
+        <f>'[1]@target_rule'!$A100</f>
+        <v>HIGH_PM_DEF</v>
+      </c>
+      <c r="B99" s="4">
+        <f>'[1]@target_rule'!$B100</f>
+        <v>10018</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <f>'[1]@target_rule'!$C100</f>
+        <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="str">
+        <f>'[1]@target_rule'!$A101</f>
+        <v>LOW_P_CRI_INC</v>
+      </c>
+      <c r="B100" s="4">
+        <f>'[1]@target_rule'!$B101</f>
+        <v>10019</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f>'[1]@target_rule'!$C101</f>
+        <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="str">
+        <f>'[1]@target_rule'!$A102</f>
+        <v>HIGH_P_CRI_INC</v>
+      </c>
+      <c r="B101" s="4">
+        <f>'[1]@target_rule'!$B102</f>
+        <v>10020</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f>'[1]@target_rule'!$C102</f>
+        <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="str">
+        <f>'[1]@target_rule'!$A103</f>
+        <v>LOW_M_CRI_INC</v>
+      </c>
+      <c r="B102" s="4">
+        <f>'[1]@target_rule'!$B103</f>
+        <v>10021</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f>'[1]@target_rule'!$C103</f>
+        <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="str">
+        <f>'[1]@target_rule'!$A104</f>
+        <v>HIGH_M_CRI_INC</v>
+      </c>
+      <c r="B103" s="4">
+        <f>'[1]@target_rule'!$B104</f>
+        <v>10022</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <f>'[1]@target_rule'!$C104</f>
+        <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="str">
+        <f>'[1]@target_rule'!$A105</f>
+        <v>LOW_P_CRI_ADD</v>
+      </c>
+      <c r="B104" s="4">
+        <f>'[1]@target_rule'!$B105</f>
+        <v>10023</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <f>'[1]@target_rule'!$C105</f>
+        <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="str">
+        <f>'[1]@target_rule'!$A106</f>
+        <v>HIGH_P_CRI_ADD</v>
+      </c>
+      <c r="B105" s="4">
+        <f>'[1]@target_rule'!$B106</f>
+        <v>10024</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f>'[1]@target_rule'!$C106</f>
+        <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="str">
+        <f>'[1]@target_rule'!$A107</f>
+        <v>LOW_M_CRI_ADD</v>
+      </c>
+      <c r="B106" s="4">
+        <f>'[1]@target_rule'!$B107</f>
+        <v>10025</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f>'[1]@target_rule'!$C107</f>
+        <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="str">
+        <f>'[1]@target_rule'!$A108</f>
+        <v>HIGH_M_CRI_ADD</v>
+      </c>
+      <c r="B107" s="4">
+        <f>'[1]@target_rule'!$B108</f>
+        <v>10026</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <f>'[1]@target_rule'!$C108</f>
+        <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="str">
+        <f>'[1]@target_rule'!$A109</f>
+        <v>LOW_ACCURACY</v>
+      </c>
+      <c r="B108" s="4">
+        <f>'[1]@target_rule'!$B109</f>
+        <v>10027</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f>'[1]@target_rule'!$C109</f>
+        <v>10025 명중이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="str">
+        <f>'[1]@target_rule'!$A110</f>
+        <v>HIGH_ACCURACY</v>
+      </c>
+      <c r="B109" s="4">
+        <f>'[1]@target_rule'!$B110</f>
+        <v>10028</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f>'[1]@target_rule'!$C110</f>
+        <v>10026 명중이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="str">
+        <f>'[1]@target_rule'!$A111</f>
+        <v>LOW_EVASION</v>
+      </c>
+      <c r="B110" s="4">
+        <f>'[1]@target_rule'!$B111</f>
+        <v>10029</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <f>'[1]@target_rule'!$C111</f>
+        <v>10027 회피가 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="str">
+        <f>'[1]@target_rule'!$A112</f>
+        <v>HIGH_EVASION</v>
+      </c>
+      <c r="B111" s="4">
+        <f>'[1]@target_rule'!$B112</f>
+        <v>10030</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f>'[1]@target_rule'!$C112</f>
+        <v>10028 회피가 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="str">
+        <f>'[1]@target_rule'!$A113</f>
+        <v>LOW_ATK_RECOVERY</v>
+      </c>
+      <c r="B112" s="4">
+        <f>'[1]@target_rule'!$B113</f>
+        <v>10031</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f>'[1]@target_rule'!$C113</f>
+        <v>10029 타격 시 회복량이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="str">
+        <f>'[1]@target_rule'!$A114</f>
+        <v>HIGH_ATK_RECOVERY</v>
+      </c>
+      <c r="B113" s="4">
+        <f>'[1]@target_rule'!$B114</f>
+        <v>10032</v>
+      </c>
+      <c r="C113" s="4" t="str">
+        <f>'[1]@target_rule'!$C114</f>
+        <v>10030 타격 시 회복량이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="str">
+        <f>'[1]@target_rule'!$A115</f>
+        <v>LOW_HEAL</v>
+      </c>
+      <c r="B114" s="4">
+        <f>'[1]@target_rule'!$B115</f>
+        <v>10033</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <f>'[1]@target_rule'!$C115</f>
+        <v>10031 회복량이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="str">
+        <f>'[1]@target_rule'!$A116</f>
+        <v>HIGH_HEAL</v>
+      </c>
+      <c r="B115" s="4">
+        <f>'[1]@target_rule'!$B116</f>
+        <v>10034</v>
+      </c>
+      <c r="C115" s="4" t="str">
+        <f>'[1]@target_rule'!$C116</f>
+        <v>10032 회복량이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="str">
+        <f>'[1]@target_rule'!$A117</f>
+        <v>LOW_RESIST</v>
+      </c>
+      <c r="B116" s="4">
+        <f>'[1]@target_rule'!$B117</f>
+        <v>10035</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <f>'[1]@target_rule'!$C117</f>
+        <v>10033 강인함이 가장 낮은 대상</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="str">
+        <f>'[1]@target_rule'!$A118</f>
+        <v>HIGH_RESIST</v>
+      </c>
+      <c r="B117" s="4">
+        <f>'[1]@target_rule'!$B118</f>
+        <v>10036</v>
+      </c>
+      <c r="C117" s="4" t="str">
+        <f>'[1]@target_rule'!$C118</f>
+        <v>10034 강인함이 가장 높은 대상</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="str">
+        <f>'[1]@target_rule'!$A119</f>
+        <v>CC_ALL_PROGRESS</v>
+      </c>
+      <c r="B118" s="4">
+        <f>'[1]@target_rule'!$B119</f>
+        <v>20001</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <f>'[1]@target_rule'!$C119</f>
+        <v>20001 상태이상 중인 대상</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="str">
+        <f>'[1]@target_rule'!$A120</f>
+        <v>CC_STUN_PROGRESS</v>
+      </c>
+      <c r="B119" s="4">
+        <f>'[1]@target_rule'!$B120</f>
+        <v>20002</v>
+      </c>
+      <c r="C119" s="4" t="str">
+        <f>'[1]@target_rule'!$C120</f>
+        <v>20002 기절 중인 대상</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="str">
+        <f>'[1]@target_rule'!$A121</f>
+        <v>CC_BIND_PROGRESS</v>
+      </c>
+      <c r="B120" s="4">
+        <f>'[1]@target_rule'!$B121</f>
+        <v>20003</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <f>'[1]@target_rule'!$C121</f>
+        <v>20003 결박 중인 대상</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="str">
+        <f>'[1]@target_rule'!$A122</f>
+        <v>CC_SILENCE_PROGRESS</v>
+      </c>
+      <c r="B121" s="4">
+        <f>'[1]@target_rule'!$B122</f>
+        <v>20004</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <f>'[1]@target_rule'!$C122</f>
+        <v>20004 침묵 중인 대상</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="str">
+        <f>'[1]@target_rule'!$A123</f>
+        <v>CC_FREEZ_PROGRESS</v>
+      </c>
+      <c r="B122" s="4">
+        <f>'[1]@target_rule'!$B123</f>
+        <v>20005</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <f>'[1]@target_rule'!$C123</f>
+        <v>20005 빙결 중인 대상</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="str">
+        <f>'[1]@target_rule'!$A124</f>
+        <v>BUFF_ALL_PROGRESS</v>
+      </c>
+      <c r="B123" s="4">
+        <f>'[1]@target_rule'!$B124</f>
+        <v>20101</v>
+      </c>
+      <c r="C123" s="4" t="str">
+        <f>'[1]@target_rule'!$C124</f>
+        <v>20101 버프 상태 중인 대상</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="str">
+        <f>'[1]@target_rule'!$A125</f>
+        <v>DEBUFF_ALL_PROGRESS</v>
+      </c>
+      <c r="B124" s="4">
+        <f>'[1]@target_rule'!$B125</f>
+        <v>20201</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <f>'[1]@target_rule'!$C125</f>
+        <v>20201 디버프 상태 중인 대상</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +7406,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6581,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F5,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -6650,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F6,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -6719,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F7,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -6790,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F8,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -6861,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F9,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -6932,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F10,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -7003,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F11,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -7074,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F12,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -7145,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F13,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -7216,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F14,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -7287,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F15,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -7358,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F16,'!참조_ENUM'!$C$3:$C$124,0))</f>
         <v>7</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -7439,17 +8512,17 @@
           </x14:formula1>
           <xm:sqref>M5:M16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5:F16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F116DB-1252-49ED-A663-DC6A99516978}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$C$3:$C$124</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7922,8 +8995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45086A3A-94B5-4F50-85C0-F45273A09812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF052FC6-730C-40F1-AFA7-C8752956D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -928,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="187">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,9 +1432,6 @@
     <t>second_target_duration_effect_ids</t>
   </si>
   <si>
-    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
-  </si>
-  <si>
     <t>1 피해 감소</t>
   </si>
   <si>
@@ -1452,15 +1450,6 @@
     <t>1 시간 지속</t>
   </si>
   <si>
-    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>1 데미지를 준다</t>
-  </si>
-  <si>
     <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
   </si>
   <si>
@@ -1588,6 +1577,41 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력</t>
+  </si>
+  <si>
+    <t>#attack_attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 확인용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118 피해량 기준 배율 계산</t>
+  </si>
+  <si>
+    <t>105 최대 체력 기준 배율 계산</t>
+  </si>
+  <si>
+    <t>1 물리 대미지</t>
+  </si>
+  <si>
+    <t>101 공격력 기준 배율 계산</t>
+  </si>
+  <si>
+    <t>attribute_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1820,13 +1844,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,6 +1980,30 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1985,6 +2059,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2880,7 +2955,7 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>LOW_HP</v>
+            <v>LOW_HP_VALUE</v>
           </cell>
           <cell r="B83">
             <v>10001</v>
@@ -3503,106 +3578,205 @@
             <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+            <v>100 공격력 기준 절대값 계산</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ATTACK</v>
+            <v>ATTACK_RATE</v>
           </cell>
           <cell r="B6">
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+            <v>101 공격력 기준 배율 계산</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>DEFENSE</v>
+            <v>DEFENSE_VALUE</v>
           </cell>
           <cell r="B7">
-            <v>200</v>
+            <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
+            <v>102 방어력 기준 절대값 계산</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MAX_LIFE</v>
+            <v>DEFENSE_RATE</v>
           </cell>
           <cell r="B8">
-            <v>300</v>
+            <v>103</v>
           </cell>
           <cell r="C8" t="str">
-            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>103 방어력 기준 배율 계산</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>LIFE</v>
+            <v>MAX_LIFE</v>
           </cell>
           <cell r="B9">
-            <v>400</v>
+            <v>104</v>
           </cell>
           <cell r="C9" t="str">
-            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>104 최대 체력 기준 절대값 계산</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>CRITICAL_RATE</v>
+            <v>MAX_LIFE_RATE</v>
           </cell>
           <cell r="B10">
-            <v>500</v>
+            <v>105</v>
           </cell>
           <cell r="C10" t="str">
-            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+            <v>105 최대 체력 기준 배율 계산</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>CRITICAL_POWER</v>
+            <v>LIFE</v>
           </cell>
           <cell r="B11">
-            <v>600</v>
+            <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+            <v>106 현재 체력 기준 절대값 계산</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>ACCURACY</v>
+            <v>LIFE_RATE</v>
           </cell>
           <cell r="B12">
-            <v>700</v>
+            <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
+            <v>107 현재 체력 기준 배율 계산</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>EVASION</v>
+            <v>CRITICAL_CHANCE</v>
           </cell>
           <cell r="B13">
-            <v>800</v>
+            <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
+            <v>108 크리티컬 확률을 절대값 계산</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
+            <v>CRITICAL_CHANCE_RATE</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>109 크리티컬 확률을 배율 계산</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>CRITICAL_POWER_ADD</v>
+          </cell>
+          <cell r="B15">
+            <v>110</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>110 크리티컬 파워 기준 절대값 계산</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>CRITICAL_POWER_ADD_RATE</v>
+          </cell>
+          <cell r="B16">
+            <v>111</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>111 크리티컬 파워 기준 배율 계산</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>ACCURACY_VALUE</v>
+          </cell>
+          <cell r="B17">
+            <v>112</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>112 명중률 기준 절대값 계산</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ACCURACY_RATE</v>
+          </cell>
+          <cell r="B18">
+            <v>113</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>113 명중률 기준 배율 계산</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>EVASION_VALUE</v>
+          </cell>
+          <cell r="B19">
+            <v>114</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>114 회피율 기준 절대값 계산</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>EVASION_RATE</v>
+          </cell>
+          <cell r="B20">
+            <v>115</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>115 회피율 기준 배율 계산</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>HEAL_VALUE</v>
+          </cell>
+          <cell r="B21">
+            <v>116</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>116 회복량 기준 절대값 계산</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>HEAL_RATE</v>
+          </cell>
+          <cell r="B22">
+            <v>117</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>117 회복량 기준 배율 계산</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
             <v>DAMAGE</v>
           </cell>
-          <cell r="B14">
-            <v>900</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
+          <cell r="B23">
+            <v>118</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>118 피해량 기준 배율 계산</v>
           </cell>
         </row>
       </sheetData>
@@ -3679,35 +3853,46 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>PHYSICS_DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 데미지를 준다</v>
+            <v>1 물리 대미지</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>LIFE_RECOVERY</v>
+            <v>MAGIC_DAMAGE</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 체력 회복</v>
+            <v>2 마법 대미지</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>NONE_EFFECT</v>
+            <v>LIFE_RECOVERY</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 빈 이펙트(일회성 효과는 없음)</v>
+            <v>3 체력 회복</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>NONE_EFFECT</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 빈 이펙트</v>
           </cell>
         </row>
       </sheetData>
@@ -3807,46 +3992,299 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ATK_UP</v>
+            <v>PHYSICS_ATTACK_UP</v>
           </cell>
           <cell r="B11">
             <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>106 공격력 증가</v>
+            <v>106 물리 공격력 증가</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>DEF_UP</v>
+            <v>MAGIC_ATTACK_UP</v>
           </cell>
           <cell r="B12">
             <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>107 방어력 증가</v>
+            <v>107 마법 공격력 증가</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>ATK_DOWN</v>
+            <v>PHYSICS_DEFEND_UP</v>
           </cell>
           <cell r="B13">
             <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>108 공격력 감소</v>
+            <v>108 물리 방어력 증가</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>DEF_DOWN</v>
+            <v>MAGIC_DEFEND_UP</v>
           </cell>
           <cell r="B14">
             <v>109</v>
           </cell>
           <cell r="C14" t="str">
-            <v>109 방어력 감소</v>
+            <v>109 마법 방어력 증가</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>PHYSICS_ATTACK_DOWN</v>
+          </cell>
+          <cell r="B15">
+            <v>110</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>110 마법 공격력 감소</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MAGIC_ATTACK_DOWN</v>
+          </cell>
+          <cell r="B16">
+            <v>111</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>111 마법 공격력 감소</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>PHYSICS_DEFEND_DOWN</v>
+          </cell>
+          <cell r="B17">
+            <v>112</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>112 물리 방어력 감소</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>MAGIC_DEFEND_DOWN</v>
+          </cell>
+          <cell r="B18">
+            <v>113</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>113 마법 방어력 감소</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>EXCHANGE_PHYSICS_ATTACK_DEFEND</v>
+          </cell>
+          <cell r="B19">
+            <v>114</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>114 물리 공격력 물리 방어력 스탯 교환</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>EXCHANGE_MAGIC_ATTACK_DEFEND</v>
+          </cell>
+          <cell r="B20">
+            <v>115</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>115 마법 공격력 마법 방어력 스탯 교환</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>EXCHANGE_ATTACK_DEFEND_ALL</v>
+          </cell>
+          <cell r="B21">
+            <v>116</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PHYSICS_CRITICAL_CHANCE_UP</v>
+          </cell>
+          <cell r="B22">
+            <v>117</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>117 물리 크리티컬 확률 증가</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>MAGIC_CRITICAL_CHANCE_UP</v>
+          </cell>
+          <cell r="B23">
+            <v>118</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>118 마법 크리티컬 확률 증가</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>PHYSICS_CRITICAL_POWER_ADD_UP</v>
+          </cell>
+          <cell r="B24">
+            <v>119</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>119 물리 크리티컬 추가 대미지 증가</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>MAGIC_CRITICAL_POWER_ADD_UP</v>
+          </cell>
+          <cell r="B25">
+            <v>120</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>120 마법 크리티컬 추가 대미지 증가</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>ATTACK_LIFE_RECOVERY_UP</v>
+          </cell>
+          <cell r="B26">
+            <v>121</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>121 타격 시 회복량 증가</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>EVASION_UP</v>
+          </cell>
+          <cell r="B27">
+            <v>122</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>122 회피 증가</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>ACCURACY_UP</v>
+          </cell>
+          <cell r="B28">
+            <v>123</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>123 명중 증가</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>HEAL_UP</v>
+          </cell>
+          <cell r="B29">
+            <v>124</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>124 회복량 증가</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>PHYSICS_CRITICAL_CHANCE_DOWN</v>
+          </cell>
+          <cell r="B30">
+            <v>125</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>125 물리 크리티컬 확률 감소</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>MAGIC_CRITICAL_CHANCE_DOWN</v>
+          </cell>
+          <cell r="B31">
+            <v>126</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>126 마법 크리티컬 확률 감소</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>PHYSICS_CRITICAL_POWER_ADD_DOWN</v>
+          </cell>
+          <cell r="B32">
+            <v>127</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>127 물리 크리티컬 추가 대미지 감소</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>MAGIC_CRITICAL_POWER_ADD_DOWN</v>
+          </cell>
+          <cell r="B33">
+            <v>128</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>128 마법 크리티컬 추가 대미지 감소</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>ATTACK_LIFE_RECOVERY_DOWN</v>
+          </cell>
+          <cell r="B34">
+            <v>129</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>129 타격 시 회복량 감소</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>EVASION_DOWN</v>
+          </cell>
+          <cell r="B35">
+            <v>130</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>130 회피 감소</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>ACCURACY_DOWN</v>
+          </cell>
+          <cell r="B36">
+            <v>131</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>131 명중 감소</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>HEAL_DOWN</v>
+          </cell>
+          <cell r="B37">
+            <v>132</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>132 회복량 감소</v>
           </cell>
         </row>
       </sheetData>
@@ -4048,15 +4486,153 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ELECTRICITY</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전기</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VEGETARIUM</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>베리타리움</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VITALITY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>요력</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MAGIC</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>마력</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="!참조_ENUM"/>
+      <sheetName val="pc_skill_group"/>
+      <sheetName val="pc_skill_data"/>
+      <sheetName val="pc_skill_onetime"/>
+      <sheetName val="pc_skill_duration"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="AP3">
+            <v>0</v>
+          </cell>
+          <cell r="AQ3" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AP4">
+            <v>1</v>
+          </cell>
+          <cell r="AQ4" t="str">
+            <v>전기</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AP5">
+            <v>2</v>
+          </cell>
+          <cell r="AQ5" t="str">
+            <v>베리타리움</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AP6">
+            <v>3</v>
+          </cell>
+          <cell r="AQ6" t="str">
+            <v>요력</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AP7">
+            <v>4</v>
+          </cell>
+          <cell r="AQ7" t="str">
+            <v>마력</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4094,7 +4670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4200,7 +4776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4342,7 +4918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4350,10 +4926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM124"/>
+  <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4381,7 +4957,7 @@
     <col min="39" max="39" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4422,8 +4998,12 @@
         <f>'[1]@skill_type'!$A$1</f>
         <v>SKILL_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO1" t="str">
+        <f>'[1]@attribute_type'!$A$1</f>
+        <v>ATTRIBUTE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4544,8 +5124,20 @@
         <f>'[1]@skill_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" s="5" t="str">
+        <f>'[1]@attribute_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AP2" s="5" t="str">
+        <f>'[1]@attribute_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <f>'[1]@attribute_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4666,8 +5258,20 @@
         <f>'[1]@skill_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" s="4" t="str">
+        <f>'[1]@attribute_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>'[1]@attribute_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>'[1]@attribute_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4690,7 +5294,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+        <v>100 공격력 기준 절대값 계산</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@effect'!$A5</f>
@@ -4718,7 +5322,7 @@
       </c>
       <c r="Q4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A5</f>
-        <v>DAMAGE</v>
+        <v>PHYSICS_DAMAGE</v>
       </c>
       <c r="R4" s="8">
         <f>'[1]@onetime_effect_type'!$B5</f>
@@ -4726,7 +5330,7 @@
       </c>
       <c r="S4" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C5</f>
-        <v>1 데미지를 준다</v>
+        <v>1 물리 대미지</v>
       </c>
       <c r="U4" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A5</f>
@@ -4788,8 +5392,20 @@
         <f>'[1]@skill_type'!$C5</f>
         <v>1 일반 공격</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO4" s="4" t="str">
+        <f>'[1]@attribute_type'!$A5</f>
+        <v>ELECTRICITY</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>'[1]@attribute_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>'[1]@attribute_type'!$C5</f>
+        <v>전기</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4804,7 +5420,7 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
-        <v>ATTACK</v>
+        <v>ATTACK_RATE</v>
       </c>
       <c r="F5" s="4">
         <f>'[1]@stat'!$B6</f>
@@ -4812,7 +5428,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+        <v>101 공격력 기준 배율 계산</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@effect'!$A6</f>
@@ -4828,7 +5444,7 @@
       </c>
       <c r="Q5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A6</f>
-        <v>LIFE_RECOVERY</v>
+        <v>MAGIC_DAMAGE</v>
       </c>
       <c r="R5" s="8">
         <f>'[1]@onetime_effect_type'!$B6</f>
@@ -4836,7 +5452,7 @@
       </c>
       <c r="S5" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C6</f>
-        <v>2 체력 회복</v>
+        <v>2 마법 대미지</v>
       </c>
       <c r="U5" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A6</f>
@@ -4898,8 +5514,20 @@
         <f>'[1]@skill_type'!$C6</f>
         <v>2 스킬 공격 1</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="str">
+        <f>'[1]@attribute_type'!$A6</f>
+        <v>VEGETARIUM</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>'[1]@attribute_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>'[1]@attribute_type'!$C6</f>
+        <v>베리타리움</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -4914,15 +5542,15 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
-        <v>DEFENSE</v>
+        <v>DEFENSE_VALUE</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@stat'!$B7</f>
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
+        <v>102 방어력 기준 절대값 계산</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@effect'!$A7</f>
@@ -4939,7 +5567,7 @@
       </c>
       <c r="Q6" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A7</f>
-        <v>NONE_EFFECT</v>
+        <v>LIFE_RECOVERY</v>
       </c>
       <c r="R6" s="8">
         <f>'[1]@onetime_effect_type'!$B7</f>
@@ -4947,7 +5575,7 @@
       </c>
       <c r="S6" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$C7</f>
-        <v>3 빈 이펙트(일회성 효과는 없음)</v>
+        <v>3 체력 회복</v>
       </c>
       <c r="U6" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A7</f>
@@ -4985,8 +5613,20 @@
         <f>'[1]@skill_type'!$C7</f>
         <v>3 스킬 공격 2</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO6" s="4" t="str">
+        <f>'[1]@attribute_type'!$A7</f>
+        <v>VITALITY</v>
+      </c>
+      <c r="AP6" s="4">
+        <f>'[1]@attribute_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <f>'[1]@attribute_type'!$C7</f>
+        <v>요력</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5001,15 +5641,27 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
-        <v>MAX_LIFE</v>
+        <v>DEFENSE_RATE</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@stat'!$B8</f>
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>103 방어력 기준 배율 계산</v>
+      </c>
+      <c r="Q7" s="8" t="str">
+        <f>'[1]@onetime_effect_type'!$A8</f>
+        <v>NONE_EFFECT</v>
+      </c>
+      <c r="R7" s="8">
+        <f>'[1]@onetime_effect_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="S7" s="8" t="str">
+        <f>'[1]@onetime_effect_type'!$C8</f>
+        <v>4 빈 이펙트</v>
       </c>
       <c r="U7" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A8</f>
@@ -5035,8 +5687,20 @@
         <f>'[1]@skill_type'!$C8</f>
         <v>4 궁극기</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO7" s="4" t="str">
+        <f>'[1]@attribute_type'!$A8</f>
+        <v>MAGIC</v>
+      </c>
+      <c r="AP7" s="4">
+        <f>'[1]@attribute_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <f>'[1]@attribute_type'!$C8</f>
+        <v>마력</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5051,15 +5715,15 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
-        <v>LIFE</v>
+        <v>MAX_LIFE</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@stat'!$B9</f>
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>104 최대 체력 기준 절대값 계산</v>
       </c>
       <c r="U8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A9</f>
@@ -5074,7 +5738,7 @@
         <v>104 결박</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5089,15 +5753,15 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
-        <v>CRITICAL_RATE</v>
+        <v>MAX_LIFE_RATE</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@stat'!$B10</f>
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+        <v>105 최대 체력 기준 배율 계산</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A10</f>
@@ -5112,7 +5776,7 @@
         <v>105 빙결</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5127,19 +5791,19 @@
       </c>
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
-        <v>CRITICAL_POWER</v>
+        <v>LIFE</v>
       </c>
       <c r="F10" s="4">
         <f>'[1]@stat'!$B11</f>
-        <v>600</v>
+        <v>106</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+        <v>106 현재 체력 기준 절대값 계산</v>
       </c>
       <c r="U10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A11</f>
-        <v>ATK_UP</v>
+        <v>PHYSICS_ATTACK_UP</v>
       </c>
       <c r="V10" s="4">
         <f>'[1]@duration_effect_type'!$B11</f>
@@ -5147,10 +5811,10 @@
       </c>
       <c r="W10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C11</f>
-        <v>106 공격력 증가</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+        <v>106 물리 공격력 증가</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5165,19 +5829,19 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
-        <v>ACCURACY</v>
+        <v>LIFE_RATE</v>
       </c>
       <c r="F11" s="4">
         <f>'[1]@stat'!$B12</f>
-        <v>700</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
+        <v>107 현재 체력 기준 배율 계산</v>
       </c>
       <c r="U11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A12</f>
-        <v>DEF_UP</v>
+        <v>MAGIC_ATTACK_UP</v>
       </c>
       <c r="V11" s="4">
         <f>'[1]@duration_effect_type'!$B12</f>
@@ -5185,10 +5849,10 @@
       </c>
       <c r="W11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C12</f>
-        <v>107 방어력 증가</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>107 마법 공격력 증가</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5203,19 +5867,19 @@
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
-        <v>EVASION</v>
+        <v>CRITICAL_CHANCE</v>
       </c>
       <c r="F12" s="4">
         <f>'[1]@stat'!$B13</f>
-        <v>800</v>
+        <v>108</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
+        <v>108 크리티컬 확률을 절대값 계산</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A13</f>
-        <v>ATK_DOWN</v>
+        <v>PHYSICS_DEFEND_UP</v>
       </c>
       <c r="V12" s="4">
         <f>'[1]@duration_effect_type'!$B13</f>
@@ -5223,10 +5887,10 @@
       </c>
       <c r="W12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C13</f>
-        <v>108 공격력 감소</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+        <v>108 물리 방어력 증가</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5241,19 +5905,19 @@
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
-        <v>DAMAGE</v>
+        <v>CRITICAL_CHANCE_RATE</v>
       </c>
       <c r="F13" s="4">
         <f>'[1]@stat'!$B14</f>
-        <v>900</v>
+        <v>109</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
+        <v>109 크리티컬 확률을 배율 계산</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A14</f>
-        <v>DEF_DOWN</v>
+        <v>MAGIC_DEFEND_UP</v>
       </c>
       <c r="V13" s="4">
         <f>'[1]@duration_effect_type'!$B14</f>
@@ -5261,10 +5925,10 @@
       </c>
       <c r="W13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C14</f>
-        <v>109 방어력 감소</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <v>109 마법 방어력 증가</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5277,8 +5941,32 @@
         <f>'[1]@target_rule'!$C15</f>
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="str">
+        <f>'[1]@stat'!$A15</f>
+        <v>CRITICAL_POWER_ADD</v>
+      </c>
+      <c r="F14" s="4">
+        <f>'[1]@stat'!$B15</f>
+        <v>110</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>'[1]@stat'!$C15</f>
+        <v>110 크리티컬 파워 기준 절대값 계산</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A15</f>
+        <v>PHYSICS_ATTACK_DOWN</v>
+      </c>
+      <c r="V14" s="4">
+        <f>'[1]@duration_effect_type'!$B15</f>
+        <v>110</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C15</f>
+        <v>110 마법 공격력 감소</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5291,8 +5979,32 @@
         <f>'[1]@target_rule'!$C16</f>
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="str">
+        <f>'[1]@stat'!$A16</f>
+        <v>CRITICAL_POWER_ADD_RATE</v>
+      </c>
+      <c r="F15" s="4">
+        <f>'[1]@stat'!$B16</f>
+        <v>111</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>'[1]@stat'!$C16</f>
+        <v>111 크리티컬 파워 기준 배율 계산</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A16</f>
+        <v>MAGIC_ATTACK_DOWN</v>
+      </c>
+      <c r="V15" s="4">
+        <f>'[1]@duration_effect_type'!$B16</f>
+        <v>111</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C16</f>
+        <v>111 마법 공격력 감소</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -5305,8 +6017,32 @@
         <f>'[1]@target_rule'!$C17</f>
         <v>3003 공격력이 가장 낮은 타겟 선택</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="str">
+        <f>'[1]@stat'!$A17</f>
+        <v>ACCURACY_VALUE</v>
+      </c>
+      <c r="F16" s="4">
+        <f>'[1]@stat'!$B17</f>
+        <v>112</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>'[1]@stat'!$C17</f>
+        <v>112 명중률 기준 절대값 계산</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A17</f>
+        <v>PHYSICS_DEFEND_DOWN</v>
+      </c>
+      <c r="V16" s="4">
+        <f>'[1]@duration_effect_type'!$B17</f>
+        <v>112</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C17</f>
+        <v>112 물리 방어력 감소</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
         <v>LOWEST_DEFENSE</v>
@@ -5319,8 +6055,32 @@
         <f>'[1]@target_rule'!$C18</f>
         <v>3004 방어력이 가장 낮은 타겟 선택</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="str">
+        <f>'[1]@stat'!$A18</f>
+        <v>ACCURACY_RATE</v>
+      </c>
+      <c r="F17" s="4">
+        <f>'[1]@stat'!$B18</f>
+        <v>113</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>'[1]@stat'!$C18</f>
+        <v>113 명중률 기준 배율 계산</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A18</f>
+        <v>MAGIC_DEFEND_DOWN</v>
+      </c>
+      <c r="V17" s="4">
+        <f>'[1]@duration_effect_type'!$B18</f>
+        <v>113</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C18</f>
+        <v>113 마법 방어력 감소</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
         <v>HIGHEST_ATTACK</v>
@@ -5333,8 +6093,32 @@
         <f>'[1]@target_rule'!$C19</f>
         <v>2003 공격력이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="str">
+        <f>'[1]@stat'!$A19</f>
+        <v>EVASION_VALUE</v>
+      </c>
+      <c r="F18" s="4">
+        <f>'[1]@stat'!$B19</f>
+        <v>114</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>'[1]@stat'!$C19</f>
+        <v>114 회피율 기준 절대값 계산</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A19</f>
+        <v>EXCHANGE_PHYSICS_ATTACK_DEFEND</v>
+      </c>
+      <c r="V18" s="4">
+        <f>'[1]@duration_effect_type'!$B19</f>
+        <v>114</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C19</f>
+        <v>114 물리 공격력 물리 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
         <v>HIGHEST_DEFENSE</v>
@@ -5347,8 +6131,32 @@
         <f>'[1]@target_rule'!$C20</f>
         <v>2004 방어력이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="str">
+        <f>'[1]@stat'!$A20</f>
+        <v>EVASION_RATE</v>
+      </c>
+      <c r="F19" s="4">
+        <f>'[1]@stat'!$B20</f>
+        <v>115</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>'[1]@stat'!$C20</f>
+        <v>115 회피율 기준 배율 계산</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A20</f>
+        <v>EXCHANGE_MAGIC_ATTACK_DEFEND</v>
+      </c>
+      <c r="V19" s="4">
+        <f>'[1]@duration_effect_type'!$B20</f>
+        <v>115</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C20</f>
+        <v>115 마법 공격력 마법 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
         <v>APPROACH</v>
@@ -5361,8 +6169,32 @@
         <f>'[1]@target_rule'!$C21</f>
         <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="str">
+        <f>'[1]@stat'!$A21</f>
+        <v>HEAL_VALUE</v>
+      </c>
+      <c r="F20" s="4">
+        <f>'[1]@stat'!$B21</f>
+        <v>116</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>'[1]@stat'!$C21</f>
+        <v>116 회복량 기준 절대값 계산</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A21</f>
+        <v>EXCHANGE_ATTACK_DEFEND_ALL</v>
+      </c>
+      <c r="V20" s="4">
+        <f>'[1]@duration_effect_type'!$B21</f>
+        <v>116</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C21</f>
+        <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
         <v>LEADER_HIGH_PRIORITY</v>
@@ -5375,8 +6207,32 @@
         <f>'[1]@target_rule'!$C22</f>
         <v>1001 리더 선택 (리더 없음)</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="str">
+        <f>'[1]@stat'!$A22</f>
+        <v>HEAL_RATE</v>
+      </c>
+      <c r="F21" s="4">
+        <f>'[1]@stat'!$B22</f>
+        <v>117</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>'[1]@stat'!$C22</f>
+        <v>117 회복량 기준 배율 계산</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A22</f>
+        <v>PHYSICS_CRITICAL_CHANCE_UP</v>
+      </c>
+      <c r="V21" s="4">
+        <f>'[1]@duration_effect_type'!$B22</f>
+        <v>117</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C22</f>
+        <v>117 물리 크리티컬 확률 증가</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
         <v>HIGHEST_LIFE_VALUE</v>
@@ -5389,8 +6245,32 @@
         <f>'[1]@target_rule'!$C23</f>
         <v>2001 남은 체력이 가장 많은 타겟 선택</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="str">
+        <f>'[1]@stat'!$A23</f>
+        <v>DAMAGE</v>
+      </c>
+      <c r="F22" s="4">
+        <f>'[1]@stat'!$B23</f>
+        <v>118</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>'[1]@stat'!$C23</f>
+        <v>118 피해량 기준 배율 계산</v>
+      </c>
+      <c r="U22" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A23</f>
+        <v>MAGIC_CRITICAL_CHANCE_UP</v>
+      </c>
+      <c r="V22" s="4">
+        <f>'[1]@duration_effect_type'!$B23</f>
+        <v>118</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C23</f>
+        <v>118 마법 크리티컬 확률 증가</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
         <v>HIGHEST_LIFE_RATE</v>
@@ -5403,8 +6283,20 @@
         <f>'[1]@target_rule'!$C24</f>
         <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U23" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A24</f>
+        <v>PHYSICS_CRITICAL_POWER_ADD_UP</v>
+      </c>
+      <c r="V23" s="4">
+        <f>'[1]@duration_effect_type'!$B24</f>
+        <v>119</v>
+      </c>
+      <c r="W23" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C24</f>
+        <v>119 물리 크리티컬 추가 대미지 증가</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
         <v>HIGHEST_ACCURACY</v>
@@ -5417,8 +6309,20 @@
         <f>'[1]@target_rule'!$C25</f>
         <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U24" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A25</f>
+        <v>MAGIC_CRITICAL_POWER_ADD_UP</v>
+      </c>
+      <c r="V24" s="4">
+        <f>'[1]@duration_effect_type'!$B25</f>
+        <v>120</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C25</f>
+        <v>120 마법 크리티컬 추가 대미지 증가</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
         <v>HIGHEST_EVASION</v>
@@ -5431,8 +6335,20 @@
         <f>'[1]@target_rule'!$C26</f>
         <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U25" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A26</f>
+        <v>ATTACK_LIFE_RECOVERY_UP</v>
+      </c>
+      <c r="V25" s="4">
+        <f>'[1]@duration_effect_type'!$B26</f>
+        <v>121</v>
+      </c>
+      <c r="W25" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C26</f>
+        <v>121 타격 시 회복량 증가</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
         <v>HIGHEST_LIFE_VALUE_HUMAN</v>
@@ -5445,8 +6361,20 @@
         <f>'[1]@target_rule'!$C27</f>
         <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U26" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A27</f>
+        <v>EVASION_UP</v>
+      </c>
+      <c r="V26" s="4">
+        <f>'[1]@duration_effect_type'!$B27</f>
+        <v>122</v>
+      </c>
+      <c r="W26" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C27</f>
+        <v>122 회피 증가</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
         <v>HIGHEST_LIFE_VALUE_ELF</v>
@@ -5459,8 +6387,20 @@
         <f>'[1]@target_rule'!$C28</f>
         <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U27" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A28</f>
+        <v>ACCURACY_UP</v>
+      </c>
+      <c r="V27" s="4">
+        <f>'[1]@duration_effect_type'!$B28</f>
+        <v>123</v>
+      </c>
+      <c r="W27" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C28</f>
+        <v>123 명중 증가</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
         <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
@@ -5473,8 +6413,20 @@
         <f>'[1]@target_rule'!$C29</f>
         <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U28" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A29</f>
+        <v>HEAL_UP</v>
+      </c>
+      <c r="V28" s="4">
+        <f>'[1]@duration_effect_type'!$B29</f>
+        <v>124</v>
+      </c>
+      <c r="W28" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C29</f>
+        <v>124 회복량 증가</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
         <v>HIGHEST_LIFE_VALUE_ANDROID</v>
@@ -5487,8 +6439,20 @@
         <f>'[1]@target_rule'!$C30</f>
         <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U29" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A30</f>
+        <v>PHYSICS_CRITICAL_CHANCE_DOWN</v>
+      </c>
+      <c r="V29" s="4">
+        <f>'[1]@duration_effect_type'!$B30</f>
+        <v>125</v>
+      </c>
+      <c r="W29" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C30</f>
+        <v>125 물리 크리티컬 확률 감소</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
         <v>HIGHEST_LIFE_VALUE_DEVIL</v>
@@ -5501,8 +6465,20 @@
         <f>'[1]@target_rule'!$C31</f>
         <v>2012 남은 체력이 가장 높은 악마 선택</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U30" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A31</f>
+        <v>MAGIC_CRITICAL_CHANCE_DOWN</v>
+      </c>
+      <c r="V30" s="4">
+        <f>'[1]@duration_effect_type'!$B31</f>
+        <v>126</v>
+      </c>
+      <c r="W30" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C31</f>
+        <v>126 마법 크리티컬 확률 감소</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
         <v>HIGHEST_LIFE_VALUE_ANGEL</v>
@@ -5515,8 +6491,20 @@
         <f>'[1]@target_rule'!$C32</f>
         <v>2013 남은 체력이 가장 높은 천사 선택</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U31" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A32</f>
+        <v>PHYSICS_CRITICAL_POWER_ADD_DOWN</v>
+      </c>
+      <c r="V31" s="4">
+        <f>'[1]@duration_effect_type'!$B32</f>
+        <v>127</v>
+      </c>
+      <c r="W31" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C32</f>
+        <v>127 물리 크리티컬 추가 대미지 감소</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
         <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
@@ -5529,8 +6517,20 @@
         <f>'[1]@target_rule'!$C33</f>
         <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U32" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A33</f>
+        <v>MAGIC_CRITICAL_POWER_ADD_DOWN</v>
+      </c>
+      <c r="V32" s="4">
+        <f>'[1]@duration_effect_type'!$B33</f>
+        <v>128</v>
+      </c>
+      <c r="W32" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C33</f>
+        <v>128 마법 크리티컬 추가 대미지 감소</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
         <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
@@ -5543,8 +6543,20 @@
         <f>'[1]@target_rule'!$C34</f>
         <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U33" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A34</f>
+        <v>ATTACK_LIFE_RECOVERY_DOWN</v>
+      </c>
+      <c r="V33" s="4">
+        <f>'[1]@duration_effect_type'!$B34</f>
+        <v>129</v>
+      </c>
+      <c r="W33" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C34</f>
+        <v>129 타격 시 회복량 감소</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
         <v>HIGHEST_ATTACK_WITHOUT_ME</v>
@@ -5557,8 +6569,20 @@
         <f>'[1]@target_rule'!$C35</f>
         <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U34" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A35</f>
+        <v>EVASION_DOWN</v>
+      </c>
+      <c r="V34" s="4">
+        <f>'[1]@duration_effect_type'!$B35</f>
+        <v>130</v>
+      </c>
+      <c r="W34" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C35</f>
+        <v>130 회피 감소</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
         <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
@@ -5571,8 +6595,20 @@
         <f>'[1]@target_rule'!$C36</f>
         <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U35" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A36</f>
+        <v>ACCURACY_DOWN</v>
+      </c>
+      <c r="V35" s="4">
+        <f>'[1]@duration_effect_type'!$B36</f>
+        <v>131</v>
+      </c>
+      <c r="W35" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C36</f>
+        <v>131 명중 감소</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
         <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
@@ -5585,8 +6621,20 @@
         <f>'[1]@target_rule'!$C37</f>
         <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="U36" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A37</f>
+        <v>HEAL_DOWN</v>
+      </c>
+      <c r="V36" s="4">
+        <f>'[1]@duration_effect_type'!$B37</f>
+        <v>132</v>
+      </c>
+      <c r="W36" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C37</f>
+        <v>132 회복량 감소</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
         <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
@@ -5600,7 +6648,7 @@
         <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
         <v>HIGHEST_EVASION_WITHOUT_ME</v>
@@ -5614,7 +6662,7 @@
         <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
         <v>LOWEST_LIFE_RATE</v>
@@ -5628,7 +6676,7 @@
         <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
         <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
@@ -5642,7 +6690,7 @@
         <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
         <v>LOWEST_ACCURACY</v>
@@ -5656,7 +6704,7 @@
         <v>3006 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
         <v>LOWEST_EVASION</v>
@@ -5670,7 +6718,7 @@
         <v>3007 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
         <v>LOWEST_LIFE_VALUE_HUMAN</v>
@@ -5684,7 +6732,7 @@
         <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
         <v>LOWEST_LIFE_VALUE_ELF</v>
@@ -5698,7 +6746,7 @@
         <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
         <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
@@ -5712,7 +6760,7 @@
         <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
         <v>LOWEST_LIFE_VALUE_ANDROID</v>
@@ -5726,7 +6774,7 @@
         <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
         <v>LOWEST_LIFE_VALUE_DEVIL</v>
@@ -5740,7 +6788,7 @@
         <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
         <v>LOWEST_LIFE_VALUE_ANGEL</v>
@@ -6219,7 +7267,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="str">
         <f>'[1]@target_rule'!$A83</f>
-        <v>LOW_HP</v>
+        <v>LOW_HP_VALUE</v>
       </c>
       <c r="B82" s="4">
         <f>'[1]@target_rule'!$B83</f>
@@ -6829,7 +7877,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6868,13 +7916,13 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>109</v>
@@ -6883,12 +7931,12 @@
         <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -6918,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6935,16 +7983,16 @@
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>110</v>
@@ -6953,7 +8001,7 @@
         <v>71</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6975,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
@@ -6984,13 +8032,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7002,7 +8050,7 @@
         <v>딜러/일반/근접공격/공격력 100%</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
@@ -7012,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
@@ -7021,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7049,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
@@ -7058,13 +8106,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7086,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
@@ -7095,10 +8143,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -7121,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
@@ -7130,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>104</v>
@@ -7156,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
@@ -7165,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>107</v>
@@ -7191,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
@@ -7200,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>104</v>
@@ -7226,7 +8274,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
@@ -7235,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>105</v>
@@ -7261,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
@@ -7270,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>104</v>
@@ -7296,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
@@ -7305,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>105</v>
@@ -7331,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
@@ -7340,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>104</v>
@@ -7366,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
@@ -7375,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>105</v>
@@ -7406,7 +8454,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7465,10 +8513,10 @@
         <v>126</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>114</v>
@@ -7501,12 +8549,12 @@
         <v>76</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>0</v>
@@ -7533,7 +8581,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>118</v>
@@ -7601,10 +8649,10 @@
         <v>127</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>120</v>
@@ -7637,7 +8685,7 @@
         <v>77</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -7648,7 +8696,7 @@
         <v>200001</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -7658,7 +8706,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G5" s="23">
         <v>0</v>
@@ -7717,7 +8765,7 @@
         <v>200002</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -7727,7 +8775,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G6" s="23">
         <v>0</v>
@@ -7786,7 +8834,7 @@
         <v>200003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -7796,7 +8844,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -7812,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7843,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -7857,7 +8905,7 @@
         <v>200004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -7867,7 +8915,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G8" s="23">
         <v>0</v>
@@ -7883,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L8" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -7914,10 +8962,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -7938,7 +8986,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G9" s="23">
         <v>0</v>
@@ -7954,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8009,7 +9057,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="23">
         <v>0</v>
@@ -8025,7 +9073,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8080,7 +9128,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G11" s="23">
         <v>0</v>
@@ -8096,7 +9144,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L11" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8151,7 +9199,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G12" s="23">
         <v>0</v>
@@ -8167,7 +9215,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8222,7 +9270,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G13" s="23">
         <v>0</v>
@@ -8238,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8293,7 +9341,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -8309,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L14" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8364,7 +9412,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" s="23">
         <v>0</v>
@@ -8380,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8435,7 +9483,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -8451,7 +9499,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -8532,458 +9580,619 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="8" max="8" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="33.75" customWidth="1"/>
+    <col min="10" max="10" width="72.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>100001</v>
       </c>
-      <c r="B5" s="11">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C5,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B5" s="31">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$7,MATCH(C5,'!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="11">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="11">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="11">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G5,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="G5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>100002</v>
       </c>
-      <c r="B6" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C6,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B6" s="31">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$7,MATCH(C6,'!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G6,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>100003</v>
       </c>
-      <c r="B7" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C7,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B7" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C7,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G7,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="G7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>100004</v>
       </c>
-      <c r="B8" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C8,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B8" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C8,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="14">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G8,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="G8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>1.2</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>100005</v>
       </c>
-      <c r="B9" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C9,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B9" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C9,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E9" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G9,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="G9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>100006</v>
       </c>
-      <c r="B10" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C10,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B10" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C10,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="14">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E10" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G10,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="G10" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
         <v>1.2</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>100007</v>
       </c>
-      <c r="B11" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C11,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B11" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C11,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E11" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G11,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="G11" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>100008</v>
       </c>
-      <c r="B12" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C12,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B12" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C12,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="14">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E12" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G12,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="G12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
         <v>1.2</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>100009</v>
       </c>
-      <c r="B13" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C13,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B13" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C13,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G13,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="G13" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>100010</v>
       </c>
-      <c r="B14" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C14,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B14" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C14,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="14">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G14,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="G14" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
         <v>1.25</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>100011</v>
       </c>
-      <c r="B15" s="4">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C15,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B15" s="31">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C15,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="4">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E15" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G15,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
         <v>100012</v>
       </c>
-      <c r="B16" s="14">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$6,MATCH(C16,'!참조_ENUM'!$S$3:$S$6,0))</f>
+      <c r="B16" s="35">
+        <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C16,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="33">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
+      <c r="E16" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="33">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G16,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>101</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="G16" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
         <v>1.3</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="J16" s="33" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F698BB12-551E-4E95-A0EE-8E8F4C605CDC}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
+            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$S$3:$S$6</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C16</xm:sqref>
+          <xm:sqref>G5:G16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8996,7 +10205,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9075,7 +10284,7 @@
     </row>
     <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>52</v>
@@ -9184,18 +10393,18 @@
         <v>500001</v>
       </c>
       <c r="B5" s="4">
-        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C5,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -9213,11 +10422,11 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L5,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>900</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L5,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>118</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -9240,18 +10449,18 @@
         <v>500002</v>
       </c>
       <c r="B6" s="4">
-        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C6,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>101</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -9269,11 +10478,11 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L6,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L6,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>105</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -9296,18 +10505,18 @@
         <v>500003</v>
       </c>
       <c r="B7" s="4">
-        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C7,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>102</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -9325,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L7,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>0</v>
       </c>
       <c r="L7" s="22" t="s">
@@ -9348,58 +10557,58 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="38">
         <v>500006</v>
       </c>
-      <c r="B8" s="4">
-        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
+      <c r="B8" s="33">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C8,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="33">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="33">
         <v>3</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
         <v>100004</v>
       </c>
-      <c r="K8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L8,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="33">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L8,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
         <v>3000</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="4" t="b">
+      <c r="Q8" s="33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9415,12 +10624,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$W$3:$W$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C8</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97B5BA94-E1E5-4FDB-BAB1-8DCE9455AFCF}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AA$3:$AA$6</xm:f>
@@ -9429,9 +10632,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
           </x14:formula1>
           <xm:sqref>L5:L8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$W$3:$W$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF052FC6-730C-40F1-AFA7-C8752956D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4768C5E0-DF6D-49E3-B4EC-8065D2A022B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1595,24 +1595,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>118 피해량 기준 배율 계산</t>
-  </si>
-  <si>
-    <t>105 최대 체력 기준 배율 계산</t>
-  </si>
-  <si>
     <t>1 물리 대미지</t>
   </si>
   <si>
-    <t>101 공격력 기준 배율 계산</t>
-  </si>
-  <si>
     <t>attribute_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201 공격력 배율 계산</t>
+  </si>
+  <si>
+    <t>210 피해량 배율 계산</t>
+  </si>
+  <si>
+    <t>203 최대 체력 배율 값</t>
   </si>
 </sst>
 </file>
@@ -3578,183 +3578,183 @@
             <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력 기준 절대값 계산</v>
+            <v>100 공격력 절대값 계산</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ATTACK_RATE</v>
+            <v>DEFENSE_VALUE</v>
           </cell>
           <cell r="B6">
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 공격력 기준 배율 계산</v>
+            <v>101 방어력 절대값 계산</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>DEFENSE_VALUE</v>
+            <v>MAX_LIFE</v>
           </cell>
           <cell r="B7">
             <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 방어력 기준 절대값 계산</v>
+            <v>102 최대 체력 절대 값</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>DEFENSE_RATE</v>
+            <v>LIFE</v>
           </cell>
           <cell r="B8">
             <v>103</v>
           </cell>
           <cell r="C8" t="str">
-            <v>103 방어력 기준 배율 계산</v>
+            <v>103 현재 체력 절대 값</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>MAX_LIFE</v>
+            <v>CRITICAL_CHANCE</v>
           </cell>
           <cell r="B9">
             <v>104</v>
           </cell>
           <cell r="C9" t="str">
-            <v>104 최대 체력 기준 절대값 계산</v>
+            <v>104 크리티컬 확률 절대값</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>MAX_LIFE_RATE</v>
+            <v>CRITICAL_POWER_ADD</v>
           </cell>
           <cell r="B10">
             <v>105</v>
           </cell>
           <cell r="C10" t="str">
-            <v>105 최대 체력 기준 배율 계산</v>
+            <v>105 크리티컬 파워 절대 값</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LIFE</v>
+            <v>ACCURACY_VALUE</v>
           </cell>
           <cell r="B11">
             <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>106 현재 체력 기준 절대값 계산</v>
+            <v>106 명중률 절대 값</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LIFE_RATE</v>
+            <v>EVASION_VALUE</v>
           </cell>
           <cell r="B12">
             <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>107 현재 체력 기준 배율 계산</v>
+            <v>107 회피율 절대 값</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>CRITICAL_CHANCE</v>
+            <v>HEAL_VALUE</v>
           </cell>
           <cell r="B13">
             <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>108 크리티컬 확률을 절대값 계산</v>
+            <v>108 회복량 절대 값</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>CRITICAL_CHANCE_RATE</v>
+            <v>ATTACK_RATE</v>
           </cell>
           <cell r="B14">
-            <v>109</v>
+            <v>201</v>
           </cell>
           <cell r="C14" t="str">
-            <v>109 크리티컬 확률을 배율 계산</v>
+            <v>201 공격력 배율 계산</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>CRITICAL_POWER_ADD</v>
+            <v>DEFENSE_RATE</v>
           </cell>
           <cell r="B15">
-            <v>110</v>
+            <v>202</v>
           </cell>
           <cell r="C15" t="str">
-            <v>110 크리티컬 파워 기준 절대값 계산</v>
+            <v>202 방어력 배율 계산</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>CRITICAL_POWER_ADD_RATE</v>
+            <v>MAX_LIFE_RATE</v>
           </cell>
           <cell r="B16">
-            <v>111</v>
+            <v>203</v>
           </cell>
           <cell r="C16" t="str">
-            <v>111 크리티컬 파워 기준 배율 계산</v>
+            <v>203 최대 체력 배율 값</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ACCURACY_VALUE</v>
+            <v>LIFE_RATE</v>
           </cell>
           <cell r="B17">
-            <v>112</v>
+            <v>204</v>
           </cell>
           <cell r="C17" t="str">
-            <v>112 명중률 기준 절대값 계산</v>
+            <v>204 현재 체력 배율 계산</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>ACCURACY_RATE</v>
+            <v>CRITICAL_CHANCE_RATE</v>
           </cell>
           <cell r="B18">
-            <v>113</v>
+            <v>205</v>
           </cell>
           <cell r="C18" t="str">
-            <v>113 명중률 기준 배율 계산</v>
+            <v>205 크리티컬 확률 배율 계산</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>EVASION_VALUE</v>
+            <v>CRITICAL_POWER_ADD_RATE</v>
           </cell>
           <cell r="B19">
-            <v>114</v>
+            <v>206</v>
           </cell>
           <cell r="C19" t="str">
-            <v>114 회피율 기준 절대값 계산</v>
+            <v>206 크리티컬 파워 배율 계산</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>EVASION_RATE</v>
+            <v>ACCURACY_RATE</v>
           </cell>
           <cell r="B20">
-            <v>115</v>
+            <v>207</v>
           </cell>
           <cell r="C20" t="str">
-            <v>115 회피율 기준 배율 계산</v>
+            <v>207 명중률 배율 계산</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HEAL_VALUE</v>
+            <v>EVASION_RATE</v>
           </cell>
           <cell r="B21">
-            <v>116</v>
+            <v>208</v>
           </cell>
           <cell r="C21" t="str">
-            <v>116 회복량 기준 절대값 계산</v>
+            <v>208 회피율 배율 계산</v>
           </cell>
         </row>
         <row r="22">
@@ -3762,10 +3762,10 @@
             <v>HEAL_RATE</v>
           </cell>
           <cell r="B22">
-            <v>117</v>
+            <v>209</v>
           </cell>
           <cell r="C22" t="str">
-            <v>117 회복량 기준 배율 계산</v>
+            <v>209 회복량 배율 계산</v>
           </cell>
         </row>
         <row r="23">
@@ -3773,10 +3773,10 @@
             <v>DAMAGE</v>
           </cell>
           <cell r="B23">
-            <v>118</v>
+            <v>210</v>
           </cell>
           <cell r="C23" t="str">
-            <v>118 피해량 기준 배율 계산</v>
+            <v>210 피해량 배율 계산</v>
           </cell>
         </row>
       </sheetData>
@@ -4620,10 +4620,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>100 공격력 기준 절대값 계산</v>
+        <v>100 공격력 절대값 계산</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@effect'!$A5</f>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
-        <v>ATTACK_RATE</v>
+        <v>DEFENSE_VALUE</v>
       </c>
       <c r="F5" s="4">
         <f>'[1]@stat'!$B6</f>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>101 공격력 기준 배율 계산</v>
+        <v>101 방어력 절대값 계산</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@effect'!$A6</f>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
-        <v>DEFENSE_VALUE</v>
+        <v>MAX_LIFE</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@stat'!$B7</f>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>102 방어력 기준 절대값 계산</v>
+        <v>102 최대 체력 절대 값</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@effect'!$A7</f>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
-        <v>DEFENSE_RATE</v>
+        <v>LIFE</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@stat'!$B8</f>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>103 방어력 기준 배율 계산</v>
+        <v>103 현재 체력 절대 값</v>
       </c>
       <c r="Q7" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A8</f>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
-        <v>MAX_LIFE</v>
+        <v>CRITICAL_CHANCE</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@stat'!$B9</f>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>104 최대 체력 기준 절대값 계산</v>
+        <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="U8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A9</f>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
-        <v>MAX_LIFE_RATE</v>
+        <v>CRITICAL_POWER_ADD</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@stat'!$B10</f>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>105 최대 체력 기준 배율 계산</v>
+        <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A10</f>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
-        <v>LIFE</v>
+        <v>ACCURACY_VALUE</v>
       </c>
       <c r="F10" s="4">
         <f>'[1]@stat'!$B11</f>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>106 현재 체력 기준 절대값 계산</v>
+        <v>106 명중률 절대 값</v>
       </c>
       <c r="U10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A11</f>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
-        <v>LIFE_RATE</v>
+        <v>EVASION_VALUE</v>
       </c>
       <c r="F11" s="4">
         <f>'[1]@stat'!$B12</f>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>107 현재 체력 기준 배율 계산</v>
+        <v>107 회피율 절대 값</v>
       </c>
       <c r="U11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A12</f>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
-        <v>CRITICAL_CHANCE</v>
+        <v>HEAL_VALUE</v>
       </c>
       <c r="F12" s="4">
         <f>'[1]@stat'!$B13</f>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>108 크리티컬 확률을 절대값 계산</v>
+        <v>108 회복량 절대 값</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A13</f>
@@ -5905,15 +5905,15 @@
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
-        <v>CRITICAL_CHANCE_RATE</v>
+        <v>ATTACK_RATE</v>
       </c>
       <c r="F13" s="4">
         <f>'[1]@stat'!$B14</f>
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>109 크리티컬 확률을 배율 계산</v>
+        <v>201 공격력 배율 계산</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A14</f>
@@ -5943,15 +5943,15 @@
       </c>
       <c r="E14" s="4" t="str">
         <f>'[1]@stat'!$A15</f>
-        <v>CRITICAL_POWER_ADD</v>
+        <v>DEFENSE_RATE</v>
       </c>
       <c r="F14" s="4">
         <f>'[1]@stat'!$B15</f>
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>'[1]@stat'!$C15</f>
-        <v>110 크리티컬 파워 기준 절대값 계산</v>
+        <v>202 방어력 배율 계산</v>
       </c>
       <c r="U14" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A15</f>
@@ -5981,15 +5981,15 @@
       </c>
       <c r="E15" s="4" t="str">
         <f>'[1]@stat'!$A16</f>
-        <v>CRITICAL_POWER_ADD_RATE</v>
+        <v>MAX_LIFE_RATE</v>
       </c>
       <c r="F15" s="4">
         <f>'[1]@stat'!$B16</f>
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>'[1]@stat'!$C16</f>
-        <v>111 크리티컬 파워 기준 배율 계산</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
       <c r="U15" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A16</f>
@@ -6019,15 +6019,15 @@
       </c>
       <c r="E16" s="4" t="str">
         <f>'[1]@stat'!$A17</f>
-        <v>ACCURACY_VALUE</v>
+        <v>LIFE_RATE</v>
       </c>
       <c r="F16" s="4">
         <f>'[1]@stat'!$B17</f>
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>'[1]@stat'!$C17</f>
-        <v>112 명중률 기준 절대값 계산</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="U16" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A17</f>
@@ -6057,15 +6057,15 @@
       </c>
       <c r="E17" s="4" t="str">
         <f>'[1]@stat'!$A18</f>
-        <v>ACCURACY_RATE</v>
+        <v>CRITICAL_CHANCE_RATE</v>
       </c>
       <c r="F17" s="4">
         <f>'[1]@stat'!$B18</f>
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>'[1]@stat'!$C18</f>
-        <v>113 명중률 기준 배율 계산</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="U17" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A18</f>
@@ -6095,15 +6095,15 @@
       </c>
       <c r="E18" s="4" t="str">
         <f>'[1]@stat'!$A19</f>
-        <v>EVASION_VALUE</v>
+        <v>CRITICAL_POWER_ADD_RATE</v>
       </c>
       <c r="F18" s="4">
         <f>'[1]@stat'!$B19</f>
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>'[1]@stat'!$C19</f>
-        <v>114 회피율 기준 절대값 계산</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="U18" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A19</f>
@@ -6133,15 +6133,15 @@
       </c>
       <c r="E19" s="4" t="str">
         <f>'[1]@stat'!$A20</f>
-        <v>EVASION_RATE</v>
+        <v>ACCURACY_RATE</v>
       </c>
       <c r="F19" s="4">
         <f>'[1]@stat'!$B20</f>
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>'[1]@stat'!$C20</f>
-        <v>115 회피율 기준 배율 계산</v>
+        <v>207 명중률 배율 계산</v>
       </c>
       <c r="U19" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A20</f>
@@ -6171,15 +6171,15 @@
       </c>
       <c r="E20" s="4" t="str">
         <f>'[1]@stat'!$A21</f>
-        <v>HEAL_VALUE</v>
+        <v>EVASION_RATE</v>
       </c>
       <c r="F20" s="4">
         <f>'[1]@stat'!$B21</f>
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>'[1]@stat'!$C21</f>
-        <v>116 회복량 기준 절대값 계산</v>
+        <v>208 회피율 배율 계산</v>
       </c>
       <c r="U20" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A21</f>
@@ -6213,11 +6213,11 @@
       </c>
       <c r="F21" s="4">
         <f>'[1]@stat'!$B22</f>
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>'[1]@stat'!$C22</f>
-        <v>117 회복량 기준 배율 계산</v>
+        <v>209 회복량 배율 계산</v>
       </c>
       <c r="U21" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A22</f>
@@ -6251,11 +6251,11 @@
       </c>
       <c r="F22" s="4">
         <f>'[1]@stat'!$B23</f>
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>'[1]@stat'!$C23</f>
-        <v>118 피해량 기준 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
       <c r="U22" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A23</f>
@@ -9582,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9639,7 +9639,7 @@
         <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -9671,7 +9671,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>179</v>
@@ -9714,11 +9714,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G5,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>184</v>
@@ -9749,11 +9749,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G6,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>184</v>
@@ -9784,11 +9784,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G7,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>184</v>
@@ -9819,11 +9819,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F8" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G8,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>184</v>
@@ -9854,11 +9854,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G9,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>184</v>
@@ -9889,11 +9889,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G10,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>184</v>
@@ -9924,11 +9924,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G11,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>184</v>
@@ -9959,11 +9959,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G12,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>184</v>
@@ -9994,11 +9994,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G13,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>184</v>
@@ -10029,11 +10029,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G14,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>184</v>
@@ -10064,11 +10064,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G15,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>184</v>
@@ -10099,11 +10099,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" s="33">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G16,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>184</v>
@@ -10204,8 +10204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10423,10 +10423,10 @@
       </c>
       <c r="K5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L5,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -10479,10 +10479,10 @@
       </c>
       <c r="K6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L6,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4768C5E0-DF6D-49E3-B4EC-8065D2A022B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25425C6F-8F38-4030-97D1-C0CA8CAB39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="1680" yWindow="1875" windowWidth="34815" windowHeight="16545" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2044,6 +2044,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -2060,6 +2061,7 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4042,7 +4044,7 @@
             <v>110</v>
           </cell>
           <cell r="C15" t="str">
-            <v>110 마법 공격력 감소</v>
+            <v>110 물리 공격력 감소</v>
           </cell>
         </row>
         <row r="16">
@@ -4288,7 +4290,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
             <v>PERSISTENCE_TYPE</v>
@@ -4350,9 +4353,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>SKILL_TYPE</v>
@@ -4424,8 +4427,18 @@
             <v>4 궁극기</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>PASSIVE_SKILL</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>5 패시브</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
@@ -4434,7 +4447,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_COUNT_TYPE</v>
@@ -4485,8 +4499,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
             <v>ATTRIBUTE_TYPE</v>
@@ -4538,7 +4552,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>VITALITY</v>
+            <v>CHARM</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -4549,7 +4563,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MAGIC</v>
+            <v>MANA</v>
           </cell>
           <cell r="B8">
             <v>4</v>
@@ -4559,6 +4573,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="33"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4928,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6:AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5615,7 +5630,7 @@
       </c>
       <c r="AO6" s="4" t="str">
         <f>'[1]@attribute_type'!$A7</f>
-        <v>VITALITY</v>
+        <v>CHARM</v>
       </c>
       <c r="AP6" s="4">
         <f>'[1]@attribute_type'!$B7</f>
@@ -5689,7 +5704,7 @@
       </c>
       <c r="AO7" s="4" t="str">
         <f>'[1]@attribute_type'!$A8</f>
-        <v>MAGIC</v>
+        <v>MANA</v>
       </c>
       <c r="AP7" s="4">
         <f>'[1]@attribute_type'!$B8</f>
@@ -5737,6 +5752,18 @@
         <f>'[1]@duration_effect_type'!$C9</f>
         <v>104 결박</v>
       </c>
+      <c r="AK8" s="4" t="str">
+        <f>'[1]@skill_type'!$A9</f>
+        <v>PASSIVE_SKILL</v>
+      </c>
+      <c r="AL8" s="4">
+        <f>'[1]@skill_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="AM8" s="4" t="str">
+        <f>'[1]@skill_type'!$C9</f>
+        <v>5 패시브</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
@@ -5963,7 +5990,7 @@
       </c>
       <c r="W14" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C15</f>
-        <v>110 마법 공격력 감소</v>
+        <v>110 물리 공격력 감소</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
@@ -8019,7 +8046,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F5,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F5,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -8056,7 +8083,7 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F6,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F6,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -8093,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F7,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F7,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -8130,7 +8157,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F8,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F8,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -8165,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F9,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F9,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -8200,7 +8227,7 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F10,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F10,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -8235,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F11,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F11,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -8270,7 +8297,7 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F12,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F12,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -8305,7 +8332,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F13,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F13,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -8340,7 +8367,7 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F14,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F14,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -8375,7 +8402,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F15,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F15,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -8410,7 +8437,7 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F16,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F16,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -8439,7 +8466,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6CDD4DA-3C4A-4FF5-8D56-93F2930B0DB8}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AM$3:$AM$7</xm:f>
+            <xm:f>'!참조_ENUM'!$AM$3:$AM$8</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F16</xm:sqref>
         </x14:dataValidation>
@@ -10204,7 +10231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25425C6F-8F38-4030-97D1-C0CA8CAB39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243B13A-4D6B-489F-8EF0-C0AA0970164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1875" windowWidth="34815" windowHeight="16545" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView minimized="1" xWindow="42045" yWindow="3045" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2220,1211 +2220,551 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>ARROUND_RANGE_WITH_ME</v>
           </cell>
           <cell r="B16">
-            <v>3001</v>
+            <v>21</v>
           </cell>
           <cell r="C16" t="str">
-            <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>21 나를 포함한 내 주변 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>BACK_RANGE_WITH_ME</v>
           </cell>
           <cell r="B17">
-            <v>3003</v>
+            <v>22</v>
           </cell>
           <cell r="C17" t="str">
-            <v>3003 공격력이 가장 낮은 타겟 선택</v>
+            <v>22 나를 포함한 내 뒤 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>FRONT_RANGE_WITH_ME</v>
           </cell>
           <cell r="B18">
-            <v>3004</v>
+            <v>23</v>
           </cell>
           <cell r="C18" t="str">
-            <v>3004 방어력이 가장 낮은 타겟 선택</v>
+            <v>23 나를 포함한 내 앞 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_ATTACK</v>
+            <v>ARROUND_RANGE_WITHOUT_ME</v>
           </cell>
           <cell r="B19">
-            <v>2003</v>
+            <v>24</v>
           </cell>
           <cell r="C19" t="str">
-            <v>2003 공격력이 가장 높은 타겟 선택</v>
+            <v>24 나를 제외한 내 주변 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_DEFENSE</v>
+            <v>BACK_RANGE_WITHOUT_ME</v>
           </cell>
           <cell r="B20">
-            <v>2004</v>
+            <v>25</v>
           </cell>
           <cell r="C20" t="str">
-            <v>2004 방어력이 가장 높은 타겟 선택</v>
+            <v>25 나를 제외한 내 뒤 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>APPROACH</v>
+            <v>FRONT_RANGE_WITHOUT_ME</v>
           </cell>
           <cell r="B21">
-            <v>9999</v>
+            <v>26</v>
           </cell>
           <cell r="C21" t="str">
-            <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+            <v>26 나를 제외한 내 앞 지정 거리 이내 아군 선택</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B22">
-            <v>1001</v>
+            <v>9999</v>
           </cell>
           <cell r="C22" t="str">
-            <v>1001 리더 선택 (리더 없음)</v>
+            <v>9999 접근 거리 타겟</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>LOW_HP_VALUE</v>
           </cell>
           <cell r="B23">
-            <v>2001</v>
+            <v>10001</v>
           </cell>
           <cell r="C23" t="str">
-            <v>2001 남은 체력이 가장 많은 타겟 선택</v>
+            <v>10001 현재 체력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>HIGH_HP_VALUE</v>
           </cell>
           <cell r="B24">
-            <v>2002</v>
+            <v>10002</v>
           </cell>
           <cell r="C24" t="str">
-            <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>10002 현재 체력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>HIGH_HP_RATE</v>
           </cell>
           <cell r="B25">
-            <v>2006</v>
+            <v>10003</v>
           </cell>
           <cell r="C25" t="str">
-            <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>10003 남은 체력 비율이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>LOW_HP_RATE</v>
           </cell>
           <cell r="B26">
-            <v>2007</v>
+            <v>10004</v>
           </cell>
           <cell r="C26" t="str">
-            <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>10004 남은 체력 비율이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>LOW_MAX_HP</v>
           </cell>
           <cell r="B27">
-            <v>2008</v>
+            <v>10005</v>
           </cell>
           <cell r="C27" t="str">
-            <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>10003 최대 체력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGH_MAX_HP</v>
           </cell>
           <cell r="B28">
-            <v>2009</v>
+            <v>10006</v>
           </cell>
           <cell r="C28" t="str">
-            <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>10004 최대 체력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>LOW_P_ATK</v>
           </cell>
           <cell r="B29">
-            <v>2010</v>
+            <v>10007</v>
           </cell>
           <cell r="C29" t="str">
-            <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>10005 물리 공격력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGH_P_ATK</v>
           </cell>
           <cell r="B30">
-            <v>2011</v>
+            <v>10008</v>
           </cell>
           <cell r="C30" t="str">
-            <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>10006 물리 공격력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>LOW_M_ATK</v>
           </cell>
           <cell r="B31">
-            <v>2012</v>
+            <v>10009</v>
           </cell>
           <cell r="C31" t="str">
-            <v>2012 남은 체력이 가장 높은 악마 선택</v>
+            <v>10007 마법 공격력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGH_M_ATK</v>
           </cell>
           <cell r="B32">
-            <v>2013</v>
+            <v>10010</v>
           </cell>
           <cell r="C32" t="str">
-            <v>2013 남은 체력이 가장 높은 천사 선택</v>
+            <v>10008 마법 공격력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>LOW_PM_ATK</v>
           </cell>
           <cell r="B33">
-            <v>2014</v>
+            <v>10011</v>
           </cell>
           <cell r="C33" t="str">
-            <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGH_PM_ATK</v>
           </cell>
           <cell r="B34">
-            <v>2015</v>
+            <v>10012</v>
           </cell>
           <cell r="C34" t="str">
-            <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>LOW_P_DEF</v>
           </cell>
           <cell r="B35">
-            <v>2016</v>
+            <v>10013</v>
           </cell>
           <cell r="C35" t="str">
-            <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>10011 물리 방어력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGH_P_DEF</v>
           </cell>
           <cell r="B36">
-            <v>2017</v>
+            <v>10014</v>
           </cell>
           <cell r="C36" t="str">
-            <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>10012 물리 방어력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>LOW_M_DEF</v>
           </cell>
           <cell r="B37">
-            <v>2018</v>
+            <v>10015</v>
           </cell>
           <cell r="C37" t="str">
-            <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>10013 마법 방어력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGH_M_DEF</v>
           </cell>
           <cell r="B38">
-            <v>2019</v>
+            <v>10016</v>
           </cell>
           <cell r="C38" t="str">
-            <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>10014 마법 방어력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>LOW_PM_DEF</v>
           </cell>
           <cell r="B39">
-            <v>2020</v>
+            <v>10017</v>
           </cell>
           <cell r="C39" t="str">
-            <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>HIGH_PM_DEF</v>
           </cell>
           <cell r="B40">
-            <v>3002</v>
+            <v>10018</v>
           </cell>
           <cell r="C40" t="str">
-            <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+            <v>LOW_P_CRI_INC</v>
           </cell>
           <cell r="B41">
-            <v>3005</v>
+            <v>10019</v>
           </cell>
           <cell r="C41" t="str">
-            <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
+            <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LOWEST_ACCURACY</v>
+            <v>HIGH_P_CRI_INC</v>
           </cell>
           <cell r="B42">
-            <v>3006</v>
+            <v>10020</v>
           </cell>
           <cell r="C42" t="str">
-            <v>3006 명중률이 가장 낮은 타겟 선택</v>
+            <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LOWEST_EVASION</v>
+            <v>LOW_M_CRI_INC</v>
           </cell>
           <cell r="B43">
-            <v>3007</v>
+            <v>10021</v>
           </cell>
           <cell r="C43" t="str">
-            <v>3007 회피율이 가장 낮은 타겟 선택</v>
+            <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGH_M_CRI_INC</v>
           </cell>
           <cell r="B44">
-            <v>3008</v>
+            <v>10022</v>
           </cell>
           <cell r="C44" t="str">
-            <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
+            <v>LOW_P_CRI_ADD</v>
           </cell>
           <cell r="B45">
-            <v>3009</v>
+            <v>10023</v>
           </cell>
           <cell r="C45" t="str">
-            <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGH_P_CRI_ADD</v>
           </cell>
           <cell r="B46">
-            <v>3010</v>
+            <v>10024</v>
           </cell>
           <cell r="C46" t="str">
-            <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+            <v>LOW_M_CRI_ADD</v>
           </cell>
           <cell r="B47">
-            <v>3011</v>
+            <v>10025</v>
           </cell>
           <cell r="C47" t="str">
-            <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGH_M_CRI_ADD</v>
           </cell>
           <cell r="B48">
-            <v>3012</v>
+            <v>10026</v>
           </cell>
           <cell r="C48" t="str">
-            <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+            <v>LOW_ACCURACY</v>
           </cell>
           <cell r="B49">
-            <v>3013</v>
+            <v>10027</v>
           </cell>
           <cell r="C49" t="str">
-            <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>10025 명중이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGH_ACCURACY</v>
           </cell>
           <cell r="B50">
-            <v>3014</v>
+            <v>10028</v>
           </cell>
           <cell r="C50" t="str">
-            <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>10026 명중이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>LOW_EVASION</v>
           </cell>
           <cell r="B51">
-            <v>3015</v>
+            <v>10029</v>
           </cell>
           <cell r="C51" t="str">
-            <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>10027 회피가 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGH_EVASION</v>
           </cell>
           <cell r="B52">
-            <v>3016</v>
+            <v>10030</v>
           </cell>
           <cell r="C52" t="str">
-            <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>10028 회피가 가장 높은 대상</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+            <v>LOW_ATK_RECOVERY</v>
           </cell>
           <cell r="B53">
-            <v>3017</v>
+            <v>10031</v>
           </cell>
           <cell r="C53" t="str">
-            <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>10029 타격 시 회복량이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGH_ATK_RECOVERY</v>
           </cell>
           <cell r="B54">
-            <v>3018</v>
+            <v>10032</v>
           </cell>
           <cell r="C54" t="str">
-            <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>10030 타격 시 회복량이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+            <v>LOW_HEAL</v>
           </cell>
           <cell r="B55">
-            <v>3019</v>
+            <v>10033</v>
           </cell>
           <cell r="C55" t="str">
-            <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>10031 회복량이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
+            <v>HIGH_HEAL</v>
           </cell>
           <cell r="B56">
-            <v>3020</v>
+            <v>10034</v>
           </cell>
           <cell r="C56" t="str">
-            <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>10032 회복량이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+            <v>LOW_RESIST</v>
           </cell>
           <cell r="B57">
-            <v>3021</v>
+            <v>10035</v>
           </cell>
           <cell r="C57" t="str">
-            <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>10033 강인함이 가장 낮은 대상</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+            <v>HIGH_RESIST</v>
           </cell>
           <cell r="B58">
-            <v>3022</v>
+            <v>10036</v>
           </cell>
           <cell r="C58" t="str">
-            <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>10034 강인함이 가장 높은 대상</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
+            <v>CC_ALL_PROGRESS</v>
           </cell>
           <cell r="B59">
-            <v>3023</v>
+            <v>20001</v>
           </cell>
           <cell r="C59" t="str">
-            <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>20001 상태이상 중인 대상</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
+            <v>CC_STUN_PROGRESS</v>
           </cell>
           <cell r="B60">
-            <v>3024</v>
+            <v>20002</v>
           </cell>
           <cell r="C60" t="str">
-            <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>20002 기절 중인 대상</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
+            <v>CC_BIND_PROGRESS</v>
           </cell>
           <cell r="B61">
-            <v>3025</v>
+            <v>20003</v>
           </cell>
           <cell r="C61" t="str">
-            <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>20003 결박 중인 대상</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
+            <v>CC_SILENCE_PROGRESS</v>
           </cell>
           <cell r="B62">
-            <v>3026</v>
+            <v>20004</v>
           </cell>
           <cell r="C62" t="str">
-            <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>20004 침묵 중인 대상</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
+            <v>CC_FREEZ_PROGRESS</v>
           </cell>
           <cell r="B63">
-            <v>3027</v>
+            <v>20005</v>
           </cell>
           <cell r="C63" t="str">
-            <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>20005 빙결 중인 대상</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>WEAK_ELEMENT</v>
+            <v>BUFF_ALL_PROGRESS</v>
           </cell>
           <cell r="B64">
-            <v>4001</v>
+            <v>20101</v>
           </cell>
           <cell r="C64" t="str">
-            <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>20101 버프 상태 중인 대상</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>STRONG_ELEMENT</v>
+            <v>DEBUFF_ALL_PROGRESS</v>
           </cell>
           <cell r="B65">
-            <v>4002</v>
+            <v>20201</v>
           </cell>
           <cell r="C65" t="str">
-            <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION</v>
-          </cell>
-          <cell r="B66">
-            <v>5001</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>5001 버프 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
-          </cell>
-          <cell r="B67">
-            <v>5002</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
-          </cell>
-          <cell r="B68">
-            <v>5003</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
-          </cell>
-          <cell r="B69">
-            <v>5004</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
-          </cell>
-          <cell r="B70">
-            <v>5005</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
-          </cell>
-          <cell r="B71">
-            <v>5006</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
-          </cell>
-          <cell r="B72">
-            <v>5007</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
-          </cell>
-          <cell r="B73">
-            <v>6001</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>6001 디버프 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
-          </cell>
-          <cell r="B74">
-            <v>6002</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
-          </cell>
-          <cell r="B75">
-            <v>6003</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
-          </cell>
-          <cell r="B76">
-            <v>6004</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
-          </cell>
-          <cell r="B77">
-            <v>6005</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
-          </cell>
-          <cell r="B78">
-            <v>6006</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
-          </cell>
-          <cell r="B79">
-            <v>6007</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
-          </cell>
-          <cell r="B80">
-            <v>6008</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
-          </cell>
-          <cell r="B81">
-            <v>6009</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
-          </cell>
-          <cell r="B82">
-            <v>6010</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>LOW_HP_VALUE</v>
-          </cell>
-          <cell r="B83">
-            <v>10001</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>10001 현재 체력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>HIGH_HP_VALUE</v>
-          </cell>
-          <cell r="B84">
-            <v>10002</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>10002 현재 체력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>HIGH_HP_RATE</v>
-          </cell>
-          <cell r="B85">
-            <v>10003</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>10003 남은 체력 비율이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>LOW_HP_RATE</v>
-          </cell>
-          <cell r="B86">
-            <v>10004</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>10004 남은 체력 비율이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>LOW_MAX_HP</v>
-          </cell>
-          <cell r="B87">
-            <v>10005</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>10003 최대 체력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>HIGH_MAX_HP</v>
-          </cell>
-          <cell r="B88">
-            <v>10006</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>10004 최대 체력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>LOW_P_ATK</v>
-          </cell>
-          <cell r="B89">
-            <v>10007</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>10005 물리 공격력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>HIGH_P_ATK</v>
-          </cell>
-          <cell r="B90">
-            <v>10008</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>10006 물리 공격력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>LOW_M_ATK</v>
-          </cell>
-          <cell r="B91">
-            <v>10009</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>10007 마법 공격력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>HIGH_M_ATK</v>
-          </cell>
-          <cell r="B92">
-            <v>10010</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>10008 마법 공격력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>LOW_PM_ATK</v>
-          </cell>
-          <cell r="B93">
-            <v>10011</v>
-          </cell>
-          <cell r="C93" t="str">
-            <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>HIGH_PM_ATK</v>
-          </cell>
-          <cell r="B94">
-            <v>10012</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>LOW_P_DEF</v>
-          </cell>
-          <cell r="B95">
-            <v>10013</v>
-          </cell>
-          <cell r="C95" t="str">
-            <v>10011 물리 방어력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>HIGH_P_DEF</v>
-          </cell>
-          <cell r="B96">
-            <v>10014</v>
-          </cell>
-          <cell r="C96" t="str">
-            <v>10012 물리 방어력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>LOW_M_DEF</v>
-          </cell>
-          <cell r="B97">
-            <v>10015</v>
-          </cell>
-          <cell r="C97" t="str">
-            <v>10013 마법 방어력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>HIGH_M_DEF</v>
-          </cell>
-          <cell r="B98">
-            <v>10016</v>
-          </cell>
-          <cell r="C98" t="str">
-            <v>10014 마법 방어력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>LOW_PM_DEF</v>
-          </cell>
-          <cell r="B99">
-            <v>10017</v>
-          </cell>
-          <cell r="C99" t="str">
-            <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>HIGH_PM_DEF</v>
-          </cell>
-          <cell r="B100">
-            <v>10018</v>
-          </cell>
-          <cell r="C100" t="str">
-            <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>LOW_P_CRI_INC</v>
-          </cell>
-          <cell r="B101">
-            <v>10019</v>
-          </cell>
-          <cell r="C101" t="str">
-            <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>HIGH_P_CRI_INC</v>
-          </cell>
-          <cell r="B102">
-            <v>10020</v>
-          </cell>
-          <cell r="C102" t="str">
-            <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>LOW_M_CRI_INC</v>
-          </cell>
-          <cell r="B103">
-            <v>10021</v>
-          </cell>
-          <cell r="C103" t="str">
-            <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>HIGH_M_CRI_INC</v>
-          </cell>
-          <cell r="B104">
-            <v>10022</v>
-          </cell>
-          <cell r="C104" t="str">
-            <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>LOW_P_CRI_ADD</v>
-          </cell>
-          <cell r="B105">
-            <v>10023</v>
-          </cell>
-          <cell r="C105" t="str">
-            <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>HIGH_P_CRI_ADD</v>
-          </cell>
-          <cell r="B106">
-            <v>10024</v>
-          </cell>
-          <cell r="C106" t="str">
-            <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>LOW_M_CRI_ADD</v>
-          </cell>
-          <cell r="B107">
-            <v>10025</v>
-          </cell>
-          <cell r="C107" t="str">
-            <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>HIGH_M_CRI_ADD</v>
-          </cell>
-          <cell r="B108">
-            <v>10026</v>
-          </cell>
-          <cell r="C108" t="str">
-            <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>LOW_ACCURACY</v>
-          </cell>
-          <cell r="B109">
-            <v>10027</v>
-          </cell>
-          <cell r="C109" t="str">
-            <v>10025 명중이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>HIGH_ACCURACY</v>
-          </cell>
-          <cell r="B110">
-            <v>10028</v>
-          </cell>
-          <cell r="C110" t="str">
-            <v>10026 명중이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>LOW_EVASION</v>
-          </cell>
-          <cell r="B111">
-            <v>10029</v>
-          </cell>
-          <cell r="C111" t="str">
-            <v>10027 회피가 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>HIGH_EVASION</v>
-          </cell>
-          <cell r="B112">
-            <v>10030</v>
-          </cell>
-          <cell r="C112" t="str">
-            <v>10028 회피가 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>LOW_ATK_RECOVERY</v>
-          </cell>
-          <cell r="B113">
-            <v>10031</v>
-          </cell>
-          <cell r="C113" t="str">
-            <v>10029 타격 시 회복량이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>HIGH_ATK_RECOVERY</v>
-          </cell>
-          <cell r="B114">
-            <v>10032</v>
-          </cell>
-          <cell r="C114" t="str">
-            <v>10030 타격 시 회복량이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>LOW_HEAL</v>
-          </cell>
-          <cell r="B115">
-            <v>10033</v>
-          </cell>
-          <cell r="C115" t="str">
-            <v>10031 회복량이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>HIGH_HEAL</v>
-          </cell>
-          <cell r="B116">
-            <v>10034</v>
-          </cell>
-          <cell r="C116" t="str">
-            <v>10032 회복량이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>LOW_RESIST</v>
-          </cell>
-          <cell r="B117">
-            <v>10035</v>
-          </cell>
-          <cell r="C117" t="str">
-            <v>10033 강인함이 가장 낮은 대상</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>HIGH_RESIST</v>
-          </cell>
-          <cell r="B118">
-            <v>10036</v>
-          </cell>
-          <cell r="C118" t="str">
-            <v>10034 강인함이 가장 높은 대상</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>CC_ALL_PROGRESS</v>
-          </cell>
-          <cell r="B119">
-            <v>20001</v>
-          </cell>
-          <cell r="C119" t="str">
-            <v>20001 상태이상 중인 대상</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>CC_STUN_PROGRESS</v>
-          </cell>
-          <cell r="B120">
-            <v>20002</v>
-          </cell>
-          <cell r="C120" t="str">
-            <v>20002 기절 중인 대상</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>CC_BIND_PROGRESS</v>
-          </cell>
-          <cell r="B121">
-            <v>20003</v>
-          </cell>
-          <cell r="C121" t="str">
-            <v>20003 결박 중인 대상</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>CC_SILENCE_PROGRESS</v>
-          </cell>
-          <cell r="B122">
-            <v>20004</v>
-          </cell>
-          <cell r="C122" t="str">
-            <v>20004 침묵 중인 대상</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>CC_FREEZ_PROGRESS</v>
-          </cell>
-          <cell r="B123">
-            <v>20005</v>
-          </cell>
-          <cell r="C123" t="str">
-            <v>20005 빙결 중인 대상</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>BUFF_ALL_PROGRESS</v>
-          </cell>
-          <cell r="B124">
-            <v>20101</v>
-          </cell>
-          <cell r="C124" t="str">
-            <v>20101 버프 상태 중인 대상</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>DEBUFF_ALL_PROGRESS</v>
-          </cell>
-          <cell r="B125">
-            <v>20201</v>
-          </cell>
-          <cell r="C125" t="str">
             <v>20201 디버프 상태 중인 대상</v>
           </cell>
         </row>
@@ -4635,10 +3975,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4941,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AQ124"/>
+  <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6:AM8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5996,15 +5336,15 @@
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>ARROUND_RANGE_WITH_ME</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@target_rule'!$B16</f>
-        <v>3001</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>21 나를 포함한 내 주변 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>'[1]@stat'!$A16</f>
@@ -6034,15 +5374,15 @@
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>LOWEST_ATTACK</v>
+        <v>BACK_RANGE_WITH_ME</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>3003</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>3003 공격력이 가장 낮은 타겟 선택</v>
+        <v>22 나를 포함한 내 뒤 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>'[1]@stat'!$A17</f>
@@ -6072,15 +5412,15 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>FRONT_RANGE_WITH_ME</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>3004</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>3004 방어력이 가장 낮은 타겟 선택</v>
+        <v>23 나를 포함한 내 앞 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>'[1]@stat'!$A18</f>
@@ -6110,15 +5450,15 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_ATTACK</v>
+        <v>ARROUND_RANGE_WITHOUT_ME</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2003</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>2003 공격력이 가장 높은 타겟 선택</v>
+        <v>24 나를 제외한 내 주변 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>'[1]@stat'!$A19</f>
@@ -6148,15 +5488,15 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_DEFENSE</v>
+        <v>BACK_RANGE_WITHOUT_ME</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2004</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>2004 방어력이 가장 높은 타겟 선택</v>
+        <v>25 나를 제외한 내 뒤 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>'[1]@stat'!$A20</f>
@@ -6186,15 +5526,15 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>APPROACH</v>
+        <v>FRONT_RANGE_WITHOUT_ME</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>9999</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>26 나를 제외한 내 앞 지정 거리 이내 아군 선택</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>'[1]@stat'!$A21</f>
@@ -6224,15 +5564,15 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>APPROACH</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>1001</v>
+        <v>9999</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>1001 리더 선택 (리더 없음)</v>
+        <v>9999 접근 거리 타겟</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>'[1]@stat'!$A22</f>
@@ -6262,15 +5602,15 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>LOW_HP_VALUE</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2001</v>
+        <v>10001</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>2001 남은 체력이 가장 많은 타겟 선택</v>
+        <v>10001 현재 체력이 가장 낮은 대상</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>'[1]@stat'!$A23</f>
@@ -6300,15 +5640,15 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>HIGH_HP_VALUE</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2002</v>
+        <v>10002</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>10002 현재 체력이 가장 높은 대상</v>
       </c>
       <c r="U23" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A24</f>
@@ -6326,15 +5666,15 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>HIGH_HP_RATE</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2006</v>
+        <v>10003</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>10003 남은 체력 비율이 가장 높은 대상</v>
       </c>
       <c r="U24" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A25</f>
@@ -6352,15 +5692,15 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_EVASION</v>
+        <v>LOW_HP_RATE</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2007</v>
+        <v>10004</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>10004 남은 체력 비율이 가장 낮은 대상</v>
       </c>
       <c r="U25" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A26</f>
@@ -6378,15 +5718,15 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>LOW_MAX_HP</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2008</v>
+        <v>10005</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>10003 최대 체력이 가장 낮은 대상</v>
       </c>
       <c r="U26" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A27</f>
@@ -6404,15 +5744,15 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGH_MAX_HP</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2009</v>
+        <v>10006</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>10004 최대 체력이 가장 높은 대상</v>
       </c>
       <c r="U27" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A28</f>
@@ -6430,15 +5770,15 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>LOW_P_ATK</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2010</v>
+        <v>10007</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>10005 물리 공격력이 가장 낮은 대상</v>
       </c>
       <c r="U28" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A29</f>
@@ -6456,15 +5796,15 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGH_P_ATK</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2011</v>
+        <v>10008</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>10006 물리 공격력이 가장 높은 대상</v>
       </c>
       <c r="U29" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A30</f>
@@ -6482,15 +5822,15 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>LOW_M_ATK</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2012</v>
+        <v>10009</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>2012 남은 체력이 가장 높은 악마 선택</v>
+        <v>10007 마법 공격력이 가장 낮은 대상</v>
       </c>
       <c r="U30" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A31</f>
@@ -6508,15 +5848,15 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGH_M_ATK</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>2013</v>
+        <v>10010</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>2013 남은 체력이 가장 높은 천사 선택</v>
+        <v>10008 마법 공격력이 가장 높은 대상</v>
       </c>
       <c r="U31" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A32</f>
@@ -6534,15 +5874,15 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>LOW_PM_ATK</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>2014</v>
+        <v>10011</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
       </c>
       <c r="U32" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A33</f>
@@ -6560,15 +5900,15 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGH_PM_ATK</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>2015</v>
+        <v>10012</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
       </c>
       <c r="U33" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A34</f>
@@ -6586,15 +5926,15 @@
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>LOW_P_DEF</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>2016</v>
+        <v>10013</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>10011 물리 방어력이 가장 낮은 대상</v>
       </c>
       <c r="U34" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A35</f>
@@ -6612,15 +5952,15 @@
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGH_P_DEF</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>2017</v>
+        <v>10014</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>10012 물리 방어력이 가장 높은 대상</v>
       </c>
       <c r="U35" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A36</f>
@@ -6638,15 +5978,15 @@
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>LOW_M_DEF</v>
       </c>
       <c r="B36" s="4">
         <f>'[1]@target_rule'!$B37</f>
-        <v>2018</v>
+        <v>10015</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>10013 마법 방어력이 가장 낮은 대상</v>
       </c>
       <c r="U36" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A37</f>
@@ -6664,1232 +6004,392 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGH_M_DEF</v>
       </c>
       <c r="B37" s="4">
         <f>'[1]@target_rule'!$B38</f>
-        <v>2019</v>
+        <v>10016</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>10014 마법 방어력이 가장 높은 대상</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>LOW_PM_DEF</v>
       </c>
       <c r="B38" s="4">
         <f>'[1]@target_rule'!$B39</f>
-        <v>2020</v>
+        <v>10017</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>HIGH_PM_DEF</v>
       </c>
       <c r="B39" s="4">
         <f>'[1]@target_rule'!$B40</f>
-        <v>3002</v>
+        <v>10018</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
-        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+        <v>LOW_P_CRI_INC</v>
       </c>
       <c r="B40" s="4">
         <f>'[1]@target_rule'!$B41</f>
-        <v>3005</v>
+        <v>10019</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
+        <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
-        <v>LOWEST_ACCURACY</v>
+        <v>HIGH_P_CRI_INC</v>
       </c>
       <c r="B41" s="4">
         <f>'[1]@target_rule'!$B42</f>
-        <v>3006</v>
+        <v>10020</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>3006 명중률이 가장 낮은 타겟 선택</v>
+        <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
-        <v>LOWEST_EVASION</v>
+        <v>LOW_M_CRI_INC</v>
       </c>
       <c r="B42" s="4">
         <f>'[1]@target_rule'!$B43</f>
-        <v>3007</v>
+        <v>10021</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>3007 회피율이 가장 낮은 타겟 선택</v>
+        <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
-        <v>LOWEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGH_M_CRI_INC</v>
       </c>
       <c r="B43" s="4">
         <f>'[1]@target_rule'!$B44</f>
-        <v>3008</v>
+        <v>10022</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
-        <v>LOWEST_LIFE_VALUE_ELF</v>
+        <v>LOW_P_CRI_ADD</v>
       </c>
       <c r="B44" s="4">
         <f>'[1]@target_rule'!$B45</f>
-        <v>3009</v>
+        <v>10023</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
-        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGH_P_CRI_ADD</v>
       </c>
       <c r="B45" s="4">
         <f>'[1]@target_rule'!$B46</f>
-        <v>3010</v>
+        <v>10024</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
-        <v>LOWEST_LIFE_VALUE_ANDROID</v>
+        <v>LOW_M_CRI_ADD</v>
       </c>
       <c r="B46" s="4">
         <f>'[1]@target_rule'!$B47</f>
-        <v>3011</v>
+        <v>10025</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
-        <v>LOWEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGH_M_CRI_ADD</v>
       </c>
       <c r="B47" s="4">
         <f>'[1]@target_rule'!$B48</f>
-        <v>3012</v>
+        <v>10026</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
-        <v>LOWEST_LIFE_VALUE_ANGEL</v>
+        <v>LOW_ACCURACY</v>
       </c>
       <c r="B48" s="4">
         <f>'[1]@target_rule'!$B49</f>
-        <v>3013</v>
+        <v>10027</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>10025 명중이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>'[1]@target_rule'!$A50</f>
-        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGH_ACCURACY</v>
       </c>
       <c r="B49" s="4">
         <f>'[1]@target_rule'!$B50</f>
-        <v>3014</v>
+        <v>10028</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>10026 명중이 가장 높은 대상</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>'[1]@target_rule'!$A51</f>
-        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>LOW_EVASION</v>
       </c>
       <c r="B50" s="4">
         <f>'[1]@target_rule'!$B51</f>
-        <v>3015</v>
+        <v>10029</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>10027 회피가 가장 낮은 대상</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>'[1]@target_rule'!$A52</f>
-        <v>LOWEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGH_EVASION</v>
       </c>
       <c r="B51" s="4">
         <f>'[1]@target_rule'!$B52</f>
-        <v>3016</v>
+        <v>10030</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>10028 회피가 가장 높은 대상</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>'[1]@target_rule'!$A53</f>
-        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+        <v>LOW_ATK_RECOVERY</v>
       </c>
       <c r="B52" s="4">
         <f>'[1]@target_rule'!$B53</f>
-        <v>3017</v>
+        <v>10031</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>10029 타격 시 회복량이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>'[1]@target_rule'!$A54</f>
-        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGH_ATK_RECOVERY</v>
       </c>
       <c r="B53" s="4">
         <f>'[1]@target_rule'!$B54</f>
-        <v>3018</v>
+        <v>10032</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>10030 타격 시 회복량이 가장 높은 대상</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>'[1]@target_rule'!$A55</f>
-        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+        <v>LOW_HEAL</v>
       </c>
       <c r="B54" s="4">
         <f>'[1]@target_rule'!$B55</f>
-        <v>3019</v>
+        <v>10033</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>10031 회복량이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>'[1]@target_rule'!$A56</f>
-        <v>LOWEST_EVASION_WITHOUT_ME</v>
+        <v>HIGH_HEAL</v>
       </c>
       <c r="B55" s="4">
         <f>'[1]@target_rule'!$B56</f>
-        <v>3020</v>
+        <v>10034</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>10032 회복량이 가장 높은 대상</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>'[1]@target_rule'!$A57</f>
-        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+        <v>LOW_RESIST</v>
       </c>
       <c r="B56" s="4">
         <f>'[1]@target_rule'!$B57</f>
-        <v>3021</v>
+        <v>10035</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>10033 강인함이 가장 낮은 대상</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>'[1]@target_rule'!$A58</f>
-        <v>LOWEST_LIFE_RATE_WITH_ME</v>
+        <v>HIGH_RESIST</v>
       </c>
       <c r="B57" s="4">
         <f>'[1]@target_rule'!$B58</f>
-        <v>3022</v>
+        <v>10036</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>10034 강인함이 가장 높은 대상</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>'[1]@target_rule'!$A59</f>
-        <v>LOWEST_ATTACK_WITH_ME</v>
+        <v>CC_ALL_PROGRESS</v>
       </c>
       <c r="B58" s="4">
         <f>'[1]@target_rule'!$B59</f>
-        <v>3023</v>
+        <v>20001</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>20001 상태이상 중인 대상</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>'[1]@target_rule'!$A60</f>
-        <v>LOWEST_DEFENSE_WITH_ME</v>
+        <v>CC_STUN_PROGRESS</v>
       </c>
       <c r="B59" s="4">
         <f>'[1]@target_rule'!$B60</f>
-        <v>3024</v>
+        <v>20002</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>20002 기절 중인 대상</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>'[1]@target_rule'!$A61</f>
-        <v>LOWEST_RAPIDITY_WITH_ME</v>
+        <v>CC_BIND_PROGRESS</v>
       </c>
       <c r="B60" s="4">
         <f>'[1]@target_rule'!$B61</f>
-        <v>3025</v>
+        <v>20003</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>20003 결박 중인 대상</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>'[1]@target_rule'!$A62</f>
-        <v>LOWEST_ACCURACY_WITH_ME</v>
+        <v>CC_SILENCE_PROGRESS</v>
       </c>
       <c r="B61" s="4">
         <f>'[1]@target_rule'!$B62</f>
-        <v>3026</v>
+        <v>20004</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>20004 침묵 중인 대상</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>'[1]@target_rule'!$A63</f>
-        <v>LOWEST_EVASION_WITH_ME</v>
+        <v>CC_FREEZ_PROGRESS</v>
       </c>
       <c r="B62" s="4">
         <f>'[1]@target_rule'!$B63</f>
-        <v>3027</v>
+        <v>20005</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>20005 빙결 중인 대상</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>'[1]@target_rule'!$A64</f>
-        <v>WEAK_ELEMENT</v>
+        <v>BUFF_ALL_PROGRESS</v>
       </c>
       <c r="B63" s="4">
         <f>'[1]@target_rule'!$B64</f>
-        <v>4001</v>
+        <v>20101</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>20101 버프 상태 중인 대상</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>'[1]@target_rule'!$A65</f>
-        <v>STRONG_ELEMENT</v>
+        <v>DEBUFF_ALL_PROGRESS</v>
       </c>
       <c r="B64" s="4">
         <f>'[1]@target_rule'!$B65</f>
-        <v>4002</v>
+        <v>20201</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="str">
-        <f>'[1]@target_rule'!$A66</f>
-        <v>GAIN_BUFF_DURATION</v>
-      </c>
-      <c r="B65" s="4">
-        <f>'[1]@target_rule'!$B66</f>
-        <v>5001</v>
-      </c>
-      <c r="C65" s="4" t="str">
-        <f>'[1]@target_rule'!$C66</f>
-        <v>5001 버프 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="str">
-        <f>'[1]@target_rule'!$A67</f>
-        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
-      </c>
-      <c r="B66" s="4">
-        <f>'[1]@target_rule'!$B67</f>
-        <v>5002</v>
-      </c>
-      <c r="C66" s="4" t="str">
-        <f>'[1]@target_rule'!$C67</f>
-        <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="str">
-        <f>'[1]@target_rule'!$A68</f>
-        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
-      </c>
-      <c r="B67" s="4">
-        <f>'[1]@target_rule'!$B68</f>
-        <v>5003</v>
-      </c>
-      <c r="C67" s="4" t="str">
-        <f>'[1]@target_rule'!$C68</f>
-        <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="str">
-        <f>'[1]@target_rule'!$A69</f>
-        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
-      </c>
-      <c r="B68" s="4">
-        <f>'[1]@target_rule'!$B69</f>
-        <v>5004</v>
-      </c>
-      <c r="C68" s="4" t="str">
-        <f>'[1]@target_rule'!$C69</f>
-        <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="str">
-        <f>'[1]@target_rule'!$A70</f>
-        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
-      </c>
-      <c r="B69" s="4">
-        <f>'[1]@target_rule'!$B70</f>
-        <v>5005</v>
-      </c>
-      <c r="C69" s="4" t="str">
-        <f>'[1]@target_rule'!$C70</f>
-        <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="str">
-        <f>'[1]@target_rule'!$A71</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
-      </c>
-      <c r="B70" s="4">
-        <f>'[1]@target_rule'!$B71</f>
-        <v>5006</v>
-      </c>
-      <c r="C70" s="4" t="str">
-        <f>'[1]@target_rule'!$C71</f>
-        <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="str">
-        <f>'[1]@target_rule'!$A72</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
-      </c>
-      <c r="B71" s="4">
-        <f>'[1]@target_rule'!$B72</f>
-        <v>5007</v>
-      </c>
-      <c r="C71" s="4" t="str">
-        <f>'[1]@target_rule'!$C72</f>
-        <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="str">
-        <f>'[1]@target_rule'!$A73</f>
-        <v>GAIN_DEBUFF_DURATION</v>
-      </c>
-      <c r="B72" s="4">
-        <f>'[1]@target_rule'!$B73</f>
-        <v>6001</v>
-      </c>
-      <c r="C72" s="4" t="str">
-        <f>'[1]@target_rule'!$C73</f>
-        <v>6001 디버프 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="str">
-        <f>'[1]@target_rule'!$A74</f>
-        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
-      </c>
-      <c r="B73" s="4">
-        <f>'[1]@target_rule'!$B74</f>
-        <v>6002</v>
-      </c>
-      <c r="C73" s="4" t="str">
-        <f>'[1]@target_rule'!$C74</f>
-        <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="str">
-        <f>'[1]@target_rule'!$A75</f>
-        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
-      </c>
-      <c r="B74" s="4">
-        <f>'[1]@target_rule'!$B75</f>
-        <v>6003</v>
-      </c>
-      <c r="C74" s="4" t="str">
-        <f>'[1]@target_rule'!$C75</f>
-        <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="str">
-        <f>'[1]@target_rule'!$A76</f>
-        <v>GAIN_DEBUFF_DURATION_BURN</v>
-      </c>
-      <c r="B75" s="4">
-        <f>'[1]@target_rule'!$B76</f>
-        <v>6004</v>
-      </c>
-      <c r="C75" s="4" t="str">
-        <f>'[1]@target_rule'!$C76</f>
-        <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="str">
-        <f>'[1]@target_rule'!$A77</f>
-        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
-      </c>
-      <c r="B76" s="4">
-        <f>'[1]@target_rule'!$B77</f>
-        <v>6005</v>
-      </c>
-      <c r="C76" s="4" t="str">
-        <f>'[1]@target_rule'!$C77</f>
-        <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="str">
-        <f>'[1]@target_rule'!$A78</f>
-        <v>GAIN_DEBUFF_DURATION_POISON</v>
-      </c>
-      <c r="B77" s="4">
-        <f>'[1]@target_rule'!$B78</f>
-        <v>6006</v>
-      </c>
-      <c r="C77" s="4" t="str">
-        <f>'[1]@target_rule'!$C78</f>
-        <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="str">
-        <f>'[1]@target_rule'!$A79</f>
-        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
-      </c>
-      <c r="B78" s="4">
-        <f>'[1]@target_rule'!$B79</f>
-        <v>6007</v>
-      </c>
-      <c r="C78" s="4" t="str">
-        <f>'[1]@target_rule'!$C79</f>
-        <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="str">
-        <f>'[1]@target_rule'!$A80</f>
-        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
-      </c>
-      <c r="B79" s="4">
-        <f>'[1]@target_rule'!$B80</f>
-        <v>6008</v>
-      </c>
-      <c r="C79" s="4" t="str">
-        <f>'[1]@target_rule'!$C80</f>
-        <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="str">
-        <f>'[1]@target_rule'!$A81</f>
-        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
-      </c>
-      <c r="B80" s="4">
-        <f>'[1]@target_rule'!$B81</f>
-        <v>6009</v>
-      </c>
-      <c r="C80" s="4" t="str">
-        <f>'[1]@target_rule'!$C81</f>
-        <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="str">
-        <f>'[1]@target_rule'!$A82</f>
-        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
-      </c>
-      <c r="B81" s="4">
-        <f>'[1]@target_rule'!$B82</f>
-        <v>6010</v>
-      </c>
-      <c r="C81" s="4" t="str">
-        <f>'[1]@target_rule'!$C82</f>
-        <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="str">
-        <f>'[1]@target_rule'!$A83</f>
-        <v>LOW_HP_VALUE</v>
-      </c>
-      <c r="B82" s="4">
-        <f>'[1]@target_rule'!$B83</f>
-        <v>10001</v>
-      </c>
-      <c r="C82" s="4" t="str">
-        <f>'[1]@target_rule'!$C83</f>
-        <v>10001 현재 체력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="str">
-        <f>'[1]@target_rule'!$A84</f>
-        <v>HIGH_HP_VALUE</v>
-      </c>
-      <c r="B83" s="4">
-        <f>'[1]@target_rule'!$B84</f>
-        <v>10002</v>
-      </c>
-      <c r="C83" s="4" t="str">
-        <f>'[1]@target_rule'!$C84</f>
-        <v>10002 현재 체력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="str">
-        <f>'[1]@target_rule'!$A85</f>
-        <v>HIGH_HP_RATE</v>
-      </c>
-      <c r="B84" s="4">
-        <f>'[1]@target_rule'!$B85</f>
-        <v>10003</v>
-      </c>
-      <c r="C84" s="4" t="str">
-        <f>'[1]@target_rule'!$C85</f>
-        <v>10003 남은 체력 비율이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="str">
-        <f>'[1]@target_rule'!$A86</f>
-        <v>LOW_HP_RATE</v>
-      </c>
-      <c r="B85" s="4">
-        <f>'[1]@target_rule'!$B86</f>
-        <v>10004</v>
-      </c>
-      <c r="C85" s="4" t="str">
-        <f>'[1]@target_rule'!$C86</f>
-        <v>10004 남은 체력 비율이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="str">
-        <f>'[1]@target_rule'!$A87</f>
-        <v>LOW_MAX_HP</v>
-      </c>
-      <c r="B86" s="4">
-        <f>'[1]@target_rule'!$B87</f>
-        <v>10005</v>
-      </c>
-      <c r="C86" s="4" t="str">
-        <f>'[1]@target_rule'!$C87</f>
-        <v>10003 최대 체력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="str">
-        <f>'[1]@target_rule'!$A88</f>
-        <v>HIGH_MAX_HP</v>
-      </c>
-      <c r="B87" s="4">
-        <f>'[1]@target_rule'!$B88</f>
-        <v>10006</v>
-      </c>
-      <c r="C87" s="4" t="str">
-        <f>'[1]@target_rule'!$C88</f>
-        <v>10004 최대 체력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="str">
-        <f>'[1]@target_rule'!$A89</f>
-        <v>LOW_P_ATK</v>
-      </c>
-      <c r="B88" s="4">
-        <f>'[1]@target_rule'!$B89</f>
-        <v>10007</v>
-      </c>
-      <c r="C88" s="4" t="str">
-        <f>'[1]@target_rule'!$C89</f>
-        <v>10005 물리 공격력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="str">
-        <f>'[1]@target_rule'!$A90</f>
-        <v>HIGH_P_ATK</v>
-      </c>
-      <c r="B89" s="4">
-        <f>'[1]@target_rule'!$B90</f>
-        <v>10008</v>
-      </c>
-      <c r="C89" s="4" t="str">
-        <f>'[1]@target_rule'!$C90</f>
-        <v>10006 물리 공격력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="str">
-        <f>'[1]@target_rule'!$A91</f>
-        <v>LOW_M_ATK</v>
-      </c>
-      <c r="B90" s="4">
-        <f>'[1]@target_rule'!$B91</f>
-        <v>10009</v>
-      </c>
-      <c r="C90" s="4" t="str">
-        <f>'[1]@target_rule'!$C91</f>
-        <v>10007 마법 공격력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="str">
-        <f>'[1]@target_rule'!$A92</f>
-        <v>HIGH_M_ATK</v>
-      </c>
-      <c r="B91" s="4">
-        <f>'[1]@target_rule'!$B92</f>
-        <v>10010</v>
-      </c>
-      <c r="C91" s="4" t="str">
-        <f>'[1]@target_rule'!$C92</f>
-        <v>10008 마법 공격력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="str">
-        <f>'[1]@target_rule'!$A93</f>
-        <v>LOW_PM_ATK</v>
-      </c>
-      <c r="B92" s="4">
-        <f>'[1]@target_rule'!$B93</f>
-        <v>10011</v>
-      </c>
-      <c r="C92" s="4" t="str">
-        <f>'[1]@target_rule'!$C93</f>
-        <v>10009 물리/ 마법 공격력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="str">
-        <f>'[1]@target_rule'!$A94</f>
-        <v>HIGH_PM_ATK</v>
-      </c>
-      <c r="B93" s="4">
-        <f>'[1]@target_rule'!$B94</f>
-        <v>10012</v>
-      </c>
-      <c r="C93" s="4" t="str">
-        <f>'[1]@target_rule'!$C94</f>
-        <v>10010 물리/ 마법 공격력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="str">
-        <f>'[1]@target_rule'!$A95</f>
-        <v>LOW_P_DEF</v>
-      </c>
-      <c r="B94" s="4">
-        <f>'[1]@target_rule'!$B95</f>
-        <v>10013</v>
-      </c>
-      <c r="C94" s="4" t="str">
-        <f>'[1]@target_rule'!$C95</f>
-        <v>10011 물리 방어력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="str">
-        <f>'[1]@target_rule'!$A96</f>
-        <v>HIGH_P_DEF</v>
-      </c>
-      <c r="B95" s="4">
-        <f>'[1]@target_rule'!$B96</f>
-        <v>10014</v>
-      </c>
-      <c r="C95" s="4" t="str">
-        <f>'[1]@target_rule'!$C96</f>
-        <v>10012 물리 방어력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="str">
-        <f>'[1]@target_rule'!$A97</f>
-        <v>LOW_M_DEF</v>
-      </c>
-      <c r="B96" s="4">
-        <f>'[1]@target_rule'!$B97</f>
-        <v>10015</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <f>'[1]@target_rule'!$C97</f>
-        <v>10013 마법 방어력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="str">
-        <f>'[1]@target_rule'!$A98</f>
-        <v>HIGH_M_DEF</v>
-      </c>
-      <c r="B97" s="4">
-        <f>'[1]@target_rule'!$B98</f>
-        <v>10016</v>
-      </c>
-      <c r="C97" s="4" t="str">
-        <f>'[1]@target_rule'!$C98</f>
-        <v>10014 마법 방어력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="str">
-        <f>'[1]@target_rule'!$A99</f>
-        <v>LOW_PM_DEF</v>
-      </c>
-      <c r="B98" s="4">
-        <f>'[1]@target_rule'!$B99</f>
-        <v>10017</v>
-      </c>
-      <c r="C98" s="4" t="str">
-        <f>'[1]@target_rule'!$C99</f>
-        <v>10015 물리/ 마법 방어력이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="str">
-        <f>'[1]@target_rule'!$A100</f>
-        <v>HIGH_PM_DEF</v>
-      </c>
-      <c r="B99" s="4">
-        <f>'[1]@target_rule'!$B100</f>
-        <v>10018</v>
-      </c>
-      <c r="C99" s="4" t="str">
-        <f>'[1]@target_rule'!$C100</f>
-        <v>10016 물리/ 마법 방어력이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="str">
-        <f>'[1]@target_rule'!$A101</f>
-        <v>LOW_P_CRI_INC</v>
-      </c>
-      <c r="B100" s="4">
-        <f>'[1]@target_rule'!$B101</f>
-        <v>10019</v>
-      </c>
-      <c r="C100" s="4" t="str">
-        <f>'[1]@target_rule'!$C101</f>
-        <v>10017 물리 크리티컬 확률이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="str">
-        <f>'[1]@target_rule'!$A102</f>
-        <v>HIGH_P_CRI_INC</v>
-      </c>
-      <c r="B101" s="4">
-        <f>'[1]@target_rule'!$B102</f>
-        <v>10020</v>
-      </c>
-      <c r="C101" s="4" t="str">
-        <f>'[1]@target_rule'!$C102</f>
-        <v>10018 물리 크리티컬 확률이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="str">
-        <f>'[1]@target_rule'!$A103</f>
-        <v>LOW_M_CRI_INC</v>
-      </c>
-      <c r="B102" s="4">
-        <f>'[1]@target_rule'!$B103</f>
-        <v>10021</v>
-      </c>
-      <c r="C102" s="4" t="str">
-        <f>'[1]@target_rule'!$C103</f>
-        <v>10019 마법 크리티컬 확률이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="str">
-        <f>'[1]@target_rule'!$A104</f>
-        <v>HIGH_M_CRI_INC</v>
-      </c>
-      <c r="B103" s="4">
-        <f>'[1]@target_rule'!$B104</f>
-        <v>10022</v>
-      </c>
-      <c r="C103" s="4" t="str">
-        <f>'[1]@target_rule'!$C104</f>
-        <v>10020 마법 크리티컬 확률이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="str">
-        <f>'[1]@target_rule'!$A105</f>
-        <v>LOW_P_CRI_ADD</v>
-      </c>
-      <c r="B104" s="4">
-        <f>'[1]@target_rule'!$B105</f>
-        <v>10023</v>
-      </c>
-      <c r="C104" s="4" t="str">
-        <f>'[1]@target_rule'!$C105</f>
-        <v>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="str">
-        <f>'[1]@target_rule'!$A106</f>
-        <v>HIGH_P_CRI_ADD</v>
-      </c>
-      <c r="B105" s="4">
-        <f>'[1]@target_rule'!$B106</f>
-        <v>10024</v>
-      </c>
-      <c r="C105" s="4" t="str">
-        <f>'[1]@target_rule'!$C106</f>
-        <v>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="str">
-        <f>'[1]@target_rule'!$A107</f>
-        <v>LOW_M_CRI_ADD</v>
-      </c>
-      <c r="B106" s="4">
-        <f>'[1]@target_rule'!$B107</f>
-        <v>10025</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <f>'[1]@target_rule'!$C107</f>
-        <v>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="str">
-        <f>'[1]@target_rule'!$A108</f>
-        <v>HIGH_M_CRI_ADD</v>
-      </c>
-      <c r="B107" s="4">
-        <f>'[1]@target_rule'!$B108</f>
-        <v>10026</v>
-      </c>
-      <c r="C107" s="4" t="str">
-        <f>'[1]@target_rule'!$C108</f>
-        <v>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="str">
-        <f>'[1]@target_rule'!$A109</f>
-        <v>LOW_ACCURACY</v>
-      </c>
-      <c r="B108" s="4">
-        <f>'[1]@target_rule'!$B109</f>
-        <v>10027</v>
-      </c>
-      <c r="C108" s="4" t="str">
-        <f>'[1]@target_rule'!$C109</f>
-        <v>10025 명중이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="str">
-        <f>'[1]@target_rule'!$A110</f>
-        <v>HIGH_ACCURACY</v>
-      </c>
-      <c r="B109" s="4">
-        <f>'[1]@target_rule'!$B110</f>
-        <v>10028</v>
-      </c>
-      <c r="C109" s="4" t="str">
-        <f>'[1]@target_rule'!$C110</f>
-        <v>10026 명중이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="str">
-        <f>'[1]@target_rule'!$A111</f>
-        <v>LOW_EVASION</v>
-      </c>
-      <c r="B110" s="4">
-        <f>'[1]@target_rule'!$B111</f>
-        <v>10029</v>
-      </c>
-      <c r="C110" s="4" t="str">
-        <f>'[1]@target_rule'!$C111</f>
-        <v>10027 회피가 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="str">
-        <f>'[1]@target_rule'!$A112</f>
-        <v>HIGH_EVASION</v>
-      </c>
-      <c r="B111" s="4">
-        <f>'[1]@target_rule'!$B112</f>
-        <v>10030</v>
-      </c>
-      <c r="C111" s="4" t="str">
-        <f>'[1]@target_rule'!$C112</f>
-        <v>10028 회피가 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="str">
-        <f>'[1]@target_rule'!$A113</f>
-        <v>LOW_ATK_RECOVERY</v>
-      </c>
-      <c r="B112" s="4">
-        <f>'[1]@target_rule'!$B113</f>
-        <v>10031</v>
-      </c>
-      <c r="C112" s="4" t="str">
-        <f>'[1]@target_rule'!$C113</f>
-        <v>10029 타격 시 회복량이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="str">
-        <f>'[1]@target_rule'!$A114</f>
-        <v>HIGH_ATK_RECOVERY</v>
-      </c>
-      <c r="B113" s="4">
-        <f>'[1]@target_rule'!$B114</f>
-        <v>10032</v>
-      </c>
-      <c r="C113" s="4" t="str">
-        <f>'[1]@target_rule'!$C114</f>
-        <v>10030 타격 시 회복량이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="str">
-        <f>'[1]@target_rule'!$A115</f>
-        <v>LOW_HEAL</v>
-      </c>
-      <c r="B114" s="4">
-        <f>'[1]@target_rule'!$B115</f>
-        <v>10033</v>
-      </c>
-      <c r="C114" s="4" t="str">
-        <f>'[1]@target_rule'!$C115</f>
-        <v>10031 회복량이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="str">
-        <f>'[1]@target_rule'!$A116</f>
-        <v>HIGH_HEAL</v>
-      </c>
-      <c r="B115" s="4">
-        <f>'[1]@target_rule'!$B116</f>
-        <v>10034</v>
-      </c>
-      <c r="C115" s="4" t="str">
-        <f>'[1]@target_rule'!$C116</f>
-        <v>10032 회복량이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="str">
-        <f>'[1]@target_rule'!$A117</f>
-        <v>LOW_RESIST</v>
-      </c>
-      <c r="B116" s="4">
-        <f>'[1]@target_rule'!$B117</f>
-        <v>10035</v>
-      </c>
-      <c r="C116" s="4" t="str">
-        <f>'[1]@target_rule'!$C117</f>
-        <v>10033 강인함이 가장 낮은 대상</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="str">
-        <f>'[1]@target_rule'!$A118</f>
-        <v>HIGH_RESIST</v>
-      </c>
-      <c r="B117" s="4">
-        <f>'[1]@target_rule'!$B118</f>
-        <v>10036</v>
-      </c>
-      <c r="C117" s="4" t="str">
-        <f>'[1]@target_rule'!$C118</f>
-        <v>10034 강인함이 가장 높은 대상</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="str">
-        <f>'[1]@target_rule'!$A119</f>
-        <v>CC_ALL_PROGRESS</v>
-      </c>
-      <c r="B118" s="4">
-        <f>'[1]@target_rule'!$B119</f>
-        <v>20001</v>
-      </c>
-      <c r="C118" s="4" t="str">
-        <f>'[1]@target_rule'!$C119</f>
-        <v>20001 상태이상 중인 대상</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="str">
-        <f>'[1]@target_rule'!$A120</f>
-        <v>CC_STUN_PROGRESS</v>
-      </c>
-      <c r="B119" s="4">
-        <f>'[1]@target_rule'!$B120</f>
-        <v>20002</v>
-      </c>
-      <c r="C119" s="4" t="str">
-        <f>'[1]@target_rule'!$C120</f>
-        <v>20002 기절 중인 대상</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="str">
-        <f>'[1]@target_rule'!$A121</f>
-        <v>CC_BIND_PROGRESS</v>
-      </c>
-      <c r="B120" s="4">
-        <f>'[1]@target_rule'!$B121</f>
-        <v>20003</v>
-      </c>
-      <c r="C120" s="4" t="str">
-        <f>'[1]@target_rule'!$C121</f>
-        <v>20003 결박 중인 대상</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="str">
-        <f>'[1]@target_rule'!$A122</f>
-        <v>CC_SILENCE_PROGRESS</v>
-      </c>
-      <c r="B121" s="4">
-        <f>'[1]@target_rule'!$B122</f>
-        <v>20004</v>
-      </c>
-      <c r="C121" s="4" t="str">
-        <f>'[1]@target_rule'!$C122</f>
-        <v>20004 침묵 중인 대상</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="str">
-        <f>'[1]@target_rule'!$A123</f>
-        <v>CC_FREEZ_PROGRESS</v>
-      </c>
-      <c r="B122" s="4">
-        <f>'[1]@target_rule'!$B123</f>
-        <v>20005</v>
-      </c>
-      <c r="C122" s="4" t="str">
-        <f>'[1]@target_rule'!$C123</f>
-        <v>20005 빙결 중인 대상</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="str">
-        <f>'[1]@target_rule'!$A124</f>
-        <v>BUFF_ALL_PROGRESS</v>
-      </c>
-      <c r="B123" s="4">
-        <f>'[1]@target_rule'!$B124</f>
-        <v>20101</v>
-      </c>
-      <c r="C123" s="4" t="str">
-        <f>'[1]@target_rule'!$C124</f>
-        <v>20101 버프 상태 중인 대상</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="str">
-        <f>'[1]@target_rule'!$A125</f>
-        <v>DEBUFF_ALL_PROGRESS</v>
-      </c>
-      <c r="B124" s="4">
-        <f>'[1]@target_rule'!$B125</f>
-        <v>20201</v>
-      </c>
-      <c r="C124" s="4" t="str">
-        <f>'[1]@target_rule'!$C125</f>
         <v>20201 디버프 상태 중인 대상</v>
       </c>
     </row>
@@ -8480,8 +6980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8729,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F5,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F5,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -8798,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F6,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F6,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -8867,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F7,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F7,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -8938,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F8,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F8,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -9009,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F9,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F9,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -9080,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F10,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F10,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
@@ -9151,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F11,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F11,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -9222,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F12,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F12,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -9293,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F13,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F13,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -9364,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F14,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F14,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -9435,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F15,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F15,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -9506,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$124,MATCH(F16,'!참조_ENUM'!$C$3:$C$124,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F16,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>7</v>
       </c>
       <c r="F16" s="22" t="s">
@@ -9595,7 +8095,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$3:$C$124</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$64</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F16</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243B13A-4D6B-489F-8EF0-C0AA0970164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DD332-8CCE-4D6D-AE6A-F013844E9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="42045" yWindow="3045" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="189">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1613,6 +1613,14 @@
   </si>
   <si>
     <t>203 최대 체력 배율 값</t>
+  </si>
+  <si>
+    <t>첫번째 이펙트만 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_only_first_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2062,6 +2070,9 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3914,6 +3925,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3975,10 +3989,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6404,7 +6418,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6978,10 +6992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6998,20 +7012,20 @@
     <col min="10" max="11" width="21.125" style="16" customWidth="1"/>
     <col min="12" max="12" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="14.375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="16" customWidth="1"/>
-    <col min="17" max="20" width="13.125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="70.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="15"/>
+    <col min="14" max="16" width="14.375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="16" customWidth="1"/>
+    <col min="18" max="21" width="13.125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -7058,28 +7072,31 @@
         <v>122</v>
       </c>
       <c r="P2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>176</v>
       </c>
@@ -7125,8 +7142,8 @@
       <c r="O3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>67</v>
+      <c r="P3" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>67</v>
@@ -7135,19 +7152,22 @@
         <v>67</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>130</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
@@ -7194,28 +7214,31 @@
         <v>124</v>
       </c>
       <c r="P4" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="T4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="W4" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>200001</v>
       </c>
@@ -7264,27 +7287,30 @@
       <c r="O5" s="25">
         <v>0</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
         <v>100</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="R5" s="23">
         <v>100001</v>
       </c>
-      <c r="R5" s="23">
-        <v>0</v>
-      </c>
       <c r="S5" s="23">
         <v>0</v>
       </c>
       <c r="T5" s="23">
         <v>0</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="23">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>200002</v>
       </c>
@@ -7333,27 +7359,30 @@
       <c r="O6" s="25">
         <v>0</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
         <v>100</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="23">
         <v>100002</v>
       </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
       <c r="S6" s="23">
         <v>0</v>
       </c>
       <c r="T6" s="23">
         <v>0</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
+      <c r="V6" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>200003</v>
       </c>
@@ -7402,29 +7431,32 @@
       <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
         <v>100</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <v>100003</v>
       </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
       <c r="S7" s="23">
         <v>0</v>
       </c>
       <c r="T7" s="23">
         <v>0</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="23">
+        <v>0</v>
+      </c>
+      <c r="V7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="W7" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>200004</v>
       </c>
@@ -7473,29 +7505,32 @@
       <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
         <v>100</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="23">
         <v>100004</v>
       </c>
-      <c r="R8" s="23">
-        <v>0</v>
-      </c>
       <c r="S8" s="23">
         <v>0</v>
       </c>
       <c r="T8" s="23">
         <v>0</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="23">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="W8" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>200005</v>
       </c>
@@ -7544,29 +7579,32 @@
       <c r="O9" s="25">
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
         <v>100</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="23">
         <v>100005</v>
       </c>
-      <c r="R9" s="23">
-        <v>0</v>
-      </c>
       <c r="S9" s="23">
         <v>0</v>
       </c>
       <c r="T9" s="23">
         <v>0</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="W9" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>200006</v>
       </c>
@@ -7615,29 +7653,32 @@
       <c r="O10" s="25">
         <v>0</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
         <v>100</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <v>100006</v>
       </c>
-      <c r="R10" s="23">
-        <v>0</v>
-      </c>
       <c r="S10" s="23">
         <v>0</v>
       </c>
       <c r="T10" s="23">
         <v>0</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="23">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="25" t="s">
+      <c r="W10" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>200007</v>
       </c>
@@ -7686,29 +7727,32 @@
       <c r="O11" s="25">
         <v>0</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
         <v>100</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="23">
         <v>100007</v>
       </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
       <c r="S11" s="23">
         <v>0</v>
       </c>
       <c r="T11" s="23">
         <v>0</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="25" t="s">
+      <c r="W11" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>200008</v>
       </c>
@@ -7757,29 +7801,32 @@
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
         <v>100</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="23">
         <v>100008</v>
       </c>
-      <c r="R12" s="23">
-        <v>0</v>
-      </c>
       <c r="S12" s="23">
         <v>0</v>
       </c>
       <c r="T12" s="23">
         <v>0</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="23">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="W12" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>200009</v>
       </c>
@@ -7828,29 +7875,32 @@
       <c r="O13" s="25">
         <v>0</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
         <v>100</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="23">
         <v>100009</v>
       </c>
-      <c r="R13" s="23">
-        <v>0</v>
-      </c>
       <c r="S13" s="23">
         <v>0</v>
       </c>
       <c r="T13" s="23">
         <v>0</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="23">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="W13" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>200010</v>
       </c>
@@ -7899,29 +7949,32 @@
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
         <v>100</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="23">
         <v>100010</v>
       </c>
-      <c r="R14" s="23">
-        <v>0</v>
-      </c>
       <c r="S14" s="23">
         <v>0</v>
       </c>
       <c r="T14" s="23">
         <v>0</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="U14" s="23">
+        <v>0</v>
+      </c>
+      <c r="V14" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="W14" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>200011</v>
       </c>
@@ -7970,29 +8023,32 @@
       <c r="O15" s="25">
         <v>0</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="23">
         <v>100</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="23">
         <v>100011</v>
       </c>
-      <c r="R15" s="23">
-        <v>0</v>
-      </c>
       <c r="S15" s="23">
         <v>0</v>
       </c>
       <c r="T15" s="23">
         <v>0</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="23">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="W15" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>200012</v>
       </c>
@@ -8041,33 +8097,39 @@
       <c r="O16" s="25">
         <v>0</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="23">
         <v>100</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <v>100012</v>
       </c>
-      <c r="R16" s="23">
-        <v>0</v>
-      </c>
       <c r="S16" s="23">
         <v>0</v>
       </c>
       <c r="T16" s="23">
         <v>0</v>
       </c>
-      <c r="U16" s="25" t="s">
+      <c r="U16" s="23">
+        <v>0</v>
+      </c>
+      <c r="V16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V16" s="25" t="s">
+      <c r="W16" s="25" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P16" xr:uid="{C36EAFD7-0DC0-4881-A20D-E9DCAF1F59E0}">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DD332-8CCE-4D6D-AE6A-F013844E9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2D6EB-FA64-4A03-BEB8-C51D83BB8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="42030" yWindow="1770" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="235">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1621,6 +1621,149 @@
   <si>
     <t>is_only_first_effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절망의 구슬</t>
+  </si>
+  <si>
+    <t>암흑의 포식</t>
+  </si>
+  <si>
+    <t>공포의 강림</t>
+  </si>
+  <si>
+    <t>일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스킬 공격 2</t>
+  </si>
+  <si>
+    <t>4 궁극기</t>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전체 공격(1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 자신에게 방어력 증가</t>
+  </si>
+  <si>
+    <t>00_common</t>
+  </si>
+  <si>
+    <t>00_skill_01</t>
+  </si>
+  <si>
+    <t>00_skill_02</t>
+  </si>
+  <si>
+    <t>00_ultimate</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill1_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill2_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Ultimate/SkillEffect_Elizabeth_Ultimate_Cast</t>
+  </si>
+  <si>
+    <t>엘리자베스/평타/가까운 대상 단일 공격</t>
+  </si>
+  <si>
+    <t>엘리자베스/스킬1/가까운 대상 단일 공격</t>
+  </si>
+  <si>
+    <t>엘리자베스/스킬1/방어력 감소</t>
+  </si>
+  <si>
+    <t>엘리자베스/스킬2/전체 공격</t>
+  </si>
+  <si>
+    <t>엘리자베스/스킬2/명중 감소</t>
+  </si>
+  <si>
+    <t>엘리자베스/궁극/전체공격</t>
+  </si>
+  <si>
+    <t>엘리자베스/궁극/방어력 감소</t>
+  </si>
+  <si>
+    <t>엘리자베스/궁극/명중 감소</t>
+  </si>
+  <si>
+    <t>2 전체 선택</t>
+  </si>
+  <si>
+    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
+  </si>
+  <si>
+    <t>16,16,16,16,16,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_1</t>
+  </si>
+  <si>
+    <t>apply_2</t>
+  </si>
+  <si>
+    <t>summon_shoot</t>
+  </si>
+  <si>
+    <t>21000101</t>
+  </si>
+  <si>
+    <t>21000201</t>
+  </si>
+  <si>
+    <t>21000211</t>
+  </si>
+  <si>
+    <t>21000401</t>
+  </si>
+  <si>
+    <t>21000312</t>
+  </si>
+  <si>
+    <t>21000601</t>
+  </si>
+  <si>
+    <t>21000411</t>
+  </si>
+  <si>
+    <t>21000412</t>
+  </si>
+  <si>
+    <t>마력</t>
+  </si>
+  <si>
+    <t>2 마법 대미지</t>
+  </si>
+  <si>
+    <t>112 물리 방어력 감소</t>
+  </si>
+  <si>
+    <t>202 방어력 배율 계산</t>
+  </si>
+  <si>
+    <t>110 물리 공격력 감소</t>
+  </si>
+  <si>
+    <t>131 명중 감소</t>
+  </si>
+  <si>
+    <t>207 명중률 배율 계산</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1878,13 +2021,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,10 +2236,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1960,10 +2254,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2011,6 +2301,184 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,7 +2543,13 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -3641,7 +4115,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
@@ -3795,10 +4275,22 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="26">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DROP_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -4297,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:C65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6415,10 +6907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6430,7 +6922,7 @@
     <col min="5" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.75" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.625" customWidth="1"/>
   </cols>
@@ -6563,16 +7055,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F5,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -6600,16 +7092,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F6,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -6637,16 +7129,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F7,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -6674,16 +7166,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F8,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -6709,16 +7201,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F9,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -6744,16 +7236,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F10,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>170</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -6779,16 +7271,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F11,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -6814,16 +7306,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F12,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>170</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -6849,16 +7341,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F13,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27" t="s">
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -6884,16 +7376,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F14,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>170</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -6919,16 +7411,16 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F15,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>1</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -6954,22 +7446,168 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F16,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
         <v>2</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="27" t="s">
         <v>170</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>210001</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>VLOOKUP(A17,npc_skill_data!$B:$C,2,)</f>
+        <v>엘리자베스/평타/가까운 대상 단일 공격</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F17,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>210002</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>VLOOKUP(A18,npc_skill_data!$B:$C,2,)</f>
+        <v>엘리자베스/스킬1/가까운 대상 단일 공격</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F18,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>210003</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>VLOOKUP(A19,npc_skill_data!$B:$C,2,)</f>
+        <v>엘리자베스/스킬2/전체 공격</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F19,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>210004</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>VLOOKUP(A20,npc_skill_data!$B:$C,2,)</f>
+        <v>엘리자베스/궁극/전체공격</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E20" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F20,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="28">
+        <v>210006</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6982,7 +7620,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AM$3:$AM$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F16</xm:sqref>
+          <xm:sqref>F5:F20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6992,10 +7630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7015,1121 +7653,1772 @@
     <col min="14" max="16" width="14.375" style="16" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="16" customWidth="1"/>
     <col min="18" max="21" width="13.125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.875" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="70.375" style="15" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="52" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="57" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="37">
         <v>200001</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="38">
         <v>200001</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="38">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="39">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F5,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
         <v>1</v>
       </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="I5" s="39">
+        <v>0</v>
+      </c>
+      <c r="J5" s="39">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K5,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="38">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
-      <c r="O5" s="25">
-        <v>0</v>
-      </c>
-      <c r="P5" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23">
+      <c r="N5" s="38">
+        <v>0</v>
+      </c>
+      <c r="O5" s="38">
+        <v>0</v>
+      </c>
+      <c r="P5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="39">
         <v>100</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="39">
         <v>100001</v>
       </c>
-      <c r="S5" s="23">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0</v>
-      </c>
-      <c r="V5" s="25" t="s">
+      <c r="S5" s="39">
+        <v>0</v>
+      </c>
+      <c r="T5" s="39">
+        <v>0</v>
+      </c>
+      <c r="U5" s="39">
+        <v>0</v>
+      </c>
+      <c r="V5" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="W5" s="25"/>
+      <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="43">
         <v>200002</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>200002</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F6,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
         <v>1</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K6,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="25">
-        <v>0</v>
-      </c>
-      <c r="P6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23">
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
         <v>100</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>100002</v>
       </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
-      <c r="V6" s="25" t="s">
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="25"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="43">
         <v>200003</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>200003</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F7,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
         <v>1</v>
       </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K7,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23">
+      <c r="N7" s="23">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
         <v>100</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>100003</v>
       </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0</v>
-      </c>
-      <c r="V7" s="25" t="s">
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="44" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="43">
         <v>200004</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>200004</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F8,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K8,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="23">
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
         <v>100</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>100004</v>
       </c>
-      <c r="S8" s="23">
-        <v>0</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0</v>
-      </c>
-      <c r="V8" s="25" t="s">
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="44" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="43">
         <v>200005</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>200005</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F9,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <v>1</v>
       </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K9,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="23">
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
         <v>100</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>100005</v>
       </c>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="25" t="s">
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="W9" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="43">
         <v>200006</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>200006</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F10,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
         <v>1</v>
       </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K10,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
         <v>100</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>100006</v>
       </c>
-      <c r="S10" s="23">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0</v>
-      </c>
-      <c r="V10" s="25" t="s">
+      <c r="S10" s="22">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="43">
         <v>200007</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>200007</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F11,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
         <v>1</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K11,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
         <v>100</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>100007</v>
       </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25" t="s">
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="43">
         <v>200008</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>200008</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F12,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
         <v>1</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K12,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="25">
-        <v>0</v>
-      </c>
-      <c r="O12" s="25">
-        <v>0</v>
-      </c>
-      <c r="P12" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="23">
+      <c r="N12" s="23">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
         <v>100</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>100008</v>
       </c>
-      <c r="S12" s="23">
-        <v>0</v>
-      </c>
-      <c r="T12" s="23">
-        <v>0</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="25" t="s">
+      <c r="S12" s="22">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="43">
         <v>200009</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>200009</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F13,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
         <v>1</v>
       </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K13,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="23">
+      <c r="N13" s="23">
+        <v>0</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
         <v>100</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>100009</v>
       </c>
-      <c r="S13" s="23">
-        <v>0</v>
-      </c>
-      <c r="T13" s="23">
-        <v>0</v>
-      </c>
-      <c r="U13" s="23">
-        <v>0</v>
-      </c>
-      <c r="V13" s="25" t="s">
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+      <c r="V13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="43">
         <v>200010</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>200010</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F14,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K14,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>0</v>
-      </c>
-      <c r="P14" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="N14" s="23">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
         <v>100</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>100010</v>
       </c>
-      <c r="S14" s="23">
-        <v>0</v>
-      </c>
-      <c r="T14" s="23">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0</v>
-      </c>
-      <c r="V14" s="25" t="s">
+      <c r="S14" s="22">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+      <c r="V14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="W14" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="43">
         <v>200011</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>200011</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F15,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>7</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
         <v>1</v>
       </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K15,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="25">
-        <v>0</v>
-      </c>
-      <c r="O15" s="25">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="N15" s="23">
+        <v>0</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
         <v>100</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="22">
         <v>100011</v>
       </c>
-      <c r="S15" s="23">
-        <v>0</v>
-      </c>
-      <c r="T15" s="23">
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
-        <v>0</v>
-      </c>
-      <c r="V15" s="25" t="s">
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
+        <v>0</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0</v>
+      </c>
+      <c r="V15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+    <row r="16" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58">
         <v>200012</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="45">
         <v>200012</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="45">
         <v>1</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="46">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F16,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>7</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="46">
+        <v>0</v>
+      </c>
+      <c r="H16" s="46">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K16,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="45">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="25">
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="23">
+      <c r="N16" s="45">
+        <v>0</v>
+      </c>
+      <c r="O16" s="45">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
         <v>100</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="46">
         <v>100012</v>
       </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="T16" s="23">
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="25" t="s">
+      <c r="S16" s="46">
+        <v>0</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0</v>
+      </c>
+      <c r="U16" s="46">
+        <v>0</v>
+      </c>
+      <c r="V16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="W16" s="25" t="s">
+      <c r="W16" s="49" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="62">
+        <v>210001</v>
+      </c>
+      <c r="B17" s="59">
+        <v>210001</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2</v>
+      </c>
+      <c r="E17" s="39">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F17,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+      <c r="H17" s="39">
+        <v>1</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0</v>
+      </c>
+      <c r="J17" s="39">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K17,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="38">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0</v>
+      </c>
+      <c r="O17" s="38">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>100</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="S17" s="39">
+        <v>0</v>
+      </c>
+      <c r="T17" s="39">
+        <v>0</v>
+      </c>
+      <c r="U17" s="39">
+        <v>0</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="W17" s="42"/>
+    </row>
+    <row r="18" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="63">
+        <v>210002</v>
+      </c>
+      <c r="B18" s="60">
+        <v>210002</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F18,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K18,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="23">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>100</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+      <c r="T18" s="22">
+        <v>0</v>
+      </c>
+      <c r="U18" s="22">
+        <v>0</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="63">
+        <v>210003</v>
+      </c>
+      <c r="B19" s="60">
+        <v>210002</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="23">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F19,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K19,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="23">
+        <v>0</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>100</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="T19" s="22">
+        <v>0</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="63">
+        <v>210004</v>
+      </c>
+      <c r="B20" s="60">
+        <v>210003</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="23">
+        <v>5</v>
+      </c>
+      <c r="E20" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F20,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <v>5</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K20,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L20" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="23">
+        <v>0</v>
+      </c>
+      <c r="O20" s="23">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>100</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0</v>
+      </c>
+      <c r="T20" s="22">
+        <v>0</v>
+      </c>
+      <c r="U20" s="22">
+        <v>0</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="63">
+        <v>210005</v>
+      </c>
+      <c r="B21" s="60">
+        <v>210003</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="23">
+        <v>6</v>
+      </c>
+      <c r="E21" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F21,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <v>5</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K21,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0</v>
+      </c>
+      <c r="O21" s="23">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>100</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="T21" s="22">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="W21" s="44"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="63">
+        <v>210006</v>
+      </c>
+      <c r="B22" s="60">
+        <v>210004</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="23">
+        <v>7</v>
+      </c>
+      <c r="E22" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F22,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <v>5</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K22,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="S22" s="22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="W22" s="44"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="63">
+        <v>210007</v>
+      </c>
+      <c r="B23" s="60">
+        <v>210004</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F23,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>5</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K23,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>100</v>
+      </c>
+      <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="T23" s="22">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="W23" s="44"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="63">
+        <v>210008</v>
+      </c>
+      <c r="B24" s="60">
+        <v>210004</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="23">
+        <v>9</v>
+      </c>
+      <c r="E24" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F24,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>5</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K24,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="23">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M24,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>100</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="T24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="64">
+        <v>210009</v>
+      </c>
+      <c r="B25" s="61">
+        <v>210004</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="45">
+        <v>10</v>
+      </c>
+      <c r="E25" s="46">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F25,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="46">
+        <v>0</v>
+      </c>
+      <c r="H25" s="46">
+        <v>5</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0</v>
+      </c>
+      <c r="J25" s="46">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K25,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" s="45">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M25,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="45">
+        <v>0</v>
+      </c>
+      <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>100</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0</v>
+      </c>
+      <c r="V25" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="W25" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P16" xr:uid="{C36EAFD7-0DC0-4881-A20D-E9DCAF1F59E0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P25" xr:uid="{C36EAFD7-0DC0-4881-A20D-E9DCAF1F59E0}">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V17:V25" xr:uid="{8F231D22-5FE8-43E2-BED6-AA3782E89AB7}">
+      <formula1>"hit,shoot,buff,debuff,heal,apply_1,apply_2,summon,summon_shot"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8141,7 +9430,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D16</xm:sqref>
+          <xm:sqref>D5:D25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
@@ -8159,7 +9448,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$64</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F16</xm:sqref>
+          <xm:sqref>F5:F25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8172,7 +9461,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8183,48 +9472,48 @@
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
-    <col min="10" max="10" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="90.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="74" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="75" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -8251,12 +9540,12 @@
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="77" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -8283,7 +9572,7 @@
       <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="78" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8291,25 +9580,25 @@
       <c r="A5" s="10">
         <v>100001</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$7,MATCH(C5,'!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E5,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G5,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="11">
@@ -8318,7 +9607,7 @@
       <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="68" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8326,25 +9615,25 @@
       <c r="A6" s="12">
         <v>100002</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$7,MATCH(C6,'!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E6,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G6,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H6" s="4">
@@ -8353,7 +9642,7 @@
       <c r="I6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="69" t="s">
         <v>150</v>
       </c>
     </row>
@@ -8361,25 +9650,25 @@
       <c r="A7" s="12">
         <v>100003</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C7,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E7,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G7,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H7" s="4">
@@ -8388,7 +9677,7 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="69" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8396,25 +9685,25 @@
       <c r="A8" s="13">
         <v>100004</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C8,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E8,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F8" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G8,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H8" s="14">
@@ -8423,7 +9712,7 @@
       <c r="I8" s="14">
         <v>1.2</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="71" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8431,25 +9720,25 @@
       <c r="A9" s="12">
         <v>100005</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C9,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E9,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F9" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G9,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H9" s="4">
@@ -8458,7 +9747,7 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8466,25 +9755,25 @@
       <c r="A10" s="13">
         <v>100006</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C10,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E10,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F10" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G10,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H10" s="14">
@@ -8493,7 +9782,7 @@
       <c r="I10" s="14">
         <v>1.2</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8501,25 +9790,25 @@
       <c r="A11" s="12">
         <v>100007</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C11,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E11,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G11,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H11" s="4">
@@ -8528,7 +9817,7 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8536,25 +9825,25 @@
       <c r="A12" s="13">
         <v>100008</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C12,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D12" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E12,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F12" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G12,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H12" s="14">
@@ -8563,7 +9852,7 @@
       <c r="I12" s="14">
         <v>1.2</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8571,25 +9860,25 @@
       <c r="A13" s="12">
         <v>100009</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C13,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D13" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E13,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G13,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H13" s="4">
@@ -8598,7 +9887,7 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8606,25 +9895,25 @@
       <c r="A14" s="13">
         <v>100010</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C14,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D14" s="14">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E14,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F14" s="14">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G14,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H14" s="14">
@@ -8633,7 +9922,7 @@
       <c r="I14" s="14">
         <v>1.25</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8641,25 +9930,25 @@
       <c r="A15" s="12">
         <v>100011</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C15,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D15" s="4">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E15,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F15" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G15,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>184</v>
       </c>
       <c r="H15" s="4">
@@ -8668,96 +9957,200 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+    <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
         <v>100012</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="33">
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C16,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="31">
         <f>INDEX('!참조_ENUM'!$R$3:$R$7,MATCH(E16,'!참조_ENUM'!$S$3:$S$7,0))</f>
         <v>1</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="31">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G16,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="33">
-        <v>0</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
         <v>1.3</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="11">
+        <v>201</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="4">
+        <v>201</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="4">
+        <v>201</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="70">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="14">
+        <v>201</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="71"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8769,19 +10162,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AQ$3:$AQ$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C16</xm:sqref>
+          <xm:sqref>C5:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9179875D-F66C-4B4C-B300-5DB42CE56D8C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E16</xm:sqref>
+          <xm:sqref>E5:E20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G16</xm:sqref>
+          <xm:sqref>G5:G20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8791,10 +10184,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8985,14 +10378,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C5,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>137</v>
       </c>
       <c r="F5" s="4">
@@ -9014,7 +10407,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L5,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>210</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>185</v>
       </c>
       <c r="M5" s="4">
@@ -9041,14 +10434,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C6,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>101</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>138</v>
       </c>
       <c r="F6" s="4">
@@ -9070,7 +10463,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L6,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>203</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>186</v>
       </c>
       <c r="M6" s="4">
@@ -9097,14 +10490,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C7,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>102</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>138</v>
       </c>
       <c r="F7" s="4">
@@ -9126,7 +10519,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L7,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>92</v>
       </c>
       <c r="M7" s="4">
@@ -9145,66 +10538,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36">
         <v>500006</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C8,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <v>3</v>
       </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
         <v>100004</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L8,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
+      <c r="M8" s="31">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="31">
         <v>3000</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="33" t="b">
-        <v>0</v>
+      <c r="Q8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="11">
+        <v>112</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>202</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="4">
+        <v>110</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>201</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="4">
+        <v>112</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>202</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="14">
+        <v>131</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>207</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="14">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="71" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q8" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q12" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9217,19 +10814,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AA$3:$AA$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E8</xm:sqref>
+          <xm:sqref>E5:E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L8</xm:sqref>
+          <xm:sqref>L5:L12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$W$3:$W$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C8</xm:sqref>
+          <xm:sqref>C5:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2D6EB-FA64-4A03-BEB8-C51D83BB8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A0971-F38D-41BB-8BFD-9B3DE7D8A9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42030" yWindow="1770" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="1350" yWindow="870" windowWidth="35415" windowHeight="19395" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="250">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1764,6 +1764,61 @@
   </si>
   <si>
     <t>207 명중률 배율 계산</t>
+  </si>
+  <si>
+    <t>LvUp고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvUp배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvUp확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상효과 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense01</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense02</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense04</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense06</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_DummyBuff01</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2176,13 +2231,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2480,6 +2596,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4115,13 +4246,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
@@ -4270,27 +4395,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DROP_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -6909,7 +7028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -7632,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9458,10 +9577,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H35" sqref="H35:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9472,15 +9591,17 @@
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
-    <col min="10" max="10" width="90.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="90.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>40</v>
       </c>
@@ -9508,11 +9629,17 @@
       <c r="I2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="L2" s="74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>176</v>
       </c>
@@ -9540,11 +9667,17 @@
       <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="77" t="s">
         <v>42</v>
       </c>
@@ -9572,11 +9705,17 @@
       <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>100001</v>
       </c>
@@ -9607,11 +9746,17 @@
       <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="86">
+        <v>1</v>
+      </c>
+      <c r="K5" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="L5" s="68" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>100002</v>
       </c>
@@ -9642,11 +9787,17 @@
       <c r="I6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="87">
+        <v>1</v>
+      </c>
+      <c r="K6" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L6" s="69" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>100003</v>
       </c>
@@ -9677,11 +9828,17 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="87">
+        <v>1</v>
+      </c>
+      <c r="K7" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="69" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>100004</v>
       </c>
@@ -9712,11 +9869,17 @@
       <c r="I8" s="14">
         <v>1.2</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="88">
+        <v>1</v>
+      </c>
+      <c r="K8" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="L8" s="71" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>100005</v>
       </c>
@@ -9747,11 +9910,17 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="87">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>100006</v>
       </c>
@@ -9782,11 +9951,17 @@
       <c r="I10" s="14">
         <v>1.2</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
+      <c r="K10" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="L10" s="71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>100007</v>
       </c>
@@ -9817,11 +9992,17 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="87">
+        <v>1</v>
+      </c>
+      <c r="K11" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>100008</v>
       </c>
@@ -9852,11 +10033,17 @@
       <c r="I12" s="14">
         <v>1.2</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="88">
+        <v>1</v>
+      </c>
+      <c r="K12" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="L12" s="71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>100009</v>
       </c>
@@ -9887,11 +10074,17 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="87">
+        <v>1</v>
+      </c>
+      <c r="K13" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L13" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>100010</v>
       </c>
@@ -9922,11 +10115,17 @@
       <c r="I14" s="14">
         <v>1.25</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="88">
+        <v>1</v>
+      </c>
+      <c r="K14" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>100011</v>
       </c>
@@ -9957,11 +10156,17 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="87">
+        <v>1</v>
+      </c>
+      <c r="K15" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L15" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>100012</v>
       </c>
@@ -9992,11 +10197,17 @@
       <c r="I16" s="31">
         <v>1.3</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="89">
+        <v>1</v>
+      </c>
+      <c r="K16" s="89">
+        <v>1E-3</v>
+      </c>
+      <c r="L16" s="79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
         <v>220</v>
       </c>
@@ -10024,9 +10235,15 @@
       <c r="I17" s="11">
         <v>1</v>
       </c>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="86">
+        <v>1</v>
+      </c>
+      <c r="K17" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>221</v>
       </c>
@@ -10054,9 +10271,15 @@
       <c r="I18" s="4">
         <v>1.2</v>
       </c>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="87">
+        <v>1</v>
+      </c>
+      <c r="K18" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>223</v>
       </c>
@@ -10084,9 +10307,15 @@
       <c r="I19" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="87">
+        <v>1</v>
+      </c>
+      <c r="K19" s="87">
+        <v>1E-3</v>
+      </c>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
         <v>225</v>
       </c>
@@ -10114,41 +10343,47 @@
       <c r="I20" s="14">
         <v>2.5</v>
       </c>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="88">
+        <v>1</v>
+      </c>
+      <c r="K20" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="34"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
       <c r="C29" s="35"/>
     </row>
@@ -10184,16 +10419,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
@@ -10202,16 +10440,20 @@
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="79.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54" customWidth="1"/>
+    <col min="20" max="20" width="79.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -10258,13 +10500,25 @@
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>176</v>
       </c>
@@ -10311,13 +10565,25 @@
         <v>7</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="T3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -10363,14 +10629,26 @@
       <c r="O4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>500001</v>
       </c>
@@ -10419,14 +10697,26 @@
       <c r="O5" s="4">
         <v>10000</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>500002</v>
       </c>
@@ -10475,14 +10765,26 @@
       <c r="O6" s="4">
         <v>3000</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>500003</v>
       </c>
@@ -10531,14 +10833,26 @@
       <c r="O7" s="4">
         <v>3000</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>500006</v>
       </c>
@@ -10587,14 +10901,26 @@
       <c r="O8" s="31">
         <v>3000</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="R8" s="31">
+        <v>1</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="T8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U8" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
         <v>222</v>
       </c>
@@ -10640,12 +10966,24 @@
       <c r="O9" s="11">
         <v>10000</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>224</v>
       </c>
@@ -10691,12 +11029,24 @@
       <c r="O10" s="4">
         <v>10000</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="84" t="s">
         <v>226</v>
       </c>
@@ -10742,12 +11092,24 @@
       <c r="O11" s="4">
         <v>10000</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85" t="s">
         <v>227</v>
       </c>
@@ -10793,15 +11155,27 @@
       <c r="O12" s="14">
         <v>10000</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="71" t="b">
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="R12" s="14">
+        <v>1</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="71" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q12" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U12" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011A0971-F38D-41BB-8BFD-9B3DE7D8A9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149CC08-6163-4D96-9C53-A28751962992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="870" windowWidth="35415" windowHeight="19395" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{C4E1541C-0E12-4018-8C01-D7987E492A40}">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="254">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1615,14 +1615,6 @@
     <t>203 최대 체력 배율 값</t>
   </si>
   <si>
-    <t>첫번째 이펙트만 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_only_first_effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>절망의 구슬</t>
   </si>
   <si>
@@ -1666,18 +1658,6 @@
     <t>00_skill_02</t>
   </si>
   <si>
-    <t>00_ultimate</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill1_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill2_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Ultimate/SkillEffect_Elizabeth_Ultimate_Cast</t>
-  </si>
-  <si>
     <t>엘리자베스/평타/가까운 대상 단일 공격</t>
   </si>
   <si>
@@ -1819,6 +1799,42 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Icons/Icon_DummyBuff01</t>
+  </si>
+  <si>
+    <t>00_ultimate_enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill1_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill3_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Attack_01_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill3_01_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill3_01_Bullet</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Attack_01_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill1_01_Hit_Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill1_01_Hit_Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2674,13 +2690,7 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -4395,13 +4405,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -4908,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -7029,7 +7033,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7591,7 +7595,7 @@
         <v>엘리자베스/평타/가까운 대상 단일 공격</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4">
         <v>3.5</v>
@@ -7604,7 +7608,7 @@
         <v>169</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H17" s="28">
         <v>0</v>
@@ -7613,7 +7617,7 @@
         <v>157</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -7626,7 +7630,7 @@
         <v>엘리자베스/스킬1/가까운 대상 단일 공격</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="4">
         <v>4.5</v>
@@ -7639,7 +7643,7 @@
         <v>170</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H18" s="28">
         <v>0</v>
@@ -7648,10 +7652,10 @@
         <v>157</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7663,7 +7667,7 @@
         <v>엘리자베스/스킬2/전체 공격</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="4">
         <v>5.5</v>
@@ -7673,10 +7677,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="28">
         <v>0</v>
@@ -7685,10 +7689,10 @@
         <v>157</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7700,7 +7704,7 @@
         <v>엘리자베스/궁극/전체공격</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="4">
         <v>6.5</v>
@@ -7710,22 +7714,22 @@
         <v>4</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H20" s="28">
-        <v>210006</v>
+        <v>210007</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7749,10 +7753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7769,20 +7773,20 @@
     <col min="10" max="11" width="21.125" style="16" customWidth="1"/>
     <col min="12" max="12" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.125" style="16" customWidth="1"/>
-    <col min="14" max="16" width="14.375" style="16" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="16" customWidth="1"/>
-    <col min="18" max="21" width="13.125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="14.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="15"/>
+    <col min="14" max="15" width="14.375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="16" customWidth="1"/>
+    <col min="17" max="20" width="13.125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="14.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="70.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
@@ -7829,31 +7833,28 @@
         <v>122</v>
       </c>
       <c r="P2" s="51" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S2" s="51" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="T2" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="V2" s="52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>176</v>
       </c>
@@ -7899,8 +7900,8 @@
       <c r="O3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>8</v>
+      <c r="P3" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>67</v>
@@ -7909,22 +7910,19 @@
         <v>67</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>130</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="V3" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>31</v>
       </c>
@@ -7971,31 +7969,28 @@
         <v>124</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="56" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="T4" s="56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="V4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="57" t="s">
+      <c r="V4" s="57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>200001</v>
       </c>
@@ -8044,14 +8039,14 @@
       <c r="O5" s="38">
         <v>0</v>
       </c>
-      <c r="P5" s="38" t="b">
-        <v>0</v>
+      <c r="P5" s="39">
+        <v>100</v>
       </c>
       <c r="Q5" s="39">
-        <v>100</v>
+        <v>100001</v>
       </c>
       <c r="R5" s="39">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="S5" s="39">
         <v>0</v>
@@ -8059,15 +8054,12 @@
       <c r="T5" s="39">
         <v>0</v>
       </c>
-      <c r="U5" s="39">
-        <v>0</v>
-      </c>
-      <c r="V5" s="38" t="s">
+      <c r="U5" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="W5" s="42"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="43">
         <v>200002</v>
       </c>
@@ -8116,14 +8108,14 @@
       <c r="O6" s="23">
         <v>0</v>
       </c>
-      <c r="P6" s="23" t="b">
-        <v>0</v>
+      <c r="P6" s="22">
+        <v>100</v>
       </c>
       <c r="Q6" s="22">
-        <v>100</v>
+        <v>100002</v>
       </c>
       <c r="R6" s="22">
-        <v>100002</v>
+        <v>0</v>
       </c>
       <c r="S6" s="22">
         <v>0</v>
@@ -8131,15 +8123,12 @@
       <c r="T6" s="22">
         <v>0</v>
       </c>
-      <c r="U6" s="22">
-        <v>0</v>
-      </c>
-      <c r="V6" s="23" t="s">
+      <c r="U6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="44"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V6" s="44"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="43">
         <v>200003</v>
       </c>
@@ -8188,14 +8177,14 @@
       <c r="O7" s="23">
         <v>0</v>
       </c>
-      <c r="P7" s="23" t="b">
-        <v>0</v>
+      <c r="P7" s="22">
+        <v>100</v>
       </c>
       <c r="Q7" s="22">
-        <v>100</v>
+        <v>100003</v>
       </c>
       <c r="R7" s="22">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="S7" s="22">
         <v>0</v>
@@ -8203,17 +8192,14 @@
       <c r="T7" s="22">
         <v>0</v>
       </c>
-      <c r="U7" s="22">
-        <v>0</v>
-      </c>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="V7" s="44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="43">
         <v>200004</v>
       </c>
@@ -8262,14 +8248,14 @@
       <c r="O8" s="23">
         <v>0</v>
       </c>
-      <c r="P8" s="23" t="b">
-        <v>0</v>
+      <c r="P8" s="22">
+        <v>100</v>
       </c>
       <c r="Q8" s="22">
-        <v>100</v>
+        <v>100004</v>
       </c>
       <c r="R8" s="22">
-        <v>100004</v>
+        <v>0</v>
       </c>
       <c r="S8" s="22">
         <v>0</v>
@@ -8277,17 +8263,14 @@
       <c r="T8" s="22">
         <v>0</v>
       </c>
-      <c r="U8" s="22">
-        <v>0</v>
-      </c>
-      <c r="V8" s="23" t="s">
+      <c r="U8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="V8" s="44" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>200005</v>
       </c>
@@ -8336,14 +8319,14 @@
       <c r="O9" s="23">
         <v>0</v>
       </c>
-      <c r="P9" s="23" t="b">
-        <v>0</v>
+      <c r="P9" s="22">
+        <v>100</v>
       </c>
       <c r="Q9" s="22">
-        <v>100</v>
+        <v>100005</v>
       </c>
       <c r="R9" s="22">
-        <v>100005</v>
+        <v>0</v>
       </c>
       <c r="S9" s="22">
         <v>0</v>
@@ -8351,17 +8334,14 @@
       <c r="T9" s="22">
         <v>0</v>
       </c>
-      <c r="U9" s="22">
-        <v>0</v>
-      </c>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="V9" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="43">
         <v>200006</v>
       </c>
@@ -8410,14 +8390,14 @@
       <c r="O10" s="23">
         <v>0</v>
       </c>
-      <c r="P10" s="23" t="b">
-        <v>0</v>
+      <c r="P10" s="22">
+        <v>100</v>
       </c>
       <c r="Q10" s="22">
-        <v>100</v>
+        <v>100006</v>
       </c>
       <c r="R10" s="22">
-        <v>100006</v>
+        <v>0</v>
       </c>
       <c r="S10" s="22">
         <v>0</v>
@@ -8425,17 +8405,14 @@
       <c r="T10" s="22">
         <v>0</v>
       </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="23" t="s">
+      <c r="U10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="V10" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="43">
         <v>200007</v>
       </c>
@@ -8484,14 +8461,14 @@
       <c r="O11" s="23">
         <v>0</v>
       </c>
-      <c r="P11" s="23" t="b">
-        <v>0</v>
+      <c r="P11" s="22">
+        <v>100</v>
       </c>
       <c r="Q11" s="22">
-        <v>100</v>
+        <v>100007</v>
       </c>
       <c r="R11" s="22">
-        <v>100007</v>
+        <v>0</v>
       </c>
       <c r="S11" s="22">
         <v>0</v>
@@ -8499,17 +8476,14 @@
       <c r="T11" s="22">
         <v>0</v>
       </c>
-      <c r="U11" s="22">
-        <v>0</v>
-      </c>
-      <c r="V11" s="23" t="s">
+      <c r="U11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W11" s="44" t="s">
+      <c r="V11" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
         <v>200008</v>
       </c>
@@ -8558,14 +8532,14 @@
       <c r="O12" s="23">
         <v>0</v>
       </c>
-      <c r="P12" s="23" t="b">
-        <v>0</v>
+      <c r="P12" s="22">
+        <v>100</v>
       </c>
       <c r="Q12" s="22">
-        <v>100</v>
+        <v>100008</v>
       </c>
       <c r="R12" s="22">
-        <v>100008</v>
+        <v>0</v>
       </c>
       <c r="S12" s="22">
         <v>0</v>
@@ -8573,17 +8547,14 @@
       <c r="T12" s="22">
         <v>0</v>
       </c>
-      <c r="U12" s="22">
-        <v>0</v>
-      </c>
-      <c r="V12" s="23" t="s">
+      <c r="U12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="V12" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="43">
         <v>200009</v>
       </c>
@@ -8632,14 +8603,14 @@
       <c r="O13" s="23">
         <v>0</v>
       </c>
-      <c r="P13" s="23" t="b">
-        <v>0</v>
+      <c r="P13" s="22">
+        <v>100</v>
       </c>
       <c r="Q13" s="22">
-        <v>100</v>
+        <v>100009</v>
       </c>
       <c r="R13" s="22">
-        <v>100009</v>
+        <v>0</v>
       </c>
       <c r="S13" s="22">
         <v>0</v>
@@ -8647,17 +8618,14 @@
       <c r="T13" s="22">
         <v>0</v>
       </c>
-      <c r="U13" s="22">
-        <v>0</v>
-      </c>
-      <c r="V13" s="23" t="s">
+      <c r="U13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="44" t="s">
+      <c r="V13" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>200010</v>
       </c>
@@ -8706,14 +8674,14 @@
       <c r="O14" s="23">
         <v>0</v>
       </c>
-      <c r="P14" s="23" t="b">
-        <v>0</v>
+      <c r="P14" s="22">
+        <v>100</v>
       </c>
       <c r="Q14" s="22">
-        <v>100</v>
+        <v>100010</v>
       </c>
       <c r="R14" s="22">
-        <v>100010</v>
+        <v>0</v>
       </c>
       <c r="S14" s="22">
         <v>0</v>
@@ -8721,17 +8689,14 @@
       <c r="T14" s="22">
         <v>0</v>
       </c>
-      <c r="U14" s="22">
-        <v>0</v>
-      </c>
-      <c r="V14" s="23" t="s">
+      <c r="U14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="44" t="s">
+      <c r="V14" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="43">
         <v>200011</v>
       </c>
@@ -8780,14 +8745,14 @@
       <c r="O15" s="23">
         <v>0</v>
       </c>
-      <c r="P15" s="23" t="b">
-        <v>0</v>
+      <c r="P15" s="22">
+        <v>100</v>
       </c>
       <c r="Q15" s="22">
-        <v>100</v>
+        <v>100011</v>
       </c>
       <c r="R15" s="22">
-        <v>100011</v>
+        <v>0</v>
       </c>
       <c r="S15" s="22">
         <v>0</v>
@@ -8795,17 +8760,14 @@
       <c r="T15" s="22">
         <v>0</v>
       </c>
-      <c r="U15" s="22">
-        <v>0</v>
-      </c>
-      <c r="V15" s="23" t="s">
+      <c r="U15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="W15" s="44" t="s">
+      <c r="V15" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58">
         <v>200012</v>
       </c>
@@ -8854,14 +8816,14 @@
       <c r="O16" s="45">
         <v>0</v>
       </c>
-      <c r="P16" s="45" t="b">
-        <v>0</v>
+      <c r="P16" s="46">
+        <v>100</v>
       </c>
       <c r="Q16" s="46">
-        <v>100</v>
+        <v>100012</v>
       </c>
       <c r="R16" s="46">
-        <v>100012</v>
+        <v>0</v>
       </c>
       <c r="S16" s="46">
         <v>0</v>
@@ -8869,17 +8831,14 @@
       <c r="T16" s="46">
         <v>0</v>
       </c>
-      <c r="U16" s="46">
-        <v>0</v>
-      </c>
-      <c r="V16" s="45" t="s">
+      <c r="U16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="W16" s="49" t="s">
+      <c r="V16" s="49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>210001</v>
       </c>
@@ -8887,10 +8846,10 @@
         <v>210001</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D17" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="39">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F17,'!참조_ENUM'!$C$3:$C$64,0))</f>
@@ -8928,14 +8887,14 @@
       <c r="O17" s="38">
         <v>0</v>
       </c>
-      <c r="P17" s="38" t="b">
-        <v>0</v>
+      <c r="P17" s="39">
+        <v>100</v>
       </c>
       <c r="Q17" s="39">
-        <v>100</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>220</v>
+        <v>21000101</v>
+      </c>
+      <c r="R17" s="39">
+        <v>0</v>
       </c>
       <c r="S17" s="39">
         <v>0</v>
@@ -8943,15 +8902,14 @@
       <c r="T17" s="39">
         <v>0</v>
       </c>
-      <c r="U17" s="39">
-        <v>0</v>
-      </c>
-      <c r="V17" s="38" t="s">
+      <c r="U17" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="42"/>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V17" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="63">
         <v>210002</v>
       </c>
@@ -8959,10 +8917,10 @@
         <v>210002</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D18" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F18,'!참조_ENUM'!$C$3:$C$64,0))</f>
@@ -8982,10 +8940,10 @@
       </c>
       <c r="J18" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K18,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="L18" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9000,14 +8958,14 @@
       <c r="O18" s="23">
         <v>0</v>
       </c>
-      <c r="P18" s="23" t="b">
-        <v>0</v>
+      <c r="P18" s="22">
+        <v>100</v>
       </c>
       <c r="Q18" s="22">
-        <v>100</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>221</v>
+        <v>0</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0</v>
       </c>
       <c r="S18" s="22">
         <v>0</v>
@@ -9015,15 +8973,14 @@
       <c r="T18" s="22">
         <v>0</v>
       </c>
-      <c r="U18" s="22">
-        <v>0</v>
-      </c>
-      <c r="V18" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="W18" s="44"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U18" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="63">
         <v>210003</v>
       </c>
@@ -9031,10 +8988,10 @@
         <v>210002</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D19" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F19,'!참조_ENUM'!$C$3:$C$64,0))</f>
@@ -9072,64 +9029,61 @@
       <c r="O19" s="23">
         <v>0</v>
       </c>
-      <c r="P19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="22">
+      <c r="P19" s="22">
         <v>100</v>
       </c>
+      <c r="Q19" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="R19" s="22">
         <v>0</v>
       </c>
-      <c r="S19" s="39" t="s">
-        <v>222</v>
+      <c r="S19" s="22">
+        <v>0</v>
       </c>
       <c r="T19" s="22">
         <v>0</v>
       </c>
-      <c r="U19" s="22">
-        <v>0</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="W19" s="44"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U19" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="V19" s="44"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="63">
         <v>210004</v>
       </c>
       <c r="B20" s="60">
-        <v>210003</v>
+        <v>210002</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D20" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F20,'!참조_ENUM'!$C$3:$C$64,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="G20" s="22">
         <v>0</v>
       </c>
       <c r="H20" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="22">
         <v>0</v>
       </c>
       <c r="J20" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K20,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="L20" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9144,14 +9098,14 @@
       <c r="O20" s="23">
         <v>0</v>
       </c>
-      <c r="P20" s="23" t="b">
-        <v>0</v>
+      <c r="P20" s="22">
+        <v>100</v>
       </c>
       <c r="Q20" s="22">
-        <v>100</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>216</v>
       </c>
       <c r="S20" s="22">
         <v>0</v>
@@ -9159,15 +9113,12 @@
       <c r="T20" s="22">
         <v>0</v>
       </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="W20" s="44"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U20" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="V20" s="44"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="63">
         <v>210005</v>
       </c>
@@ -9175,17 +9126,17 @@
         <v>210003</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D21" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F21,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -9198,10 +9149,10 @@
       </c>
       <c r="J21" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K21,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="L21" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9216,48 +9167,45 @@
       <c r="O21" s="23">
         <v>0</v>
       </c>
-      <c r="P21" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="22">
+      <c r="P21" s="22">
         <v>100</v>
       </c>
+      <c r="Q21" s="22" t="s">
+        <v>217</v>
+      </c>
       <c r="R21" s="22">
         <v>0</v>
       </c>
-      <c r="S21" s="22" t="s">
-        <v>224</v>
+      <c r="S21" s="22">
+        <v>0</v>
       </c>
       <c r="T21" s="22">
         <v>0</v>
       </c>
-      <c r="U21" s="22">
-        <v>0</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="W21" s="44"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U21" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="V21" s="44"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="63">
         <v>210006</v>
       </c>
       <c r="B22" s="60">
-        <v>210004</v>
+        <v>210003</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D22" s="23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F22,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -9270,10 +9218,10 @@
       </c>
       <c r="J22" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K22,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="L22" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9288,14 +9236,14 @@
       <c r="O22" s="23">
         <v>0</v>
       </c>
-      <c r="P22" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>216</v>
+      <c r="P22" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>0</v>
       </c>
       <c r="R22" s="22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="S22" s="22">
         <v>0</v>
@@ -9303,15 +9251,12 @@
       <c r="T22" s="22">
         <v>0</v>
       </c>
-      <c r="U22" s="22">
-        <v>0</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="W22" s="44"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U22" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="44"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="63">
         <v>210007</v>
       </c>
@@ -9319,17 +9264,17 @@
         <v>210004</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D23" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F23,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G23" s="22">
         <v>0</v>
@@ -9342,10 +9287,10 @@
       </c>
       <c r="J23" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K23,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="L23" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9360,30 +9305,29 @@
       <c r="O23" s="23">
         <v>0</v>
       </c>
-      <c r="P23" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>100</v>
+      <c r="P23" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="R23" s="22">
         <v>0</v>
       </c>
-      <c r="S23" s="22" t="s">
-        <v>226</v>
+      <c r="S23" s="22">
+        <v>0</v>
       </c>
       <c r="T23" s="22">
         <v>0</v>
       </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="W23" s="44"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U23" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="V23" s="44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>210008</v>
       </c>
@@ -9391,17 +9335,17 @@
         <v>210004</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D24" s="23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F24,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G24" s="22">
         <v>0</v>
@@ -9432,112 +9376,171 @@
       <c r="O24" s="23">
         <v>0</v>
       </c>
-      <c r="P24" s="23" t="b">
-        <v>0</v>
+      <c r="P24" s="22">
+        <v>100</v>
       </c>
       <c r="Q24" s="22">
-        <v>100</v>
-      </c>
-      <c r="R24" s="22">
-        <v>0</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>227</v>
+        <v>0</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="S24" s="22">
+        <v>0</v>
       </c>
       <c r="T24" s="22">
         <v>0</v>
       </c>
-      <c r="U24" s="22">
-        <v>0</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="W24" s="44"/>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="64">
+      <c r="U24" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="V24" s="44"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="63">
         <v>210009</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <v>210004</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="45">
-        <v>10</v>
-      </c>
-      <c r="E25" s="46">
+      <c r="C25" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F25,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="46">
-        <v>0</v>
-      </c>
-      <c r="H25" s="46">
+      <c r="F25" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
         <v>5</v>
       </c>
-      <c r="I25" s="46">
-        <v>0</v>
-      </c>
-      <c r="J25" s="46">
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K25,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="45">
+        <v>92</v>
+      </c>
+      <c r="L25" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M25,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="45">
-        <v>0</v>
-      </c>
-      <c r="O25" s="45">
-        <v>0</v>
-      </c>
-      <c r="P25" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="46">
+      <c r="N25" s="23">
+        <v>0</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0</v>
+      </c>
+      <c r="P25" s="22">
         <v>100</v>
       </c>
-      <c r="R25" s="46">
-        <v>0</v>
-      </c>
-      <c r="S25" s="46">
-        <v>0</v>
-      </c>
-      <c r="T25" s="46">
-        <v>0</v>
-      </c>
-      <c r="U25" s="46">
-        <v>0</v>
-      </c>
-      <c r="V25" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="W25" s="49"/>
+      <c r="Q25" s="22">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="S25" s="22">
+        <v>0</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="V25" s="44"/>
+    </row>
+    <row r="26" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="64">
+        <v>210010</v>
+      </c>
+      <c r="B26" s="61">
+        <v>210004</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="45">
+        <v>1</v>
+      </c>
+      <c r="E26" s="46">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F26,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="46">
+        <v>0</v>
+      </c>
+      <c r="H26" s="46">
+        <v>5</v>
+      </c>
+      <c r="I26" s="46">
+        <v>0</v>
+      </c>
+      <c r="J26" s="46">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K26,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="45">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M26,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="45">
+        <v>0</v>
+      </c>
+      <c r="O26" s="45">
+        <v>0</v>
+      </c>
+      <c r="P26" s="46">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0</v>
+      </c>
+      <c r="U26" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="V26" s="49" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V16" xr:uid="{B85EAA62-4602-4125-8455-34AC457F839F}">
-      <formula1>"hit,shoot,buff,debuff,heal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P25" xr:uid="{C36EAFD7-0DC0-4881-A20D-E9DCAF1F59E0}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V17:V25" xr:uid="{8F231D22-5FE8-43E2-BED6-AA3782E89AB7}">
-      <formula1>"hit,shoot,buff,debuff,heal,apply_1,apply_2,summon,summon_shot"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U26" xr:uid="{5033F987-8141-47C0-8A9E-B695E8146387}">
+      <formula1>"shoot,hit,apply_1,apply_2,apply_3,apply_4,apply_5,summon,summon_shoot,heal,effect,buff,debuff"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9549,7 +9552,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D25</xm:sqref>
+          <xm:sqref>D5:D26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
@@ -9561,13 +9564,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K16</xm:sqref>
+          <xm:sqref>K5:K26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$64</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F25</xm:sqref>
+          <xm:sqref>F5:F26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9580,7 +9583,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H36"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9630,10 +9633,10 @@
         <v>25</v>
       </c>
       <c r="J2" s="73" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K2" s="73" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L2" s="74" t="s">
         <v>78</v>
@@ -9706,10 +9709,10 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>79</v>
@@ -10209,19 +10212,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B17" s="29">
         <v>4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D17" s="11">
         <v>2</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F17" s="11">
         <v>201</v>
@@ -10241,23 +10244,25 @@
       <c r="K17" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L17" s="68"/>
+      <c r="L17" s="68" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18" s="6">
         <v>4</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4">
         <v>201</v>
@@ -10277,23 +10282,25 @@
       <c r="K18" s="87">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="69" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B19" s="6">
         <v>4</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F19" s="4">
         <v>201</v>
@@ -10313,23 +10320,25 @@
       <c r="K19" s="87">
         <v>1E-3</v>
       </c>
-      <c r="L19" s="69"/>
+      <c r="L19" s="69" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B20" s="70">
         <v>4</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F20" s="14">
         <v>201</v>
@@ -10500,16 +10509,16 @@
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>78</v>
@@ -10630,16 +10639,16 @@
         <v>73</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
@@ -10707,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>90</v>
@@ -10775,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="90" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>87</v>
@@ -10843,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="90" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>91</v>
@@ -10911,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>93</v>
@@ -10922,13 +10931,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B9" s="11">
         <v>112</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -10955,7 +10964,7 @@
         <v>202</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M9" s="11">
         <v>0</v>
@@ -10976,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="68" t="b">
@@ -10985,13 +10994,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4">
         <v>110</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -11039,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="69" t="b">
@@ -11048,13 +11057,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="84" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B11" s="4">
         <v>112</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -11081,7 +11090,7 @@
         <v>202</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -11102,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="69" t="b">
@@ -11111,13 +11120,13 @@
     </row>
     <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B12" s="14">
         <v>131</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -11144,7 +11153,7 @@
         <v>207</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M12" s="14">
         <v>0</v>
@@ -11165,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="71" t="b">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149CC08-6163-4D96-9C53-A28751962992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1671E5-DA0A-4E1A-8F89-44CE638F0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1808,9 +1808,6 @@
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill1_01_Cast</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast</t>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill3_01_Cast</t>
   </si>
   <si>
@@ -1834,6 +1831,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Elizabeth/SkillEffect_Elizabeth_Skill1_01_Hit_Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast_Ground,Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast_Front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7032,8 +7033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7692,7 +7693,7 @@
         <v>199</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7729,7 +7730,7 @@
         <v>244</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7755,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
@@ -8906,7 +8907,7 @@
         <v>141</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8977,7 +8978,7 @@
         <v>213</v>
       </c>
       <c r="V18" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9324,7 +9325,7 @@
         <v>141</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9533,7 +9534,7 @@
         <v>213</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -10245,7 +10246,7 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10283,7 +10284,7 @@
         <v>1E-3</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10321,7 +10322,7 @@
         <v>1E-3</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1671E5-DA0A-4E1A-8F89-44CE638F0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F40E3-4F54-495B-8DD4-05997CB6CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="39495" yWindow="1155" windowWidth="36135" windowHeight="19395" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1778,29 +1778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense01</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense02</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense04</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense06</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyDefense07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_DummyBuff01</t>
-  </si>
-  <si>
     <t>00_ultimate_enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1836,6 +1813,27 @@
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast_Ground,Assets/AssetResources/Prefabs/Effects/Skill/Right/Elizabeth/SkillEffect_Enemy_Elizabeth_Skill2_01_Cast_Front</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyBuff01</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense07</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense05</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense06</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense01</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense02</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense04</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2625,8 +2623,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,9 +2699,16 @@
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -4406,7 +4423,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -4414,7 +4437,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -4544,6 +4573,7 @@
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7033,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7656,7 +7686,7 @@
         <v>198</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7693,7 +7723,7 @@
         <v>199</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7727,10 +7757,10 @@
         <v>157</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8907,7 +8937,7 @@
         <v>141</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8978,7 +9008,7 @@
         <v>213</v>
       </c>
       <c r="V18" s="44" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9325,7 +9355,7 @@
         <v>141</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9534,7 +9564,7 @@
         <v>213</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10246,7 +10276,7 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10284,7 +10314,7 @@
         <v>1E-3</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10322,7 +10352,7 @@
         <v>1E-3</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10431,11 +10461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10453,7 +10483,7 @@
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54" customWidth="1"/>
+    <col min="19" max="19" width="68.75" customWidth="1"/>
     <col min="20" max="20" width="79.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -10716,8 +10746,8 @@
       <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>243</v>
+      <c r="S5" s="90" t="s">
+        <v>247</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>90</v>
@@ -10784,8 +10814,8 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="90" t="s">
-        <v>242</v>
+      <c r="S6" s="91" t="s">
+        <v>248</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>87</v>
@@ -10852,8 +10882,8 @@
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="90" t="s">
-        <v>240</v>
+      <c r="S7" s="91" t="s">
+        <v>249</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>91</v>
@@ -10920,8 +10950,8 @@
       <c r="R8" s="31">
         <v>1</v>
       </c>
-      <c r="S8" s="31" t="s">
-        <v>241</v>
+      <c r="S8" s="92" t="s">
+        <v>250</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>93</v>
@@ -10985,8 +11015,8 @@
       <c r="R9" s="11">
         <v>1</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>237</v>
+      <c r="S9" s="93" t="s">
+        <v>251</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="68" t="b">
@@ -11048,8 +11078,8 @@
       <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>238</v>
+      <c r="S10" s="90" t="s">
+        <v>252</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="69" t="b">
@@ -11111,8 +11141,8 @@
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>237</v>
+      <c r="S11" s="90" t="s">
+        <v>251</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="69" t="b">
@@ -11174,8 +11204,8 @@
       <c r="R12" s="14">
         <v>1</v>
       </c>
-      <c r="S12" s="14" t="s">
-        <v>239</v>
+      <c r="S12" s="94" t="s">
+        <v>253</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="71" t="b">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F40E3-4F54-495B-8DD4-05997CB6CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B03141-EAC7-4A4D-9962-E74E3B96AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39495" yWindow="1155" windowWidth="36135" windowHeight="19395" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="41130" yWindow="2730" windowWidth="34560" windowHeight="18615" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1743,9 +1743,6 @@
     <t>131 명중 감소</t>
   </si>
   <si>
-    <t>207 명중률 배율 계산</t>
-  </si>
-  <si>
     <t>LvUp고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1834,6 +1831,9 @@
   </si>
   <si>
     <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense04</t>
+  </si>
+  <si>
+    <t>106 명중률 절대 값</t>
   </si>
 </sst>
 </file>
@@ -2710,9 +2710,27 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -4423,13 +4441,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>LIMIT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -4437,13 +4449,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
@@ -7064,7 +7070,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7686,7 +7692,7 @@
         <v>198</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7723,7 +7729,7 @@
         <v>199</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7757,10 +7763,10 @@
         <v>157</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7787,7 +7793,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8937,7 +8943,7 @@
         <v>141</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -9008,7 +9014,7 @@
         <v>213</v>
       </c>
       <c r="V18" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9355,7 +9361,7 @@
         <v>141</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9564,7 +9570,7 @@
         <v>213</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9664,10 +9670,10 @@
         <v>25</v>
       </c>
       <c r="J2" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="K2" s="73" t="s">
         <v>229</v>
-      </c>
-      <c r="K2" s="73" t="s">
-        <v>230</v>
       </c>
       <c r="L2" s="74" t="s">
         <v>78</v>
@@ -9740,10 +9746,10 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>79</v>
@@ -10276,7 +10282,7 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10314,7 +10320,7 @@
         <v>1E-3</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10352,7 +10358,7 @@
         <v>1E-3</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10462,10 +10468,10 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10540,16 +10546,16 @@
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>78</v>
@@ -10670,16 +10676,16 @@
         <v>73</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="R4" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
@@ -10747,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>90</v>
@@ -10815,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>87</v>
@@ -10883,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>91</v>
@@ -10951,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>93</v>
@@ -11016,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="68" t="b">
@@ -11079,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="69" t="b">
@@ -11142,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="69" t="b">
@@ -11184,13 +11190,13 @@
         <v>207</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="M12" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" s="14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="14">
         <v>10000</v>
@@ -11205,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="71" t="b">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B03141-EAC7-4A4D-9962-E74E3B96AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578491EA-E427-4FDA-9BE3-E5BEBF32AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41130" yWindow="2730" windowWidth="34560" windowHeight="18615" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="2145" yWindow="600" windowWidth="33840" windowHeight="19485" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1646,9 +1646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자기 자신에게 방어력 증가</t>
-  </si>
-  <si>
     <t>00_common</t>
   </si>
   <si>
@@ -1834,6 +1831,10 @@
   </si>
   <si>
     <t>106 명중률 절대 값</t>
+  </si>
+  <si>
+    <t>적 전체 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7070,13 +7071,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.375" customWidth="1"/>
@@ -7654,7 +7655,7 @@
         <v>157</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -7689,10 +7690,10 @@
         <v>157</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7726,10 +7727,10 @@
         <v>157</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7744,7 +7745,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="4">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F20,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
@@ -7754,7 +7755,7 @@
         <v>192</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="H20" s="28">
         <v>210007</v>
@@ -7763,10 +7764,10 @@
         <v>157</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7792,8 +7793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8883,7 +8884,7 @@
         <v>210001</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="38">
         <v>1</v>
@@ -8943,7 +8944,7 @@
         <v>141</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8954,7 +8955,7 @@
         <v>210002</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
@@ -9011,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V18" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9025,7 +9026,7 @@
         <v>210002</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -9070,7 +9071,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R19" s="22">
         <v>0</v>
@@ -9094,7 +9095,7 @@
         <v>210002</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -9142,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S20" s="22">
         <v>0</v>
@@ -9151,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V20" s="44"/>
     </row>
@@ -9163,7 +9164,7 @@
         <v>210003</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -9173,7 +9174,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -9189,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L21" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9208,7 +9209,7 @@
         <v>100</v>
       </c>
       <c r="Q21" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R21" s="22">
         <v>0</v>
@@ -9232,7 +9233,7 @@
         <v>210003</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -9242,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -9280,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S22" s="22">
         <v>0</v>
@@ -9289,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V22" s="44"/>
     </row>
@@ -9301,7 +9302,7 @@
         <v>210004</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -9311,7 +9312,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="22">
         <v>0</v>
@@ -9327,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L23" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9343,10 +9344,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R23" s="22">
         <v>0</v>
@@ -9361,7 +9362,7 @@
         <v>141</v>
       </c>
       <c r="V23" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9372,7 +9373,7 @@
         <v>210004</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -9382,7 +9383,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="22">
         <v>0</v>
@@ -9420,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S24" s="22">
         <v>0</v>
@@ -9429,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V24" s="44"/>
     </row>
@@ -9441,7 +9442,7 @@
         <v>210004</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -9451,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -9489,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S25" s="22">
         <v>0</v>
@@ -9498,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V25" s="44"/>
     </row>
@@ -9510,7 +9511,7 @@
         <v>210004</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="45">
         <v>1</v>
@@ -9520,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G26" s="46">
         <v>0</v>
@@ -9536,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L26" s="45">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M26,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9567,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -9619,8 +9620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9670,10 +9671,10 @@
         <v>25</v>
       </c>
       <c r="J2" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="73" t="s">
         <v>228</v>
-      </c>
-      <c r="K2" s="73" t="s">
-        <v>229</v>
       </c>
       <c r="L2" s="74" t="s">
         <v>78</v>
@@ -9746,10 +9747,10 @@
         <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>79</v>
@@ -10249,19 +10250,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="29">
         <v>4</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="11">
         <v>2</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="11">
         <v>201</v>
@@ -10282,24 +10283,24 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="6">
         <v>4</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="4">
         <v>201</v>
@@ -10311,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J18" s="87">
         <v>1</v>
@@ -10320,24 +10321,24 @@
         <v>1E-3</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="6">
         <v>4</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="4">
         <v>201</v>
@@ -10349,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J19" s="87">
         <v>1</v>
@@ -10358,24 +10359,24 @@
         <v>1E-3</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="70">
         <v>4</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="14">
         <v>201</v>
@@ -10387,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="14">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J20" s="88">
         <v>1</v>
@@ -10467,7 +10468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -10546,16 +10547,16 @@
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>78</v>
@@ -10676,16 +10677,16 @@
         <v>73</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>231</v>
-      </c>
       <c r="R4" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
@@ -10753,7 +10754,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>90</v>
@@ -10821,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>87</v>
@@ -10889,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>91</v>
@@ -10957,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T8" s="31" t="s">
         <v>93</v>
@@ -10968,13 +10969,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="11">
         <v>112</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -11001,7 +11002,7 @@
         <v>202</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M9" s="11">
         <v>0</v>
@@ -11022,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="68" t="b">
@@ -11031,13 +11032,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="4">
         <v>110</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -11085,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="69" t="b">
@@ -11094,13 +11095,13 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4">
         <v>112</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -11127,7 +11128,7 @@
         <v>202</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -11148,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="69" t="b">
@@ -11157,13 +11158,13 @@
     </row>
     <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="14">
         <v>131</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -11190,7 +11191,7 @@
         <v>207</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M12" s="14">
         <v>200</v>
@@ -11211,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="71" t="b">

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578491EA-E427-4FDA-9BE3-E5BEBF32AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8619A9D-B6B1-4460-B80E-7A8C935E80FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="600" windowWidth="33840" windowHeight="19485" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="260">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,6 +1835,26 @@
   <si>
     <t>적 전체 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군/방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Ultimate/SkillEffect_Eileen_Ultimate_Defence_Up</t>
+  </si>
+  <si>
+    <t>108 물리 방어력 증가</t>
+  </si>
+  <si>
+    <t>101 방어력 절대값 계산</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyBuff03</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2298,10 +2318,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -2314,7 +2349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2430,9 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2600,10 +2632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2627,17 +2655,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2697,41 +2744,19 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="!@story_type"/>
+      <sheetName val="@story_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
       <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -4577,10 +4602,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7068,10 +7095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD841C4-D0DF-4A1A-8ED6-F7393B21C2A5}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7626,27 +7653,26 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>210001</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>VLOOKUP(A17,npc_skill_data!$B:$C,2,)</f>
-        <v>엘리자베스/평타/가까운 대상 단일 공격</v>
+        <v>200013</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F17,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>193</v>
+        <v>170</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="H17" s="28">
         <v>0</v>
@@ -7654,34 +7680,34 @@
       <c r="I17" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>196</v>
+      <c r="J17" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>210002</v>
+        <v>210001</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,npc_skill_data!$B:$C,2,)</f>
-        <v>엘리자베스/스킬1/가까운 대상 단일 공격</v>
+        <v>엘리자베스/평타/가까운 대상 단일 공격</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D18" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E18" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F18,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H18" s="28">
         <v>0</v>
@@ -7690,35 +7716,33 @@
         <v>157</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>210003</v>
+        <v>210002</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,npc_skill_data!$B:$C,2,)</f>
-        <v>엘리자베스/스킬2/전체 공격</v>
+        <v>엘리자베스/스킬1/가까운 대상 단일 공격</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="4">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E19" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F19,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H19" s="28">
         <v>0</v>
@@ -7726,47 +7750,84 @@
       <c r="I19" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>198</v>
+      <c r="J19" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>210004</v>
+        <v>210003</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>VLOOKUP(A20,npc_skill_data!$B:$C,2,)</f>
-        <v>엘리자베스/궁극/전체공격</v>
+        <v>엘리자베스/스킬2/전체 공격</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="4">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="E20" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F20,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="H20" s="28">
-        <v>210007</v>
+        <v>0</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>157</v>
       </c>
       <c r="J20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>210004</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>VLOOKUP(A21,npc_skill_data!$B:$C,2,)</f>
+        <v>엘리자베스/궁극/전체공격</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$8,MATCH(F21,'!참조_ENUM'!$AM$3:$AM$8,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="28">
+        <v>210007</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7781,7 +7842,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AM$3:$AM$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F20</xm:sqref>
+          <xm:sqref>F5:F21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7791,10 +7852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A847CE-55A3-4A1E-ABE8-20135BA10CF9}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7825,75 +7886,75 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="51" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -7956,149 +8017,149 @@
       <c r="U3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="56" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>200001</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>200001</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F5,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0</v>
-      </c>
-      <c r="J5" s="39">
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K5,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="37">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="38">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>0</v>
-      </c>
-      <c r="P5" s="39">
+      <c r="N5" s="37">
+        <v>0</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0</v>
+      </c>
+      <c r="P5" s="38">
         <v>100</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="38">
         <v>100001</v>
       </c>
-      <c r="R5" s="39">
-        <v>0</v>
-      </c>
-      <c r="S5" s="39">
-        <v>0</v>
-      </c>
-      <c r="T5" s="39">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38" t="s">
+      <c r="R5" s="38">
+        <v>0</v>
+      </c>
+      <c r="S5" s="38">
+        <v>0</v>
+      </c>
+      <c r="T5" s="38">
+        <v>0</v>
+      </c>
+      <c r="U5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>200002</v>
       </c>
       <c r="B6" s="23">
@@ -8164,10 +8225,10 @@
       <c r="U6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="V6" s="44"/>
+      <c r="V6" s="43"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>200003</v>
       </c>
       <c r="B7" s="23">
@@ -8233,12 +8294,12 @@
       <c r="U7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="V7" s="44" t="s">
+      <c r="V7" s="43" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>200004</v>
       </c>
       <c r="B8" s="23">
@@ -8252,10 +8313,10 @@
       </c>
       <c r="E8" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F8,'!참조_ENUM'!$C$3:$C$64,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="22">
         <v>0</v>
@@ -8304,12 +8365,12 @@
       <c r="U8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="43" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>200005</v>
       </c>
       <c r="B9" s="23">
@@ -8375,12 +8436,12 @@
       <c r="U9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>200006</v>
       </c>
       <c r="B10" s="23">
@@ -8446,12 +8507,12 @@
       <c r="U10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="V10" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>200007</v>
       </c>
       <c r="B11" s="23">
@@ -8517,12 +8578,12 @@
       <c r="U11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="44" t="s">
+      <c r="V11" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>200008</v>
       </c>
       <c r="B12" s="23">
@@ -8588,12 +8649,12 @@
       <c r="U12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>200009</v>
       </c>
       <c r="B13" s="23">
@@ -8659,12 +8720,12 @@
       <c r="U13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="44" t="s">
+      <c r="V13" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>200010</v>
       </c>
       <c r="B14" s="23">
@@ -8730,12 +8791,12 @@
       <c r="U14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V14" s="44" t="s">
+      <c r="V14" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>200011</v>
       </c>
       <c r="B15" s="23">
@@ -8801,228 +8862,228 @@
       <c r="U15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58">
+      <c r="A16" s="57">
         <v>200012</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>200012</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="45">
-        <v>1</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D16" s="44">
+        <v>1</v>
+      </c>
+      <c r="E16" s="45">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F16,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>7</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="46">
-        <v>0</v>
-      </c>
-      <c r="H16" s="46">
-        <v>1</v>
-      </c>
-      <c r="I16" s="46">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46">
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>1</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K16,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="45">
-        <v>0</v>
-      </c>
-      <c r="O16" s="45">
-        <v>0</v>
-      </c>
-      <c r="P16" s="46">
+      <c r="N16" s="44">
+        <v>0</v>
+      </c>
+      <c r="O16" s="44">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45">
         <v>100</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="45">
         <v>100012</v>
       </c>
-      <c r="R16" s="46">
-        <v>0</v>
-      </c>
-      <c r="S16" s="46">
-        <v>0</v>
-      </c>
-      <c r="T16" s="46">
-        <v>0</v>
-      </c>
-      <c r="U16" s="45" t="s">
+      <c r="R16" s="45">
+        <v>0</v>
+      </c>
+      <c r="S16" s="45">
+        <v>0</v>
+      </c>
+      <c r="T16" s="45">
+        <v>0</v>
+      </c>
+      <c r="U16" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="V16" s="49" t="s">
+      <c r="V16" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="62">
-        <v>210001</v>
-      </c>
-      <c r="B17" s="59">
-        <v>210001</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
+    <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57">
+        <v>200013</v>
+      </c>
+      <c r="B17" s="44">
+        <v>200012</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F17,'!참조_ENUM'!$C$3:$C$64,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="39">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <v>5</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="45">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K17,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="44">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="38">
-        <v>0</v>
-      </c>
-      <c r="O17" s="38">
-        <v>0</v>
-      </c>
-      <c r="P17" s="39">
+      <c r="N17" s="44">
+        <v>0</v>
+      </c>
+      <c r="O17" s="44">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
         <v>100</v>
       </c>
-      <c r="Q17" s="39">
-        <v>21000101</v>
-      </c>
-      <c r="R17" s="39">
-        <v>0</v>
-      </c>
-      <c r="S17" s="39">
-        <v>0</v>
-      </c>
-      <c r="T17" s="39">
-        <v>0</v>
-      </c>
-      <c r="U17" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="V17" s="42" t="s">
-        <v>238</v>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
+        <v>20001311</v>
+      </c>
+      <c r="S17" s="45">
+        <v>0</v>
+      </c>
+      <c r="T17" s="45">
+        <v>0</v>
+      </c>
+      <c r="U17" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17" s="48" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="63">
-        <v>210002</v>
-      </c>
-      <c r="B18" s="60">
-        <v>210002</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="A18" s="61">
+        <v>210001</v>
+      </c>
+      <c r="B18" s="58">
+        <v>210001</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F18,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>6</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
+      <c r="G18" s="38">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K18,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="37">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="23">
-        <v>0</v>
-      </c>
-      <c r="O18" s="23">
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
+      <c r="N18" s="37">
+        <v>0</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0</v>
+      </c>
+      <c r="P18" s="38">
         <v>100</v>
       </c>
-      <c r="Q18" s="22">
-        <v>0</v>
-      </c>
-      <c r="R18" s="22">
-        <v>0</v>
-      </c>
-      <c r="S18" s="22">
-        <v>0</v>
-      </c>
-      <c r="T18" s="22">
-        <v>0</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="V18" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63">
-        <v>210003</v>
-      </c>
-      <c r="B19" s="60">
+      <c r="Q18" s="38">
+        <v>21000101</v>
+      </c>
+      <c r="R18" s="38">
+        <v>0</v>
+      </c>
+      <c r="S18" s="38">
+        <v>0</v>
+      </c>
+      <c r="T18" s="38">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
+        <v>210002</v>
+      </c>
+      <c r="B19" s="59">
         <v>210002</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -9049,10 +9110,10 @@
       </c>
       <c r="J19" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K19,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="L19" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9070,8 +9131,8 @@
       <c r="P19" s="22">
         <v>100</v>
       </c>
-      <c r="Q19" s="22" t="s">
-        <v>214</v>
+      <c r="Q19" s="22">
+        <v>0</v>
       </c>
       <c r="R19" s="22">
         <v>0</v>
@@ -9083,19 +9144,21 @@
         <v>0</v>
       </c>
       <c r="U19" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="V19" s="44"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="63">
-        <v>210004</v>
-      </c>
-      <c r="B20" s="60">
+        <v>212</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="62">
+        <v>210003</v>
+      </c>
+      <c r="B20" s="59">
         <v>210002</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -9139,11 +9202,11 @@
       <c r="P20" s="22">
         <v>100</v>
       </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>215</v>
+      <c r="Q20" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
       </c>
       <c r="S20" s="22">
         <v>0</v>
@@ -9152,45 +9215,45 @@
         <v>0</v>
       </c>
       <c r="U20" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V20" s="44"/>
+        <v>141</v>
+      </c>
+      <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
-        <v>210005</v>
-      </c>
-      <c r="B21" s="60">
-        <v>210003</v>
+      <c r="A21" s="62">
+        <v>210004</v>
+      </c>
+      <c r="B21" s="59">
+        <v>210002</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
       <c r="E21" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F21,'!참조_ENUM'!$C$3:$C$64,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
       </c>
       <c r="H21" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="22">
         <v>0</v>
       </c>
       <c r="J21" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K21,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="L21" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9208,11 +9271,11 @@
       <c r="P21" s="22">
         <v>100</v>
       </c>
-      <c r="Q21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="R21" s="22">
-        <v>0</v>
+      <c r="Q21" s="22">
+        <v>0</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="S21" s="22">
         <v>0</v>
@@ -9221,19 +9284,19 @@
         <v>0</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="V21" s="44"/>
+        <v>210</v>
+      </c>
+      <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="63">
-        <v>210006</v>
-      </c>
-      <c r="B22" s="60">
+      <c r="A22" s="62">
+        <v>210005</v>
+      </c>
+      <c r="B22" s="59">
         <v>210003</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -9256,10 +9319,10 @@
       </c>
       <c r="J22" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K22,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="L22" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9277,11 +9340,11 @@
       <c r="P22" s="22">
         <v>100</v>
       </c>
-      <c r="Q22" s="22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>217</v>
+      <c r="Q22" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
       </c>
       <c r="S22" s="22">
         <v>0</v>
@@ -9290,19 +9353,19 @@
         <v>0</v>
       </c>
       <c r="U22" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V22" s="44"/>
+        <v>141</v>
+      </c>
+      <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
-        <v>210007</v>
-      </c>
-      <c r="B23" s="60">
-        <v>210004</v>
+      <c r="A23" s="62">
+        <v>210006</v>
+      </c>
+      <c r="B23" s="59">
+        <v>210003</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -9325,10 +9388,10 @@
       </c>
       <c r="J23" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K23,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="L23" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9343,14 +9406,14 @@
       <c r="O23" s="23">
         <v>0</v>
       </c>
-      <c r="P23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="R23" s="22">
-        <v>0</v>
+      <c r="P23" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="S23" s="22">
         <v>0</v>
@@ -9359,21 +9422,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="V23" s="44" t="s">
-        <v>239</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="V23" s="43"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="63">
-        <v>210008</v>
-      </c>
-      <c r="B24" s="60">
+      <c r="A24" s="62">
+        <v>210007</v>
+      </c>
+      <c r="B24" s="59">
         <v>210004</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -9396,10 +9457,10 @@
       </c>
       <c r="J24" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K24,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="L24" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M24,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
@@ -9414,14 +9475,14 @@
       <c r="O24" s="23">
         <v>0</v>
       </c>
-      <c r="P24" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>0</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>219</v>
+      <c r="P24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
       </c>
       <c r="S24" s="22">
         <v>0</v>
@@ -9430,19 +9491,21 @@
         <v>0</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="V24" s="44"/>
+        <v>141</v>
+      </c>
+      <c r="V24" s="43" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="63">
-        <v>210009</v>
-      </c>
-      <c r="B25" s="60">
+      <c r="A25" s="62">
+        <v>210008</v>
+      </c>
+      <c r="B25" s="59">
         <v>210004</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -9490,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S25" s="22">
         <v>0</v>
@@ -9499,85 +9562,154 @@
         <v>0</v>
       </c>
       <c r="U25" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V25" s="44"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64">
-        <v>210010</v>
-      </c>
-      <c r="B26" s="61">
+        <v>211</v>
+      </c>
+      <c r="V25" s="43"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="62">
+        <v>210009</v>
+      </c>
+      <c r="B26" s="59">
         <v>210004</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="45">
-        <v>1</v>
-      </c>
-      <c r="E26" s="46">
+      <c r="C26" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F26,'!참조_ENUM'!$C$3:$C$64,0))</f>
         <v>2</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="46">
-        <v>0</v>
-      </c>
-      <c r="H26" s="46">
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
         <v>5</v>
       </c>
-      <c r="I26" s="46">
-        <v>0</v>
-      </c>
-      <c r="J26" s="46">
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K26,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="L26" s="45">
+        <v>92</v>
+      </c>
+      <c r="L26" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M26,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="45">
-        <v>0</v>
-      </c>
-      <c r="O26" s="45">
-        <v>0</v>
-      </c>
-      <c r="P26" s="46">
+      <c r="N26" s="23">
+        <v>0</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0</v>
+      </c>
+      <c r="P26" s="22">
         <v>100</v>
       </c>
-      <c r="Q26" s="46">
-        <v>0</v>
-      </c>
-      <c r="R26" s="46">
-        <v>0</v>
-      </c>
-      <c r="S26" s="46">
-        <v>0</v>
-      </c>
-      <c r="T26" s="46">
-        <v>0</v>
-      </c>
-      <c r="U26" s="45" t="s">
+      <c r="Q26" s="22">
+        <v>0</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="S26" s="22">
+        <v>0</v>
+      </c>
+      <c r="T26" s="22">
+        <v>0</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="V26" s="43"/>
+    </row>
+    <row r="27" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63">
+        <v>210010</v>
+      </c>
+      <c r="B27" s="60">
+        <v>210004</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="44">
+        <v>1</v>
+      </c>
+      <c r="E27" s="45">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$64,MATCH(F27,'!참조_ENUM'!$C$3:$C$64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <v>5</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+      <c r="J27" s="45">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K27,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="44">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M27,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="44">
+        <v>0</v>
+      </c>
+      <c r="O27" s="44">
+        <v>0</v>
+      </c>
+      <c r="P27" s="45">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="45">
+        <v>0</v>
+      </c>
+      <c r="R27" s="45">
+        <v>0</v>
+      </c>
+      <c r="S27" s="45">
+        <v>0</v>
+      </c>
+      <c r="T27" s="45">
+        <v>0</v>
+      </c>
+      <c r="U27" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="V26" s="49" t="s">
+      <c r="V27" s="48" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U26" xr:uid="{5033F987-8141-47C0-8A9E-B695E8146387}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U27" xr:uid="{5033F987-8141-47C0-8A9E-B695E8146387}">
       <formula1>"shoot,hit,apply_1,apply_2,apply_3,apply_4,apply_5,summon,summon_shoot,heal,effect,buff,debuff"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9590,25 +9722,25 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D26</xm:sqref>
+          <xm:sqref>D5:D27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA7E9DE-00C0-44E4-992C-9FB937F8309C}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AE$3:$AE$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M5:M16</xm:sqref>
+          <xm:sqref>M5:M17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F116DB-1252-49ED-A663-DC6A99516978}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K26</xm:sqref>
+          <xm:sqref>K5:K27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE724866-8B52-4419-A82C-BB8EFFE73564}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$64</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F26</xm:sqref>
+          <xm:sqref>F5:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9620,8 +9752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4CA64-6CE0-4C27-8B35-0DC56669E6D3}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9643,45 +9775,45 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="73" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9714,12 +9846,12 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -9752,7 +9884,7 @@
       <c r="K4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="77" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9787,13 +9919,13 @@
       <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="86">
-        <v>1</v>
-      </c>
-      <c r="K5" s="86">
+      <c r="J5" s="84">
+        <v>1</v>
+      </c>
+      <c r="K5" s="84">
         <v>1E-3</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="67" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9828,13 +9960,13 @@
       <c r="I6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J6" s="87">
-        <v>1</v>
-      </c>
-      <c r="K6" s="87">
+      <c r="J6" s="85">
+        <v>1</v>
+      </c>
+      <c r="K6" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="68" t="s">
         <v>150</v>
       </c>
     </row>
@@ -9869,13 +10001,13 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="87">
-        <v>1</v>
-      </c>
-      <c r="K7" s="87">
+      <c r="J7" s="85">
+        <v>1</v>
+      </c>
+      <c r="K7" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="68" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9910,13 +10042,13 @@
       <c r="I8" s="14">
         <v>1.2</v>
       </c>
-      <c r="J8" s="88">
-        <v>1</v>
-      </c>
-      <c r="K8" s="88">
+      <c r="J8" s="86">
+        <v>1</v>
+      </c>
+      <c r="K8" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9951,13 +10083,13 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="87">
-        <v>1</v>
-      </c>
-      <c r="K9" s="87">
+      <c r="J9" s="85">
+        <v>1</v>
+      </c>
+      <c r="K9" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9992,13 +10124,13 @@
       <c r="I10" s="14">
         <v>1.2</v>
       </c>
-      <c r="J10" s="88">
-        <v>1</v>
-      </c>
-      <c r="K10" s="88">
+      <c r="J10" s="86">
+        <v>1</v>
+      </c>
+      <c r="K10" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10033,13 +10165,13 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="87">
-        <v>1</v>
-      </c>
-      <c r="K11" s="87">
+      <c r="J11" s="85">
+        <v>1</v>
+      </c>
+      <c r="K11" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10074,13 +10206,13 @@
       <c r="I12" s="14">
         <v>1.2</v>
       </c>
-      <c r="J12" s="88">
-        <v>1</v>
-      </c>
-      <c r="K12" s="88">
+      <c r="J12" s="86">
+        <v>1</v>
+      </c>
+      <c r="K12" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10115,13 +10247,13 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="87">
-        <v>1</v>
-      </c>
-      <c r="K13" s="87">
+      <c r="J13" s="85">
+        <v>1</v>
+      </c>
+      <c r="K13" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10156,13 +10288,13 @@
       <c r="I14" s="14">
         <v>1.25</v>
       </c>
-      <c r="J14" s="88">
-        <v>1</v>
-      </c>
-      <c r="K14" s="88">
+      <c r="J14" s="86">
+        <v>1</v>
+      </c>
+      <c r="K14" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10197,13 +10329,13 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="87">
-        <v>1</v>
-      </c>
-      <c r="K15" s="87">
+      <c r="J15" s="85">
+        <v>1</v>
+      </c>
+      <c r="K15" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10215,7 +10347,7 @@
         <f>INDEX('[2]!참조_ENUM'!$AP$3:$AP$7,MATCH(C16,'[2]!참조_ENUM'!$AQ$3:$AQ$7,0))</f>
         <v>3</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>178</v>
       </c>
       <c r="D16" s="31">
@@ -10229,7 +10361,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G16,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>201</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="66" t="s">
         <v>184</v>
       </c>
       <c r="H16" s="31">
@@ -10238,18 +10370,18 @@
       <c r="I16" s="31">
         <v>1.3</v>
       </c>
-      <c r="J16" s="89">
-        <v>1</v>
-      </c>
-      <c r="K16" s="89">
+      <c r="J16" s="87">
+        <v>1</v>
+      </c>
+      <c r="K16" s="87">
         <v>1E-3</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="78" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>213</v>
       </c>
       <c r="B17" s="29">
@@ -10276,18 +10408,18 @@
       <c r="I17" s="11">
         <v>1</v>
       </c>
-      <c r="J17" s="86">
-        <v>1</v>
-      </c>
-      <c r="K17" s="86">
+      <c r="J17" s="84">
+        <v>1</v>
+      </c>
+      <c r="K17" s="84">
         <v>1E-3</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="67" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="6">
@@ -10314,18 +10446,18 @@
       <c r="I18" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J18" s="87">
-        <v>1</v>
-      </c>
-      <c r="K18" s="87">
+      <c r="J18" s="85">
+        <v>1</v>
+      </c>
+      <c r="K18" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="68" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>216</v>
       </c>
       <c r="B19" s="6">
@@ -10352,21 +10484,21 @@
       <c r="I19" s="4">
         <v>0.8</v>
       </c>
-      <c r="J19" s="87">
-        <v>1</v>
-      </c>
-      <c r="K19" s="87">
+      <c r="J19" s="85">
+        <v>1</v>
+      </c>
+      <c r="K19" s="85">
         <v>1E-3</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="68" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="69">
         <v>4</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -10390,13 +10522,13 @@
       <c r="I20" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="88">
-        <v>1</v>
-      </c>
-      <c r="K20" s="88">
+      <c r="J20" s="86">
+        <v>1</v>
+      </c>
+      <c r="K20" s="86">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="34"/>
@@ -10466,13 +10598,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54892123-F9E3-4C56-B449-F5AF24550E5C}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10495,78 +10627,78 @@
     <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="73" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="74" t="s">
         <v>176</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -10626,12 +10758,12 @@
       <c r="T3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="94" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="95" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -10676,27 +10808,27 @@
       <c r="O4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="3" t="s">
         <v>234</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="96" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="97">
         <v>500001</v>
       </c>
       <c r="B5" s="4">
@@ -10753,18 +10885,18 @@
       <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="90" t="s">
+      <c r="S5" s="88" t="s">
         <v>245</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="4" t="b">
+      <c r="U5" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="97">
         <v>500002</v>
       </c>
       <c r="B6" s="4">
@@ -10821,18 +10953,18 @@
       <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="88" t="s">
         <v>246</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="4" t="b">
+      <c r="U6" s="68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="97">
         <v>500003</v>
       </c>
       <c r="B7" s="4">
@@ -10889,219 +11021,224 @@
       <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="91" t="s">
+      <c r="S7" s="88" t="s">
         <v>247</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36">
+      <c r="U7" s="68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="97">
         <v>500006</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="4">
         <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C8,'!참조_ENUM'!$W$3:$W$36,0))</f>
         <v>105</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>100004</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L8,'!참조_ENUM'!$G$3:$G$22,0))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="31">
-        <v>0</v>
-      </c>
-      <c r="N8" s="31">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>3000</v>
       </c>
-      <c r="P8" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="31">
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
         <v>1E-3</v>
       </c>
-      <c r="R8" s="31">
-        <v>1</v>
-      </c>
-      <c r="S8" s="92" t="s">
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U8" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="U8" s="68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="98">
+        <v>20001311</v>
+      </c>
+      <c r="B9" s="14">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$36,MATCH(C9,'!참조_ENUM'!$W$3:$W$36,0))</f>
+        <v>108</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="14">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L9,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <v>101</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" s="14">
+        <v>10</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1</v>
+      </c>
+      <c r="S9" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="U9" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="90">
+        <v>21000211</v>
+      </c>
+      <c r="B10" s="91">
         <v>112</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D10" s="91">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="91">
         <v>5</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="91">
+        <v>0</v>
+      </c>
+      <c r="I10" s="91">
+        <v>0</v>
+      </c>
+      <c r="J10" s="91">
+        <v>0</v>
+      </c>
+      <c r="K10" s="91">
         <v>202</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M10" s="91">
+        <v>0</v>
+      </c>
+      <c r="N10" s="91">
         <v>0.2</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="91">
         <v>10000</v>
       </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P10" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="91">
         <v>1E-3</v>
       </c>
-      <c r="R9" s="11">
-        <v>1</v>
-      </c>
-      <c r="S9" s="93" t="s">
+      <c r="R10" s="91">
+        <v>1</v>
+      </c>
+      <c r="S10" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="T10" s="91"/>
+      <c r="U10" s="93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>110</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>201</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="4">
-        <v>112</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -11125,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -11148,81 +11285,144 @@
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="S11" s="90" t="s">
+      <c r="S11" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="4">
+        <v>112</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>202</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
+      <c r="T12" s="4"/>
+      <c r="U12" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>131</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>207</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L13" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M13" s="14">
         <v>200</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
         <v>10000</v>
       </c>
-      <c r="P12" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14">
         <v>1E-3</v>
       </c>
-      <c r="R12" s="14">
-        <v>1</v>
-      </c>
-      <c r="S12" s="94" t="s">
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="71" t="b">
+      <c r="T13" s="14"/>
+      <c r="U13" s="70" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U12" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U13" xr:uid="{3F490982-AB2F-487A-962C-C8BC55DF0FE8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11235,19 +11435,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AA$3:$AA$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E12</xm:sqref>
+          <xm:sqref>E5:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L12</xm:sqref>
+          <xm:sqref>L5:L13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$W$3:$W$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C12</xm:sqref>
+          <xm:sqref>C5:C13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8619A9D-B6B1-4460-B80E-7A8C935E80FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13DDC6-FA73-4B08-865E-E64FFC8D1AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="259">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1830,9 +1830,6 @@
     <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyDefense04</t>
   </si>
   <si>
-    <t>106 명중률 절대 값</t>
-  </si>
-  <si>
     <t>적 전체 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1851,10 +1848,10 @@
     <t>108 물리 방어력 증가</t>
   </si>
   <si>
-    <t>101 방어력 절대값 계산</t>
-  </si>
-  <si>
     <t>Assets/AssetResources/Textures/Icons/Duration/Icon_DummyBuff03</t>
+  </si>
+  <si>
+    <t>207 명중률 배율 계산</t>
   </si>
 </sst>
 </file>
@@ -3602,210 +3599,111 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ATTACK_VALUE</v>
+            <v>ATTACK_RATE</v>
           </cell>
           <cell r="B5">
-            <v>100</v>
+            <v>201</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력 절대값 계산</v>
+            <v>201 공격력 배율 계산</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DEFENSE_VALUE</v>
+            <v>DEFENSE_RATE</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>202</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 방어력 절대값 계산</v>
+            <v>202 방어력 배율 계산</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>MAX_LIFE</v>
+            <v>MAX_LIFE_RATE</v>
           </cell>
           <cell r="B7">
-            <v>102</v>
+            <v>203</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 최대 체력 절대 값</v>
+            <v>203 최대 체력 배율 값</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>LIFE</v>
+            <v>LIFE_RATE</v>
           </cell>
           <cell r="B8">
-            <v>103</v>
+            <v>204</v>
           </cell>
           <cell r="C8" t="str">
-            <v>103 현재 체력 절대 값</v>
+            <v>204 현재 체력 배율 계산</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CRITICAL_CHANCE</v>
+            <v>CRITICAL_CHANCE_RATE</v>
           </cell>
           <cell r="B9">
-            <v>104</v>
+            <v>205</v>
           </cell>
           <cell r="C9" t="str">
-            <v>104 크리티컬 확률 절대값</v>
+            <v>205 크리티컬 확률 배율 계산</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>CRITICAL_POWER_ADD</v>
+            <v>CRITICAL_POWER_ADD_RATE</v>
           </cell>
           <cell r="B10">
-            <v>105</v>
+            <v>206</v>
           </cell>
           <cell r="C10" t="str">
-            <v>105 크리티컬 파워 절대 값</v>
+            <v>206 크리티컬 파워 배율 계산</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ACCURACY_VALUE</v>
+            <v>ACCURACY_RATE</v>
           </cell>
           <cell r="B11">
-            <v>106</v>
+            <v>207</v>
           </cell>
           <cell r="C11" t="str">
-            <v>106 명중률 절대 값</v>
+            <v>207 명중률 배율 계산</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>EVASION_VALUE</v>
+            <v>EVASION_RATE</v>
           </cell>
           <cell r="B12">
-            <v>107</v>
+            <v>208</v>
           </cell>
           <cell r="C12" t="str">
-            <v>107 회피율 절대 값</v>
+            <v>208 회피율 배율 계산</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>HEAL_VALUE</v>
+            <v>HEAL_RATE</v>
           </cell>
           <cell r="B13">
-            <v>108</v>
+            <v>209</v>
           </cell>
           <cell r="C13" t="str">
-            <v>108 회복량 절대 값</v>
+            <v>209 회복량 배율 계산</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ATTACK_RATE</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B14">
-            <v>201</v>
+            <v>210</v>
           </cell>
           <cell r="C14" t="str">
-            <v>201 공격력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>DEFENSE_RATE</v>
-          </cell>
-          <cell r="B15">
-            <v>202</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>202 방어력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>MAX_LIFE_RATE</v>
-          </cell>
-          <cell r="B16">
-            <v>203</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>203 최대 체력 배율 값</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>LIFE_RATE</v>
-          </cell>
-          <cell r="B17">
-            <v>204</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>204 현재 체력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>CRITICAL_CHANCE_RATE</v>
-          </cell>
-          <cell r="B18">
-            <v>205</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>205 크리티컬 확률 배율 계산</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>CRITICAL_POWER_ADD_RATE</v>
-          </cell>
-          <cell r="B19">
-            <v>206</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>206 크리티컬 파워 배율 계산</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>ACCURACY_RATE</v>
-          </cell>
-          <cell r="B20">
-            <v>207</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>207 명중률 배율 계산</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>EVASION_RATE</v>
-          </cell>
-          <cell r="B21">
-            <v>208</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>208 회피율 배율 계산</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>HEAL_RATE</v>
-          </cell>
-          <cell r="B22">
-            <v>209</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>209 회복량 배율 계산</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B23">
-            <v>210</v>
-          </cell>
-          <cell r="C23" t="str">
             <v>210 피해량 배율 계산</v>
           </cell>
         </row>
@@ -4669,10 +4567,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4977,8 +4875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5335,15 +5233,15 @@
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@stat'!$A5</f>
-        <v>ATTACK_VALUE</v>
+        <v>ATTACK_RATE</v>
       </c>
       <c r="F4" s="4">
         <f>'[1]@stat'!$B5</f>
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>100 공격력 절대값 계산</v>
+        <v>201 공격력 배율 계산</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@effect'!$A5</f>
@@ -5469,15 +5367,15 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
-        <v>DEFENSE_VALUE</v>
+        <v>DEFENSE_RATE</v>
       </c>
       <c r="F5" s="4">
         <f>'[1]@stat'!$B6</f>
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>101 방어력 절대값 계산</v>
+        <v>202 방어력 배율 계산</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@effect'!$A6</f>
@@ -5591,15 +5489,15 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
-        <v>MAX_LIFE</v>
+        <v>MAX_LIFE_RATE</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@stat'!$B7</f>
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>102 최대 체력 절대 값</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@effect'!$A7</f>
@@ -5690,15 +5588,15 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
-        <v>LIFE</v>
+        <v>LIFE_RATE</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@stat'!$B8</f>
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>103 현재 체력 절대 값</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="Q7" s="8" t="str">
         <f>'[1]@onetime_effect_type'!$A8</f>
@@ -5764,15 +5662,15 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
-        <v>CRITICAL_CHANCE</v>
+        <v>CRITICAL_CHANCE_RATE</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@stat'!$B9</f>
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>104 크리티컬 확률 절대값</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="U8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A9</f>
@@ -5814,15 +5712,15 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
-        <v>CRITICAL_POWER_ADD</v>
+        <v>CRITICAL_POWER_ADD_RATE</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@stat'!$B10</f>
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>105 크리티컬 파워 절대 값</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A10</f>
@@ -5852,15 +5750,15 @@
       </c>
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
-        <v>ACCURACY_VALUE</v>
+        <v>ACCURACY_RATE</v>
       </c>
       <c r="F10" s="4">
         <f>'[1]@stat'!$B11</f>
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>106 명중률 절대 값</v>
+        <v>207 명중률 배율 계산</v>
       </c>
       <c r="U10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A11</f>
@@ -5890,15 +5788,15 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
-        <v>EVASION_VALUE</v>
+        <v>EVASION_RATE</v>
       </c>
       <c r="F11" s="4">
         <f>'[1]@stat'!$B12</f>
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>107 회피율 절대 값</v>
+        <v>208 회피율 배율 계산</v>
       </c>
       <c r="U11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A12</f>
@@ -5928,15 +5826,15 @@
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
-        <v>HEAL_VALUE</v>
+        <v>HEAL_RATE</v>
       </c>
       <c r="F12" s="4">
         <f>'[1]@stat'!$B13</f>
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>108 회복량 절대 값</v>
+        <v>209 회복량 배율 계산</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A13</f>
@@ -5966,15 +5864,15 @@
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
-        <v>ATTACK_RATE</v>
+        <v>DAMAGE</v>
       </c>
       <c r="F13" s="4">
         <f>'[1]@stat'!$B14</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>201 공격력 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A14</f>
@@ -6002,18 +5900,6 @@
         <f>'[1]@target_rule'!$C15</f>
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
-      <c r="E14" s="4" t="str">
-        <f>'[1]@stat'!$A15</f>
-        <v>DEFENSE_RATE</v>
-      </c>
-      <c r="F14" s="4">
-        <f>'[1]@stat'!$B15</f>
-        <v>202</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>'[1]@stat'!$C15</f>
-        <v>202 방어력 배율 계산</v>
-      </c>
       <c r="U14" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A15</f>
         <v>PHYSICS_ATTACK_DOWN</v>
@@ -6040,18 +5926,6 @@
         <f>'[1]@target_rule'!$C16</f>
         <v>21 나를 포함한 내 주변 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f>'[1]@stat'!$A16</f>
-        <v>MAX_LIFE_RATE</v>
-      </c>
-      <c r="F15" s="4">
-        <f>'[1]@stat'!$B16</f>
-        <v>203</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f>'[1]@stat'!$C16</f>
-        <v>203 최대 체력 배율 값</v>
-      </c>
       <c r="U15" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A16</f>
         <v>MAGIC_ATTACK_DOWN</v>
@@ -6078,18 +5952,6 @@
         <f>'[1]@target_rule'!$C17</f>
         <v>22 나를 포함한 내 뒤 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E16" s="4" t="str">
-        <f>'[1]@stat'!$A17</f>
-        <v>LIFE_RATE</v>
-      </c>
-      <c r="F16" s="4">
-        <f>'[1]@stat'!$B17</f>
-        <v>204</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>'[1]@stat'!$C17</f>
-        <v>204 현재 체력 배율 계산</v>
-      </c>
       <c r="U16" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A17</f>
         <v>PHYSICS_DEFEND_DOWN</v>
@@ -6116,18 +5978,6 @@
         <f>'[1]@target_rule'!$C18</f>
         <v>23 나를 포함한 내 앞 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E17" s="4" t="str">
-        <f>'[1]@stat'!$A18</f>
-        <v>CRITICAL_CHANCE_RATE</v>
-      </c>
-      <c r="F17" s="4">
-        <f>'[1]@stat'!$B18</f>
-        <v>205</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>'[1]@stat'!$C18</f>
-        <v>205 크리티컬 확률 배율 계산</v>
-      </c>
       <c r="U17" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A18</f>
         <v>MAGIC_DEFEND_DOWN</v>
@@ -6154,18 +6004,6 @@
         <f>'[1]@target_rule'!$C19</f>
         <v>24 나를 제외한 내 주변 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E18" s="4" t="str">
-        <f>'[1]@stat'!$A19</f>
-        <v>CRITICAL_POWER_ADD_RATE</v>
-      </c>
-      <c r="F18" s="4">
-        <f>'[1]@stat'!$B19</f>
-        <v>206</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f>'[1]@stat'!$C19</f>
-        <v>206 크리티컬 파워 배율 계산</v>
-      </c>
       <c r="U18" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A19</f>
         <v>EXCHANGE_PHYSICS_ATTACK_DEFEND</v>
@@ -6192,18 +6030,6 @@
         <f>'[1]@target_rule'!$C20</f>
         <v>25 나를 제외한 내 뒤 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E19" s="4" t="str">
-        <f>'[1]@stat'!$A20</f>
-        <v>ACCURACY_RATE</v>
-      </c>
-      <c r="F19" s="4">
-        <f>'[1]@stat'!$B20</f>
-        <v>207</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f>'[1]@stat'!$C20</f>
-        <v>207 명중률 배율 계산</v>
-      </c>
       <c r="U19" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A20</f>
         <v>EXCHANGE_MAGIC_ATTACK_DEFEND</v>
@@ -6230,18 +6056,6 @@
         <f>'[1]@target_rule'!$C21</f>
         <v>26 나를 제외한 내 앞 지정 거리 이내 아군 선택</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <f>'[1]@stat'!$A21</f>
-        <v>EVASION_RATE</v>
-      </c>
-      <c r="F20" s="4">
-        <f>'[1]@stat'!$B21</f>
-        <v>208</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f>'[1]@stat'!$C21</f>
-        <v>208 회피율 배율 계산</v>
-      </c>
       <c r="U20" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A21</f>
         <v>EXCHANGE_ATTACK_DEFEND_ALL</v>
@@ -6268,18 +6082,6 @@
         <f>'[1]@target_rule'!$C22</f>
         <v>9999 접근 거리 타겟</v>
       </c>
-      <c r="E21" s="4" t="str">
-        <f>'[1]@stat'!$A22</f>
-        <v>HEAL_RATE</v>
-      </c>
-      <c r="F21" s="4">
-        <f>'[1]@stat'!$B22</f>
-        <v>209</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f>'[1]@stat'!$C22</f>
-        <v>209 회복량 배율 계산</v>
-      </c>
       <c r="U21" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A22</f>
         <v>PHYSICS_CRITICAL_CHANCE_UP</v>
@@ -6305,18 +6107,6 @@
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
         <v>10001 현재 체력이 가장 낮은 대상</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f>'[1]@stat'!$A23</f>
-        <v>DAMAGE</v>
-      </c>
-      <c r="F22" s="4">
-        <f>'[1]@stat'!$B23</f>
-        <v>210</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f>'[1]@stat'!$C23</f>
-        <v>210 피해량 배율 계산</v>
       </c>
       <c r="U22" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A23</f>
@@ -7656,7 +7446,7 @@
         <v>200013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>103</v>
@@ -7672,7 +7462,7 @@
         <v>170</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H17" s="28">
         <v>0</v>
@@ -7816,7 +7606,7 @@
         <v>192</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="28">
         <v>210007</v>
@@ -8945,7 +8735,7 @@
         <v>200012</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="44">
         <v>0</v>
@@ -9907,7 +9697,7 @@
         <v>181</v>
       </c>
       <c r="F5" s="11">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G5,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -9948,7 +9738,7 @@
         <v>181</v>
       </c>
       <c r="F6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G6,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G6" s="19" t="s">
@@ -9989,7 +9779,7 @@
         <v>181</v>
       </c>
       <c r="F7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G7,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -10030,7 +9820,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G8,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -10071,7 +9861,7 @@
         <v>181</v>
       </c>
       <c r="F9" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G9,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -10112,7 +9902,7 @@
         <v>181</v>
       </c>
       <c r="F10" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G10,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -10153,7 +9943,7 @@
         <v>181</v>
       </c>
       <c r="F11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G11,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -10194,7 +9984,7 @@
         <v>181</v>
       </c>
       <c r="F12" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G12,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G12" s="19" t="s">
@@ -10235,7 +10025,7 @@
         <v>181</v>
       </c>
       <c r="F13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G13,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -10276,7 +10066,7 @@
         <v>181</v>
       </c>
       <c r="F14" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G14,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G14" s="19" t="s">
@@ -10317,7 +10107,7 @@
         <v>181</v>
       </c>
       <c r="F15" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G15,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G15" s="19" t="s">
@@ -10358,7 +10148,7 @@
         <v>181</v>
       </c>
       <c r="F16" s="31">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(G16,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(G16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>201</v>
       </c>
       <c r="G16" s="66" t="s">
@@ -10586,7 +10376,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27249DD8-55D9-4D51-9E0F-ABF4FB9FFE5F}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
           <xm:sqref>G5:G20</xm:sqref>
         </x14:dataValidation>
@@ -10601,10 +10391,10 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10861,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L5,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>210</v>
       </c>
       <c r="L5" s="21" t="s">
@@ -10929,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L6,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>203</v>
       </c>
       <c r="L6" s="21" t="s">
@@ -10997,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L7,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
       <c r="L7" s="21" t="s">
@@ -11065,7 +10855,7 @@
         <v>100004</v>
       </c>
       <c r="K8" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L8,'!참조_ENUM'!$G$3:$G$22,0))</f>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
       <c r="L8" s="21" t="s">
@@ -11108,7 +10898,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="14">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
@@ -11133,11 +10923,11 @@
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$22,MATCH(L9,'!참조_ENUM'!$G$3:$G$22,0))</f>
-        <v>101</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>202</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="M9" s="14">
         <v>10</v>
@@ -11158,10 +10948,10 @@
         <v>1</v>
       </c>
       <c r="S9" s="89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U9" s="68" t="b">
         <v>1</v>
@@ -11391,7 +11181,7 @@
         <v>207</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M13" s="14">
         <v>200</v>
@@ -11437,18 +11227,18 @@
           </x14:formula1>
           <xm:sqref>E5:E13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$G$3:$G$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5:L13</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{495914BD-AF92-4923-A8DF-BE34FB673D19}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$W$3:$W$36</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C13</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89CDBADD-E9E0-457D-BA0E-531E977E44B1}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>L5:L13</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Android/ExcelData/NPCSkillTable.xlsx
+++ b/Android/ExcelData/NPCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13DDC6-FA73-4B08-865E-E64FFC8D1AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3875B-FAEC-41CE-A564-E65B2F540A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="43050" yWindow="765" windowWidth="33795" windowHeight="18780" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="283">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1852,6 +1852,84 @@
   </si>
   <si>
     <t>207 명중률 배율 계산</t>
+  </si>
+  <si>
+    <t>근딜/일반 공격/전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반 공격/마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반 공격/요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반 공격/베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커/일반 공격/전기</t>
+  </si>
+  <si>
+    <t>탱커/일반 공격/마력</t>
+  </si>
+  <si>
+    <t>탱커/일반 공격/요력</t>
+  </si>
+  <si>
+    <t>탱커/일반 공격/베리타리움</t>
+  </si>
+  <si>
+    <t>원딜/일반 공격/전기</t>
+  </si>
+  <si>
+    <t>원딜/일반 공격/마력</t>
+  </si>
+  <si>
+    <t>원딜/일반 공격/요력</t>
+  </si>
+  <si>
+    <t>원딜/일반 공격/베리타리움</t>
+  </si>
+  <si>
+    <t>원딜_범위/일반 공격/전기</t>
+  </si>
+  <si>
+    <t>원딜_범위/일반 공격/마력</t>
+  </si>
+  <si>
+    <t>원딜_범위/일반 공격/요력</t>
+  </si>
+  <si>
+    <t>원딜_범위/일반 공격/베리타리움</t>
+  </si>
+  <si>
+    <t>서폿/일반 공격/전기</t>
+  </si>
+  <si>
+    <t>서폿/일반 공격/마력</t>
+  </si>
+  <si>
+    <t>서폿/일반 공격/요력</t>
+  </si>
+  <si>
+    <t>서폿/일반 공격/베리타리움</t>
+  </si>
+  <si>
+    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+  </si>
+  <si>
+    <t>베리타리움</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +2050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2159,19 +2237,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2189,21 +2254,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2340,13 +2390,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style=